--- a/2023_tipp.xlsx
+++ b/2023_tipp.xlsx
@@ -810,7 +810,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -883,6 +883,11 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1210,15 +1215,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1229,6 +1225,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2744,7 +2749,99 @@
 </chartsheet>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="Tipps!$BF$11" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>790575</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2050" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Sort</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -3063,110 +3160,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="B1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43" t="s">
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="44" t="str">
+      <c r="J1" s="46" t="str">
         <f>LEFT(E2,1)</f>
         <v>J</v>
       </c>
-      <c r="K1" s="44" t="str">
+      <c r="K1" s="46" t="str">
         <f>LEFT(F2,1)</f>
         <v>F</v>
       </c>
-      <c r="L1" s="44" t="str">
+      <c r="L1" s="46" t="str">
         <f>LEFT(G2,1)</f>
         <v>D</v>
       </c>
-      <c r="M1" s="44" t="str">
+      <c r="M1" s="46" t="str">
         <f>LEFT(H2,1)</f>
         <v>T</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45" t="s">
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45" t="s">
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45" t="s">
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AL1" s="45" t="s">
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AL1" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45" t="s">
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45" t="s">
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="45" t="s">
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45"/>
-      <c r="AY1" s="45" t="s">
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="42"/>
+      <c r="AX1" s="42"/>
+      <c r="AY1" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="45"/>
-      <c r="BB1" s="45"/>
-      <c r="BD1" s="45" t="s">
+      <c r="AZ1" s="42"/>
+      <c r="BA1" s="42"/>
+      <c r="BB1" s="42"/>
+      <c r="BD1" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="BE1" s="45"/>
-      <c r="BF1" s="45"/>
-      <c r="BG1" s="45"/>
+      <c r="BE1" s="42"/>
+      <c r="BF1" s="42"/>
+      <c r="BG1" s="42"/>
     </row>
     <row r="2" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3179,11 +3276,11 @@
       <c r="H2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
       <c r="O2" s="2">
         <v>0</v>
       </c>
@@ -5191,14 +5288,14 @@
         <f ca="1">AT11/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BD11" s="45" t="s">
+      <c r="BD11" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="BE11" s="46"/>
-      <c r="BF11" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG11" s="48"/>
+      <c r="BE11" s="43"/>
+      <c r="BF11" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="45"/>
     </row>
     <row r="12" spans="1:60" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -13905,6 +14002,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:S1"/>
     <mergeCell ref="BD11:BE11"/>
     <mergeCell ref="BF11:BG11"/>
     <mergeCell ref="AA1:AE1"/>
@@ -13917,16 +14024,6 @@
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B3:M68">
@@ -13953,7 +14050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14101,7 +14198,7 @@
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
       <c r="F8" s="28"/>
-      <c r="G8" s="44"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
@@ -14756,6 +14853,36 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2050" r:id="rId3" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>304800</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>104775</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 

--- a/2023_tipp.xlsx
+++ b/2023_tipp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DT\nfl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\NFL Tipp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CA091C-01F3-4363-BAE8-4FBAC8AB163C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipps" sheetId="3" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Verlauf" sheetId="7" r:id="rId3"/>
     <sheet name="Spiele" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="257">
   <si>
     <t>ID</t>
   </si>
@@ -799,12 +800,45 @@
   </si>
   <si>
     <t>LAR 23-20</t>
+  </si>
+  <si>
+    <t>KC  27-17</t>
+  </si>
+  <si>
+    <t>BUF 30-17</t>
+  </si>
+  <si>
+    <t>SF  24-20</t>
+  </si>
+  <si>
+    <t>PIT 24-20</t>
+  </si>
+  <si>
+    <t>BUF 24-16</t>
+  </si>
+  <si>
+    <t>KC  27-21</t>
+  </si>
+  <si>
+    <t>SF  27-17</t>
+  </si>
+  <si>
+    <t>BUF 31-13</t>
+  </si>
+  <si>
+    <t>KC  26-23</t>
+  </si>
+  <si>
+    <t>SF  25-22</t>
+  </si>
+  <si>
+    <t>LAR 23-22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0;\-0;\-"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -887,6 +921,7 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -1092,7 +1127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1152,20 +1187,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1173,10 +1199,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1185,13 +1208,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1200,20 +1217,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1225,15 +1239,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2739,7 +2744,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
@@ -2776,6 +2781,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2848,7 +2856,13 @@
     <xdr:ext cx="9302238" cy="6014577"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -3130,14 +3144,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3160,110 +3174,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="B1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="46" t="str">
+      <c r="J1" s="34" t="str">
         <f>LEFT(E2,1)</f>
         <v>J</v>
       </c>
-      <c r="K1" s="46" t="str">
+      <c r="K1" s="34" t="str">
         <f>LEFT(F2,1)</f>
         <v>F</v>
       </c>
-      <c r="L1" s="46" t="str">
+      <c r="L1" s="34" t="str">
         <f>LEFT(G2,1)</f>
         <v>D</v>
       </c>
-      <c r="M1" s="46" t="str">
+      <c r="M1" s="34" t="str">
         <f>LEFT(H2,1)</f>
         <v>T</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42" t="s">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42" t="s">
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42" t="s">
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42" t="s">
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AL1" s="42" t="s">
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AL1" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42" t="s">
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42" t="s">
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42" t="s">
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="42" t="s">
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="AZ1" s="42"/>
-      <c r="BA1" s="42"/>
-      <c r="BB1" s="42"/>
-      <c r="BD1" s="42" t="s">
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BD1" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="BE1" s="42"/>
-      <c r="BF1" s="42"/>
-      <c r="BG1" s="42"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
     </row>
     <row r="2" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3276,11 +3290,11 @@
       <c r="H2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
       <c r="O2" s="2">
         <v>0</v>
       </c>
@@ -3455,7 +3469,7 @@
         <v>1</v>
       </c>
       <c r="X3" s="2">
-        <f>IF(COUNTIF(P3:S3,P3)=1,1,0)+IF(COUNTIF(P3:S3,Q3)=1,2,0)+IF(COUNTIF(P3:S3,R3)=1,3,0)+IF(COUNTIF(P3:S3,S3)=1,4,0)</f>
+        <f>IF(COUNTIF(P3:S3,P3)=1,1,0)*(P3&lt;&gt;"")+IF(COUNTIF(P3:S3,Q3)=1,2,0)*(Q3&lt;&gt;"")+IF(COUNTIF(P3:S3,R3)=1,3,0)*(R3&lt;&gt;"")+IF(COUNTIF(P3:S3,S3)=1,4,0)*(S3&lt;&gt;"")</f>
         <v>1</v>
       </c>
       <c r="Y3" s="2" t="str">
@@ -3558,19 +3572,19 @@
         <f t="shared" ca="1" si="16"/>
         <v>3</v>
       </c>
-      <c r="AY3" s="22">
+      <c r="AY3" s="21">
         <f ca="1">AQ3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>0.65573770491803274</v>
       </c>
-      <c r="AZ3" s="22">
+      <c r="AZ3" s="21">
         <f ca="1">AR3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>0.39344262295081966</v>
       </c>
-      <c r="BA3" s="22">
+      <c r="BA3" s="21">
         <f ca="1">AS3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>0.39344262295081966</v>
       </c>
-      <c r="BB3" s="22">
+      <c r="BB3" s="21">
         <f ca="1">AT3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>0.39344262295081966</v>
       </c>
@@ -3674,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="2">
-        <f t="shared" ref="X4:X67" si="18">IF(COUNTIF(P4:S4,P4)=1,1,0)+IF(COUNTIF(P4:S4,Q4)=1,2,0)+IF(COUNTIF(P4:S4,R4)=1,3,0)+IF(COUNTIF(P4:S4,S4)=1,4,0)</f>
+        <f t="shared" ref="X4:X67" si="18">IF(COUNTIF(P4:S4,P4)=1,1,0)*(P4&lt;&gt;"")+IF(COUNTIF(P4:S4,Q4)=1,2,0)*(Q4&lt;&gt;"")+IF(COUNTIF(P4:S4,R4)=1,3,0)*(R4&lt;&gt;"")+IF(COUNTIF(P4:S4,S4)=1,4,0)*(S4&lt;&gt;"")</f>
         <v>0</v>
       </c>
       <c r="Y4" s="2" t="str">
@@ -3777,19 +3791,19 @@
         <f t="shared" ca="1" si="32"/>
         <v>9</v>
       </c>
-      <c r="AY4" s="22">
+      <c r="AY4" s="21">
         <f ca="1">AQ4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>0.91803278688524592</v>
       </c>
-      <c r="AZ4" s="22">
+      <c r="AZ4" s="21">
         <f ca="1">AR4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>0.78688524590163933</v>
       </c>
-      <c r="BA4" s="22">
+      <c r="BA4" s="21">
         <f ca="1">AS4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>0.78688524590163933</v>
       </c>
-      <c r="BB4" s="22">
+      <c r="BB4" s="21">
         <f ca="1">AT4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>0.78688524590163933</v>
       </c>
@@ -3996,19 +4010,19 @@
         <f t="shared" ref="AX5:AX20" ca="1" si="37">AT5-AT4</f>
         <v>6</v>
       </c>
-      <c r="AY5" s="22">
+      <c r="AY5" s="21">
         <f ca="1">AQ5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>1.0054644808743169</v>
       </c>
-      <c r="AZ5" s="22">
+      <c r="AZ5" s="21">
         <f ca="1">AR5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>1.0491803278688525</v>
       </c>
-      <c r="BA5" s="22">
+      <c r="BA5" s="21">
         <f ca="1">AS5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>0.69945355191256831</v>
       </c>
-      <c r="BB5" s="22">
+      <c r="BB5" s="21">
         <f ca="1">AT5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>0.78688524590163933</v>
       </c>
@@ -4196,19 +4210,19 @@
         <f t="shared" ca="1" si="37"/>
         <v>6</v>
       </c>
-      <c r="AY6" s="22">
+      <c r="AY6" s="21">
         <f ca="1">AQ6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>0.95081967213114749</v>
       </c>
-      <c r="AZ6" s="22">
+      <c r="AZ6" s="21">
         <f ca="1">AR6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>1.1147540983606556</v>
       </c>
-      <c r="BA6" s="22">
+      <c r="BA6" s="21">
         <f ca="1">AS6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>0.75409836065573765</v>
       </c>
-      <c r="BB6" s="22">
+      <c r="BB6" s="21">
         <f ca="1">AT6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>0.78688524590163933</v>
       </c>
@@ -4415,19 +4429,19 @@
         <f t="shared" ca="1" si="37"/>
         <v>6</v>
       </c>
-      <c r="AY7" s="22">
+      <c r="AY7" s="21">
         <f ca="1">AQ7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>0.83934426229508197</v>
       </c>
-      <c r="AZ7" s="22">
+      <c r="AZ7" s="21">
         <f ca="1">AR7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>1.180327868852459</v>
       </c>
-      <c r="BA7" s="22">
+      <c r="BA7" s="21">
         <f ca="1">AS7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>0.97049180327868856</v>
       </c>
-      <c r="BB7" s="22">
+      <c r="BB7" s="21">
         <f ca="1">AT7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>0.78688524590163933</v>
       </c>
@@ -4634,19 +4648,19 @@
         <f t="shared" ca="1" si="37"/>
         <v>9</v>
       </c>
-      <c r="AY8" s="22">
+      <c r="AY8" s="21">
         <f ca="1">AQ8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>0.89617486338797814</v>
       </c>
-      <c r="AZ8" s="22">
+      <c r="AZ8" s="21">
         <f ca="1">AR8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>1.180327868852459</v>
       </c>
-      <c r="BA8" s="22">
+      <c r="BA8" s="21">
         <f ca="1">AS8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>1.0710382513661203</v>
       </c>
-      <c r="BB8" s="22">
+      <c r="BB8" s="21">
         <f ca="1">AT8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>0.85245901639344257</v>
       </c>
@@ -4834,19 +4848,19 @@
         <f t="shared" ca="1" si="37"/>
         <v>#N/A</v>
       </c>
-      <c r="AY9" s="22" t="e">
+      <c r="AY9" s="21" t="e">
         <f ca="1">AQ9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ9" s="22" t="e">
+      <c r="AZ9" s="21" t="e">
         <f ca="1">AR9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BA9" s="22" t="e">
+      <c r="BA9" s="21" t="e">
         <f ca="1">AS9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BB9" s="22" t="e">
+      <c r="BB9" s="21" t="e">
         <f ca="1">AT9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
@@ -5053,19 +5067,19 @@
         <f t="shared" ca="1" si="37"/>
         <v>#N/A</v>
       </c>
-      <c r="AY10" s="22" t="e">
+      <c r="AY10" s="21" t="e">
         <f ca="1">AQ10/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ10" s="22" t="e">
+      <c r="AZ10" s="21" t="e">
         <f ca="1">AR10/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BA10" s="22" t="e">
+      <c r="BA10" s="21" t="e">
         <f ca="1">AS10/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BB10" s="22" t="e">
+      <c r="BB10" s="21" t="e">
         <f ca="1">AT10/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
@@ -5272,30 +5286,30 @@
         <f t="shared" ca="1" si="37"/>
         <v>#N/A</v>
       </c>
-      <c r="AY11" s="22" t="e">
+      <c r="AY11" s="21" t="e">
         <f ca="1">AQ11/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ11" s="22" t="e">
+      <c r="AZ11" s="21" t="e">
         <f ca="1">AR11/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BA11" s="22" t="e">
+      <c r="BA11" s="21" t="e">
         <f ca="1">AS11/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BB11" s="22" t="e">
+      <c r="BB11" s="21" t="e">
         <f ca="1">AT11/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BD11" s="42" t="s">
+      <c r="BD11" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="BE11" s="43"/>
-      <c r="BF11" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG11" s="45"/>
+      <c r="BE11" s="36"/>
+      <c r="BF11" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="38"/>
     </row>
     <row r="12" spans="1:60" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -5480,19 +5494,19 @@
         <f t="shared" ca="1" si="37"/>
         <v>#N/A</v>
       </c>
-      <c r="AY12" s="22" t="e">
+      <c r="AY12" s="21" t="e">
         <f ca="1">AQ12/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ12" s="22" t="e">
+      <c r="AZ12" s="21" t="e">
         <f ca="1">AR12/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BA12" s="22" t="e">
+      <c r="BA12" s="21" t="e">
         <f ca="1">AS12/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BB12" s="22" t="e">
+      <c r="BB12" s="21" t="e">
         <f ca="1">AT12/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
@@ -5680,19 +5694,19 @@
         <f t="shared" ca="1" si="37"/>
         <v>#N/A</v>
       </c>
-      <c r="AY13" s="22" t="e">
+      <c r="AY13" s="21" t="e">
         <f ca="1">AQ13/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ13" s="22" t="e">
+      <c r="AZ13" s="21" t="e">
         <f ca="1">AR13/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BA13" s="22" t="e">
+      <c r="BA13" s="21" t="e">
         <f ca="1">AS13/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BB13" s="22" t="e">
+      <c r="BB13" s="21" t="e">
         <f ca="1">AT13/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
@@ -5899,19 +5913,19 @@
         <f t="shared" ca="1" si="37"/>
         <v>#N/A</v>
       </c>
-      <c r="AY14" s="22" t="e">
+      <c r="AY14" s="21" t="e">
         <f ca="1">AQ14/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ14" s="22" t="e">
+      <c r="AZ14" s="21" t="e">
         <f ca="1">AR14/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BA14" s="22" t="e">
+      <c r="BA14" s="21" t="e">
         <f ca="1">AS14/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BB14" s="22" t="e">
+      <c r="BB14" s="21" t="e">
         <f ca="1">AT14/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
@@ -6099,19 +6113,19 @@
         <f t="shared" ca="1" si="37"/>
         <v>#N/A</v>
       </c>
-      <c r="AY15" s="22" t="e">
+      <c r="AY15" s="21" t="e">
         <f ca="1">AQ15/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ15" s="22" t="e">
+      <c r="AZ15" s="21" t="e">
         <f ca="1">AR15/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BA15" s="22" t="e">
+      <c r="BA15" s="21" t="e">
         <f ca="1">AS15/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BB15" s="22" t="e">
+      <c r="BB15" s="21" t="e">
         <f ca="1">AT15/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
@@ -6299,19 +6313,19 @@
         <f t="shared" ca="1" si="37"/>
         <v>#N/A</v>
       </c>
-      <c r="AY16" s="22" t="e">
+      <c r="AY16" s="21" t="e">
         <f ca="1">AQ16/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ16" s="22" t="e">
+      <c r="AZ16" s="21" t="e">
         <f ca="1">AR16/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BA16" s="22" t="e">
+      <c r="BA16" s="21" t="e">
         <f ca="1">AS16/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BB16" s="22" t="e">
+      <c r="BB16" s="21" t="e">
         <f ca="1">AT16/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
@@ -6499,19 +6513,19 @@
         <f t="shared" ca="1" si="37"/>
         <v>#N/A</v>
       </c>
-      <c r="AY17" s="22" t="e">
+      <c r="AY17" s="21" t="e">
         <f ca="1">AQ17/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ17" s="22" t="e">
+      <c r="AZ17" s="21" t="e">
         <f ca="1">AR17/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BA17" s="22" t="e">
+      <c r="BA17" s="21" t="e">
         <f ca="1">AS17/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BB17" s="22" t="e">
+      <c r="BB17" s="21" t="e">
         <f ca="1">AT17/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
@@ -6699,19 +6713,19 @@
         <f t="shared" ca="1" si="37"/>
         <v>#N/A</v>
       </c>
-      <c r="AY18" s="22" t="e">
+      <c r="AY18" s="21" t="e">
         <f ca="1">AQ18/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ18" s="22" t="e">
+      <c r="AZ18" s="21" t="e">
         <f ca="1">AR18/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BA18" s="22" t="e">
+      <c r="BA18" s="21" t="e">
         <f ca="1">AS18/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BB18" s="22" t="e">
+      <c r="BB18" s="21" t="e">
         <f ca="1">AT18/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
@@ -6899,19 +6913,19 @@
         <f t="shared" ca="1" si="37"/>
         <v>#N/A</v>
       </c>
-      <c r="AY19" s="22" t="e">
+      <c r="AY19" s="21" t="e">
         <f ca="1">AQ19/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ19" s="22" t="e">
+      <c r="AZ19" s="21" t="e">
         <f ca="1">AR19/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BA19" s="22" t="e">
+      <c r="BA19" s="21" t="e">
         <f ca="1">AS19/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BB19" s="22" t="e">
+      <c r="BB19" s="21" t="e">
         <f ca="1">AT19/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
@@ -7102,19 +7116,19 @@
         <f t="shared" ca="1" si="37"/>
         <v>#N/A</v>
       </c>
-      <c r="AY20" s="22" t="e">
+      <c r="AY20" s="21" t="e">
         <f ca="1">AQ20/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ20" s="22" t="e">
+      <c r="AZ20" s="21" t="e">
         <f ca="1">AR20/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BA20" s="22" t="e">
+      <c r="BA20" s="21" t="e">
         <f ca="1">AS20/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BB20" s="22" t="e">
+      <c r="BB20" s="21" t="e">
         <f ca="1">AT20/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
@@ -7867,12 +7881,18 @@
         <v>NE  vs BUF</v>
       </c>
       <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="E26" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>253</v>
+      </c>
       <c r="G26" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="H26" s="11"/>
+      <c r="H26" s="11" t="s">
+        <v>250</v>
+      </c>
       <c r="J26" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7895,11 +7915,11 @@
       </c>
       <c r="P26" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>BUF</v>
       </c>
       <c r="Q26" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>BUF</v>
       </c>
       <c r="R26" s="2" t="str">
         <f t="shared" si="42"/>
@@ -7907,15 +7927,15 @@
       </c>
       <c r="S26" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>BUF</v>
       </c>
       <c r="T26" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="2">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" s="2">
         <f t="shared" si="7"/>
@@ -7923,11 +7943,11 @@
       </c>
       <c r="W26" s="2">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="2" t="str">
         <f t="shared" si="9"/>
@@ -7943,11 +7963,11 @@
       </c>
       <c r="AB26" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="2">
         <f t="shared" si="22"/>
@@ -7955,7 +7975,7 @@
       </c>
       <c r="AE26" s="2">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="2" t="str">
         <f t="shared" si="24"/>
@@ -7963,11 +7983,11 @@
       </c>
       <c r="AG26" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="2">
         <f t="shared" si="27"/>
@@ -7975,7 +7995,7 @@
       </c>
       <c r="AJ26" s="2">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="20" t="b">
         <f>Tipps!A26&lt;&gt;Tipps!A27</f>
@@ -8006,12 +8026,18 @@
         <v>KC  vs LAC</v>
       </c>
       <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="E27" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="G27" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="H27" s="11"/>
+      <c r="H27" s="11" t="s">
+        <v>251</v>
+      </c>
       <c r="J27" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8034,11 +8060,11 @@
       </c>
       <c r="P27" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="Q27" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="R27" s="2" t="str">
         <f t="shared" si="42"/>
@@ -8046,15 +8072,15 @@
       </c>
       <c r="S27" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="T27" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="2">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" s="2">
         <f t="shared" si="7"/>
@@ -8062,11 +8088,11 @@
       </c>
       <c r="W27" s="2">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="2" t="str">
         <f t="shared" si="9"/>
@@ -8082,11 +8108,11 @@
       </c>
       <c r="AB27" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="2">
         <f t="shared" si="22"/>
@@ -8094,7 +8120,7 @@
       </c>
       <c r="AE27" s="2">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="2" t="str">
         <f t="shared" si="24"/>
@@ -8102,11 +8128,11 @@
       </c>
       <c r="AG27" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH27" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="2">
         <f t="shared" si="27"/>
@@ -8114,7 +8140,7 @@
       </c>
       <c r="AJ27" s="2">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="20" t="b">
         <f>Tipps!A27&lt;&gt;Tipps!A28</f>
@@ -8145,12 +8171,18 @@
         <v xml:space="preserve">MIN vs SF </v>
       </c>
       <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="E28" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="G28" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="H28" s="11"/>
+      <c r="H28" s="11" t="s">
+        <v>252</v>
+      </c>
       <c r="J28" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8173,11 +8205,11 @@
       </c>
       <c r="P28" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v xml:space="preserve">SF </v>
       </c>
       <c r="Q28" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v xml:space="preserve">SF </v>
       </c>
       <c r="R28" s="2" t="str">
         <f t="shared" si="42"/>
@@ -8185,15 +8217,15 @@
       </c>
       <c r="S28" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v xml:space="preserve">SF </v>
       </c>
       <c r="T28" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="2">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" s="2">
         <f t="shared" si="7"/>
@@ -8201,11 +8233,11 @@
       </c>
       <c r="W28" s="2">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="2" t="str">
         <f t="shared" si="9"/>
@@ -8221,11 +8253,11 @@
       </c>
       <c r="AB28" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="2">
         <f t="shared" si="22"/>
@@ -8233,7 +8265,7 @@
       </c>
       <c r="AE28" s="2">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="2" t="str">
         <f t="shared" si="24"/>
@@ -8241,11 +8273,11 @@
       </c>
       <c r="AG28" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI28" s="2">
         <f t="shared" si="27"/>
@@ -8253,7 +8285,7 @@
       </c>
       <c r="AJ28" s="2">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="20" t="b">
         <f>Tipps!A28&lt;&gt;Tipps!A29</f>
@@ -8284,12 +8316,18 @@
         <v>LAR vs PIT</v>
       </c>
       <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="E29" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>256</v>
+      </c>
       <c r="G29" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="H29" s="11"/>
+      <c r="H29" s="11" t="s">
+        <v>190</v>
+      </c>
       <c r="J29" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8312,11 +8350,11 @@
       </c>
       <c r="P29" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>PIT</v>
       </c>
       <c r="Q29" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="R29" s="2" t="str">
         <f t="shared" si="42"/>
@@ -8324,15 +8362,15 @@
       </c>
       <c r="S29" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="T29" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="2">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="2">
         <f t="shared" si="7"/>
@@ -8340,11 +8378,11 @@
       </c>
       <c r="W29" s="2">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="2" t="str">
         <f t="shared" si="9"/>
@@ -8360,11 +8398,11 @@
       </c>
       <c r="AB29" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="2">
         <f t="shared" si="22"/>
@@ -8372,7 +8410,7 @@
       </c>
       <c r="AE29" s="2">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="2" t="str">
         <f t="shared" si="24"/>
@@ -8380,11 +8418,11 @@
       </c>
       <c r="AG29" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI29" s="2">
         <f t="shared" si="27"/>
@@ -8392,7 +8430,7 @@
       </c>
       <c r="AJ29" s="2">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="20" t="b">
         <f>Tipps!A29&lt;&gt;Tipps!A30</f>
@@ -13689,7 +13727,7 @@
         <v>1</v>
       </c>
       <c r="X68" s="2">
-        <f t="shared" ref="X68" si="53">IF(COUNTIF(P68:S68,P68)=1,1,0)+IF(COUNTIF(P68:S68,Q68)=1,2,0)+IF(COUNTIF(P68:S68,R68)=1,3,0)+IF(COUNTIF(P68:S68,S68)=1,4,0)</f>
+        <f t="shared" ref="X68" si="53">IF(COUNTIF(P68:S68,P68)=1,1,0)*(P68&lt;&gt;"")+IF(COUNTIF(P68:S68,Q68)=1,2,0)*(Q68&lt;&gt;"")+IF(COUNTIF(P68:S68,R68)=1,3,0)*(R68&lt;&gt;"")+IF(COUNTIF(P68:S68,S68)=1,4,0)*(S68&lt;&gt;"")</f>
         <v>0</v>
       </c>
       <c r="Y68" s="2" t="str">
@@ -14002,16 +14040,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:S1"/>
     <mergeCell ref="BD11:BE11"/>
     <mergeCell ref="BF11:BG11"/>
     <mergeCell ref="AA1:AE1"/>
@@ -14024,6 +14052,16 @@
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B3:M68">
@@ -14050,12 +14088,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1"/>
     <col min="2" max="5" width="12.625" style="1" customWidth="1"/>
@@ -14064,101 +14102,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="30">
+      <c r="B1" s="26">
         <f>INDEX(Tipps!$BD$7:$BG$7,Tipps!BD13)</f>
         <v>1</v>
       </c>
-      <c r="C1" s="30">
+      <c r="C1" s="26">
         <f>INDEX(Tipps!$BD$7:$BG$7,Tipps!BE13)</f>
         <v>2</v>
       </c>
-      <c r="D1" s="30">
+      <c r="D1" s="26">
         <f>INDEX(Tipps!$BD$7:$BG$7,Tipps!BF13)</f>
         <v>3</v>
       </c>
-      <c r="E1" s="30">
+      <c r="E1" s="26">
         <f>INDEX(Tipps!$BD$7:$BG$7,Tipps!BG13)</f>
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="31" t="str">
+      <c r="B2" s="27" t="str">
         <f>IF(B1=1,"essen","zahlen")</f>
         <v>essen</v>
       </c>
-      <c r="C2" s="31" t="str">
+      <c r="C2" s="27" t="str">
         <f t="shared" ref="C2:E2" si="0">IF(C1=1,"essen","zahlen")</f>
         <v>zahlen</v>
       </c>
-      <c r="D2" s="31" t="str">
+      <c r="D2" s="27" t="str">
         <f t="shared" si="0"/>
         <v>zahlen</v>
       </c>
-      <c r="E2" s="31" t="str">
+      <c r="E2" s="27" t="str">
         <f t="shared" si="0"/>
         <v>zahlen</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="27" t="str">
+      <c r="B3" s="24" t="str">
         <f>INDEX(Tipps!$E$2:$H$2,Tipps!BD13)</f>
         <v>Franz</v>
       </c>
-      <c r="C3" s="27" t="str">
+      <c r="C3" s="24" t="str">
         <f>INDEX(Tipps!$E$2:$H$2,Tipps!BE13)</f>
         <v>David</v>
       </c>
-      <c r="D3" s="27" t="str">
+      <c r="D3" s="24" t="str">
         <f>INDEX(Tipps!$E$2:$H$2,Tipps!BF13)</f>
         <v>Jasmin</v>
       </c>
-      <c r="E3" s="27" t="str">
+      <c r="E3" s="24" t="str">
         <f>INDEX(Tipps!$E$2:$H$2,Tipps!BG13)</f>
         <v>Thomas</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="24"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="23">
         <f>INDEX(Tipps!$BD$3:$BG$3,Tipps!BD13)</f>
         <v>54</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="23">
         <f>INDEX(Tipps!$BD$3:$BG$3,Tipps!BE13)</f>
         <v>49</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="23">
         <f>INDEX(Tipps!$BD$3:$BG$3,Tipps!BF13)</f>
         <v>41</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="23">
         <f>INDEX(Tipps!$BD$3:$BG$3,Tipps!BG13)</f>
         <v>39</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="17">
@@ -14180,619 +14218,607 @@
       <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="G7" s="49" t="s">
+      <c r="A7" s="22"/>
+      <c r="G7" s="39" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="46"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="22">
         <f>Tipps!AP3</f>
         <v>1</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="28">
         <f ca="1">INDEX(Tipps!$AU3:$AX3,Tipps!BD$13)</f>
         <v>3</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="28">
         <f ca="1">INDEX(Tipps!$AU3:$AX3,Tipps!BE$13)</f>
         <v>3</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="28">
         <f ca="1">INDEX(Tipps!$AU3:$AX3,Tipps!BF$13)</f>
         <v>5</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="28">
         <f ca="1">INDEX(Tipps!$AU3:$AX3,Tipps!BG$13)</f>
         <v>3</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35">
+      <c r="F9" s="18"/>
+      <c r="G9" s="29">
         <f ca="1">SUM(B9:E9)</f>
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="22">
         <f>Tipps!AP4</f>
         <v>2</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="28">
         <f ca="1">INDEX(Tipps!$AU4:$AX4,Tipps!BD$13)</f>
         <v>9</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="28">
         <f ca="1">INDEX(Tipps!$AU4:$AX4,Tipps!BE$13)</f>
         <v>9</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="28">
         <f ca="1">INDEX(Tipps!$AU4:$AX4,Tipps!BF$13)</f>
         <v>9</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="28">
         <f ca="1">INDEX(Tipps!$AU4:$AX4,Tipps!BG$13)</f>
         <v>9</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35">
+      <c r="F10" s="18"/>
+      <c r="G10" s="29">
         <f t="shared" ref="G10:G26" ca="1" si="1">SUM(B10:E10)</f>
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <f>Tipps!AP5</f>
         <v>3</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="28">
         <f ca="1">INDEX(Tipps!$AU5:$AX5,Tipps!BD$13)</f>
         <v>12</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="28">
         <f ca="1">INDEX(Tipps!$AU5:$AX5,Tipps!BE$13)</f>
         <v>4</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="28">
         <f ca="1">INDEX(Tipps!$AU5:$AX5,Tipps!BF$13)</f>
         <v>9</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="28">
         <f ca="1">INDEX(Tipps!$AU5:$AX5,Tipps!BG$13)</f>
         <v>6</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35">
+      <c r="F11" s="18"/>
+      <c r="G11" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="22">
         <f>Tipps!AP6</f>
         <v>4</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="28">
         <f ca="1">INDEX(Tipps!$AU6:$AX6,Tipps!BD$13)</f>
         <v>10</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="28">
         <f ca="1">INDEX(Tipps!$AU6:$AX6,Tipps!BE$13)</f>
         <v>7</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="28">
         <f ca="1">INDEX(Tipps!$AU6:$AX6,Tipps!BF$13)</f>
         <v>6</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="28">
         <f ca="1">INDEX(Tipps!$AU6:$AX6,Tipps!BG$13)</f>
         <v>6</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35">
+      <c r="F12" s="18"/>
+      <c r="G12" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="22">
         <f>Tipps!AP7</f>
         <v>5</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="28">
         <f ca="1">INDEX(Tipps!$AU7:$AX7,Tipps!BD$13)</f>
         <v>11</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="28">
         <f ca="1">INDEX(Tipps!$AU7:$AX7,Tipps!BE$13)</f>
         <v>14</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="28">
         <f ca="1">INDEX(Tipps!$AU7:$AX7,Tipps!BF$13)</f>
         <v>3</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="28">
         <f ca="1">INDEX(Tipps!$AU7:$AX7,Tipps!BG$13)</f>
         <v>6</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35">
+      <c r="F13" s="18"/>
+      <c r="G13" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <f>Tipps!AP8</f>
         <v>6</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="28">
         <f ca="1">INDEX(Tipps!$AU8:$AX8,Tipps!BD$13)</f>
         <v>9</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="28">
         <f ca="1">INDEX(Tipps!$AU8:$AX8,Tipps!BE$13)</f>
         <v>12</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="28">
         <f ca="1">INDEX(Tipps!$AU8:$AX8,Tipps!BF$13)</f>
         <v>9</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="28">
         <f ca="1">INDEX(Tipps!$AU8:$AX8,Tipps!BG$13)</f>
         <v>9</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35">
+      <c r="F14" s="18"/>
+      <c r="G14" s="29">
         <f t="shared" ca="1" si="1"/>
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="22">
         <f>Tipps!AP9</f>
         <v>7</v>
       </c>
-      <c r="B15" s="33" t="e">
+      <c r="B15" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU9:$AX9,Tipps!BD$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="C15" s="33" t="e">
+      <c r="C15" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU9:$AX9,Tipps!BE$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="D15" s="33" t="e">
+      <c r="D15" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU9:$AX9,Tipps!BF$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="E15" s="33" t="e">
+      <c r="E15" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU9:$AX9,Tipps!BG$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35" t="e">
+      <c r="F15" s="18"/>
+      <c r="G15" s="29" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="A16" s="22">
         <f>Tipps!AP10</f>
         <v>8</v>
       </c>
-      <c r="B16" s="33" t="e">
+      <c r="B16" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU10:$AX10,Tipps!BD$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="C16" s="33" t="e">
+      <c r="C16" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU10:$AX10,Tipps!BE$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="D16" s="33" t="e">
+      <c r="D16" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU10:$AX10,Tipps!BF$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="E16" s="33" t="e">
+      <c r="E16" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU10:$AX10,Tipps!BG$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35" t="e">
+      <c r="F16" s="18"/>
+      <c r="G16" s="29" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <f>Tipps!AP11</f>
         <v>9</v>
       </c>
-      <c r="B17" s="33" t="e">
+      <c r="B17" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU11:$AX11,Tipps!BD$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="C17" s="33" t="e">
+      <c r="C17" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU11:$AX11,Tipps!BE$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="D17" s="33" t="e">
+      <c r="D17" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU11:$AX11,Tipps!BF$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="E17" s="33" t="e">
+      <c r="E17" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU11:$AX11,Tipps!BG$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35" t="e">
+      <c r="F17" s="18"/>
+      <c r="G17" s="29" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="A18" s="22">
         <f>Tipps!AP12</f>
         <v>10</v>
       </c>
-      <c r="B18" s="33" t="e">
+      <c r="B18" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU12:$AX12,Tipps!BD$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="C18" s="33" t="e">
+      <c r="C18" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU12:$AX12,Tipps!BE$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="D18" s="33" t="e">
+      <c r="D18" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU12:$AX12,Tipps!BF$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="E18" s="33" t="e">
+      <c r="E18" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU12:$AX12,Tipps!BG$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35" t="e">
+      <c r="F18" s="18"/>
+      <c r="G18" s="29" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="22">
         <f>Tipps!AP13</f>
         <v>11</v>
       </c>
-      <c r="B19" s="33" t="e">
+      <c r="B19" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU13:$AX13,Tipps!BD$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="C19" s="33" t="e">
+      <c r="C19" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU13:$AX13,Tipps!BE$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="D19" s="33" t="e">
+      <c r="D19" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU13:$AX13,Tipps!BF$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="E19" s="33" t="e">
+      <c r="E19" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU13:$AX13,Tipps!BG$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35" t="e">
+      <c r="F19" s="18"/>
+      <c r="G19" s="29" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <f>Tipps!AP14</f>
         <v>12</v>
       </c>
-      <c r="B20" s="33" t="e">
+      <c r="B20" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU14:$AX14,Tipps!BD$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="C20" s="33" t="e">
+      <c r="C20" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU14:$AX14,Tipps!BE$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="D20" s="33" t="e">
+      <c r="D20" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU14:$AX14,Tipps!BF$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="E20" s="33" t="e">
+      <c r="E20" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU14:$AX14,Tipps!BG$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35" t="e">
+      <c r="F20" s="18"/>
+      <c r="G20" s="29" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="A21" s="22">
         <f>Tipps!AP15</f>
         <v>13</v>
       </c>
-      <c r="B21" s="33" t="e">
+      <c r="B21" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU15:$AX15,Tipps!BD$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="C21" s="33" t="e">
+      <c r="C21" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU15:$AX15,Tipps!BE$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="D21" s="33" t="e">
+      <c r="D21" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU15:$AX15,Tipps!BF$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="E21" s="33" t="e">
+      <c r="E21" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU15:$AX15,Tipps!BG$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35" t="e">
+      <c r="F21" s="18"/>
+      <c r="G21" s="29" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <f>Tipps!AP16</f>
         <v>14</v>
       </c>
-      <c r="B22" s="33" t="e">
+      <c r="B22" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU16:$AX16,Tipps!BD$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="C22" s="33" t="e">
+      <c r="C22" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU16:$AX16,Tipps!BE$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="D22" s="33" t="e">
+      <c r="D22" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU16:$AX16,Tipps!BF$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="E22" s="33" t="e">
+      <c r="E22" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU16:$AX16,Tipps!BG$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35" t="e">
+      <c r="F22" s="18"/>
+      <c r="G22" s="29" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
+      <c r="A23" s="22">
         <f>Tipps!AP17</f>
         <v>15</v>
       </c>
-      <c r="B23" s="33" t="e">
+      <c r="B23" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU17:$AX17,Tipps!BD$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="C23" s="33" t="e">
+      <c r="C23" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU17:$AX17,Tipps!BE$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="D23" s="33" t="e">
+      <c r="D23" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU17:$AX17,Tipps!BF$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="E23" s="33" t="e">
+      <c r="E23" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU17:$AX17,Tipps!BG$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35" t="e">
+      <c r="F23" s="18"/>
+      <c r="G23" s="29" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <f>Tipps!AP18</f>
         <v>16</v>
       </c>
-      <c r="B24" s="33" t="e">
+      <c r="B24" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU18:$AX18,Tipps!BD$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="C24" s="33" t="e">
+      <c r="C24" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU18:$AX18,Tipps!BE$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="D24" s="33" t="e">
+      <c r="D24" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU18:$AX18,Tipps!BF$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="E24" s="33" t="e">
+      <c r="E24" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU18:$AX18,Tipps!BG$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35" t="e">
+      <c r="F24" s="18"/>
+      <c r="G24" s="29" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+      <c r="A25" s="22">
         <f>Tipps!AP19</f>
         <v>17</v>
       </c>
-      <c r="B25" s="33" t="e">
+      <c r="B25" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU19:$AX19,Tipps!BD$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="C25" s="33" t="e">
+      <c r="C25" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU19:$AX19,Tipps!BE$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="D25" s="33" t="e">
+      <c r="D25" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU19:$AX19,Tipps!BF$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="E25" s="33" t="e">
+      <c r="E25" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU19:$AX19,Tipps!BG$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35" t="e">
+      <c r="F25" s="18"/>
+      <c r="G25" s="29" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
+      <c r="A26" s="22">
         <f>Tipps!AP20</f>
         <v>18</v>
       </c>
-      <c r="B26" s="33" t="e">
+      <c r="B26" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU20:$AX20,Tipps!BD$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="C26" s="33" t="e">
+      <c r="C26" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU20:$AX20,Tipps!BE$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="D26" s="33" t="e">
+      <c r="D26" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU20:$AX20,Tipps!BF$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="E26" s="33" t="e">
+      <c r="E26" s="28" t="e">
         <f ca="1">INDEX(Tipps!$AU20:$AX20,Tipps!BG$13)</f>
         <v>#N/A</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35" t="e">
+      <c r="F26" s="18"/>
+      <c r="G26" s="29" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
+      <c r="A27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="B28" s="34">
+      <c r="B28" s="18">
         <f ca="1">_xlfn.AGGREGATE(5,2,B9:B26)</f>
         <v>3</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="18">
         <f ca="1">_xlfn.AGGREGATE(5,2,C9:C26)</f>
         <v>3</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="18">
         <f ca="1">_xlfn.AGGREGATE(5,2,D9:D26)</f>
         <v>3</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="18">
         <f ca="1">_xlfn.AGGREGATE(5,2,E9:E26)</f>
         <v>3</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="25">
+      <c r="G28" s="18">
         <f ca="1">_xlfn.AGGREGATE(5,2,G9:G26)</f>
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,B9:B26)</f>
         <v>12</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,C9:C26)</f>
         <v>14</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,D9:D26)</f>
         <v>9</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,E9:E26)</f>
         <v>9</v>
       </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="25">
+      <c r="G29" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,G9:G26)</f>
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="B30" s="40">
+      <c r="B30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,B9:B26)</f>
         <v>9</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,C9:C26)</f>
         <v>8.1666666666666661</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,D9:D26)</f>
         <v>6.833333333333333</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,E9:E26)</f>
         <v>6.5</v>
       </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="38">
+      <c r="G30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,G9:G26)</f>
         <v>30.5</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="B31" s="40">
+      <c r="B31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,B9:B26)</f>
         <v>2.8867513459481291</v>
       </c>
-      <c r="C31" s="40">
+      <c r="C31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,C9:C26)</f>
         <v>3.9756201472921875</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,D9:D26)</f>
         <v>2.3392781412697001</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,E9:E26)</f>
         <v>2.0615528128088303</v>
       </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="38">
+      <c r="G31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,G9:G26)</f>
         <v>8.05708797684788</v>
       </c>
@@ -14802,6 +14828,20 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="B8:E8"/>
   </mergeCells>
+  <conditionalFormatting sqref="B1:E3">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>B$3="Thomas"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>B$3="Jasmin"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>B$3="Franz"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>B$3="David"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B5:F5">
     <cfRule type="colorScale" priority="10">
       <colorScale>
@@ -14836,20 +14876,6 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:E3">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>B$3="Thomas"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>B$3="Jasmin"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>B$3="Franz"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>B$3="David"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -14887,7 +14913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/2023_tipp.xlsx
+++ b/2023_tipp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\NFL Tipp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CA091C-01F3-4363-BAE8-4FBAC8AB163C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57623609-E02D-43E3-998B-8A55CA899919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="259">
   <si>
     <t>ID</t>
   </si>
@@ -833,6 +833,12 @@
   </si>
   <si>
     <t>LAR 23-22</t>
+  </si>
+  <si>
+    <t>NE  29-25</t>
+  </si>
+  <si>
+    <t>PIT 24-17</t>
   </si>
 </sst>
 </file>
@@ -1220,15 +1226,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1239,6 +1236,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1473,25 +1479,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.65573770491803274</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91803278688524592</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0054644808743169</c:v>
+                  <c:v>1.0733333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95081967213114749</c:v>
+                  <c:v>1.0149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83934426229508197</c:v>
+                  <c:v>0.89600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89617486338797814</c:v>
+                  <c:v>0.95666666666666655</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -1579,25 +1585,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.39344262295081966</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78688524590163933</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0491803278688525</c:v>
+                  <c:v>1.1199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1147540983606556</c:v>
+                  <c:v>1.19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.180327868852459</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.180327868852459</c:v>
+                  <c:v>1.2599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.1399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -1685,25 +1691,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.39344262295081966</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78688524590163933</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69945355191256831</c:v>
+                  <c:v>0.74666666666666659</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75409836065573765</c:v>
+                  <c:v>0.80499999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97049180327868856</c:v>
+                  <c:v>1.036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0710382513661203</c:v>
+                  <c:v>1.1433333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -1791,25 +1797,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.39344262295081966</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78688524590163933</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78688524590163933</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78688524590163933</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78688524590163933</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85245901639344257</c:v>
+                  <c:v>0.90999999999999992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -2747,7 +2753,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2853,7 +2859,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9302238" cy="6014577"/>
+    <xdr:ext cx="9300882" cy="6011155"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -3151,7 +3157,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3174,110 +3180,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="B1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="34" t="str">
+      <c r="J1" s="36" t="str">
         <f>LEFT(E2,1)</f>
         <v>J</v>
       </c>
-      <c r="K1" s="34" t="str">
+      <c r="K1" s="36" t="str">
         <f>LEFT(F2,1)</f>
         <v>F</v>
       </c>
-      <c r="L1" s="34" t="str">
+      <c r="L1" s="36" t="str">
         <f>LEFT(G2,1)</f>
         <v>D</v>
       </c>
-      <c r="M1" s="34" t="str">
+      <c r="M1" s="36" t="str">
         <f>LEFT(H2,1)</f>
         <v>T</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35" t="s">
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35" t="s">
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35" t="s">
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AL1" s="35" t="s">
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AL1" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35" t="s">
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35" t="s">
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35" t="s">
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35" t="s">
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="32"/>
+      <c r="AX1" s="32"/>
+      <c r="AY1" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BD1" s="35" t="s">
+      <c r="AZ1" s="32"/>
+      <c r="BA1" s="32"/>
+      <c r="BB1" s="32"/>
+      <c r="BD1" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
+      <c r="BE1" s="32"/>
+      <c r="BF1" s="32"/>
+      <c r="BG1" s="32"/>
     </row>
     <row r="2" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3290,11 +3296,11 @@
       <c r="H2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
       <c r="O2" s="2">
         <v>0</v>
       </c>
@@ -3574,35 +3580,35 @@
       </c>
       <c r="AY3" s="21">
         <f ca="1">AQ3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.65573770491803274</v>
+        <v>0.7</v>
       </c>
       <c r="AZ3" s="21">
         <f ca="1">AR3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.39344262295081966</v>
+        <v>0.42</v>
       </c>
       <c r="BA3" s="21">
         <f ca="1">AS3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.39344262295081966</v>
+        <v>0.42</v>
       </c>
       <c r="BB3" s="21">
         <f ca="1">AT3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.39344262295081966</v>
+        <v>0.42</v>
       </c>
       <c r="BD3" s="2">
         <f>SUM(J:J)</f>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="BE3" s="2">
         <f>SUM(K:K)</f>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BF3" s="2">
         <f>SUM(L:L)</f>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="BG3" s="2">
         <f>SUM(M:M)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="BH3" s="2" t="s">
         <v>10</v>
@@ -3793,23 +3799,23 @@
       </c>
       <c r="AY4" s="21">
         <f ca="1">AQ4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.91803278688524592</v>
+        <v>0.98</v>
       </c>
       <c r="AZ4" s="21">
         <f ca="1">AR4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.78688524590163933</v>
+        <v>0.84</v>
       </c>
       <c r="BA4" s="21">
         <f ca="1">AS4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.78688524590163933</v>
+        <v>0.84</v>
       </c>
       <c r="BB4" s="21">
         <f ca="1">AT4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.78688524590163933</v>
+        <v>0.84</v>
       </c>
       <c r="BD4" s="2">
         <f>COUNTIF($Y:$Y,COLUMN()-55)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE4" s="2">
         <f>COUNTIF($Y:$Y,COLUMN()-55)</f>
@@ -4012,19 +4018,19 @@
       </c>
       <c r="AY5" s="21">
         <f ca="1">AQ5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.0054644808743169</v>
+        <v>1.0733333333333333</v>
       </c>
       <c r="AZ5" s="21">
         <f ca="1">AR5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.0491803278688525</v>
+        <v>1.1199999999999999</v>
       </c>
       <c r="BA5" s="21">
         <f ca="1">AS5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.69945355191256831</v>
+        <v>0.74666666666666659</v>
       </c>
       <c r="BB5" s="21">
         <f ca="1">AT5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.78688524590163933</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="6" spans="1:60" ht="15" x14ac:dyDescent="0.2">
@@ -4212,35 +4218,35 @@
       </c>
       <c r="AY6" s="21">
         <f ca="1">AQ6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.95081967213114749</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="AZ6" s="21">
         <f ca="1">AR6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.1147540983606556</v>
+        <v>1.19</v>
       </c>
       <c r="BA6" s="21">
         <f ca="1">AS6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.75409836065573765</v>
+        <v>0.80499999999999994</v>
       </c>
       <c r="BB6" s="21">
         <f ca="1">AT6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.78688524590163933</v>
+        <v>0.84</v>
       </c>
       <c r="BD6" s="2">
         <f>BD3+BD4/100</f>
-        <v>41.01</v>
+        <v>49.02</v>
       </c>
       <c r="BE6" s="2">
         <f t="shared" ref="BE6:BG6" si="38">BE3+BE4/100</f>
-        <v>54.02</v>
+        <v>57.02</v>
       </c>
       <c r="BF6" s="2">
         <f t="shared" si="38"/>
-        <v>49.02</v>
+        <v>52.02</v>
       </c>
       <c r="BG6" s="2">
         <f t="shared" si="38"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="BH6" s="2" t="s">
         <v>234</v>
@@ -4431,19 +4437,19 @@
       </c>
       <c r="AY7" s="21">
         <f ca="1">AQ7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.83934426229508197</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="AZ7" s="21">
         <f ca="1">AR7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.180327868852459</v>
+        <v>1.26</v>
       </c>
       <c r="BA7" s="21">
         <f ca="1">AS7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.97049180327868856</v>
+        <v>1.036</v>
       </c>
       <c r="BB7" s="21">
         <f ca="1">AT7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.78688524590163933</v>
+        <v>0.84</v>
       </c>
       <c r="BD7" s="2">
         <f>RANK(BD6,$BD$6:$BG$6)</f>
@@ -4650,19 +4656,19 @@
       </c>
       <c r="AY8" s="21">
         <f ca="1">AQ8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.89617486338797814</v>
+        <v>0.95666666666666655</v>
       </c>
       <c r="AZ8" s="21">
         <f ca="1">AR8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.180327868852459</v>
+        <v>1.2599999999999998</v>
       </c>
       <c r="BA8" s="21">
         <f ca="1">AS8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.0710382513661203</v>
+        <v>1.1433333333333333</v>
       </c>
       <c r="BB8" s="21">
         <f ca="1">AT8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.85245901639344257</v>
+        <v>0.90999999999999992</v>
       </c>
     </row>
     <row r="9" spans="1:60" ht="15" x14ac:dyDescent="0.2">
@@ -4810,75 +4816,75 @@
       </c>
       <c r="AO9" s="20" t="b">
         <f ca="1">OFFSET(Tipps!$D$2,AN9,)&lt;&gt;""</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9" s="20">
         <f t="shared" si="31"/>
         <v>7</v>
       </c>
-      <c r="AQ9" s="20" t="e">
+      <c r="AQ9" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AR9" s="20" t="e">
+        <v>49</v>
+      </c>
+      <c r="AR9" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS9" s="20" t="e">
+        <v>57</v>
+      </c>
+      <c r="AS9" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT9" s="20" t="e">
+        <v>52</v>
+      </c>
+      <c r="AT9" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU9" s="2" t="e">
+        <v>42</v>
+      </c>
+      <c r="AU9" s="2">
         <f t="shared" ca="1" si="34"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV9" s="2" t="e">
+        <v>8</v>
+      </c>
+      <c r="AV9" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW9" s="2" t="e">
+        <v>3</v>
+      </c>
+      <c r="AW9" s="2">
         <f t="shared" ca="1" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX9" s="2" t="e">
+        <v>3</v>
+      </c>
+      <c r="AX9" s="2">
         <f t="shared" ca="1" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY9" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AY9" s="21">
         <f ca="1">AQ9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ9" s="21" t="e">
+        <v>0.98</v>
+      </c>
+      <c r="AZ9" s="21">
         <f ca="1">AR9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BA9" s="21" t="e">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="BA9" s="21">
         <f ca="1">AS9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BB9" s="21" t="e">
+        <v>1.04</v>
+      </c>
+      <c r="BB9" s="21">
         <f ca="1">AT9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>#N/A</v>
+        <v>0.84</v>
       </c>
       <c r="BD9" s="2">
         <f>LARGE($BD$6:$BG$6,COLUMN()-55)</f>
-        <v>54.02</v>
+        <v>57.02</v>
       </c>
       <c r="BE9" s="2">
         <f t="shared" ref="BE9:BG9" si="40">LARGE($BD$6:$BG$6,COLUMN()-55)</f>
-        <v>49.02</v>
+        <v>52.02</v>
       </c>
       <c r="BF9" s="2">
         <f t="shared" si="40"/>
-        <v>41.01</v>
+        <v>49.02</v>
       </c>
       <c r="BG9" s="2">
         <f t="shared" si="40"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="BH9" s="2" t="s">
         <v>235</v>
@@ -5302,14 +5308,14 @@
         <f ca="1">AT11/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BD11" s="35" t="s">
+      <c r="BD11" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="BE11" s="36"/>
-      <c r="BF11" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG11" s="38"/>
+      <c r="BE11" s="33"/>
+      <c r="BF11" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="35"/>
     </row>
     <row r="12" spans="1:60" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -7880,7 +7886,9 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B26/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B26,100),ROUNDDOWN(Tipps!B26/100,0))</f>
         <v>NE  vs BUF</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="E26" s="11" t="s">
         <v>247</v>
       </c>
@@ -7893,25 +7901,25 @@
       <c r="H26" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="J26" s="14" t="str">
+      <c r="J26" s="14">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K26" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="K26" s="14">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L26" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="L26" s="14">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M26" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="M26" s="14">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O26" s="2" t="str">
         <f t="shared" ref="O26:S64" si="42">LEFT(INDEX($D26:$H26,O$2+1),3)</f>
-        <v/>
+        <v xml:space="preserve">NE </v>
       </c>
       <c r="P26" s="2" t="str">
         <f t="shared" si="42"/>
@@ -7959,7 +7967,7 @@
       </c>
       <c r="AA26" s="2" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>29</v>
       </c>
       <c r="AB26" s="2">
         <f t="shared" si="20"/>
@@ -7979,7 +7987,7 @@
       </c>
       <c r="AF26" s="2" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>25</v>
       </c>
       <c r="AG26" s="2">
         <f t="shared" si="25"/>
@@ -8025,7 +8033,9 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B27/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B27,100),ROUNDDOWN(Tipps!B27/100,0))</f>
         <v>KC  vs LAC</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="E27" s="11" t="s">
         <v>246</v>
       </c>
@@ -8038,25 +8048,25 @@
       <c r="H27" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="J27" s="14" t="str">
+      <c r="J27" s="14">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K27" s="14" t="str">
+        <v>4</v>
+      </c>
+      <c r="K27" s="14">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L27" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="L27" s="14">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M27" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="M27" s="14">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="O27" s="2" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="P27" s="2" t="str">
         <f t="shared" si="42"/>
@@ -8076,19 +8086,19 @@
       </c>
       <c r="T27" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" s="2">
         <f t="shared" si="18"/>
@@ -8104,7 +8114,7 @@
       </c>
       <c r="AA27" s="2" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>31</v>
       </c>
       <c r="AB27" s="2">
         <f t="shared" si="20"/>
@@ -8124,11 +8134,11 @@
       </c>
       <c r="AF27" s="2" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>17</v>
       </c>
       <c r="AG27" s="2">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH27" s="2">
         <f t="shared" si="26"/>
@@ -8315,7 +8325,9 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B29/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B29,100),ROUNDDOWN(Tipps!B29/100,0))</f>
         <v>LAR vs PIT</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="E29" s="11" t="s">
         <v>249</v>
       </c>
@@ -8328,25 +8340,25 @@
       <c r="H29" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="J29" s="14" t="str">
+      <c r="J29" s="14">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K29" s="14" t="str">
+        <v>4</v>
+      </c>
+      <c r="K29" s="14">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L29" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="L29" s="14">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M29" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="M29" s="14">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O29" s="2" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>PIT</v>
       </c>
       <c r="P29" s="2" t="str">
         <f t="shared" si="42"/>
@@ -8366,7 +8378,7 @@
       </c>
       <c r="T29" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="2">
         <f t="shared" si="6"/>
@@ -8384,9 +8396,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="Y29" s="2" t="str">
+      <c r="Y29" s="2">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Z29" s="2" t="str" cm="1">
         <f t="array" ref="Z29">IF(AND(O29&lt;&gt;"",SUM(T29:W29)=3),SUMPRODUCT(P$2:S$2,1-T29:W29),"")</f>
@@ -8394,11 +8406,11 @@
       </c>
       <c r="AA29" s="2" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>24</v>
       </c>
       <c r="AB29" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29" s="2">
         <f t="shared" si="21"/>
@@ -8414,7 +8426,7 @@
       </c>
       <c r="AF29" s="2" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>17</v>
       </c>
       <c r="AG29" s="2">
         <f t="shared" si="25"/>
@@ -14040,6 +14052,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:S1"/>
     <mergeCell ref="BD11:BE11"/>
     <mergeCell ref="BF11:BG11"/>
     <mergeCell ref="AA1:AE1"/>
@@ -14052,16 +14074,6 @@
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B3:M68">
@@ -14179,19 +14191,19 @@
       </c>
       <c r="B5" s="23">
         <f>INDEX(Tipps!$BD$3:$BG$3,Tipps!BD13)</f>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C5" s="23">
         <f>INDEX(Tipps!$BD$3:$BG$3,Tipps!BE13)</f>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D5" s="23">
         <f>INDEX(Tipps!$BD$3:$BG$3,Tipps!BF13)</f>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E5" s="23">
         <f>INDEX(Tipps!$BD$3:$BG$3,Tipps!BG13)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F5" s="14"/>
     </row>
@@ -14209,7 +14221,7 @@
       </c>
       <c r="D6" s="17">
         <f>INDEX(Tipps!$BD$4:$BG$4,Tipps!BF13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="17">
         <f>INDEX(Tipps!$BD$4:$BG$4,Tipps!BG13)</f>
@@ -14232,7 +14244,7 @@
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="34"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
@@ -14401,26 +14413,26 @@
         <f>Tipps!AP9</f>
         <v>7</v>
       </c>
-      <c r="B15" s="28" t="e">
+      <c r="B15" s="28">
         <f ca="1">INDEX(Tipps!$AU9:$AX9,Tipps!BD$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C15" s="28" t="e">
+        <v>3</v>
+      </c>
+      <c r="C15" s="28">
         <f ca="1">INDEX(Tipps!$AU9:$AX9,Tipps!BE$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D15" s="28" t="e">
+        <v>3</v>
+      </c>
+      <c r="D15" s="28">
         <f ca="1">INDEX(Tipps!$AU9:$AX9,Tipps!BF$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E15" s="28" t="e">
+        <v>8</v>
+      </c>
+      <c r="E15" s="28">
         <f ca="1">INDEX(Tipps!$AU9:$AX9,Tipps!BG$13)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="29" t="e">
+      <c r="G15" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14779,23 +14791,23 @@
       </c>
       <c r="B30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,B9:B26)</f>
-        <v>9</v>
+        <v>8.1428571428571423</v>
       </c>
       <c r="C30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,C9:C26)</f>
-        <v>8.1666666666666661</v>
+        <v>7.4285714285714288</v>
       </c>
       <c r="D30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,D9:D26)</f>
-        <v>6.833333333333333</v>
+        <v>7</v>
       </c>
       <c r="E30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,E9:E26)</f>
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="G30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,G9:G26)</f>
-        <v>30.5</v>
+        <v>28.571428571428573</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -14804,23 +14816,23 @@
       </c>
       <c r="B31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,B9:B26)</f>
-        <v>2.8867513459481291</v>
+        <v>3.3986792152486629</v>
       </c>
       <c r="C31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,C9:C26)</f>
-        <v>3.9756201472921875</v>
+        <v>4.1007714555449493</v>
       </c>
       <c r="D31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,D9:D26)</f>
-        <v>2.3392781412697001</v>
+        <v>2.2038926600773587</v>
       </c>
       <c r="E31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,E9:E26)</f>
-        <v>2.0615528128088303</v>
+        <v>2.2677868380553634</v>
       </c>
       <c r="G31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,G9:G26)</f>
-        <v>8.05708797684788</v>
+        <v>8.8294497944928239</v>
       </c>
     </row>
   </sheetData>

--- a/2023_tipp.xlsx
+++ b/2023_tipp.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\NFL Tipp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DT\nfl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57623609-E02D-43E3-998B-8A55CA899919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Tipps" sheetId="3" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Verlauf" sheetId="7" r:id="rId3"/>
     <sheet name="Spiele" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,14 +38,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -61,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="260">
   <si>
     <t>ID</t>
   </si>
@@ -839,12 +838,15 @@
   </si>
   <si>
     <t>PIT 24-17</t>
+  </si>
+  <si>
+    <t>MIN 22-17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0;\-0;\-"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1479,25 +1481,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.69651741293532332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98</c:v>
+                  <c:v>0.97512437810945274</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0733333333333333</c:v>
+                  <c:v>1.0679933665008292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0149999999999999</c:v>
+                  <c:v>1.0099502487562189</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89600000000000002</c:v>
+                  <c:v>0.89154228855721385</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95666666666666655</c:v>
+                  <c:v>0.95190713101160862</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98</c:v>
+                  <c:v>0.97512437810945274</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -1585,25 +1587,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.42</c:v>
+                  <c:v>0.41791044776119401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84</c:v>
+                  <c:v>0.83582089552238803</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1199999999999999</c:v>
+                  <c:v>1.1144278606965174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.19</c:v>
+                  <c:v>1.1840796019900497</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2537313432835819</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2599999999999998</c:v>
+                  <c:v>1.2537313432835822</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1399999999999999</c:v>
+                  <c:v>1.1542288557213931</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -1691,25 +1693,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.42</c:v>
+                  <c:v>0.41791044776119401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84</c:v>
+                  <c:v>0.83582089552238803</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74666666666666659</c:v>
+                  <c:v>0.74295190713101167</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80499999999999994</c:v>
+                  <c:v>0.80099502487562191</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.036</c:v>
+                  <c:v>1.0308457711442784</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1433333333333333</c:v>
+                  <c:v>1.1376451077943617</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.04</c:v>
+                  <c:v>1.0348258706467661</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -1797,25 +1799,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.42</c:v>
+                  <c:v>0.41791044776119401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84</c:v>
+                  <c:v>0.83582089552238803</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84</c:v>
+                  <c:v>0.83582089552238814</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84</c:v>
+                  <c:v>0.83582089552238803</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84</c:v>
+                  <c:v>0.83582089552238803</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90999999999999992</c:v>
+                  <c:v>0.9054726368159205</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.84</c:v>
+                  <c:v>0.83582089552238803</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -2750,10 +2752,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2859,7 +2861,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9300882" cy="6011155"/>
+    <xdr:ext cx="9302238" cy="6014577"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -3150,14 +3152,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3580,19 +3582,19 @@
       </c>
       <c r="AY3" s="21">
         <f ca="1">AQ3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.7</v>
+        <v>0.69651741293532332</v>
       </c>
       <c r="AZ3" s="21">
         <f ca="1">AR3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.42</v>
+        <v>0.41791044776119401</v>
       </c>
       <c r="BA3" s="21">
         <f ca="1">AS3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.42</v>
+        <v>0.41791044776119401</v>
       </c>
       <c r="BB3" s="21">
         <f ca="1">AT3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.42</v>
+        <v>0.41791044776119401</v>
       </c>
       <c r="BD3" s="2">
         <f>SUM(J:J)</f>
@@ -3600,7 +3602,7 @@
       </c>
       <c r="BE3" s="2">
         <f>SUM(K:K)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BF3" s="2">
         <f>SUM(L:L)</f>
@@ -3799,19 +3801,19 @@
       </c>
       <c r="AY4" s="21">
         <f ca="1">AQ4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.98</v>
+        <v>0.97512437810945274</v>
       </c>
       <c r="AZ4" s="21">
         <f ca="1">AR4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.84</v>
+        <v>0.83582089552238803</v>
       </c>
       <c r="BA4" s="21">
         <f ca="1">AS4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.84</v>
+        <v>0.83582089552238803</v>
       </c>
       <c r="BB4" s="21">
         <f ca="1">AT4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.84</v>
+        <v>0.83582089552238803</v>
       </c>
       <c r="BD4" s="2">
         <f>COUNTIF($Y:$Y,COLUMN()-55)</f>
@@ -4018,19 +4020,19 @@
       </c>
       <c r="AY5" s="21">
         <f ca="1">AQ5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.0733333333333333</v>
+        <v>1.0679933665008292</v>
       </c>
       <c r="AZ5" s="21">
         <f ca="1">AR5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.1199999999999999</v>
+        <v>1.1144278606965174</v>
       </c>
       <c r="BA5" s="21">
         <f ca="1">AS5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.74666666666666659</v>
+        <v>0.74295190713101167</v>
       </c>
       <c r="BB5" s="21">
         <f ca="1">AT5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.84</v>
+        <v>0.83582089552238814</v>
       </c>
     </row>
     <row r="6" spans="1:60" ht="15" x14ac:dyDescent="0.2">
@@ -4218,19 +4220,19 @@
       </c>
       <c r="AY6" s="21">
         <f ca="1">AQ6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.0149999999999999</v>
+        <v>1.0099502487562189</v>
       </c>
       <c r="AZ6" s="21">
         <f ca="1">AR6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.19</v>
+        <v>1.1840796019900497</v>
       </c>
       <c r="BA6" s="21">
         <f ca="1">AS6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.80499999999999994</v>
+        <v>0.80099502487562191</v>
       </c>
       <c r="BB6" s="21">
         <f ca="1">AT6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.84</v>
+        <v>0.83582089552238803</v>
       </c>
       <c r="BD6" s="2">
         <f>BD3+BD4/100</f>
@@ -4238,7 +4240,7 @@
       </c>
       <c r="BE6" s="2">
         <f t="shared" ref="BE6:BG6" si="38">BE3+BE4/100</f>
-        <v>57.02</v>
+        <v>58.02</v>
       </c>
       <c r="BF6" s="2">
         <f t="shared" si="38"/>
@@ -4437,19 +4439,19 @@
       </c>
       <c r="AY7" s="21">
         <f ca="1">AQ7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.89600000000000002</v>
+        <v>0.89154228855721385</v>
       </c>
       <c r="AZ7" s="21">
         <f ca="1">AR7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.26</v>
+        <v>1.2537313432835819</v>
       </c>
       <c r="BA7" s="21">
         <f ca="1">AS7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.036</v>
+        <v>1.0308457711442784</v>
       </c>
       <c r="BB7" s="21">
         <f ca="1">AT7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.84</v>
+        <v>0.83582089552238803</v>
       </c>
       <c r="BD7" s="2">
         <f>RANK(BD6,$BD$6:$BG$6)</f>
@@ -4656,19 +4658,19 @@
       </c>
       <c r="AY8" s="21">
         <f ca="1">AQ8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.95666666666666655</v>
+        <v>0.95190713101160862</v>
       </c>
       <c r="AZ8" s="21">
         <f ca="1">AR8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.2599999999999998</v>
+        <v>1.2537313432835822</v>
       </c>
       <c r="BA8" s="21">
         <f ca="1">AS8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.1433333333333333</v>
+        <v>1.1376451077943617</v>
       </c>
       <c r="BB8" s="21">
         <f ca="1">AT8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.90999999999999992</v>
+        <v>0.9054726368159205</v>
       </c>
     </row>
     <row r="9" spans="1:60" ht="15" x14ac:dyDescent="0.2">
@@ -4828,7 +4830,7 @@
       </c>
       <c r="AR9" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AS9" s="20">
         <f t="shared" ca="1" si="14"/>
@@ -4844,7 +4846,7 @@
       </c>
       <c r="AV9" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW9" s="2">
         <f t="shared" ca="1" si="36"/>
@@ -4856,23 +4858,23 @@
       </c>
       <c r="AY9" s="21">
         <f ca="1">AQ9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.98</v>
+        <v>0.97512437810945274</v>
       </c>
       <c r="AZ9" s="21">
         <f ca="1">AR9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.1399999999999999</v>
+        <v>1.1542288557213931</v>
       </c>
       <c r="BA9" s="21">
         <f ca="1">AS9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.04</v>
+        <v>1.0348258706467661</v>
       </c>
       <c r="BB9" s="21">
         <f ca="1">AT9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.84</v>
+        <v>0.83582089552238803</v>
       </c>
       <c r="BD9" s="2">
         <f>LARGE($BD$6:$BG$6,COLUMN()-55)</f>
-        <v>57.02</v>
+        <v>58.02</v>
       </c>
       <c r="BE9" s="2">
         <f t="shared" ref="BE9:BG9" si="40">LARGE($BD$6:$BG$6,COLUMN()-55)</f>
@@ -8180,7 +8182,9 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B28/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B28,100),ROUNDDOWN(Tipps!B28/100,0))</f>
         <v xml:space="preserve">MIN vs SF </v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="10" t="s">
+        <v>259</v>
+      </c>
       <c r="E28" s="11" t="s">
         <v>248</v>
       </c>
@@ -8193,25 +8197,25 @@
       <c r="H28" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="J28" s="14" t="str">
+      <c r="J28" s="14">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K28" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="K28" s="14">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L28" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="L28" s="14">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M28" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="M28" s="14">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O28" s="2" t="str">
         <f t="shared" ref="O28:S68" si="43">LEFT(INDEX($D28:$H28,O$2+1),3)</f>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="P28" s="2" t="str">
         <f t="shared" si="42"/>
@@ -8259,7 +8263,7 @@
       </c>
       <c r="AA28" s="2" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AB28" s="2">
         <f t="shared" si="20"/>
@@ -8267,7 +8271,7 @@
       </c>
       <c r="AC28" s="2">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="2">
         <f t="shared" si="22"/>
@@ -8279,7 +8283,7 @@
       </c>
       <c r="AF28" s="2" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>17</v>
       </c>
       <c r="AG28" s="2">
         <f t="shared" si="25"/>
@@ -14100,7 +14104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14191,7 +14195,7 @@
       </c>
       <c r="B5" s="23">
         <f>INDEX(Tipps!$BD$3:$BG$3,Tipps!BD13)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="23">
         <f>INDEX(Tipps!$BD$3:$BG$3,Tipps!BE13)</f>
@@ -14415,7 +14419,7 @@
       </c>
       <c r="B15" s="28">
         <f ca="1">INDEX(Tipps!$AU9:$AX9,Tipps!BD$13)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="28">
         <f ca="1">INDEX(Tipps!$AU9:$AX9,Tipps!BE$13)</f>
@@ -14432,7 +14436,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14791,7 +14795,7 @@
       </c>
       <c r="B30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,B9:B26)</f>
-        <v>8.1428571428571423</v>
+        <v>8.2857142857142865</v>
       </c>
       <c r="C30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,C9:C26)</f>
@@ -14807,7 +14811,7 @@
       </c>
       <c r="G30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,G9:G26)</f>
-        <v>28.571428571428573</v>
+        <v>28.714285714285715</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -14816,7 +14820,7 @@
       </c>
       <c r="B31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,B9:B26)</f>
-        <v>3.3986792152486629</v>
+        <v>3.1943828249996997</v>
       </c>
       <c r="C31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,C9:C26)</f>
@@ -14832,7 +14836,7 @@
       </c>
       <c r="G31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,G9:G26)</f>
-        <v>8.8294497944928239</v>
+        <v>8.6472834002408892</v>
       </c>
     </row>
   </sheetData>
@@ -14925,7 +14929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/2023_tipp.xlsx
+++ b/2023_tipp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DT\nfl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\NFL Tipp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{075F9808-D44E-BD41-910A-DB59977CA417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipps" sheetId="3" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Verlauf" sheetId="7" r:id="rId3"/>
     <sheet name="Spiele" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="275">
   <si>
     <t>ID</t>
   </si>
@@ -841,18 +842,60 @@
   </si>
   <si>
     <t>MIN 22-17</t>
+  </si>
+  <si>
+    <t>MIA 30-13</t>
+  </si>
+  <si>
+    <t>MIN 23-16</t>
+  </si>
+  <si>
+    <t>KC  29-13</t>
+  </si>
+  <si>
+    <t>DAL 27-20</t>
+  </si>
+  <si>
+    <t>MIA 33-18</t>
+  </si>
+  <si>
+    <t>KC  27-22</t>
+  </si>
+  <si>
+    <t>MIA 27-20</t>
+  </si>
+  <si>
+    <t>MIN 21-20</t>
+  </si>
+  <si>
+    <t>DAL 24-20</t>
+  </si>
+  <si>
+    <t>GB  24-20</t>
+  </si>
+  <si>
+    <t>DAL 43-20</t>
+  </si>
+  <si>
+    <t>MIA 31-17</t>
+  </si>
+  <si>
+    <t>MIN 24-10</t>
+  </si>
+  <si>
+    <t>DEN 24-09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0;\-0;\-"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -925,12 +968,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1228,6 +1265,15 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1238,15 +1284,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1481,28 +1518,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.69651741293532332</c:v>
+                  <c:v>0.67796610169491522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97512437810945274</c:v>
+                  <c:v>0.94915254237288138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0679933665008292</c:v>
+                  <c:v>1.03954802259887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0099502487562189</c:v>
+                  <c:v>0.98305084745762716</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89154228855721385</c:v>
+                  <c:v>0.8677966101694915</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95190713101160862</c:v>
+                  <c:v>0.92655367231638419</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97512437810945274</c:v>
+                  <c:v>0.94915254237288138</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.9152542372881356</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
@@ -1587,28 +1624,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.41791044776119401</c:v>
+                  <c:v>0.40677966101694918</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83582089552238803</c:v>
+                  <c:v>0.81355932203389836</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1144278606965174</c:v>
+                  <c:v>1.0847457627118644</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1840796019900497</c:v>
+                  <c:v>1.152542372881356</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2537313432835819</c:v>
+                  <c:v>1.2203389830508475</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2537313432835822</c:v>
+                  <c:v>1.2203389830508475</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1542288557213931</c:v>
+                  <c:v>1.1234866828087167</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.152542372881356</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
@@ -1693,28 +1730,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.41791044776119401</c:v>
+                  <c:v>0.40677966101694918</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83582089552238803</c:v>
+                  <c:v>0.81355932203389836</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74295190713101167</c:v>
+                  <c:v>0.7231638418079096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80099502487562191</c:v>
+                  <c:v>0.77966101694915257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0308457711442784</c:v>
+                  <c:v>1.0033898305084745</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1376451077943617</c:v>
+                  <c:v>1.1073446327683616</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0348258706467661</c:v>
+                  <c:v>1.0072639225181599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.0508474576271187</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
@@ -1799,28 +1836,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.41791044776119401</c:v>
+                  <c:v>0.40677966101694918</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83582089552238803</c:v>
+                  <c:v>0.81355932203389836</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83582089552238814</c:v>
+                  <c:v>0.81355932203389836</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83582089552238803</c:v>
+                  <c:v>0.81355932203389836</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83582089552238803</c:v>
+                  <c:v>0.81355932203389836</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9054726368159205</c:v>
+                  <c:v>0.88135593220338981</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.83582089552238803</c:v>
+                  <c:v>0.81355932203389836</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.88135593220338981</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
@@ -2752,10 +2789,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2861,7 +2898,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9302238" cy="6014577"/>
+    <xdr:ext cx="9300882" cy="6011155"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -3152,140 +3189,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.03125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
-    <col min="3" max="8" width="11.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.125" style="4" customWidth="1"/>
-    <col min="10" max="14" width="4.125" style="1" customWidth="1"/>
-    <col min="15" max="36" width="4.125" style="2" customWidth="1"/>
-    <col min="37" max="37" width="4.125" style="1" customWidth="1"/>
-    <col min="38" max="38" width="11" style="2"/>
-    <col min="39" max="40" width="4.125" style="2" customWidth="1"/>
-    <col min="41" max="41" width="11" style="2"/>
-    <col min="42" max="50" width="4.125" style="2" customWidth="1"/>
-    <col min="51" max="54" width="11" style="2"/>
-    <col min="55" max="59" width="4.125" style="2" customWidth="1"/>
-    <col min="60" max="60" width="11" style="2"/>
-    <col min="61" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="1.8359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.63671875" style="1" customWidth="1"/>
+    <col min="3" max="8" width="11.64453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.16796875" style="4" customWidth="1"/>
+    <col min="10" max="14" width="4.16796875" style="1" customWidth="1"/>
+    <col min="15" max="36" width="4.16796875" style="2" customWidth="1"/>
+    <col min="37" max="37" width="4.16796875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="11.03125" style="2"/>
+    <col min="39" max="40" width="4.16796875" style="2" customWidth="1"/>
+    <col min="41" max="41" width="11.03125" style="2"/>
+    <col min="42" max="50" width="4.16796875" style="2" customWidth="1"/>
+    <col min="51" max="54" width="11.03125" style="2"/>
+    <col min="55" max="59" width="4.16796875" style="2" customWidth="1"/>
+    <col min="60" max="60" width="11.03125" style="2"/>
+    <col min="61" max="16384" width="11.03125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="B1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37" t="s">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="36" t="str">
+      <c r="J1" s="34" t="str">
         <f>LEFT(E2,1)</f>
         <v>J</v>
       </c>
-      <c r="K1" s="36" t="str">
+      <c r="K1" s="34" t="str">
         <f>LEFT(F2,1)</f>
         <v>F</v>
       </c>
-      <c r="L1" s="36" t="str">
+      <c r="L1" s="34" t="str">
         <f>LEFT(G2,1)</f>
         <v>D</v>
       </c>
-      <c r="M1" s="36" t="str">
+      <c r="M1" s="34" t="str">
         <f>LEFT(H2,1)</f>
         <v>T</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32" t="s">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32" t="s">
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32" t="s">
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32" t="s">
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AL1" s="32" t="s">
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AL1" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32" t="s">
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32" t="s">
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32" t="s">
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32" t="s">
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="32"/>
-      <c r="BD1" s="32" t="s">
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BD1" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="32"/>
-      <c r="BG1" s="32"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
     </row>
-    <row r="2" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+    <row r="2" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3298,11 +3335,11 @@
       <c r="H2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
       <c r="O2" s="2">
         <v>0</v>
       </c>
@@ -3398,7 +3435,7 @@
         <v>Thomas</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -3582,41 +3619,41 @@
       </c>
       <c r="AY3" s="21">
         <f ca="1">AQ3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.69651741293532332</v>
+        <v>0.67796610169491522</v>
       </c>
       <c r="AZ3" s="21">
         <f ca="1">AR3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.41791044776119401</v>
+        <v>0.40677966101694918</v>
       </c>
       <c r="BA3" s="21">
         <f ca="1">AS3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.41791044776119401</v>
+        <v>0.40677966101694918</v>
       </c>
       <c r="BB3" s="21">
         <f ca="1">AT3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.41791044776119401</v>
+        <v>0.40677966101694918</v>
       </c>
       <c r="BD3" s="2">
         <f>SUM(J:J)</f>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="BE3" s="2">
         <f>SUM(K:K)</f>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="BF3" s="2">
         <f>SUM(L:L)</f>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="BG3" s="2">
         <f>SUM(M:M)</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="BH3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:60" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <f>IF(MOD(B4,10)=MOD(B3,10),A3,MOD(A3+1,2))</f>
         <v>0</v>
@@ -3801,19 +3838,19 @@
       </c>
       <c r="AY4" s="21">
         <f ca="1">AQ4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.97512437810945274</v>
+        <v>0.94915254237288138</v>
       </c>
       <c r="AZ4" s="21">
         <f ca="1">AR4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.83582089552238803</v>
+        <v>0.81355932203389836</v>
       </c>
       <c r="BA4" s="21">
         <f ca="1">AS4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.83582089552238803</v>
+        <v>0.81355932203389836</v>
       </c>
       <c r="BB4" s="21">
         <f ca="1">AT4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.83582089552238803</v>
+        <v>0.81355932203389836</v>
       </c>
       <c r="BD4" s="2">
         <f>COUNTIF($Y:$Y,COLUMN()-55)</f>
@@ -3835,7 +3872,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:60" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A68" si="33">IF(MOD(B5,10)=MOD(B4,10),A4,MOD(A4+1,2))</f>
         <v>0</v>
@@ -4020,22 +4057,22 @@
       </c>
       <c r="AY5" s="21">
         <f ca="1">AQ5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.0679933665008292</v>
+        <v>1.03954802259887</v>
       </c>
       <c r="AZ5" s="21">
         <f ca="1">AR5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.1144278606965174</v>
+        <v>1.0847457627118644</v>
       </c>
       <c r="BA5" s="21">
         <f ca="1">AS5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.74295190713101167</v>
+        <v>0.7231638418079096</v>
       </c>
       <c r="BB5" s="21">
         <f ca="1">AT5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.83582089552238814</v>
+        <v>0.81355932203389836</v>
       </c>
     </row>
-    <row r="6" spans="1:60" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -4220,41 +4257,41 @@
       </c>
       <c r="AY6" s="21">
         <f ca="1">AQ6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.0099502487562189</v>
+        <v>0.98305084745762716</v>
       </c>
       <c r="AZ6" s="21">
         <f ca="1">AR6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.1840796019900497</v>
+        <v>1.152542372881356</v>
       </c>
       <c r="BA6" s="21">
         <f ca="1">AS6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.80099502487562191</v>
+        <v>0.77966101694915257</v>
       </c>
       <c r="BB6" s="21">
         <f ca="1">AT6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.83582089552238803</v>
+        <v>0.81355932203389836</v>
       </c>
       <c r="BD6" s="2">
         <f>BD3+BD4/100</f>
-        <v>49.02</v>
+        <v>54.02</v>
       </c>
       <c r="BE6" s="2">
         <f t="shared" ref="BE6:BG6" si="38">BE3+BE4/100</f>
-        <v>58.02</v>
+        <v>68.02</v>
       </c>
       <c r="BF6" s="2">
         <f t="shared" si="38"/>
-        <v>52.02</v>
+        <v>62.02</v>
       </c>
       <c r="BG6" s="2">
         <f t="shared" si="38"/>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="BH6" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:60" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -4439,19 +4476,19 @@
       </c>
       <c r="AY7" s="21">
         <f ca="1">AQ7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.89154228855721385</v>
+        <v>0.8677966101694915</v>
       </c>
       <c r="AZ7" s="21">
         <f ca="1">AR7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.2537313432835819</v>
+        <v>1.2203389830508475</v>
       </c>
       <c r="BA7" s="21">
         <f ca="1">AS7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.0308457711442784</v>
+        <v>1.0033898305084745</v>
       </c>
       <c r="BB7" s="21">
         <f ca="1">AT7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.83582089552238803</v>
+        <v>0.81355932203389836</v>
       </c>
       <c r="BD7" s="2">
         <f>RANK(BD6,$BD$6:$BG$6)</f>
@@ -4473,7 +4510,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:60" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -4658,22 +4695,22 @@
       </c>
       <c r="AY8" s="21">
         <f ca="1">AQ8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.95190713101160862</v>
+        <v>0.92655367231638419</v>
       </c>
       <c r="AZ8" s="21">
         <f ca="1">AR8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.2537313432835822</v>
+        <v>1.2203389830508475</v>
       </c>
       <c r="BA8" s="21">
         <f ca="1">AS8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.1376451077943617</v>
+        <v>1.1073446327683616</v>
       </c>
       <c r="BB8" s="21">
         <f ca="1">AT8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.9054726368159205</v>
+        <v>0.88135593220338981</v>
       </c>
     </row>
-    <row r="9" spans="1:60" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -4858,41 +4895,41 @@
       </c>
       <c r="AY9" s="21">
         <f ca="1">AQ9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.97512437810945274</v>
+        <v>0.94915254237288138</v>
       </c>
       <c r="AZ9" s="21">
         <f ca="1">AR9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.1542288557213931</v>
+        <v>1.1234866828087167</v>
       </c>
       <c r="BA9" s="21">
         <f ca="1">AS9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.0348258706467661</v>
+        <v>1.0072639225181599</v>
       </c>
       <c r="BB9" s="21">
         <f ca="1">AT9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.83582089552238803</v>
+        <v>0.81355932203389836</v>
       </c>
       <c r="BD9" s="2">
         <f>LARGE($BD$6:$BG$6,COLUMN()-55)</f>
-        <v>58.02</v>
+        <v>68.02</v>
       </c>
       <c r="BE9" s="2">
         <f t="shared" ref="BE9:BG9" si="40">LARGE($BD$6:$BG$6,COLUMN()-55)</f>
-        <v>52.02</v>
+        <v>62.02</v>
       </c>
       <c r="BF9" s="2">
         <f t="shared" si="40"/>
-        <v>49.02</v>
+        <v>54.02</v>
       </c>
       <c r="BG9" s="2">
         <f t="shared" si="40"/>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="BH9" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -5037,59 +5074,59 @@
       </c>
       <c r="AO10" s="20" t="b">
         <f ca="1">OFFSET(Tipps!$D$2,AN10,)&lt;&gt;""</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10" s="20">
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="AQ10" s="20" t="e">
+      <c r="AQ10" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AR10" s="20" t="e">
+        <v>54</v>
+      </c>
+      <c r="AR10" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS10" s="20" t="e">
+        <v>68</v>
+      </c>
+      <c r="AS10" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT10" s="20" t="e">
+        <v>62</v>
+      </c>
+      <c r="AT10" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU10" s="2" t="e">
+        <v>52</v>
+      </c>
+      <c r="AU10" s="2">
         <f t="shared" ca="1" si="34"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV10" s="2" t="e">
+        <v>5</v>
+      </c>
+      <c r="AV10" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW10" s="2" t="e">
+        <v>10</v>
+      </c>
+      <c r="AW10" s="2">
         <f t="shared" ca="1" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX10" s="2" t="e">
+        <v>10</v>
+      </c>
+      <c r="AX10" s="2">
         <f t="shared" ca="1" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY10" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="AY10" s="21">
         <f ca="1">AQ10/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ10" s="21" t="e">
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="AZ10" s="21">
         <f ca="1">AR10/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BA10" s="21" t="e">
+        <v>1.152542372881356</v>
+      </c>
+      <c r="BA10" s="21">
         <f ca="1">AS10/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BB10" s="21" t="e">
+        <v>1.0508474576271187</v>
+      </c>
+      <c r="BB10" s="21">
         <f ca="1">AT10/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>#N/A</v>
+        <v>0.88135593220338981</v>
       </c>
       <c r="BD10" s="2">
         <f>MATCH(BD9,$BD$6:$BG$6,0)</f>
@@ -5111,7 +5148,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:60" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -5310,16 +5347,16 @@
         <f ca="1">AT11/(Ergebnisse!$G$30/4*(ROW()-2))</f>
         <v>#N/A</v>
       </c>
-      <c r="BD11" s="32" t="s">
+      <c r="BD11" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="BE11" s="33"/>
-      <c r="BF11" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG11" s="35"/>
+      <c r="BE11" s="36"/>
+      <c r="BF11" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="38"/>
     </row>
-    <row r="12" spans="1:60" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -5519,7 +5556,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:60" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -5738,7 +5775,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:60" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -5938,7 +5975,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:60" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -6138,7 +6175,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:60" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -6338,7 +6375,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -6538,7 +6575,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -6738,7 +6775,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -6938,7 +6975,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -7141,7 +7178,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -7288,7 +7325,7 @@
       <c r="AS21" s="20"/>
       <c r="AT21" s="20"/>
     </row>
-    <row r="22" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -7435,7 +7472,7 @@
       <c r="AS22" s="20"/>
       <c r="AT22" s="20"/>
     </row>
-    <row r="23" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -7582,7 +7619,7 @@
       <c r="AS23" s="20"/>
       <c r="AT23" s="20"/>
     </row>
-    <row r="24" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -7729,7 +7766,7 @@
       <c r="AS24" s="20"/>
       <c r="AT24" s="20"/>
     </row>
-    <row r="25" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -7876,7 +7913,7 @@
       <c r="AS25" s="20"/>
       <c r="AT25" s="20"/>
     </row>
-    <row r="26" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -8023,7 +8060,7 @@
       <c r="AS26" s="20"/>
       <c r="AT26" s="20"/>
     </row>
-    <row r="27" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -8170,7 +8207,7 @@
       <c r="AS27" s="20"/>
       <c r="AT27" s="20"/>
     </row>
-    <row r="28" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -8317,7 +8354,7 @@
       <c r="AS28" s="20"/>
       <c r="AT28" s="20"/>
     </row>
-    <row r="29" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -8464,7 +8501,7 @@
       <c r="AS29" s="20"/>
       <c r="AT29" s="20"/>
     </row>
-    <row r="30" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -8476,30 +8513,38 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B30/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B30,100),ROUNDDOWN(Tipps!B30/100,0))</f>
         <v>NE  at MIA</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="10" t="s">
+        <v>271</v>
+      </c>
       <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="F30" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>266</v>
+      </c>
       <c r="J30" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K30" s="14" t="str">
+      <c r="K30" s="14">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L30" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="L30" s="14">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M30" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="M30" s="14">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="O30" s="2" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>MIA</v>
       </c>
       <c r="P30" s="2" t="str">
         <f t="shared" si="42"/>
@@ -8507,19 +8552,19 @@
       </c>
       <c r="Q30" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>MIA</v>
       </c>
       <c r="R30" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>MIA</v>
       </c>
       <c r="S30" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>MIA</v>
       </c>
       <c r="T30" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="2">
         <f t="shared" si="6"/>
@@ -8541,49 +8586,49 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Z30" s="2" t="str" cm="1">
+      <c r="Z30" s="2" cm="1">
         <f t="array" ref="Z30">IF(AND(O30&lt;&gt;"",SUM(T30:W30)=3),SUMPRODUCT(P$2:S$2,1-T30:W30),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AA30" s="2" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>31</v>
       </c>
       <c r="AB30" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="2">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="2" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>17</v>
       </c>
       <c r="AG30" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="2">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="20" t="b">
         <f>Tipps!A30&lt;&gt;Tipps!A31</f>
@@ -8601,7 +8646,7 @@
       <c r="AS30" s="20"/>
       <c r="AT30" s="20"/>
     </row>
-    <row r="31" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -8613,62 +8658,72 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B31/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B31,100),ROUNDDOWN(Tipps!B31/100,0))</f>
         <v>KC  at DEN</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="J31" s="14" t="str">
+      <c r="D31" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="14">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K31" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="K31" s="14">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L31" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="L31" s="14">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M31" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="M31" s="14">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O31" s="2" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>DEN</v>
       </c>
       <c r="P31" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="Q31" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="R31" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="S31" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="T31" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="2">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="2">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" s="2">
         <f t="shared" si="18"/>
@@ -8684,7 +8739,7 @@
       </c>
       <c r="AA31" s="2" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>24</v>
       </c>
       <c r="AB31" s="2">
         <f t="shared" si="20"/>
@@ -8692,35 +8747,35 @@
       </c>
       <c r="AC31" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="2">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" s="2" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>09</v>
       </c>
       <c r="AG31" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI31" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="2">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="20" t="b">
         <f>Tipps!A31&lt;&gt;Tipps!A32</f>
@@ -8738,7 +8793,7 @@
       <c r="AS31" s="20"/>
       <c r="AT31" s="20"/>
     </row>
-    <row r="32" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -8750,50 +8805,60 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B32/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B32,100),ROUNDDOWN(Tipps!B32/100,0))</f>
         <v xml:space="preserve">MIN at GB </v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="J32" s="14" t="str">
+      <c r="D32" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="J32" s="14">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K32" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="K32" s="14">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L32" s="14" t="str">
+        <v>4</v>
+      </c>
+      <c r="L32" s="14">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M32" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="M32" s="14">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="O32" s="2" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="P32" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v xml:space="preserve">GB </v>
       </c>
       <c r="Q32" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="R32" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="S32" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="T32" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" s="2">
         <f t="shared" si="6"/>
@@ -8809,23 +8874,23 @@
       </c>
       <c r="X32" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="2" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Z32" s="2" t="str" cm="1">
+      <c r="Z32" s="2" cm="1">
         <f t="array" ref="Z32">IF(AND(O32&lt;&gt;"",SUM(T32:W32)=3),SUMPRODUCT(P$2:S$2,1-T32:W32),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AA32" s="2" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>24</v>
       </c>
       <c r="AB32" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="2">
         <f t="shared" si="21"/>
@@ -8833,31 +8898,31 @@
       </c>
       <c r="AD32" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="2">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="2" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="AG32" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ32" s="2">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="20" t="b">
         <f>Tipps!A32&lt;&gt;Tipps!A33</f>
@@ -8875,7 +8940,7 @@
       <c r="AS32" s="20"/>
       <c r="AT32" s="20"/>
     </row>
-    <row r="33" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -8887,46 +8952,56 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B33/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B33,100),ROUNDDOWN(Tipps!B33/100,0))</f>
         <v>LAR at DAL</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="J33" s="14" t="str">
+      <c r="D33" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="J33" s="14">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K33" s="14" t="str">
+        <v>4</v>
+      </c>
+      <c r="K33" s="14">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L33" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="L33" s="14">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M33" s="14" t="str">
+        <v>4</v>
+      </c>
+      <c r="M33" s="14">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="O33" s="2" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>DAL</v>
       </c>
       <c r="P33" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>DAL</v>
       </c>
       <c r="Q33" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>DAL</v>
       </c>
       <c r="R33" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>DAL</v>
       </c>
       <c r="S33" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>DAL</v>
       </c>
       <c r="T33" s="2">
         <f t="shared" si="5"/>
@@ -8958,27 +9033,27 @@
       </c>
       <c r="AA33" s="2" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>43</v>
       </c>
       <c r="AB33" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="2">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="2" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="AG33" s="2">
         <f t="shared" si="25"/>
@@ -8986,7 +9061,7 @@
       </c>
       <c r="AH33" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="2">
         <f t="shared" si="27"/>
@@ -9012,7 +9087,7 @@
       <c r="AS33" s="20"/>
       <c r="AT33" s="20"/>
     </row>
-    <row r="34" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -9149,7 +9224,7 @@
       <c r="AS34" s="20"/>
       <c r="AT34" s="20"/>
     </row>
-    <row r="35" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -9286,7 +9361,7 @@
       <c r="AS35" s="20"/>
       <c r="AT35" s="20"/>
     </row>
-    <row r="36" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -9423,7 +9498,7 @@
       <c r="AS36" s="20"/>
       <c r="AT36" s="20"/>
     </row>
-    <row r="37" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -9560,7 +9635,7 @@
       <c r="AS37" s="20"/>
       <c r="AT37" s="20"/>
     </row>
-    <row r="38" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -9697,7 +9772,7 @@
       <c r="AS38" s="20"/>
       <c r="AT38" s="20"/>
     </row>
-    <row r="39" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -9834,7 +9909,7 @@
       <c r="AS39" s="20"/>
       <c r="AT39" s="20"/>
     </row>
-    <row r="40" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -9971,7 +10046,7 @@
       <c r="AS40" s="20"/>
       <c r="AT40" s="20"/>
     </row>
-    <row r="41" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -10108,7 +10183,7 @@
       <c r="AS41" s="20"/>
       <c r="AT41" s="20"/>
     </row>
-    <row r="42" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -10245,7 +10320,7 @@
       <c r="AS42" s="20"/>
       <c r="AT42" s="20"/>
     </row>
-    <row r="43" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -10382,7 +10457,7 @@
       <c r="AS43" s="20"/>
       <c r="AT43" s="20"/>
     </row>
-    <row r="44" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -10519,7 +10594,7 @@
       <c r="AS44" s="20"/>
       <c r="AT44" s="20"/>
     </row>
-    <row r="45" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -10656,7 +10731,7 @@
       <c r="AS45" s="20"/>
       <c r="AT45" s="20"/>
     </row>
-    <row r="46" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -10793,7 +10868,7 @@
       <c r="AS46" s="20"/>
       <c r="AT46" s="20"/>
     </row>
-    <row r="47" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -10930,7 +11005,7 @@
       <c r="AS47" s="20"/>
       <c r="AT47" s="20"/>
     </row>
-    <row r="48" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -11067,7 +11142,7 @@
       <c r="AS48" s="20"/>
       <c r="AT48" s="20"/>
     </row>
-    <row r="49" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -11204,7 +11279,7 @@
       <c r="AS49" s="20"/>
       <c r="AT49" s="20"/>
     </row>
-    <row r="50" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -11341,7 +11416,7 @@
       <c r="AS50" s="20"/>
       <c r="AT50" s="20"/>
     </row>
-    <row r="51" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -11478,7 +11553,7 @@
       <c r="AS51" s="20"/>
       <c r="AT51" s="20"/>
     </row>
-    <row r="52" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -11615,7 +11690,7 @@
       <c r="AS52" s="20"/>
       <c r="AT52" s="20"/>
     </row>
-    <row r="53" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -11752,7 +11827,7 @@
       <c r="AS53" s="20"/>
       <c r="AT53" s="20"/>
     </row>
-    <row r="54" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -11892,7 +11967,7 @@
       <c r="AS54" s="20"/>
       <c r="AT54" s="20"/>
     </row>
-    <row r="55" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -12029,7 +12104,7 @@
       <c r="AS55" s="20"/>
       <c r="AT55" s="20"/>
     </row>
-    <row r="56" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -12166,7 +12241,7 @@
       <c r="AS56" s="20"/>
       <c r="AT56" s="20"/>
     </row>
-    <row r="57" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -12303,7 +12378,7 @@
       <c r="AS57" s="20"/>
       <c r="AT57" s="20"/>
     </row>
-    <row r="58" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -12440,7 +12515,7 @@
       <c r="AS58" s="20"/>
       <c r="AT58" s="20"/>
     </row>
-    <row r="59" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -12577,7 +12652,7 @@
       <c r="AS59" s="20"/>
       <c r="AT59" s="20"/>
     </row>
-    <row r="60" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -12714,7 +12789,7 @@
       <c r="AS60" s="20"/>
       <c r="AT60" s="20"/>
     </row>
-    <row r="61" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -12851,7 +12926,7 @@
       <c r="AS61" s="20"/>
       <c r="AT61" s="20"/>
     </row>
-    <row r="62" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -12988,7 +13063,7 @@
       <c r="AS62" s="20"/>
       <c r="AT62" s="20"/>
     </row>
-    <row r="63" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -13125,7 +13200,7 @@
       <c r="AS63" s="20"/>
       <c r="AT63" s="20"/>
     </row>
-    <row r="64" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -13262,7 +13337,7 @@
       <c r="AS64" s="20"/>
       <c r="AT64" s="20"/>
     </row>
-    <row r="65" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -13399,7 +13474,7 @@
       <c r="AS65" s="20"/>
       <c r="AT65" s="20"/>
     </row>
-    <row r="66" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -13536,7 +13611,7 @@
       <c r="AS66" s="20"/>
       <c r="AT66" s="20"/>
     </row>
-    <row r="67" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -13673,7 +13748,7 @@
       <c r="AS67" s="20"/>
       <c r="AT67" s="20"/>
     </row>
-    <row r="68" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
@@ -13810,7 +13885,7 @@
       <c r="AS68" s="20"/>
       <c r="AT68" s="20"/>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B69" s="5"/>
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
@@ -13822,7 +13897,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B70" s="5" t="s">
         <v>94</v>
       </c>
@@ -13875,7 +13950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B71" s="5" t="s">
         <v>99</v>
       </c>
@@ -13928,7 +14003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B72" s="5" t="s">
         <v>102</v>
       </c>
@@ -13981,7 +14056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:46" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B73" s="5" t="s">
         <v>104</v>
       </c>
@@ -14034,38 +14109,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A75" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A77" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>230</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:S1"/>
     <mergeCell ref="BD11:BE11"/>
     <mergeCell ref="BF11:BG11"/>
     <mergeCell ref="AA1:AE1"/>
@@ -14078,6 +14143,16 @@
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B3:M68">
@@ -14104,20 +14179,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.03125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" style="1"/>
+    <col min="1" max="1" width="11.03125" style="1"/>
     <col min="2" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="1"/>
+    <col min="6" max="6" width="4.16796875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.03125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>225</v>
       </c>
@@ -14138,7 +14213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
         <v>226</v>
       </c>
@@ -14159,7 +14234,7 @@
         <v>zahlen</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>227</v>
       </c>
@@ -14181,7 +14256,7 @@
       </c>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -14189,29 +14264,29 @@
       <c r="E4" s="25"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="23">
         <f>INDEX(Tipps!$BD$3:$BG$3,Tipps!BD13)</f>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C5" s="23">
         <f>INDEX(Tipps!$BD$3:$BG$3,Tipps!BE13)</f>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D5" s="23">
         <f>INDEX(Tipps!$BD$3:$BG$3,Tipps!BF13)</f>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E5" s="23">
         <f>INDEX(Tipps!$BD$3:$BG$3,Tipps!BG13)</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
@@ -14233,13 +14308,13 @@
       </c>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="22"/>
       <c r="G7" s="39" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="40" t="s">
         <v>202</v>
@@ -14248,9 +14323,9 @@
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="36"/>
+      <c r="G8" s="34"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f>Tipps!AP3</f>
         <v>1</v>
@@ -14277,7 +14352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <f>Tipps!AP4</f>
         <v>2</v>
@@ -14304,7 +14379,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <f>Tipps!AP5</f>
         <v>3</v>
@@ -14331,7 +14406,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <f>Tipps!AP6</f>
         <v>4</v>
@@ -14358,7 +14433,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <f>Tipps!AP7</f>
         <v>5</v>
@@ -14385,7 +14460,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <f>Tipps!AP8</f>
         <v>6</v>
@@ -14412,7 +14487,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <f>Tipps!AP9</f>
         <v>7</v>
@@ -14439,34 +14514,34 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <f>Tipps!AP10</f>
         <v>8</v>
       </c>
-      <c r="B16" s="28" t="e">
+      <c r="B16" s="28">
         <f ca="1">INDEX(Tipps!$AU10:$AX10,Tipps!BD$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C16" s="28" t="e">
+        <v>10</v>
+      </c>
+      <c r="C16" s="28">
         <f ca="1">INDEX(Tipps!$AU10:$AX10,Tipps!BE$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D16" s="28" t="e">
+        <v>10</v>
+      </c>
+      <c r="D16" s="28">
         <f ca="1">INDEX(Tipps!$AU10:$AX10,Tipps!BF$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E16" s="28" t="e">
+        <v>5</v>
+      </c>
+      <c r="E16" s="28">
         <f ca="1">INDEX(Tipps!$AU10:$AX10,Tipps!BG$13)</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
       <c r="F16" s="18"/>
-      <c r="G16" s="29" t="e">
+      <c r="G16" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <f>Tipps!AP11</f>
         <v>9</v>
@@ -14493,7 +14568,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <f>Tipps!AP12</f>
         <v>10</v>
@@ -14520,7 +14595,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <f>Tipps!AP13</f>
         <v>11</v>
@@ -14547,7 +14622,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <f>Tipps!AP14</f>
         <v>12</v>
@@ -14574,7 +14649,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <f>Tipps!AP15</f>
         <v>13</v>
@@ -14601,7 +14676,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <f>Tipps!AP16</f>
         <v>14</v>
@@ -14628,7 +14703,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <f>Tipps!AP17</f>
         <v>15</v>
@@ -14655,7 +14730,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <f>Tipps!AP18</f>
         <v>16</v>
@@ -14682,7 +14757,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <f>Tipps!AP19</f>
         <v>17</v>
@@ -14709,7 +14784,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <f>Tipps!AP20</f>
         <v>18</v>
@@ -14736,10 +14811,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="s">
         <v>208</v>
       </c>
@@ -14764,7 +14839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="22" t="s">
         <v>209</v>
       </c>
@@ -14782,61 +14857,61 @@
       </c>
       <c r="E29" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,E9:E26)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G29" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,G9:G26)</f>
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="22" t="s">
         <v>206</v>
       </c>
       <c r="B30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,B9:B26)</f>
-        <v>8.2857142857142865</v>
+        <v>8.5</v>
       </c>
       <c r="C30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,C9:C26)</f>
-        <v>7.4285714285714288</v>
+        <v>7.75</v>
       </c>
       <c r="D30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,D9:D26)</f>
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="E30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,E9:E26)</f>
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="G30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,G9:G26)</f>
-        <v>28.714285714285715</v>
+        <v>29.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="22" t="s">
         <v>207</v>
       </c>
       <c r="B31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,B9:B26)</f>
-        <v>3.1943828249996997</v>
+        <v>3.0413812651491097</v>
       </c>
       <c r="C31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,C9:C26)</f>
-        <v>4.1007714555449493</v>
+        <v>3.9290584113754279</v>
       </c>
       <c r="D31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,D9:D26)</f>
-        <v>2.2038926600773587</v>
+        <v>2.1650635094610968</v>
       </c>
       <c r="E31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,E9:E26)</f>
-        <v>2.2677868380553634</v>
+        <v>2.5</v>
       </c>
       <c r="G31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,G9:G26)</f>
-        <v>8.6472834002408892</v>
+        <v>8.3516465442450336</v>
       </c>
     </row>
   </sheetData>
@@ -14929,19 +15004,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.03125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.59765625" style="1" customWidth="1"/>
     <col min="2" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="1"/>
+    <col min="6" max="16384" width="11.03125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
       <c r="B1" s="19" t="s">
         <v>108</v>
@@ -14956,7 +15031,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>112</v>
@@ -14971,7 +15046,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>116</v>
       </c>
@@ -14988,7 +15063,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>121</v>
       </c>
@@ -15005,7 +15080,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>126</v>
       </c>
@@ -15022,7 +15097,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>131</v>
       </c>
@@ -15039,7 +15114,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>135</v>
       </c>
@@ -15056,7 +15131,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>139</v>
       </c>
@@ -15073,7 +15148,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>144</v>
       </c>
@@ -15090,7 +15165,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>147</v>
       </c>
@@ -15107,7 +15182,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>151</v>
       </c>
@@ -15124,7 +15199,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>154</v>
       </c>
@@ -15137,7 +15212,7 @@
       </c>
       <c r="E12" s="18"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>156</v>
       </c>
@@ -15152,7 +15227,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>158</v>
       </c>
@@ -15169,7 +15244,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>161</v>
       </c>
@@ -15184,7 +15259,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>164</v>
       </c>
@@ -15201,7 +15276,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>167</v>
       </c>
@@ -15218,7 +15293,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>170</v>
       </c>
@@ -15235,7 +15310,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>172</v>
       </c>
@@ -15252,7 +15327,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>176</v>
       </c>

--- a/2023_tipp.xlsx
+++ b/2023_tipp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\NFL Tipp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BA29F0-1C42-4B87-A5CE-F2B3543ABC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309F4990-7DE5-4E81-A722-BF4ADF5FE0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="299">
   <si>
     <t>ID</t>
   </si>
@@ -935,6 +935,30 @@
   </si>
   <si>
     <t>MIN 31-28</t>
+  </si>
+  <si>
+    <t>IND 17-00</t>
+  </si>
+  <si>
+    <t>IND 17-14</t>
+  </si>
+  <si>
+    <t>IND 27-15</t>
+  </si>
+  <si>
+    <t>MIN 23-20</t>
+  </si>
+  <si>
+    <t>NO  21-17</t>
+  </si>
+  <si>
+    <t>NO  24-21</t>
+  </si>
+  <si>
+    <t>IND 23-20</t>
+  </si>
+  <si>
+    <t>NO  23-20</t>
   </si>
 </sst>
 </file>
@@ -3253,10 +3277,10 @@
   <dimension ref="A1:BI78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9891,10 +9915,18 @@
         <v>NE  vs IND</v>
       </c>
       <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="E38" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>297</v>
+      </c>
       <c r="J38" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -9917,35 +9949,35 @@
       </c>
       <c r="P38" s="2" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>IND</v>
       </c>
       <c r="Q38" s="2" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>IND</v>
       </c>
       <c r="R38" s="2" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>IND</v>
       </c>
       <c r="S38" s="2" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>IND</v>
       </c>
       <c r="T38" s="2">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="2">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38" s="2">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" s="2">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38" s="2">
         <f t="shared" si="20"/>
@@ -9965,19 +9997,19 @@
       </c>
       <c r="AB38" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="2">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="2" t="str">
         <f t="shared" si="26"/>
@@ -9985,19 +10017,19 @@
       </c>
       <c r="AG38" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="2">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38" s="2">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ38" s="2">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="20" t="b">
         <f>Tipps!A38&lt;&gt;Tipps!A39</f>
@@ -10032,10 +10064,18 @@
         <v xml:space="preserve">MIN vs NO </v>
       </c>
       <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+      <c r="E39" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>298</v>
+      </c>
       <c r="J39" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10058,39 +10098,39 @@
       </c>
       <c r="P39" s="2" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">NO </v>
       </c>
       <c r="Q39" s="2" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="R39" s="2" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">NO </v>
       </c>
       <c r="S39" s="2" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">NO </v>
       </c>
       <c r="T39" s="2">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="2">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="2">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" s="2">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y39" s="2" t="str">
         <f t="shared" si="51"/>
@@ -10106,19 +10146,19 @@
       </c>
       <c r="AB39" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="2">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD39" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="2" t="str">
         <f t="shared" si="26"/>
@@ -10126,19 +10166,19 @@
       </c>
       <c r="AG39" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="2">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI39" s="2">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ39" s="2">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="20" t="b">
         <f>Tipps!A39&lt;&gt;Tipps!A40</f>

--- a/2023_tipp.xlsx
+++ b/2023_tipp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\NFL Tipp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309F4990-7DE5-4E81-A722-BF4ADF5FE0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{9939DBE2-D82C-C040-902E-95283712B25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="301">
   <si>
     <t>ID</t>
   </si>
@@ -959,6 +959,12 @@
   </si>
   <si>
     <t>NO  23-20</t>
+  </si>
+  <si>
+    <t>IND 10-06</t>
+  </si>
+  <si>
+    <t>MIN 27-19</t>
   </si>
 </sst>
 </file>
@@ -970,7 +976,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1043,12 +1049,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1602,34 +1602,34 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.67669172932330823</c:v>
+                  <c:v>0.71174377224199281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94736842105263153</c:v>
+                  <c:v>0.99644128113878994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0375939849624061</c:v>
+                  <c:v>1.0913404507710556</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98120300751879697</c:v>
+                  <c:v>1.0320284697508897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86616541353383458</c:v>
+                  <c:v>0.91103202846975084</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92481203007518797</c:v>
+                  <c:v>0.97271648873072347</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94736842105263142</c:v>
+                  <c:v>0.99644128113878994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91353383458646609</c:v>
+                  <c:v>0.9608540925266903</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90225563909774431</c:v>
+                  <c:v>0.94899169632265712</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.89679715302491103</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#N/A</c:v>
@@ -1708,34 +1708,34 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.40601503759398494</c:v>
+                  <c:v>0.42704626334519569</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81203007518796988</c:v>
+                  <c:v>0.85409252669039137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0827067669172932</c:v>
+                  <c:v>1.1387900355871885</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1503759398496241</c:v>
+                  <c:v>1.2099644128113878</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2180451127819549</c:v>
+                  <c:v>1.2811387900355873</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2180451127819549</c:v>
+                  <c:v>1.2811387900355871</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1213748657357678</c:v>
+                  <c:v>1.179461108286731</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1503759398496241</c:v>
+                  <c:v>1.2099644128113878</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0827067669172932</c:v>
+                  <c:v>1.1387900355871885</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.1103202846975089</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#N/A</c:v>
@@ -1814,34 +1814,34 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.40601503759398494</c:v>
+                  <c:v>0.42704626334519569</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81203007518796988</c:v>
+                  <c:v>0.85409252669039137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72180451127819545</c:v>
+                  <c:v>0.75919335705812563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77819548872180444</c:v>
+                  <c:v>0.81850533807829173</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0015037593984963</c:v>
+                  <c:v>1.0533807829181494</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1052631578947367</c:v>
+                  <c:v>1.1625148279952549</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0053705692803436</c:v>
+                  <c:v>1.0574478901881037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0488721804511278</c:v>
+                  <c:v>1.103202846975089</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.112781954887218</c:v>
+                  <c:v>1.1704230921312773</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.0960854092526691</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#N/A</c:v>
@@ -1920,34 +1920,34 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.40601503759398494</c:v>
+                  <c:v>0.42704626334519569</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81203007518796988</c:v>
+                  <c:v>0.85409252669039137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81203007518796988</c:v>
+                  <c:v>0.85409252669039137</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81203007518796988</c:v>
+                  <c:v>0.85409252669039137</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81203007518796999</c:v>
+                  <c:v>0.85409252669039148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.87969924812030076</c:v>
+                  <c:v>0.92526690391459065</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.81203007518796988</c:v>
+                  <c:v>0.85409252669039137</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.87969924812030076</c:v>
+                  <c:v>0.92526690391459065</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90225563909774431</c:v>
+                  <c:v>0.94899169632265712</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.89679715302491103</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#N/A</c:v>
@@ -3277,32 +3277,32 @@
   <dimension ref="A1:BI78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.03125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
-    <col min="3" max="8" width="11.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.125" style="4" customWidth="1"/>
-    <col min="10" max="14" width="4.125" style="1" customWidth="1"/>
-    <col min="15" max="36" width="4.125" style="2" customWidth="1"/>
-    <col min="37" max="37" width="4.125" style="1" customWidth="1"/>
-    <col min="38" max="38" width="11" style="2"/>
-    <col min="39" max="41" width="4.125" style="2" customWidth="1"/>
-    <col min="42" max="42" width="11" style="2"/>
-    <col min="43" max="51" width="4.125" style="2" customWidth="1"/>
-    <col min="52" max="55" width="11" style="2"/>
-    <col min="56" max="60" width="4.125" style="2" customWidth="1"/>
-    <col min="61" max="61" width="11" style="2"/>
-    <col min="62" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="1.8359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.63671875" style="1" customWidth="1"/>
+    <col min="3" max="8" width="11.64453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.16796875" style="4" customWidth="1"/>
+    <col min="10" max="14" width="4.16796875" style="1" customWidth="1"/>
+    <col min="15" max="36" width="4.16796875" style="2" customWidth="1"/>
+    <col min="37" max="37" width="4.16796875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="11.03125" style="2"/>
+    <col min="39" max="41" width="4.16796875" style="2" customWidth="1"/>
+    <col min="42" max="42" width="11.03125" style="2"/>
+    <col min="43" max="51" width="4.16796875" style="2" customWidth="1"/>
+    <col min="52" max="55" width="11.03125" style="2"/>
+    <col min="56" max="60" width="4.16796875" style="2" customWidth="1"/>
+    <col min="61" max="61" width="11.03125" style="2"/>
+    <col min="62" max="16384" width="11.03125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.15">
       <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
@@ -3406,7 +3406,7 @@
       <c r="BG1" s="33"/>
       <c r="BH1" s="33"/>
     </row>
-    <row r="2" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -3522,7 +3522,7 @@
         <v>Thomas</v>
       </c>
     </row>
-    <row r="3" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -3710,41 +3710,41 @@
       </c>
       <c r="AZ3" s="21">
         <f ca="1">AR3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.67669172932330823</v>
+        <v>0.71174377224199281</v>
       </c>
       <c r="BA3" s="21">
         <f ca="1">AS3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.40601503759398494</v>
+        <v>0.42704626334519569</v>
       </c>
       <c r="BB3" s="21">
         <f ca="1">AT3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.40601503759398494</v>
+        <v>0.42704626334519569</v>
       </c>
       <c r="BC3" s="21">
         <f ca="1">AU3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.40601503759398494</v>
+        <v>0.42704626334519569</v>
       </c>
       <c r="BE3" s="2">
         <f>SUM(J:J)</f>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="BF3" s="2">
         <f>SUM(K:K)</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BG3" s="2">
         <f>SUM(L:L)</f>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="BH3" s="2">
         <f>SUM(M:M)</f>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="BI3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <f>IF(MOD(B4,10)=MOD(B3,10),A3,MOD(A3+1,2))</f>
         <v>0</v>
@@ -3933,19 +3933,19 @@
       </c>
       <c r="AZ4" s="21">
         <f ca="1">AR4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.94736842105263153</v>
+        <v>0.99644128113878994</v>
       </c>
       <c r="BA4" s="21">
         <f ca="1">AS4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.81203007518796988</v>
+        <v>0.85409252669039137</v>
       </c>
       <c r="BB4" s="21">
         <f ca="1">AT4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.81203007518796988</v>
+        <v>0.85409252669039137</v>
       </c>
       <c r="BC4" s="21">
         <f ca="1">AU4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.81203007518796988</v>
+        <v>0.85409252669039137</v>
       </c>
       <c r="BE4" s="2">
         <f>COUNTIF($Y:$Y,COLUMN()-COLUMN($BD$4))</f>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="BF4" s="2">
         <f t="shared" ref="BF4:BH4" si="35">COUNTIF($Y:$Y,COLUMN()-COLUMN($BD$4))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG4" s="2">
         <f t="shared" si="35"/>
@@ -3967,7 +3967,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A68" si="36">IF(MOD(B5,10)=MOD(B4,10),A4,MOD(A4+1,2))</f>
         <v>0</v>
@@ -4156,22 +4156,22 @@
       </c>
       <c r="AZ5" s="21">
         <f ca="1">AR5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.0375939849624061</v>
+        <v>1.0913404507710556</v>
       </c>
       <c r="BA5" s="21">
         <f ca="1">AS5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.0827067669172932</v>
+        <v>1.1387900355871885</v>
       </c>
       <c r="BB5" s="21">
         <f ca="1">AT5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.72180451127819545</v>
+        <v>0.75919335705812563</v>
       </c>
       <c r="BC5" s="21">
         <f ca="1">AU5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.81203007518796988</v>
+        <v>0.85409252669039137</v>
       </c>
     </row>
-    <row r="6" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -4360,41 +4360,41 @@
       </c>
       <c r="AZ6" s="21">
         <f ca="1">AR6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.98120300751879697</v>
+        <v>1.0320284697508897</v>
       </c>
       <c r="BA6" s="21">
         <f ca="1">AS6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.1503759398496241</v>
+        <v>1.2099644128113878</v>
       </c>
       <c r="BB6" s="21">
         <f ca="1">AT6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.77819548872180444</v>
+        <v>0.81850533807829173</v>
       </c>
       <c r="BC6" s="21">
         <f ca="1">AU6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.81203007518796988</v>
+        <v>0.85409252669039137</v>
       </c>
       <c r="BE6" s="2">
         <f>BE3+BE4/100</f>
-        <v>60.02</v>
+        <v>63.02</v>
       </c>
       <c r="BF6" s="2">
         <f t="shared" ref="BF6:BH6" si="41">BF3+BF4/100</f>
-        <v>72.02</v>
+        <v>78.03</v>
       </c>
       <c r="BG6" s="2">
         <f t="shared" si="41"/>
-        <v>74.03</v>
+        <v>77.03</v>
       </c>
       <c r="BH6" s="2">
         <f t="shared" si="41"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="BI6" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -4583,19 +4583,19 @@
       </c>
       <c r="AZ7" s="21">
         <f ca="1">AR7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.86616541353383458</v>
+        <v>0.91103202846975084</v>
       </c>
       <c r="BA7" s="21">
         <f ca="1">AS7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.2180451127819549</v>
+        <v>1.2811387900355873</v>
       </c>
       <c r="BB7" s="21">
         <f ca="1">AT7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.0015037593984963</v>
+        <v>1.0533807829181494</v>
       </c>
       <c r="BC7" s="21">
         <f ca="1">AU7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.81203007518796999</v>
+        <v>0.85409252669039148</v>
       </c>
       <c r="BE7" s="2">
         <f>RANK(BE6,$BE$6:$BH$6)</f>
@@ -4603,11 +4603,11 @@
       </c>
       <c r="BF7" s="2">
         <f t="shared" ref="BF7:BH7" si="42">RANK(BF6,$BE$6:$BH$6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="2">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH7" s="2">
         <f t="shared" si="42"/>
@@ -4617,7 +4617,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -4806,22 +4806,22 @@
       </c>
       <c r="AZ8" s="21">
         <f ca="1">AR8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.92481203007518797</v>
+        <v>0.97271648873072347</v>
       </c>
       <c r="BA8" s="21">
         <f ca="1">AS8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.2180451127819549</v>
+        <v>1.2811387900355871</v>
       </c>
       <c r="BB8" s="21">
         <f ca="1">AT8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.1052631578947367</v>
+        <v>1.1625148279952549</v>
       </c>
       <c r="BC8" s="21">
         <f ca="1">AU8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.87969924812030076</v>
+        <v>0.92526690391459065</v>
       </c>
     </row>
-    <row r="9" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -5010,41 +5010,41 @@
       </c>
       <c r="AZ9" s="21">
         <f ca="1">AR9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.94736842105263142</v>
+        <v>0.99644128113878994</v>
       </c>
       <c r="BA9" s="21">
         <f ca="1">AS9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.1213748657357678</v>
+        <v>1.179461108286731</v>
       </c>
       <c r="BB9" s="21">
         <f ca="1">AT9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.0053705692803436</v>
+        <v>1.0574478901881037</v>
       </c>
       <c r="BC9" s="21">
         <f ca="1">AU9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.81203007518796988</v>
+        <v>0.85409252669039137</v>
       </c>
       <c r="BE9" s="2">
         <f>LARGE($BE$6:$BH$6,COLUMN()-COLUMN($BD$9))</f>
-        <v>74.03</v>
+        <v>78.03</v>
       </c>
       <c r="BF9" s="2">
         <f t="shared" ref="BF9:BH9" si="43">LARGE($BE$6:$BH$6,COLUMN()-COLUMN($BD$9))</f>
-        <v>72.02</v>
+        <v>77.03</v>
       </c>
       <c r="BG9" s="2">
         <f t="shared" si="43"/>
-        <v>60.02</v>
+        <v>63.02</v>
       </c>
       <c r="BH9" s="2">
         <f t="shared" si="43"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="BI9" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -5233,27 +5233,27 @@
       </c>
       <c r="AZ10" s="21">
         <f ca="1">AR10/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.91353383458646609</v>
+        <v>0.9608540925266903</v>
       </c>
       <c r="BA10" s="21">
         <f ca="1">AS10/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.1503759398496241</v>
+        <v>1.2099644128113878</v>
       </c>
       <c r="BB10" s="21">
         <f ca="1">AT10/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.0488721804511278</v>
+        <v>1.103202846975089</v>
       </c>
       <c r="BC10" s="21">
         <f ca="1">AU10/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.87969924812030076</v>
+        <v>0.92526690391459065</v>
       </c>
       <c r="BE10" s="2">
         <f>MATCH(BE9,$BE$6:$BH$6,0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF10" s="2">
         <f t="shared" ref="BF10:BH10" si="44">MATCH(BF9,$BE$6:$BH$6,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG10" s="2">
         <f t="shared" si="44"/>
@@ -5267,7 +5267,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -5456,19 +5456,19 @@
       </c>
       <c r="AZ11" s="21">
         <f ca="1">AR11/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.90225563909774431</v>
+        <v>0.94899169632265712</v>
       </c>
       <c r="BA11" s="21">
         <f ca="1">AS11/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.0827067669172932</v>
+        <v>1.1387900355871885</v>
       </c>
       <c r="BB11" s="21">
         <f ca="1">AT11/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.112781954887218</v>
+        <v>1.1704230921312773</v>
       </c>
       <c r="BC11" s="21">
         <f ca="1">AU11/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.90225563909774431</v>
+        <v>0.94899169632265712</v>
       </c>
       <c r="BE11" s="33" t="s">
         <v>240</v>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="BH11" s="36"/>
     </row>
-    <row r="12" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -5628,62 +5628,62 @@
       </c>
       <c r="AP12" s="20" t="b">
         <f ca="1">OFFSET(Tipps!$AN$2,AO12,)&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ12" s="20">
         <f t="shared" si="33"/>
         <v>10</v>
       </c>
-      <c r="AR12" s="20" t="e">
+      <c r="AR12" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS12" s="20" t="e">
+        <v>63</v>
+      </c>
+      <c r="AS12" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT12" s="20" t="e">
+        <v>78</v>
+      </c>
+      <c r="AT12" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU12" s="20" t="e">
+        <v>77</v>
+      </c>
+      <c r="AU12" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV12" s="2" t="e">
+        <v>63</v>
+      </c>
+      <c r="AV12" s="2">
         <f t="shared" ca="1" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW12" s="2" t="e">
+        <v>3</v>
+      </c>
+      <c r="AW12" s="2">
         <f t="shared" ca="1" si="38"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX12" s="2" t="e">
+        <v>6</v>
+      </c>
+      <c r="AX12" s="2">
         <f t="shared" ca="1" si="39"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY12" s="2" t="e">
+        <v>3</v>
+      </c>
+      <c r="AY12" s="2">
         <f t="shared" ca="1" si="40"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ12" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AZ12" s="21">
         <f ca="1">AR12/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BA12" s="21" t="e">
+        <v>0.89679715302491103</v>
+      </c>
+      <c r="BA12" s="21">
         <f ca="1">AS12/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BB12" s="21" t="e">
+        <v>1.1103202846975089</v>
+      </c>
+      <c r="BB12" s="21">
         <f ca="1">AT12/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BC12" s="21" t="e">
+        <v>1.0960854092526691</v>
+      </c>
+      <c r="BC12" s="21">
         <f ca="1">AU12/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>#N/A</v>
+        <v>0.89679715302491103</v>
       </c>
     </row>
-    <row r="13" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -5888,11 +5888,11 @@
       </c>
       <c r="BE13" s="2">
         <f>IF($BG$11,BE10,BD12+1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF13" s="2">
         <f>IF($BG$11,BF10,BE13+1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG13" s="2">
         <f>IF($BG$11,BG10,BF13+1)</f>
@@ -5906,7 +5906,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -6110,7 +6110,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -6314,7 +6314,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -6518,7 +6518,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -6722,7 +6722,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -6926,7 +6926,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -7130,7 +7130,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -7337,7 +7337,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -7488,7 +7488,7 @@
       <c r="AT21" s="20"/>
       <c r="AU21" s="20"/>
     </row>
-    <row r="22" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -7639,7 +7639,7 @@
       <c r="AT22" s="20"/>
       <c r="AU22" s="20"/>
     </row>
-    <row r="23" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -7790,7 +7790,7 @@
       <c r="AT23" s="20"/>
       <c r="AU23" s="20"/>
     </row>
-    <row r="24" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -7941,7 +7941,7 @@
       <c r="AT24" s="20"/>
       <c r="AU24" s="20"/>
     </row>
-    <row r="25" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -8092,7 +8092,7 @@
       <c r="AT25" s="20"/>
       <c r="AU25" s="20"/>
     </row>
-    <row r="26" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -8243,7 +8243,7 @@
       <c r="AT26" s="20"/>
       <c r="AU26" s="20"/>
     </row>
-    <row r="27" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -8394,7 +8394,7 @@
       <c r="AT27" s="20"/>
       <c r="AU27" s="20"/>
     </row>
-    <row r="28" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -8545,7 +8545,7 @@
       <c r="AT28" s="20"/>
       <c r="AU28" s="20"/>
     </row>
-    <row r="29" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -8696,7 +8696,7 @@
       <c r="AT29" s="20"/>
       <c r="AU29" s="20"/>
     </row>
-    <row r="30" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -8845,7 +8845,7 @@
       <c r="AT30" s="20"/>
       <c r="AU30" s="20"/>
     </row>
-    <row r="31" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -8996,7 +8996,7 @@
       <c r="AT31" s="20"/>
       <c r="AU31" s="20"/>
     </row>
-    <row r="32" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -9147,7 +9147,7 @@
       <c r="AT32" s="20"/>
       <c r="AU32" s="20"/>
     </row>
-    <row r="33" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -9298,7 +9298,7 @@
       <c r="AT33" s="20"/>
       <c r="AU33" s="20"/>
     </row>
-    <row r="34" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -9449,7 +9449,7 @@
       <c r="AT34" s="20"/>
       <c r="AU34" s="20"/>
     </row>
-    <row r="35" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -9600,7 +9600,7 @@
       <c r="AT35" s="20"/>
       <c r="AU35" s="20"/>
     </row>
-    <row r="36" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -9751,7 +9751,7 @@
       <c r="AT36" s="20"/>
       <c r="AU36" s="20"/>
     </row>
-    <row r="37" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -9902,7 +9902,7 @@
       <c r="AT37" s="20"/>
       <c r="AU37" s="20"/>
     </row>
-    <row r="38" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -9914,7 +9914,9 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B38/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B38,100),ROUNDDOWN(Tipps!B38/100,0))</f>
         <v>NE  vs IND</v>
       </c>
-      <c r="D38" s="10"/>
+      <c r="D38" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="E38" s="11" t="s">
         <v>291</v>
       </c>
@@ -9927,25 +9929,25 @@
       <c r="H38" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J38" s="14" t="str">
+      <c r="J38" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="K38" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="K38" s="14">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="L38" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="L38" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M38" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="M38" s="14">
         <f t="shared" si="18"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="O38" s="2" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>IND</v>
       </c>
       <c r="P38" s="2" t="str">
         <f t="shared" si="45"/>
@@ -9965,19 +9967,19 @@
       </c>
       <c r="T38" s="2">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="2">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" s="2">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38" s="2">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" s="2">
         <f t="shared" si="20"/>
@@ -9993,7 +9995,7 @@
       </c>
       <c r="AA38" s="2" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="AB38" s="2">
         <f t="shared" si="22"/>
@@ -10013,7 +10015,7 @@
       </c>
       <c r="AF38" s="2" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>06</v>
       </c>
       <c r="AG38" s="2">
         <f t="shared" si="27"/>
@@ -10041,7 +10043,7 @@
       </c>
       <c r="AN38" s="20">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO38" s="20"/>
       <c r="AP38" s="20"/>
@@ -10051,7 +10053,7 @@
       <c r="AT38" s="20"/>
       <c r="AU38" s="20"/>
     </row>
-    <row r="39" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -10063,7 +10065,9 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B39/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B39,100),ROUNDDOWN(Tipps!B39/100,0))</f>
         <v xml:space="preserve">MIN vs NO </v>
       </c>
-      <c r="D39" s="10"/>
+      <c r="D39" s="10" t="s">
+        <v>300</v>
+      </c>
       <c r="E39" s="11" t="s">
         <v>296</v>
       </c>
@@ -10076,25 +10080,25 @@
       <c r="H39" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="J39" s="14" t="str">
+      <c r="J39" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="K39" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="K39" s="14">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="L39" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="L39" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M39" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="M39" s="14">
         <f t="shared" si="18"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O39" s="2" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="P39" s="2" t="str">
         <f t="shared" si="45"/>
@@ -10118,7 +10122,7 @@
       </c>
       <c r="U39" s="2">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" s="2">
         <f t="shared" si="49"/>
@@ -10132,9 +10136,9 @@
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="Y39" s="2" t="str">
+      <c r="Y39" s="2">
         <f t="shared" si="51"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="Z39" s="2" t="str" cm="1">
         <f t="array" ref="Z39">IF(AND(O39&lt;&gt;"",SUM(T39:W39)=3),SUMPRODUCT(P$2:S$2,1-T39:W39),"")</f>
@@ -10142,7 +10146,7 @@
       </c>
       <c r="AA39" s="2" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>27</v>
       </c>
       <c r="AB39" s="2">
         <f t="shared" si="22"/>
@@ -10162,7 +10166,7 @@
       </c>
       <c r="AF39" s="2" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>19</v>
       </c>
       <c r="AG39" s="2">
         <f t="shared" si="27"/>
@@ -10190,7 +10194,7 @@
       </c>
       <c r="AN39" s="20">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO39" s="20"/>
       <c r="AP39" s="20"/>
@@ -10200,7 +10204,7 @@
       <c r="AT39" s="20"/>
       <c r="AU39" s="20"/>
     </row>
-    <row r="40" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -10341,7 +10345,7 @@
       <c r="AT40" s="20"/>
       <c r="AU40" s="20"/>
     </row>
-    <row r="41" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -10482,7 +10486,7 @@
       <c r="AT41" s="20"/>
       <c r="AU41" s="20"/>
     </row>
-    <row r="42" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -10623,7 +10627,7 @@
       <c r="AT42" s="20"/>
       <c r="AU42" s="20"/>
     </row>
-    <row r="43" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -10764,7 +10768,7 @@
       <c r="AT43" s="20"/>
       <c r="AU43" s="20"/>
     </row>
-    <row r="44" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -10905,7 +10909,7 @@
       <c r="AT44" s="20"/>
       <c r="AU44" s="20"/>
     </row>
-    <row r="45" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -11046,7 +11050,7 @@
       <c r="AT45" s="20"/>
       <c r="AU45" s="20"/>
     </row>
-    <row r="46" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -11187,7 +11191,7 @@
       <c r="AT46" s="20"/>
       <c r="AU46" s="20"/>
     </row>
-    <row r="47" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -11328,7 +11332,7 @@
       <c r="AT47" s="20"/>
       <c r="AU47" s="20"/>
     </row>
-    <row r="48" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -11469,7 +11473,7 @@
       <c r="AT48" s="20"/>
       <c r="AU48" s="20"/>
     </row>
-    <row r="49" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -11610,7 +11614,7 @@
       <c r="AT49" s="20"/>
       <c r="AU49" s="20"/>
     </row>
-    <row r="50" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -11751,7 +11755,7 @@
       <c r="AT50" s="20"/>
       <c r="AU50" s="20"/>
     </row>
-    <row r="51" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -11892,7 +11896,7 @@
       <c r="AT51" s="20"/>
       <c r="AU51" s="20"/>
     </row>
-    <row r="52" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -12033,7 +12037,7 @@
       <c r="AT52" s="20"/>
       <c r="AU52" s="20"/>
     </row>
-    <row r="53" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -12174,7 +12178,7 @@
       <c r="AT53" s="20"/>
       <c r="AU53" s="20"/>
     </row>
-    <row r="54" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -12318,7 +12322,7 @@
       <c r="AT54" s="20"/>
       <c r="AU54" s="20"/>
     </row>
-    <row r="55" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -12459,7 +12463,7 @@
       <c r="AT55" s="20"/>
       <c r="AU55" s="20"/>
     </row>
-    <row r="56" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -12600,7 +12604,7 @@
       <c r="AT56" s="20"/>
       <c r="AU56" s="20"/>
     </row>
-    <row r="57" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -12741,7 +12745,7 @@
       <c r="AT57" s="20"/>
       <c r="AU57" s="20"/>
     </row>
-    <row r="58" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -12882,7 +12886,7 @@
       <c r="AT58" s="20"/>
       <c r="AU58" s="20"/>
     </row>
-    <row r="59" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -13023,7 +13027,7 @@
       <c r="AT59" s="20"/>
       <c r="AU59" s="20"/>
     </row>
-    <row r="60" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -13164,7 +13168,7 @@
       <c r="AT60" s="20"/>
       <c r="AU60" s="20"/>
     </row>
-    <row r="61" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -13305,7 +13309,7 @@
       <c r="AT61" s="20"/>
       <c r="AU61" s="20"/>
     </row>
-    <row r="62" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -13446,7 +13450,7 @@
       <c r="AT62" s="20"/>
       <c r="AU62" s="20"/>
     </row>
-    <row r="63" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -13587,7 +13591,7 @@
       <c r="AT63" s="20"/>
       <c r="AU63" s="20"/>
     </row>
-    <row r="64" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -13728,7 +13732,7 @@
       <c r="AT64" s="20"/>
       <c r="AU64" s="20"/>
     </row>
-    <row r="65" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -13869,7 +13873,7 @@
       <c r="AT65" s="20"/>
       <c r="AU65" s="20"/>
     </row>
-    <row r="66" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -14010,7 +14014,7 @@
       <c r="AT66" s="20"/>
       <c r="AU66" s="20"/>
     </row>
-    <row r="67" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -14151,7 +14155,7 @@
       <c r="AT67" s="20"/>
       <c r="AU67" s="20"/>
     </row>
-    <row r="68" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -14292,7 +14296,7 @@
       <c r="AT68" s="20"/>
       <c r="AU68" s="20"/>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.15">
       <c r="B69" s="5"/>
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
@@ -14308,7 +14312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.15">
       <c r="B70" s="5" t="s">
         <v>94</v>
       </c>
@@ -14361,7 +14365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.15">
       <c r="B71" s="5" t="s">
         <v>99</v>
       </c>
@@ -14414,7 +14418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.15">
       <c r="B72" s="5" t="s">
         <v>102</v>
       </c>
@@ -14467,7 +14471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.15">
       <c r="B73" s="5" t="s">
         <v>104</v>
       </c>
@@ -14520,22 +14524,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A75" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A77" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>230</v>
       </c>
@@ -14597,15 +14601,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.03125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" style="1"/>
+    <col min="1" max="1" width="11.03125" style="1"/>
     <col min="2" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="1"/>
+    <col min="6" max="6" width="4.16796875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.03125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>225</v>
       </c>
@@ -14626,7 +14630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
         <v>226</v>
       </c>
@@ -14647,17 +14651,17 @@
         <v>zahlen</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>227</v>
       </c>
       <c r="B3" s="24" t="str">
         <f>INDEX(Tipps!$E$2:$H$2,Tipps!BE13)</f>
-        <v>David</v>
+        <v>Franz</v>
       </c>
       <c r="C3" s="24" t="str">
         <f>INDEX(Tipps!$E$2:$H$2,Tipps!BF13)</f>
-        <v>Franz</v>
+        <v>David</v>
       </c>
       <c r="D3" s="24" t="str">
         <f>INDEX(Tipps!$E$2:$H$2,Tipps!BG13)</f>
@@ -14669,7 +14673,7 @@
       </c>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -14677,29 +14681,29 @@
       <c r="E4" s="25"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="23">
         <f>INDEX(Tipps!$BE$3:$BH$3,Tipps!BE13)</f>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C5" s="23">
         <f>INDEX(Tipps!$BE$3:$BH$3,Tipps!BF13)</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D5" s="23">
         <f>INDEX(Tipps!$BE$3:$BH$3,Tipps!BG13)</f>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E5" s="23">
         <f>INDEX(Tipps!$BE$3:$BH$3,Tipps!BH13)</f>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
@@ -14709,7 +14713,7 @@
       </c>
       <c r="C6" s="17">
         <f>INDEX(Tipps!$BE$4:$BH$4,Tipps!BF13)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="17">
         <f>INDEX(Tipps!$BE$4:$BH$4,Tipps!BG13)</f>
@@ -14721,13 +14725,13 @@
       </c>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="22"/>
       <c r="G7" s="40" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="41" t="s">
         <v>202</v>
@@ -14738,7 +14742,7 @@
       <c r="F8" s="19"/>
       <c r="G8" s="37"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f>Tipps!AQ3</f>
         <v>1</v>
@@ -14765,7 +14769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <f>Tipps!AQ4</f>
         <v>2</v>
@@ -14792,18 +14796,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <f>Tipps!AQ5</f>
         <v>3</v>
       </c>
       <c r="B11" s="28">
         <f ca="1">INDEX(Tipps!$AV5:$AY5,Tipps!BE$13)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C11" s="28">
         <f ca="1">INDEX(Tipps!$AV5:$AY5,Tipps!BF$13)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D11" s="28">
         <f ca="1">INDEX(Tipps!$AV5:$AY5,Tipps!BG$13)</f>
@@ -14819,18 +14823,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <f>Tipps!AQ6</f>
         <v>4</v>
       </c>
       <c r="B12" s="28">
         <f ca="1">INDEX(Tipps!$AV6:$AY6,Tipps!BE$13)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12" s="28">
         <f ca="1">INDEX(Tipps!$AV6:$AY6,Tipps!BF$13)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D12" s="28">
         <f ca="1">INDEX(Tipps!$AV6:$AY6,Tipps!BG$13)</f>
@@ -14846,18 +14850,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <f>Tipps!AQ7</f>
         <v>5</v>
       </c>
       <c r="B13" s="28">
         <f ca="1">INDEX(Tipps!$AV7:$AY7,Tipps!BE$13)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" s="28">
         <f ca="1">INDEX(Tipps!$AV7:$AY7,Tipps!BF$13)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D13" s="28">
         <f ca="1">INDEX(Tipps!$AV7:$AY7,Tipps!BG$13)</f>
@@ -14873,18 +14877,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <f>Tipps!AQ8</f>
         <v>6</v>
       </c>
       <c r="B14" s="28">
         <f ca="1">INDEX(Tipps!$AV8:$AY8,Tipps!BE$13)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" s="28">
         <f ca="1">INDEX(Tipps!$AV8:$AY8,Tipps!BF$13)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D14" s="28">
         <f ca="1">INDEX(Tipps!$AV8:$AY8,Tipps!BG$13)</f>
@@ -14900,18 +14904,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <f>Tipps!AQ9</f>
         <v>7</v>
       </c>
       <c r="B15" s="28">
         <f ca="1">INDEX(Tipps!$AV9:$AY9,Tipps!BE$13)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="28">
         <f ca="1">INDEX(Tipps!$AV9:$AY9,Tipps!BF$13)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="28">
         <f ca="1">INDEX(Tipps!$AV9:$AY9,Tipps!BG$13)</f>
@@ -14927,7 +14931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <f>Tipps!AQ10</f>
         <v>8</v>
@@ -14954,18 +14958,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <f>Tipps!AQ11</f>
         <v>9</v>
       </c>
       <c r="B17" s="28">
         <f ca="1">INDEX(Tipps!$AV11:$AY11,Tipps!BE$13)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C17" s="28">
         <f ca="1">INDEX(Tipps!$AV11:$AY11,Tipps!BF$13)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D17" s="28">
         <f ca="1">INDEX(Tipps!$AV11:$AY11,Tipps!BG$13)</f>
@@ -14981,34 +14985,34 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <f>Tipps!AQ12</f>
         <v>10</v>
       </c>
-      <c r="B18" s="28" t="e">
+      <c r="B18" s="28">
         <f ca="1">INDEX(Tipps!$AV12:$AY12,Tipps!BE$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C18" s="28" t="e">
+        <v>6</v>
+      </c>
+      <c r="C18" s="28">
         <f ca="1">INDEX(Tipps!$AV12:$AY12,Tipps!BF$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D18" s="28" t="e">
+        <v>3</v>
+      </c>
+      <c r="D18" s="28">
         <f ca="1">INDEX(Tipps!$AV12:$AY12,Tipps!BG$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" s="28" t="e">
+        <v>3</v>
+      </c>
+      <c r="E18" s="28">
         <f ca="1">INDEX(Tipps!$AV12:$AY12,Tipps!BH$13)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="F18" s="18"/>
-      <c r="G18" s="29" t="e">
+      <c r="G18" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <f>Tipps!AQ13</f>
         <v>11</v>
@@ -15035,7 +15039,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <f>Tipps!AQ14</f>
         <v>12</v>
@@ -15062,7 +15066,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <f>Tipps!AQ15</f>
         <v>13</v>
@@ -15089,7 +15093,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <f>Tipps!AQ16</f>
         <v>14</v>
@@ -15116,7 +15120,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <f>Tipps!AQ17</f>
         <v>15</v>
@@ -15143,7 +15147,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <f>Tipps!AQ18</f>
         <v>16</v>
@@ -15170,7 +15174,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <f>Tipps!AQ19</f>
         <v>17</v>
@@ -15197,7 +15201,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <f>Tipps!AQ20</f>
         <v>18</v>
@@ -15224,10 +15228,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="s">
         <v>208</v>
       </c>
@@ -15252,17 +15256,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="22" t="s">
         <v>209</v>
       </c>
       <c r="B29" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,B9:B26)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C29" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,C9:C26)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,D9:D26)</f>
@@ -15277,54 +15281,54 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="22" t="s">
         <v>206</v>
       </c>
       <c r="B30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,B9:B26)</f>
-        <v>8.2222222222222214</v>
+        <v>7.8</v>
       </c>
       <c r="C30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,C9:C26)</f>
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="D30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,D9:D26)</f>
-        <v>6.666666666666667</v>
+        <v>6.3</v>
       </c>
       <c r="E30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,E9:E26)</f>
-        <v>6.666666666666667</v>
+        <v>6.3</v>
       </c>
       <c r="G30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,G9:G26)</f>
-        <v>29.555555555555557</v>
+        <v>28.1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="22" t="s">
         <v>207</v>
       </c>
       <c r="B31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,B9:B26)</f>
-        <v>3.9377878103709669</v>
+        <v>3.0919249667480613</v>
       </c>
       <c r="C31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,C9:C26)</f>
-        <v>3.197221015541813</v>
+        <v>4.0509258201058191</v>
       </c>
       <c r="D31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,D9:D26)</f>
-        <v>2.0548046676563256</v>
+        <v>2.2383029285599392</v>
       </c>
       <c r="E31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,E9:E26)</f>
-        <v>2.4037008503093262</v>
+        <v>2.5317977802344327</v>
       </c>
       <c r="G31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,G9:G26)</f>
-        <v>7.8755756207419338</v>
+        <v>8.6539008545279739</v>
       </c>
     </row>
   </sheetData>
@@ -15422,14 +15426,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.03125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.59765625" style="1" customWidth="1"/>
     <col min="2" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="1"/>
+    <col min="6" max="16384" width="11.03125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
       <c r="B1" s="19" t="s">
         <v>108</v>
@@ -15444,7 +15448,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>112</v>
@@ -15459,7 +15463,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>116</v>
       </c>
@@ -15476,7 +15480,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>121</v>
       </c>
@@ -15493,7 +15497,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>126</v>
       </c>
@@ -15510,7 +15514,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>131</v>
       </c>
@@ -15527,7 +15531,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>135</v>
       </c>
@@ -15544,7 +15548,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>139</v>
       </c>
@@ -15561,7 +15565,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>144</v>
       </c>
@@ -15578,7 +15582,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>147</v>
       </c>
@@ -15595,7 +15599,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>151</v>
       </c>
@@ -15612,7 +15616,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>154</v>
       </c>
@@ -15625,7 +15629,7 @@
       </c>
       <c r="E12" s="18"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>156</v>
       </c>
@@ -15640,7 +15644,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>158</v>
       </c>
@@ -15657,7 +15661,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>161</v>
       </c>
@@ -15672,7 +15676,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>164</v>
       </c>
@@ -15689,7 +15693,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>167</v>
       </c>
@@ -15706,7 +15710,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>170</v>
       </c>
@@ -15723,7 +15727,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>172</v>
       </c>
@@ -15740,7 +15744,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>176</v>
       </c>

--- a/2023_tipp.xlsx
+++ b/2023_tipp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\NFL Tipp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{9939DBE2-D82C-C040-902E-95283712B25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F54B58-7B5E-4686-BEE3-84EB0386C10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="308">
   <si>
     <t>ID</t>
   </si>
@@ -965,6 +965,27 @@
   </si>
   <si>
     <t>MIN 27-19</t>
+  </si>
+  <si>
+    <t>PHI 31-28</t>
+  </si>
+  <si>
+    <t>SEA 24-17</t>
+  </si>
+  <si>
+    <t>SEA 25-22</t>
+  </si>
+  <si>
+    <t>MIN 24-13</t>
+  </si>
+  <si>
+    <t>SEA 23-21</t>
+  </si>
+  <si>
+    <t>LAR 17-16</t>
+  </si>
+  <si>
+    <t>DEN 21-20</t>
   </si>
 </sst>
 </file>
@@ -976,7 +997,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1049,6 +1070,12 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1349,6 +1376,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1359,15 +1395,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1602,37 +1629,37 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.71174377224199281</c:v>
+                  <c:v>0.77192982456140347</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99644128113878994</c:v>
+                  <c:v>1.0807017543859649</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0913404507710556</c:v>
+                  <c:v>1.183625730994152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0320284697508897</c:v>
+                  <c:v>1.119298245614035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91103202846975084</c:v>
+                  <c:v>0.98807017543859632</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97271648873072347</c:v>
+                  <c:v>1.054970760233918</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99644128113878994</c:v>
+                  <c:v>1.0807017543859649</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9608540925266903</c:v>
+                  <c:v>1.0421052631578946</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94899169632265712</c:v>
+                  <c:v>1.0292397660818713</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.89679715302491103</c:v>
+                  <c:v>0.97263157894736829</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.89824561403508774</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>#N/A</c:v>
@@ -1708,37 +1735,37 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.42704626334519569</c:v>
+                  <c:v>0.4631578947368421</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85409252669039137</c:v>
+                  <c:v>0.9263157894736842</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1387900355871885</c:v>
+                  <c:v>1.2350877192982455</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2099644128113878</c:v>
+                  <c:v>1.3122807017543858</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2811387900355873</c:v>
+                  <c:v>1.3894736842105262</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2811387900355871</c:v>
+                  <c:v>1.3894736842105262</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.179461108286731</c:v>
+                  <c:v>1.2791979949874686</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2099644128113878</c:v>
+                  <c:v>1.3122807017543858</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1387900355871885</c:v>
+                  <c:v>1.2350877192982457</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1103202846975089</c:v>
+                  <c:v>1.2042105263157894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.0947368421052632</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>#N/A</c:v>
@@ -1814,37 +1841,37 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.42704626334519569</c:v>
+                  <c:v>0.4631578947368421</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85409252669039137</c:v>
+                  <c:v>0.9263157894736842</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75919335705812563</c:v>
+                  <c:v>0.82339181286549701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81850533807829173</c:v>
+                  <c:v>0.88771929824561402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0533807829181494</c:v>
+                  <c:v>1.1424561403508771</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1625148279952549</c:v>
+                  <c:v>1.2608187134502924</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0574478901881037</c:v>
+                  <c:v>1.1468671679197995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.103202846975089</c:v>
+                  <c:v>1.1964912280701754</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1704230921312773</c:v>
+                  <c:v>1.2693957115009746</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0960854092526691</c:v>
+                  <c:v>1.1887719298245614</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.0807017543859649</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>#N/A</c:v>
@@ -1920,37 +1947,37 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.42704626334519569</c:v>
+                  <c:v>0.4631578947368421</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85409252669039137</c:v>
+                  <c:v>0.9263157894736842</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85409252669039137</c:v>
+                  <c:v>0.92631578947368409</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85409252669039137</c:v>
+                  <c:v>0.9263157894736842</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85409252669039148</c:v>
+                  <c:v>0.92631578947368409</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92526690391459065</c:v>
+                  <c:v>1.0035087719298246</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.85409252669039137</c:v>
+                  <c:v>0.9263157894736842</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92526690391459065</c:v>
+                  <c:v>1.0035087719298246</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94899169632265712</c:v>
+                  <c:v>1.0292397660818713</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.89679715302491103</c:v>
+                  <c:v>0.97263157894736829</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.9263157894736842</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>#N/A</c:v>
@@ -3277,139 +3304,139 @@
   <dimension ref="A1:BI78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.03125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.8359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.63671875" style="1" customWidth="1"/>
-    <col min="3" max="8" width="11.64453125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.16796875" style="4" customWidth="1"/>
-    <col min="10" max="14" width="4.16796875" style="1" customWidth="1"/>
-    <col min="15" max="36" width="4.16796875" style="2" customWidth="1"/>
-    <col min="37" max="37" width="4.16796875" style="1" customWidth="1"/>
-    <col min="38" max="38" width="11.03125" style="2"/>
-    <col min="39" max="41" width="4.16796875" style="2" customWidth="1"/>
-    <col min="42" max="42" width="11.03125" style="2"/>
-    <col min="43" max="51" width="4.16796875" style="2" customWidth="1"/>
-    <col min="52" max="55" width="11.03125" style="2"/>
-    <col min="56" max="60" width="4.16796875" style="2" customWidth="1"/>
-    <col min="61" max="61" width="11.03125" style="2"/>
-    <col min="62" max="16384" width="11.03125" style="1"/>
+    <col min="1" max="1" width="1.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
+    <col min="3" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="4" customWidth="1"/>
+    <col min="10" max="14" width="4.125" style="1" customWidth="1"/>
+    <col min="15" max="36" width="4.125" style="2" customWidth="1"/>
+    <col min="37" max="37" width="4.125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="11" style="2"/>
+    <col min="39" max="41" width="4.125" style="2" customWidth="1"/>
+    <col min="42" max="42" width="11" style="2"/>
+    <col min="43" max="51" width="4.125" style="2" customWidth="1"/>
+    <col min="52" max="55" width="11" style="2"/>
+    <col min="56" max="60" width="4.125" style="2" customWidth="1"/>
+    <col min="61" max="61" width="11" style="2"/>
+    <col min="62" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.15">
-      <c r="B1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="38" t="s">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="37" t="str">
+      <c r="J1" s="35" t="str">
         <f>LEFT(E2,1)</f>
         <v>J</v>
       </c>
-      <c r="K1" s="37" t="str">
+      <c r="K1" s="35" t="str">
         <f>LEFT(F2,1)</f>
         <v>F</v>
       </c>
-      <c r="L1" s="37" t="str">
+      <c r="L1" s="35" t="str">
         <f>LEFT(G2,1)</f>
         <v>D</v>
       </c>
-      <c r="M1" s="37" t="str">
+      <c r="M1" s="35" t="str">
         <f>LEFT(H2,1)</f>
         <v>T</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33" t="s">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33" t="s">
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33" t="s">
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33" t="s">
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AL1" s="33" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AL1" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="AM1" s="33"/>
+      <c r="AM1" s="36"/>
       <c r="AN1" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="AO1" s="33" t="s">
+      <c r="AO1" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33" t="s">
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33" t="s">
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="AW1" s="33"/>
-      <c r="AX1" s="33"/>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="33" t="s">
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="BA1" s="33"/>
-      <c r="BB1" s="33"/>
-      <c r="BC1" s="33"/>
-      <c r="BE1" s="33" t="s">
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BE1" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="BF1" s="33"/>
-      <c r="BG1" s="33"/>
-      <c r="BH1" s="33"/>
+      <c r="BF1" s="36"/>
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
     </row>
-    <row r="2" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+    <row r="2" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3422,11 +3449,11 @@
       <c r="H2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
       <c r="O2" s="2">
         <v>0</v>
       </c>
@@ -3522,7 +3549,7 @@
         <v>Thomas</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -3710,23 +3737,23 @@
       </c>
       <c r="AZ3" s="21">
         <f ca="1">AR3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.71174377224199281</v>
+        <v>0.77192982456140347</v>
       </c>
       <c r="BA3" s="21">
         <f ca="1">AS3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.42704626334519569</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="BB3" s="21">
         <f ca="1">AT3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.42704626334519569</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="BC3" s="21">
         <f ca="1">AU3/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.42704626334519569</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="BE3" s="2">
         <f>SUM(J:J)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BF3" s="2">
         <f>SUM(K:K)</f>
@@ -3738,13 +3765,13 @@
       </c>
       <c r="BH3" s="2">
         <f>SUM(M:M)</f>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="BI3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f>IF(MOD(B4,10)=MOD(B3,10),A3,MOD(A3+1,2))</f>
         <v>0</v>
@@ -3933,19 +3960,19 @@
       </c>
       <c r="AZ4" s="21">
         <f ca="1">AR4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.99644128113878994</v>
+        <v>1.0807017543859649</v>
       </c>
       <c r="BA4" s="21">
         <f ca="1">AS4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.85409252669039137</v>
+        <v>0.9263157894736842</v>
       </c>
       <c r="BB4" s="21">
         <f ca="1">AT4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.85409252669039137</v>
+        <v>0.9263157894736842</v>
       </c>
       <c r="BC4" s="21">
         <f ca="1">AU4/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.85409252669039137</v>
+        <v>0.9263157894736842</v>
       </c>
       <c r="BE4" s="2">
         <f>COUNTIF($Y:$Y,COLUMN()-COLUMN($BD$4))</f>
@@ -3961,13 +3988,13 @@
       </c>
       <c r="BH4" s="2">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI4" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A68" si="36">IF(MOD(B5,10)=MOD(B4,10),A4,MOD(A4+1,2))</f>
         <v>0</v>
@@ -4156,22 +4183,22 @@
       </c>
       <c r="AZ5" s="21">
         <f ca="1">AR5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.0913404507710556</v>
+        <v>1.183625730994152</v>
       </c>
       <c r="BA5" s="21">
         <f ca="1">AS5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.1387900355871885</v>
+        <v>1.2350877192982455</v>
       </c>
       <c r="BB5" s="21">
         <f ca="1">AT5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.75919335705812563</v>
+        <v>0.82339181286549701</v>
       </c>
       <c r="BC5" s="21">
         <f ca="1">AU5/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.85409252669039137</v>
+        <v>0.92631578947368409</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -4360,23 +4387,23 @@
       </c>
       <c r="AZ6" s="21">
         <f ca="1">AR6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.0320284697508897</v>
+        <v>1.119298245614035</v>
       </c>
       <c r="BA6" s="21">
         <f ca="1">AS6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.2099644128113878</v>
+        <v>1.3122807017543858</v>
       </c>
       <c r="BB6" s="21">
         <f ca="1">AT6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.81850533807829173</v>
+        <v>0.88771929824561402</v>
       </c>
       <c r="BC6" s="21">
         <f ca="1">AU6/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.85409252669039137</v>
+        <v>0.9263157894736842</v>
       </c>
       <c r="BE6" s="2">
         <f>BE3+BE4/100</f>
-        <v>63.02</v>
+        <v>64.02</v>
       </c>
       <c r="BF6" s="2">
         <f t="shared" ref="BF6:BH6" si="41">BF3+BF4/100</f>
@@ -4388,13 +4415,13 @@
       </c>
       <c r="BH6" s="2">
         <f t="shared" si="41"/>
-        <v>63</v>
+        <v>66.010000000000005</v>
       </c>
       <c r="BI6" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -4583,23 +4610,23 @@
       </c>
       <c r="AZ7" s="21">
         <f ca="1">AR7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.91103202846975084</v>
+        <v>0.98807017543859632</v>
       </c>
       <c r="BA7" s="21">
         <f ca="1">AS7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.2811387900355873</v>
+        <v>1.3894736842105262</v>
       </c>
       <c r="BB7" s="21">
         <f ca="1">AT7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.0533807829181494</v>
+        <v>1.1424561403508771</v>
       </c>
       <c r="BC7" s="21">
         <f ca="1">AU7/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.85409252669039148</v>
+        <v>0.92631578947368409</v>
       </c>
       <c r="BE7" s="2">
         <f>RANK(BE6,$BE$6:$BH$6)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF7" s="2">
         <f t="shared" ref="BF7:BH7" si="42">RANK(BF6,$BE$6:$BH$6)</f>
@@ -4611,13 +4638,13 @@
       </c>
       <c r="BH7" s="2">
         <f t="shared" si="42"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI7" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -4806,22 +4833,22 @@
       </c>
       <c r="AZ8" s="21">
         <f ca="1">AR8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.97271648873072347</v>
+        <v>1.054970760233918</v>
       </c>
       <c r="BA8" s="21">
         <f ca="1">AS8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.2811387900355871</v>
+        <v>1.3894736842105262</v>
       </c>
       <c r="BB8" s="21">
         <f ca="1">AT8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.1625148279952549</v>
+        <v>1.2608187134502924</v>
       </c>
       <c r="BC8" s="21">
         <f ca="1">AU8/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.92526690391459065</v>
+        <v>1.0035087719298246</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -5010,19 +5037,19 @@
       </c>
       <c r="AZ9" s="21">
         <f ca="1">AR9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.99644128113878994</v>
+        <v>1.0807017543859649</v>
       </c>
       <c r="BA9" s="21">
         <f ca="1">AS9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.179461108286731</v>
+        <v>1.2791979949874686</v>
       </c>
       <c r="BB9" s="21">
         <f ca="1">AT9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.0574478901881037</v>
+        <v>1.1468671679197995</v>
       </c>
       <c r="BC9" s="21">
         <f ca="1">AU9/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.85409252669039137</v>
+        <v>0.9263157894736842</v>
       </c>
       <c r="BE9" s="2">
         <f>LARGE($BE$6:$BH$6,COLUMN()-COLUMN($BD$9))</f>
@@ -5034,17 +5061,17 @@
       </c>
       <c r="BG9" s="2">
         <f t="shared" si="43"/>
-        <v>63.02</v>
+        <v>66.010000000000005</v>
       </c>
       <c r="BH9" s="2">
         <f t="shared" si="43"/>
-        <v>63</v>
+        <v>64.02</v>
       </c>
       <c r="BI9" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -5233,19 +5260,19 @@
       </c>
       <c r="AZ10" s="21">
         <f ca="1">AR10/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.9608540925266903</v>
+        <v>1.0421052631578946</v>
       </c>
       <c r="BA10" s="21">
         <f ca="1">AS10/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.2099644128113878</v>
+        <v>1.3122807017543858</v>
       </c>
       <c r="BB10" s="21">
         <f ca="1">AT10/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.103202846975089</v>
+        <v>1.1964912280701754</v>
       </c>
       <c r="BC10" s="21">
         <f ca="1">AU10/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.92526690391459065</v>
+        <v>1.0035087719298246</v>
       </c>
       <c r="BE10" s="2">
         <f>MATCH(BE9,$BE$6:$BH$6,0)</f>
@@ -5257,17 +5284,17 @@
       </c>
       <c r="BG10" s="2">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BH10" s="2">
         <f t="shared" si="44"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BI10" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -5456,30 +5483,30 @@
       </c>
       <c r="AZ11" s="21">
         <f ca="1">AR11/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.94899169632265712</v>
+        <v>1.0292397660818713</v>
       </c>
       <c r="BA11" s="21">
         <f ca="1">AS11/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.1387900355871885</v>
+        <v>1.2350877192982457</v>
       </c>
       <c r="BB11" s="21">
         <f ca="1">AT11/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.1704230921312773</v>
+        <v>1.2693957115009746</v>
       </c>
       <c r="BC11" s="21">
         <f ca="1">AU11/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.94899169632265712</v>
-      </c>
-      <c r="BE11" s="33" t="s">
+        <v>1.0292397660818713</v>
+      </c>
+      <c r="BE11" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="BF11" s="34"/>
-      <c r="BG11" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH11" s="36"/>
+      <c r="BF11" s="37"/>
+      <c r="BG11" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="39"/>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -5668,22 +5695,22 @@
       </c>
       <c r="AZ12" s="21">
         <f ca="1">AR12/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.89679715302491103</v>
+        <v>0.97263157894736829</v>
       </c>
       <c r="BA12" s="21">
         <f ca="1">AS12/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.1103202846975089</v>
+        <v>1.2042105263157894</v>
       </c>
       <c r="BB12" s="21">
         <f ca="1">AT12/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>1.0960854092526691</v>
+        <v>1.1887719298245614</v>
       </c>
       <c r="BC12" s="21">
         <f ca="1">AU12/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>0.89679715302491103</v>
+        <v>0.97263157894736829</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -5832,59 +5859,59 @@
       </c>
       <c r="AP13" s="20" t="b">
         <f ca="1">OFFSET(Tipps!$AN$2,AO13,)&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13" s="20">
         <f t="shared" si="33"/>
         <v>11</v>
       </c>
-      <c r="AR13" s="20" t="e">
+      <c r="AR13" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS13" s="20" t="e">
+        <v>64</v>
+      </c>
+      <c r="AS13" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT13" s="20" t="e">
+        <v>78</v>
+      </c>
+      <c r="AT13" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU13" s="20" t="e">
+        <v>77</v>
+      </c>
+      <c r="AU13" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV13" s="2" t="e">
+        <v>66</v>
+      </c>
+      <c r="AV13" s="2">
         <f t="shared" ca="1" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW13" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="2">
         <f t="shared" ca="1" si="38"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX13" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="2">
         <f t="shared" ca="1" si="39"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY13" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="2">
         <f t="shared" ca="1" si="40"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ13" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="AZ13" s="21">
         <f ca="1">AR13/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BA13" s="21" t="e">
+        <v>0.89824561403508774</v>
+      </c>
+      <c r="BA13" s="21">
         <f ca="1">AS13/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BB13" s="21" t="e">
+        <v>1.0947368421052632</v>
+      </c>
+      <c r="BB13" s="21">
         <f ca="1">AT13/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BC13" s="21" t="e">
+        <v>1.0807017543859649</v>
+      </c>
+      <c r="BC13" s="21">
         <f ca="1">AU13/(Ergebnisse!$G$30/4*(ROW()-2))</f>
-        <v>#N/A</v>
+        <v>0.9263157894736842</v>
       </c>
       <c r="BE13" s="2">
         <f>IF($BG$11,BE10,BD12+1)</f>
@@ -5896,17 +5923,17 @@
       </c>
       <c r="BG13" s="2">
         <f>IF($BG$11,BG10,BF13+1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BH13" s="2">
         <f>IF($BG$11,BH10,BG13+1)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BI13" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -6110,7 +6137,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -6314,7 +6341,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -6518,7 +6545,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -6722,7 +6749,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -6926,7 +6953,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -7130,7 +7157,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -7337,7 +7364,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -7488,7 +7515,7 @@
       <c r="AT21" s="20"/>
       <c r="AU21" s="20"/>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -7639,7 +7666,7 @@
       <c r="AT22" s="20"/>
       <c r="AU22" s="20"/>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -7790,7 +7817,7 @@
       <c r="AT23" s="20"/>
       <c r="AU23" s="20"/>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -7941,7 +7968,7 @@
       <c r="AT24" s="20"/>
       <c r="AU24" s="20"/>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -8092,7 +8119,7 @@
       <c r="AT25" s="20"/>
       <c r="AU25" s="20"/>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -8243,7 +8270,7 @@
       <c r="AT26" s="20"/>
       <c r="AU26" s="20"/>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -8394,7 +8421,7 @@
       <c r="AT27" s="20"/>
       <c r="AU27" s="20"/>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -8545,7 +8572,7 @@
       <c r="AT28" s="20"/>
       <c r="AU28" s="20"/>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -8696,7 +8723,7 @@
       <c r="AT29" s="20"/>
       <c r="AU29" s="20"/>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -8845,7 +8872,7 @@
       <c r="AT30" s="20"/>
       <c r="AU30" s="20"/>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -8996,7 +9023,7 @@
       <c r="AT31" s="20"/>
       <c r="AU31" s="20"/>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -9147,7 +9174,7 @@
       <c r="AT32" s="20"/>
       <c r="AU32" s="20"/>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -9298,7 +9325,7 @@
       <c r="AT33" s="20"/>
       <c r="AU33" s="20"/>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -9449,7 +9476,7 @@
       <c r="AT34" s="20"/>
       <c r="AU34" s="20"/>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -9600,7 +9627,7 @@
       <c r="AT35" s="20"/>
       <c r="AU35" s="20"/>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -9751,7 +9778,7 @@
       <c r="AT36" s="20"/>
       <c r="AU36" s="20"/>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -9902,7 +9929,7 @@
       <c r="AT37" s="20"/>
       <c r="AU37" s="20"/>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -10053,7 +10080,7 @@
       <c r="AT38" s="20"/>
       <c r="AU38" s="20"/>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -10204,7 +10231,7 @@
       <c r="AT39" s="20"/>
       <c r="AU39" s="20"/>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -10217,10 +10244,18 @@
         <v>KC  vs PHI</v>
       </c>
       <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="E40" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="J40" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10243,35 +10278,35 @@
       </c>
       <c r="P40" s="2" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>PHI</v>
       </c>
       <c r="Q40" s="2" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="R40" s="2" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>PHI</v>
       </c>
       <c r="S40" s="2" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="T40" s="2">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="2">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" s="2">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="2">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="2">
         <f t="shared" si="20"/>
@@ -10291,19 +10326,19 @@
       </c>
       <c r="AB40" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="2">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="2" t="str">
         <f t="shared" si="26"/>
@@ -10311,19 +10346,19 @@
       </c>
       <c r="AG40" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH40" s="2">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI40" s="2">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ40" s="2">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="20" t="b">
         <f>Tipps!A40&lt;&gt;Tipps!A41</f>
@@ -10345,7 +10380,7 @@
       <c r="AT40" s="20"/>
       <c r="AU40" s="20"/>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -10357,62 +10392,72 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B41/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B41,100),ROUNDDOWN(Tipps!B41/100,0))</f>
         <v>MIN at DEN</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="J41" s="14" t="str">
+      <c r="D41" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="J41" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="K41" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="K41" s="14">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="L41" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="L41" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M41" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="M41" s="14">
         <f t="shared" si="18"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O41" s="2" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>DEN</v>
       </c>
       <c r="P41" s="2" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="Q41" s="2" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="R41" s="2" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="S41" s="2" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="T41" s="2">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" s="2">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" s="2">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="2">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="2">
         <f t="shared" si="20"/>
@@ -10428,43 +10473,43 @@
       </c>
       <c r="AA41" s="2" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>21</v>
       </c>
       <c r="AB41" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="2">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="2" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="AG41" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH41" s="2">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="2">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ41" s="2">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="20" t="b">
         <f>Tipps!A41&lt;&gt;Tipps!A42</f>
@@ -10476,7 +10521,7 @@
       </c>
       <c r="AN41" s="20">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO41" s="20"/>
       <c r="AP41" s="20"/>
@@ -10486,7 +10531,7 @@
       <c r="AT41" s="20"/>
       <c r="AU41" s="20"/>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -10498,58 +10543,68 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B42/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B42,100),ROUNDDOWN(Tipps!B42/100,0))</f>
         <v>LAR vs SEA</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="J42" s="14" t="str">
+      <c r="D42" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="J42" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="K42" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="K42" s="14">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="L42" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="L42" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M42" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="M42" s="14">
         <f t="shared" si="18"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="O42" s="2" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="P42" s="2" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>SEA</v>
       </c>
       <c r="Q42" s="2" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>SEA</v>
       </c>
       <c r="R42" s="2" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>SEA</v>
       </c>
       <c r="S42" s="2" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="T42" s="2">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" s="2">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42" s="2">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42" s="2">
         <f t="shared" si="50"/>
@@ -10557,11 +10612,11 @@
       </c>
       <c r="X42" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Y42" s="2" t="str">
+        <v>4</v>
+      </c>
+      <c r="Y42" s="2">
         <f t="shared" si="51"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="Z42" s="2" t="str" cm="1">
         <f t="array" ref="Z42">IF(AND(O42&lt;&gt;"",SUM(T42:W42)=3),SUMPRODUCT(P$2:S$2,1-T42:W42),"")</f>
@@ -10569,7 +10624,7 @@
       </c>
       <c r="AA42" s="2" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>17</v>
       </c>
       <c r="AB42" s="2">
         <f t="shared" si="22"/>
@@ -10577,35 +10632,35 @@
       </c>
       <c r="AC42" s="2">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD42" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="2" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>16</v>
       </c>
       <c r="AG42" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH42" s="2">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="2">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="2">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="20" t="b">
         <f>Tipps!A42&lt;&gt;Tipps!A43</f>
@@ -10617,7 +10672,7 @@
       </c>
       <c r="AN42" s="20">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO42" s="20"/>
       <c r="AP42" s="20"/>
@@ -10627,7 +10682,7 @@
       <c r="AT42" s="20"/>
       <c r="AU42" s="20"/>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -10768,7 +10823,7 @@
       <c r="AT43" s="20"/>
       <c r="AU43" s="20"/>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -10909,7 +10964,7 @@
       <c r="AT44" s="20"/>
       <c r="AU44" s="20"/>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -11050,7 +11105,7 @@
       <c r="AT45" s="20"/>
       <c r="AU45" s="20"/>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -11191,7 +11246,7 @@
       <c r="AT46" s="20"/>
       <c r="AU46" s="20"/>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -11332,7 +11387,7 @@
       <c r="AT47" s="20"/>
       <c r="AU47" s="20"/>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -11473,7 +11528,7 @@
       <c r="AT48" s="20"/>
       <c r="AU48" s="20"/>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -11614,7 +11669,7 @@
       <c r="AT49" s="20"/>
       <c r="AU49" s="20"/>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -11755,7 +11810,7 @@
       <c r="AT50" s="20"/>
       <c r="AU50" s="20"/>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -11896,7 +11951,7 @@
       <c r="AT51" s="20"/>
       <c r="AU51" s="20"/>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -12037,7 +12092,7 @@
       <c r="AT52" s="20"/>
       <c r="AU52" s="20"/>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -12178,7 +12233,7 @@
       <c r="AT53" s="20"/>
       <c r="AU53" s="20"/>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -12322,7 +12377,7 @@
       <c r="AT54" s="20"/>
       <c r="AU54" s="20"/>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -12463,7 +12518,7 @@
       <c r="AT55" s="20"/>
       <c r="AU55" s="20"/>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -12604,7 +12659,7 @@
       <c r="AT56" s="20"/>
       <c r="AU56" s="20"/>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -12745,7 +12800,7 @@
       <c r="AT57" s="20"/>
       <c r="AU57" s="20"/>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -12886,7 +12941,7 @@
       <c r="AT58" s="20"/>
       <c r="AU58" s="20"/>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -13027,7 +13082,7 @@
       <c r="AT59" s="20"/>
       <c r="AU59" s="20"/>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -13168,7 +13223,7 @@
       <c r="AT60" s="20"/>
       <c r="AU60" s="20"/>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -13309,7 +13364,7 @@
       <c r="AT61" s="20"/>
       <c r="AU61" s="20"/>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -13450,7 +13505,7 @@
       <c r="AT62" s="20"/>
       <c r="AU62" s="20"/>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -13591,7 +13646,7 @@
       <c r="AT63" s="20"/>
       <c r="AU63" s="20"/>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
@@ -13732,7 +13787,7 @@
       <c r="AT64" s="20"/>
       <c r="AU64" s="20"/>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -13873,7 +13928,7 @@
       <c r="AT65" s="20"/>
       <c r="AU65" s="20"/>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -14014,7 +14069,7 @@
       <c r="AT66" s="20"/>
       <c r="AU66" s="20"/>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -14155,7 +14210,7 @@
       <c r="AT67" s="20"/>
       <c r="AU67" s="20"/>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -14296,7 +14351,7 @@
       <c r="AT68" s="20"/>
       <c r="AU68" s="20"/>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B69" s="5"/>
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
@@ -14312,7 +14367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="B70" s="5" t="s">
         <v>94</v>
       </c>
@@ -14365,7 +14420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="B71" s="5" t="s">
         <v>99</v>
       </c>
@@ -14418,7 +14473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="B72" s="5" t="s">
         <v>102</v>
       </c>
@@ -14471,7 +14526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="B73" s="5" t="s">
         <v>104</v>
       </c>
@@ -14524,38 +14579,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>230</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:S1"/>
     <mergeCell ref="BE11:BF11"/>
     <mergeCell ref="BG11:BH11"/>
     <mergeCell ref="AA1:AE1"/>
@@ -14568,6 +14613,16 @@
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AZ1:BC1"/>
     <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B3:M68">
@@ -14601,15 +14656,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.03125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.03125" style="1"/>
+    <col min="1" max="1" width="11" style="1"/>
     <col min="2" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.16796875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.03125" style="1"/>
+    <col min="6" max="6" width="4.125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>225</v>
       </c>
@@ -14630,7 +14685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>226</v>
       </c>
@@ -14651,7 +14706,7 @@
         <v>zahlen</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>227</v>
       </c>
@@ -14665,15 +14720,15 @@
       </c>
       <c r="D3" s="24" t="str">
         <f>INDEX(Tipps!$E$2:$H$2,Tipps!BG13)</f>
-        <v>Jasmin</v>
+        <v>Thomas</v>
       </c>
       <c r="E3" s="24" t="str">
         <f>INDEX(Tipps!$E$2:$H$2,Tipps!BH13)</f>
-        <v>Thomas</v>
+        <v>Jasmin</v>
       </c>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -14681,7 +14736,7 @@
       <c r="E4" s="25"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>10</v>
       </c>
@@ -14695,15 +14750,15 @@
       </c>
       <c r="D5" s="23">
         <f>INDEX(Tipps!$BE$3:$BH$3,Tipps!BG13)</f>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E5" s="23">
         <f>INDEX(Tipps!$BE$3:$BH$3,Tipps!BH13)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
@@ -14717,21 +14772,21 @@
       </c>
       <c r="D6" s="17">
         <f>INDEX(Tipps!$BE$4:$BH$4,Tipps!BG13)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="17">
         <f>INDEX(Tipps!$BE$4:$BH$4,Tipps!BH13)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="G7" s="40" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="41" t="s">
         <v>202</v>
@@ -14740,9 +14795,9 @@
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="37"/>
+      <c r="G8" s="35"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <f>Tipps!AQ3</f>
         <v>1</v>
@@ -14757,11 +14812,11 @@
       </c>
       <c r="D9" s="28">
         <f ca="1">INDEX(Tipps!$AV3:$AY3,Tipps!BG$13)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" s="28">
         <f ca="1">INDEX(Tipps!$AV3:$AY3,Tipps!BH$13)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="29">
@@ -14769,7 +14824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <f>Tipps!AQ4</f>
         <v>2</v>
@@ -14796,7 +14851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <f>Tipps!AQ5</f>
         <v>3</v>
@@ -14811,11 +14866,11 @@
       </c>
       <c r="D11" s="28">
         <f ca="1">INDEX(Tipps!$AV5:$AY5,Tipps!BG$13)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11" s="28">
         <f ca="1">INDEX(Tipps!$AV5:$AY5,Tipps!BH$13)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="29">
@@ -14823,7 +14878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <f>Tipps!AQ6</f>
         <v>4</v>
@@ -14850,7 +14905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <f>Tipps!AQ7</f>
         <v>5</v>
@@ -14865,11 +14920,11 @@
       </c>
       <c r="D13" s="28">
         <f ca="1">INDEX(Tipps!$AV7:$AY7,Tipps!BG$13)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13" s="28">
         <f ca="1">INDEX(Tipps!$AV7:$AY7,Tipps!BH$13)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="29">
@@ -14877,7 +14932,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <f>Tipps!AQ8</f>
         <v>6</v>
@@ -14904,7 +14959,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <f>Tipps!AQ9</f>
         <v>7</v>
@@ -14919,11 +14974,11 @@
       </c>
       <c r="D15" s="28">
         <f ca="1">INDEX(Tipps!$AV9:$AY9,Tipps!BG$13)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E15" s="28">
         <f ca="1">INDEX(Tipps!$AV9:$AY9,Tipps!BH$13)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="29">
@@ -14931,7 +14986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <f>Tipps!AQ10</f>
         <v>8</v>
@@ -14946,11 +15001,11 @@
       </c>
       <c r="D16" s="28">
         <f ca="1">INDEX(Tipps!$AV10:$AY10,Tipps!BG$13)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E16" s="28">
         <f ca="1">INDEX(Tipps!$AV10:$AY10,Tipps!BH$13)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="29">
@@ -14958,7 +15013,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <f>Tipps!AQ11</f>
         <v>9</v>
@@ -14973,11 +15028,11 @@
       </c>
       <c r="D17" s="28">
         <f ca="1">INDEX(Tipps!$AV11:$AY11,Tipps!BG$13)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E17" s="28">
         <f ca="1">INDEX(Tipps!$AV11:$AY11,Tipps!BH$13)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="29">
@@ -14985,7 +15040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <f>Tipps!AQ12</f>
         <v>10</v>
@@ -15012,34 +15067,34 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <f>Tipps!AQ13</f>
         <v>11</v>
       </c>
-      <c r="B19" s="28" t="e">
+      <c r="B19" s="28">
         <f ca="1">INDEX(Tipps!$AV13:$AY13,Tipps!BE$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C19" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="C19" s="28">
         <f ca="1">INDEX(Tipps!$AV13:$AY13,Tipps!BF$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D19" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="D19" s="28">
         <f ca="1">INDEX(Tipps!$AV13:$AY13,Tipps!BG$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E19" s="28" t="e">
+        <v>3</v>
+      </c>
+      <c r="E19" s="28">
         <f ca="1">INDEX(Tipps!$AV13:$AY13,Tipps!BH$13)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="F19" s="18"/>
-      <c r="G19" s="29" t="e">
+      <c r="G19" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <f>Tipps!AQ14</f>
         <v>12</v>
@@ -15066,7 +15121,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <f>Tipps!AQ15</f>
         <v>13</v>
@@ -15093,7 +15148,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <f>Tipps!AQ16</f>
         <v>14</v>
@@ -15120,7 +15175,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <f>Tipps!AQ17</f>
         <v>15</v>
@@ -15147,7 +15202,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <f>Tipps!AQ18</f>
         <v>16</v>
@@ -15174,7 +15229,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <f>Tipps!AQ19</f>
         <v>17</v>
@@ -15201,7 +15256,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <f>Tipps!AQ20</f>
         <v>18</v>
@@ -15228,20 +15283,20 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A27" s="30"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
         <v>208</v>
       </c>
       <c r="B28" s="18">
         <f ca="1">_xlfn.AGGREGATE(5,2,B9:B26)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C28" s="18">
         <f ca="1">_xlfn.AGGREGATE(5,2,C9:C26)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" s="18">
         <f ca="1">_xlfn.AGGREGATE(5,2,D9:D26)</f>
@@ -15249,14 +15304,14 @@
       </c>
       <c r="E28" s="18">
         <f ca="1">_xlfn.AGGREGATE(5,2,E9:E26)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G28" s="18">
         <f ca="1">_xlfn.AGGREGATE(5,2,G9:G26)</f>
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
         <v>209</v>
       </c>
@@ -15270,65 +15325,65 @@
       </c>
       <c r="D29" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,D9:D26)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,E9:E26)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,G9:G26)</f>
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
         <v>206</v>
       </c>
       <c r="B30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,B9:B26)</f>
-        <v>7.8</v>
+        <v>7.0909090909090908</v>
       </c>
       <c r="C30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,C9:C26)</f>
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="D30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,D9:D26)</f>
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="E30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,E9:E26)</f>
-        <v>6.3</v>
+        <v>5.8181818181818183</v>
       </c>
       <c r="G30" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,G9:G26)</f>
-        <v>28.1</v>
+        <v>25.90909090909091</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
         <v>207</v>
       </c>
       <c r="B31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,B9:B26)</f>
-        <v>3.0919249667480613</v>
+        <v>3.703917961356975</v>
       </c>
       <c r="C31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,C9:C26)</f>
-        <v>4.0509258201058191</v>
+        <v>4.451761653343743</v>
       </c>
       <c r="D31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,D9:D26)</f>
-        <v>2.2383029285599392</v>
+        <v>2.5936986577612919</v>
       </c>
       <c r="E31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,E9:E26)</f>
-        <v>2.5317977802344327</v>
+        <v>2.622219109428356</v>
       </c>
       <c r="G31" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,G9:G26)</f>
-        <v>8.6539008545279739</v>
+        <v>10.774165611688877</v>
       </c>
     </row>
   </sheetData>
@@ -15426,14 +15481,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.03125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="1" customWidth="1"/>
     <col min="2" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.03125" style="1"/>
+    <col min="6" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="19" t="s">
         <v>108</v>
@@ -15448,7 +15503,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>112</v>
@@ -15463,7 +15518,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>116</v>
       </c>
@@ -15480,7 +15535,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>121</v>
       </c>
@@ -15497,7 +15552,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>126</v>
       </c>
@@ -15514,7 +15569,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>131</v>
       </c>
@@ -15531,7 +15586,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>135</v>
       </c>
@@ -15548,7 +15603,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>139</v>
       </c>
@@ -15565,7 +15620,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>144</v>
       </c>
@@ -15582,7 +15637,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>147</v>
       </c>
@@ -15599,7 +15654,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>151</v>
       </c>
@@ -15616,7 +15671,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>154</v>
       </c>
@@ -15629,7 +15684,7 @@
       </c>
       <c r="E12" s="18"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>156</v>
       </c>
@@ -15644,7 +15699,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>158</v>
       </c>
@@ -15661,7 +15716,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>161</v>
       </c>
@@ -15676,7 +15731,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>164</v>
       </c>
@@ -15693,7 +15748,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>167</v>
       </c>
@@ -15710,7 +15765,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>170</v>
       </c>
@@ -15727,7 +15782,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>172</v>
       </c>
@@ -15744,7 +15799,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>176</v>
       </c>

--- a/2023_tipp.xlsx
+++ b/2023_tipp.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="311">
   <si>
     <t>ID</t>
   </si>
@@ -988,6 +988,12 @@
   </si>
   <si>
     <t>PHI 21-17</t>
+  </si>
+  <si>
+    <t>Punkte aus Division Rang</t>
+  </si>
+  <si>
+    <t>Pkt Div Rk</t>
   </si>
 </sst>
 </file>
@@ -1282,7 +1288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1378,6 +1384,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1391,18 +1406,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1411,28 +1423,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1462,6 +1452,28 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1553,7 +1565,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2073,7 +2084,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2211,7 +2221,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2287,7 +2296,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3310,10 +3318,10 @@
   <dimension ref="A1:BI78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3336,113 +3344,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="B1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="38" t="s">
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="37" t="str">
+      <c r="J1" s="35" t="str">
         <f>LEFT(E2,1)</f>
         <v>J</v>
       </c>
-      <c r="K1" s="37" t="str">
+      <c r="K1" s="35" t="str">
         <f>LEFT(F2,1)</f>
         <v>F</v>
       </c>
-      <c r="L1" s="37" t="str">
+      <c r="L1" s="35" t="str">
         <f>LEFT(G2,1)</f>
         <v>D</v>
       </c>
-      <c r="M1" s="37" t="str">
+      <c r="M1" s="35" t="str">
         <f>LEFT(H2,1)</f>
         <v>T</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33" t="s">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33" t="s">
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33" t="s">
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33" t="s">
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AL1" s="33" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AL1" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="AM1" s="33"/>
+      <c r="AM1" s="36"/>
       <c r="AN1" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="AO1" s="33" t="s">
+      <c r="AO1" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33" t="s">
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33" t="s">
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="AW1" s="33"/>
-      <c r="AX1" s="33"/>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="33" t="s">
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="BA1" s="33"/>
-      <c r="BB1" s="33"/>
-      <c r="BC1" s="33"/>
-      <c r="BE1" s="33" t="s">
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BE1" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="BF1" s="33"/>
-      <c r="BG1" s="33"/>
-      <c r="BH1" s="33"/>
+      <c r="BF1" s="36"/>
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
     </row>
     <row r="2" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3455,11 +3463,11 @@
       <c r="H2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
       <c r="O2" s="2">
         <v>0</v>
       </c>
@@ -3742,19 +3750,19 @@
         <v>3</v>
       </c>
       <c r="AZ3" s="21">
-        <f ca="1">AR3/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO3))/200</f>
+        <f ca="1">AR3/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO3))/200</f>
         <v>0.75585324232081907</v>
       </c>
       <c r="BA3" s="21">
-        <f ca="1">AS3/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO3))/200</f>
+        <f ca="1">AS3/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO3))/200</f>
         <v>0.45051194539249145</v>
       </c>
       <c r="BB3" s="21">
-        <f ca="1">AT3/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO3))/200</f>
+        <f ca="1">AT3/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO3))/200</f>
         <v>0.45051194539249145</v>
       </c>
       <c r="BC3" s="21">
-        <f ca="1">AU3/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO3))/200</f>
+        <f ca="1">AU3/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO3))/200</f>
         <v>0.45051194539249145</v>
       </c>
       <c r="BE3" s="2">
@@ -3965,19 +3973,19 @@
         <v>9</v>
       </c>
       <c r="AZ4" s="21">
-        <f ca="1">AR4/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO4))/200</f>
+        <f ca="1">AR4/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO4))/200</f>
         <v>1.0561945392491467</v>
       </c>
       <c r="BA4" s="21">
-        <f ca="1">AS4/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO4))/200</f>
+        <f ca="1">AS4/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO4))/200</f>
         <v>0.90102389078498291</v>
       </c>
       <c r="BB4" s="21">
-        <f ca="1">AT4/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO4))/200</f>
+        <f ca="1">AT4/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO4))/200</f>
         <v>0.90102389078498291</v>
       </c>
       <c r="BC4" s="21">
-        <f ca="1">AU4/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO4))/200</f>
+        <f ca="1">AU4/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO4))/200</f>
         <v>0.90102389078498291</v>
       </c>
       <c r="BE4" s="2">
@@ -4188,19 +4196,19 @@
         <v>6</v>
       </c>
       <c r="AZ5" s="21">
-        <f ca="1">AR5/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO5))/200</f>
+        <f ca="1">AR5/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO5))/200</f>
         <v>1.1563083048919225</v>
       </c>
       <c r="BA5" s="21">
-        <f ca="1">AS5/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO5))/200</f>
+        <f ca="1">AS5/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO5))/200</f>
         <v>1.2013651877133107</v>
       </c>
       <c r="BB5" s="21">
-        <f ca="1">AT5/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO5))/200</f>
+        <f ca="1">AT5/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO5))/200</f>
         <v>0.80091012514220705</v>
       </c>
       <c r="BC5" s="21">
-        <f ca="1">AU5/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO5))/200</f>
+        <f ca="1">AU5/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO5))/200</f>
         <v>0.90102389078498302</v>
       </c>
     </row>
@@ -4392,19 +4400,19 @@
         <v>6</v>
       </c>
       <c r="AZ6" s="21">
-        <f ca="1">AR6/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO6))/200</f>
+        <f ca="1">AR6/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO6))/200</f>
         <v>1.0937372013651876</v>
       </c>
       <c r="BA6" s="21">
-        <f ca="1">AS6/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO6))/200</f>
+        <f ca="1">AS6/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO6))/200</f>
         <v>1.2764505119453924</v>
       </c>
       <c r="BB6" s="21">
-        <f ca="1">AT6/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO6))/200</f>
+        <f ca="1">AT6/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO6))/200</f>
         <v>0.86848122866894195</v>
       </c>
       <c r="BC6" s="21">
-        <f ca="1">AU6/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO6))/200</f>
+        <f ca="1">AU6/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO6))/200</f>
         <v>0.90102389078498291</v>
       </c>
       <c r="BE6" s="2">
@@ -4615,19 +4623,19 @@
         <v>6</v>
       </c>
       <c r="AZ7" s="21">
-        <f ca="1">AR7/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO7))/200</f>
+        <f ca="1">AR7/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO7))/200</f>
         <v>0.96609215017064842</v>
       </c>
       <c r="BA7" s="21">
-        <f ca="1">AS7/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO7))/200</f>
+        <f ca="1">AS7/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO7))/200</f>
         <v>1.3565358361774742</v>
       </c>
       <c r="BB7" s="21">
-        <f ca="1">AT7/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO7))/200</f>
+        <f ca="1">AT7/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO7))/200</f>
         <v>1.1212627986348123</v>
       </c>
       <c r="BC7" s="21">
-        <f ca="1">AU7/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO7))/200</f>
+        <f ca="1">AU7/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO7))/200</f>
         <v>0.90102389078498291</v>
       </c>
       <c r="BE7" s="2">
@@ -4838,19 +4846,19 @@
         <v>9</v>
       </c>
       <c r="AZ8" s="21">
-        <f ca="1">AR8/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO8))/200</f>
+        <f ca="1">AR8/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO8))/200</f>
         <v>1.0311660978384527</v>
       </c>
       <c r="BA8" s="21">
-        <f ca="1">AS8/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO8))/200</f>
+        <f ca="1">AS8/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO8))/200</f>
         <v>1.3565358361774744</v>
       </c>
       <c r="BB8" s="21">
-        <f ca="1">AT8/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO8))/200</f>
+        <f ca="1">AT8/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO8))/200</f>
         <v>1.2363936291240045</v>
       </c>
       <c r="BC8" s="21">
-        <f ca="1">AU8/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO8))/200</f>
+        <f ca="1">AU8/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO8))/200</f>
         <v>0.97610921501706482</v>
       </c>
     </row>
@@ -5042,19 +5050,19 @@
         <v>3</v>
       </c>
       <c r="AZ9" s="21">
-        <f ca="1">AR9/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO9))/200</f>
+        <f ca="1">AR9/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO9))/200</f>
         <v>1.0611945392491466</v>
       </c>
       <c r="BA9" s="21">
-        <f ca="1">AS9/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO9))/200</f>
+        <f ca="1">AS9/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO9))/200</f>
         <v>1.2542710872745002</v>
       </c>
       <c r="BB9" s="21">
-        <f ca="1">AT9/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO9))/200</f>
+        <f ca="1">AT9/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO9))/200</f>
         <v>1.1255533885909312</v>
       </c>
       <c r="BC9" s="21">
-        <f ca="1">AU9/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO9))/200</f>
+        <f ca="1">AU9/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO9))/200</f>
         <v>0.90102389078498291</v>
       </c>
       <c r="BE9" s="2">
@@ -5265,19 +5273,19 @@
         <v>10</v>
       </c>
       <c r="AZ10" s="21">
-        <f ca="1">AR10/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO10))/200</f>
+        <f ca="1">AR10/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO10))/200</f>
         <v>1.0286518771331057</v>
       </c>
       <c r="BA10" s="21">
-        <f ca="1">AS10/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO10))/200</f>
+        <f ca="1">AS10/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO10))/200</f>
         <v>1.2914505119453923</v>
       </c>
       <c r="BB10" s="21">
-        <f ca="1">AT10/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO10))/200</f>
+        <f ca="1">AT10/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO10))/200</f>
         <v>1.1738225255972696</v>
       </c>
       <c r="BC10" s="21">
-        <f ca="1">AU10/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO10))/200</f>
+        <f ca="1">AU10/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO10))/200</f>
         <v>0.97610921501706482</v>
       </c>
       <c r="BE10" s="2">
@@ -5488,29 +5496,29 @@
         <v>8</v>
       </c>
       <c r="AZ11" s="21">
-        <f ca="1">AR11/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO11))/200</f>
+        <f ca="1">AR11/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO11))/200</f>
         <v>1.0161376564277587</v>
       </c>
       <c r="BA11" s="21">
-        <f ca="1">AS11/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO11))/200</f>
+        <f ca="1">AS11/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO11))/200</f>
         <v>1.2213651877133107</v>
       </c>
       <c r="BB11" s="21">
-        <f ca="1">AT11/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO11))/200</f>
+        <f ca="1">AT11/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO11))/200</f>
         <v>1.2547364429275694</v>
       </c>
       <c r="BC11" s="21">
-        <f ca="1">AU11/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO11))/200</f>
+        <f ca="1">AU11/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO11))/200</f>
         <v>1.0111376564277588</v>
       </c>
-      <c r="BE11" s="33" t="s">
+      <c r="BE11" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="BF11" s="34"/>
-      <c r="BG11" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH11" s="36"/>
+      <c r="BF11" s="37"/>
+      <c r="BG11" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="39"/>
     </row>
     <row r="12" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -5700,19 +5708,19 @@
         <v>3</v>
       </c>
       <c r="AZ12" s="21">
-        <f ca="1">AR12/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO12))/200</f>
+        <f ca="1">AR12/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO12))/200</f>
         <v>0.96107508532423203</v>
       </c>
       <c r="BA12" s="21">
-        <f ca="1">AS12/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO12))/200</f>
+        <f ca="1">AS12/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO12))/200</f>
         <v>1.1913310580204779</v>
       </c>
       <c r="BB12" s="21">
-        <f ca="1">AT12/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO12))/200</f>
+        <f ca="1">AT12/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO12))/200</f>
         <v>1.1763139931740614</v>
       </c>
       <c r="BC12" s="21">
-        <f ca="1">AU12/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO12))/200</f>
+        <f ca="1">AU12/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO12))/200</f>
         <v>0.95607508532423202</v>
       </c>
     </row>
@@ -5904,19 +5912,19 @@
         <v>4</v>
       </c>
       <c r="AZ13" s="21">
-        <f ca="1">AR13/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO13))/200</f>
+        <f ca="1">AR13/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO13))/200</f>
         <v>0.93467576791808871</v>
       </c>
       <c r="BA13" s="21">
-        <f ca="1">AS13/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO13))/200</f>
+        <f ca="1">AS13/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO13))/200</f>
         <v>1.1034982935153583</v>
       </c>
       <c r="BB13" s="21">
-        <f ca="1">AT13/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO13))/200</f>
+        <f ca="1">AT13/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO13))/200</f>
         <v>1.1121501706484642</v>
       </c>
       <c r="BC13" s="21">
-        <f ca="1">AU13/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO13))/200</f>
+        <f ca="1">AU13/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO13))/200</f>
         <v>0.9296757679180887</v>
       </c>
       <c r="BE13" s="2">
@@ -6127,19 +6135,19 @@
         <v>#N/A</v>
       </c>
       <c r="AZ14" s="21" t="e">
-        <f ca="1">AR14/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO14))/200</f>
+        <f ca="1">AR14/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO14))/200</f>
         <v>#N/A</v>
       </c>
       <c r="BA14" s="21" t="e">
-        <f ca="1">AS14/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO14))/200</f>
+        <f ca="1">AS14/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO14))/200</f>
         <v>#N/A</v>
       </c>
       <c r="BB14" s="21" t="e">
-        <f ca="1">AT14/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO14))/200</f>
+        <f ca="1">AT14/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO14))/200</f>
         <v>#N/A</v>
       </c>
       <c r="BC14" s="21" t="e">
-        <f ca="1">AU14/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO14))/200</f>
+        <f ca="1">AU14/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO14))/200</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6331,20 +6339,39 @@
         <v>#N/A</v>
       </c>
       <c r="AZ15" s="21" t="e">
-        <f ca="1">AR15/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO15))/200</f>
+        <f ca="1">AR15/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO15))/200</f>
         <v>#N/A</v>
       </c>
       <c r="BA15" s="21" t="e">
-        <f ca="1">AS15/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO15))/200</f>
+        <f ca="1">AS15/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO15))/200</f>
         <v>#N/A</v>
       </c>
       <c r="BB15" s="21" t="e">
-        <f ca="1">AT15/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO15))/200</f>
+        <f ca="1">AT15/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO15))/200</f>
         <v>#N/A</v>
       </c>
       <c r="BC15" s="21" t="e">
-        <f ca="1">AU15/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO15))/200</f>
+        <f ca="1">AU15/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO15))/200</f>
         <v>#N/A</v>
+      </c>
+      <c r="BE15" s="42">
+        <f>SUM(J70:J73)</f>
+        <v>0</v>
+      </c>
+      <c r="BF15" s="42">
+        <f t="shared" ref="BF15:BH15" si="43">SUM(K70:K73)</f>
+        <v>0</v>
+      </c>
+      <c r="BG15" s="42">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="BH15" s="42">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="BI15" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:61" ht="15" x14ac:dyDescent="0.2">
@@ -6535,19 +6562,19 @@
         <v>#N/A</v>
       </c>
       <c r="AZ16" s="21" t="e">
-        <f ca="1">AR16/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO16))/200</f>
+        <f ca="1">AR16/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO16))/200</f>
         <v>#N/A</v>
       </c>
       <c r="BA16" s="21" t="e">
-        <f ca="1">AS16/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO16))/200</f>
+        <f ca="1">AS16/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO16))/200</f>
         <v>#N/A</v>
       </c>
       <c r="BB16" s="21" t="e">
-        <f ca="1">AT16/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO16))/200</f>
+        <f ca="1">AT16/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO16))/200</f>
         <v>#N/A</v>
       </c>
       <c r="BC16" s="21" t="e">
-        <f ca="1">AU16/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO16))/200</f>
+        <f ca="1">AU16/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO16))/200</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6739,19 +6766,19 @@
         <v>#N/A</v>
       </c>
       <c r="AZ17" s="21" t="e">
-        <f ca="1">AR17/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO17))/200</f>
+        <f ca="1">AR17/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO17))/200</f>
         <v>#N/A</v>
       </c>
       <c r="BA17" s="21" t="e">
-        <f ca="1">AS17/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO17))/200</f>
+        <f ca="1">AS17/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO17))/200</f>
         <v>#N/A</v>
       </c>
       <c r="BB17" s="21" t="e">
-        <f ca="1">AT17/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO17))/200</f>
+        <f ca="1">AT17/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO17))/200</f>
         <v>#N/A</v>
       </c>
       <c r="BC17" s="21" t="e">
-        <f ca="1">AU17/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO17))/200</f>
+        <f ca="1">AU17/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO17))/200</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6943,19 +6970,19 @@
         <v>#N/A</v>
       </c>
       <c r="AZ18" s="21" t="e">
-        <f ca="1">AR18/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO18))/200</f>
+        <f ca="1">AR18/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO18))/200</f>
         <v>#N/A</v>
       </c>
       <c r="BA18" s="21" t="e">
-        <f ca="1">AS18/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO18))/200</f>
+        <f ca="1">AS18/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO18))/200</f>
         <v>#N/A</v>
       </c>
       <c r="BB18" s="21" t="e">
-        <f ca="1">AT18/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO18))/200</f>
+        <f ca="1">AT18/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO18))/200</f>
         <v>#N/A</v>
       </c>
       <c r="BC18" s="21" t="e">
-        <f ca="1">AU18/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO18))/200</f>
+        <f ca="1">AU18/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO18))/200</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7119,15 +7146,15 @@
         <v>#N/A</v>
       </c>
       <c r="AS19" s="20" t="e">
-        <f t="shared" ref="AS19:AS20" ca="1" si="43">IF($AP19,SUM(OFFSET(K$3,,,$AO19)),#N/A)</f>
+        <f t="shared" ref="AS19:AS20" ca="1" si="44">IF($AP19,SUM(OFFSET(K$3,,,$AO19)),#N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="AT19" s="20" t="e">
-        <f t="shared" ref="AT19:AT20" ca="1" si="44">IF($AP19,SUM(OFFSET(L$3,,,$AO19)),#N/A)</f>
+        <f t="shared" ref="AT19:AT20" ca="1" si="45">IF($AP19,SUM(OFFSET(L$3,,,$AO19)),#N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="AU19" s="20" t="e">
-        <f t="shared" ref="AU19:AU20" ca="1" si="45">IF($AP19,SUM(OFFSET(M$3,,,$AO19)),#N/A)</f>
+        <f t="shared" ref="AU19:AU20" ca="1" si="46">IF($AP19,SUM(OFFSET(M$3,,,$AO19)),#N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="AV19" s="2" t="e">
@@ -7147,19 +7174,19 @@
         <v>#N/A</v>
       </c>
       <c r="AZ19" s="21" t="e">
-        <f ca="1">AR19/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO19))/200</f>
+        <f ca="1">AR19/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO19))/200</f>
         <v>#N/A</v>
       </c>
       <c r="BA19" s="21" t="e">
-        <f ca="1">AS19/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO19))/200</f>
+        <f ca="1">AS19/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO19))/200</f>
         <v>#N/A</v>
       </c>
       <c r="BB19" s="21" t="e">
-        <f ca="1">AT19/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO19))/200</f>
+        <f ca="1">AT19/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO19))/200</f>
         <v>#N/A</v>
       </c>
       <c r="BC19" s="21" t="e">
-        <f ca="1">AU19/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO19))/200</f>
+        <f ca="1">AU19/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO19))/200</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7326,15 +7353,15 @@
         <v>#N/A</v>
       </c>
       <c r="AS20" s="20" t="e">
-        <f t="shared" ca="1" si="43"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT20" s="20" t="e">
         <f t="shared" ca="1" si="44"/>
         <v>#N/A</v>
       </c>
+      <c r="AT20" s="20" t="e">
+        <f t="shared" ca="1" si="45"/>
+        <v>#N/A</v>
+      </c>
       <c r="AU20" s="20" t="e">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v>#N/A</v>
       </c>
       <c r="AV20" s="2" t="e">
@@ -7354,19 +7381,19 @@
         <v>#N/A</v>
       </c>
       <c r="AZ20" s="21" t="e">
-        <f ca="1">AR20/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO20))/200</f>
+        <f ca="1">AR20/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO20))/200</f>
         <v>#N/A</v>
       </c>
       <c r="BA20" s="21" t="e">
-        <f ca="1">AS20/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO20))/200</f>
+        <f ca="1">AS20/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO20))/200</f>
         <v>#N/A</v>
       </c>
       <c r="BB20" s="21" t="e">
-        <f ca="1">AT20/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO20))/200</f>
+        <f ca="1">AT20/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO20))/200</f>
         <v>#N/A</v>
       </c>
       <c r="BC20" s="21" t="e">
-        <f ca="1">AU20/(Ergebnisse!$G$30/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO20))/200</f>
+        <f ca="1">AU20/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO20))/200</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8169,23 +8196,23 @@
         <v>0</v>
       </c>
       <c r="O26" s="2" t="str">
-        <f t="shared" ref="O26:S64" si="46">LEFT(INDEX($D26:$H26,O$2+1),3)</f>
+        <f t="shared" ref="O26:S64" si="47">LEFT(INDEX($D26:$H26,O$2+1),3)</f>
         <v xml:space="preserve">NE </v>
       </c>
       <c r="P26" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>BUF</v>
       </c>
       <c r="Q26" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>BUF</v>
       </c>
       <c r="R26" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>BUF</v>
       </c>
       <c r="S26" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>BUF</v>
       </c>
       <c r="T26" s="2">
@@ -8324,19 +8351,19 @@
         <v xml:space="preserve">KC </v>
       </c>
       <c r="P27" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve">KC </v>
       </c>
       <c r="Q27" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve">KC </v>
       </c>
       <c r="R27" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve">KC </v>
       </c>
       <c r="S27" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve">KC </v>
       </c>
       <c r="T27" s="2">
@@ -8471,23 +8498,23 @@
         <v>0</v>
       </c>
       <c r="O28" s="2" t="str">
-        <f t="shared" ref="O28:S68" si="47">LEFT(INDEX($D28:$H28,O$2+1),3)</f>
+        <f t="shared" ref="O28:S68" si="48">LEFT(INDEX($D28:$H28,O$2+1),3)</f>
         <v>MIN</v>
       </c>
       <c r="P28" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve">SF </v>
       </c>
       <c r="Q28" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve">SF </v>
       </c>
       <c r="R28" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve">SF </v>
       </c>
       <c r="S28" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve">SF </v>
       </c>
       <c r="T28" s="2">
@@ -8622,23 +8649,23 @@
         <v>0</v>
       </c>
       <c r="O29" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>PIT</v>
+      </c>
+      <c r="P29" s="2" t="str">
         <f t="shared" si="47"/>
         <v>PIT</v>
       </c>
-      <c r="P29" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v>PIT</v>
-      </c>
       <c r="Q29" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>LAR</v>
       </c>
       <c r="R29" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>LAR</v>
       </c>
       <c r="S29" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>LAR</v>
       </c>
       <c r="T29" s="2">
@@ -8771,23 +8798,23 @@
         <v>3</v>
       </c>
       <c r="O30" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>MIA</v>
+      </c>
+      <c r="P30" s="2" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="Q30" s="2" t="str">
         <f t="shared" si="47"/>
         <v>MIA</v>
       </c>
-      <c r="P30" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="Q30" s="2" t="str">
-        <f t="shared" si="46"/>
+      <c r="R30" s="2" t="str">
+        <f t="shared" si="47"/>
         <v>MIA</v>
       </c>
-      <c r="R30" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v>MIA</v>
-      </c>
       <c r="S30" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>MIA</v>
       </c>
       <c r="T30" s="2">
@@ -8922,23 +8949,23 @@
         <v>0</v>
       </c>
       <c r="O31" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>DEN</v>
+      </c>
+      <c r="P31" s="2" t="str">
         <f t="shared" si="47"/>
-        <v>DEN</v>
-      </c>
-      <c r="P31" s="2" t="str">
-        <f t="shared" si="46"/>
         <v xml:space="preserve">KC </v>
       </c>
       <c r="Q31" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve">KC </v>
       </c>
       <c r="R31" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve">KC </v>
       </c>
       <c r="S31" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve">KC </v>
       </c>
       <c r="T31" s="2">
@@ -9073,23 +9100,23 @@
         <v>3</v>
       </c>
       <c r="O32" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>MIN</v>
+      </c>
+      <c r="P32" s="2" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">GB </v>
+      </c>
+      <c r="Q32" s="2" t="str">
         <f t="shared" si="47"/>
         <v>MIN</v>
       </c>
-      <c r="P32" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v xml:space="preserve">GB </v>
-      </c>
-      <c r="Q32" s="2" t="str">
-        <f t="shared" si="46"/>
+      <c r="R32" s="2" t="str">
+        <f t="shared" si="47"/>
         <v>MIN</v>
       </c>
-      <c r="R32" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v>MIN</v>
-      </c>
       <c r="S32" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>MIN</v>
       </c>
       <c r="T32" s="2">
@@ -9224,23 +9251,23 @@
         <v>4</v>
       </c>
       <c r="O33" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>DAL</v>
+      </c>
+      <c r="P33" s="2" t="str">
         <f t="shared" si="47"/>
         <v>DAL</v>
       </c>
-      <c r="P33" s="2" t="str">
-        <f t="shared" si="46"/>
+      <c r="Q33" s="2" t="str">
+        <f t="shared" si="47"/>
         <v>DAL</v>
       </c>
-      <c r="Q33" s="2" t="str">
-        <f t="shared" si="46"/>
+      <c r="R33" s="2" t="str">
+        <f t="shared" si="47"/>
         <v>DAL</v>
       </c>
-      <c r="R33" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v>DAL</v>
-      </c>
       <c r="S33" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>DAL</v>
       </c>
       <c r="T33" s="2">
@@ -9375,23 +9402,23 @@
         <v>1</v>
       </c>
       <c r="O34" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>WAS</v>
+      </c>
+      <c r="P34" s="2" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">NE </v>
+      </c>
+      <c r="Q34" s="2" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">NE </v>
+      </c>
+      <c r="R34" s="2" t="str">
         <f t="shared" si="47"/>
         <v>WAS</v>
       </c>
-      <c r="P34" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v xml:space="preserve">NE </v>
-      </c>
-      <c r="Q34" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v xml:space="preserve">NE </v>
-      </c>
-      <c r="R34" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v>WAS</v>
-      </c>
       <c r="S34" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve">NE </v>
       </c>
       <c r="T34" s="2">
@@ -9526,39 +9553,39 @@
         <v>3</v>
       </c>
       <c r="O35" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">KC </v>
+      </c>
+      <c r="P35" s="2" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve">KC </v>
       </c>
-      <c r="P35" s="2" t="str">
-        <f t="shared" si="46"/>
+      <c r="Q35" s="2" t="str">
+        <f t="shared" si="47"/>
+        <v>MIA</v>
+      </c>
+      <c r="R35" s="2" t="str">
+        <f t="shared" si="47"/>
         <v xml:space="preserve">KC </v>
       </c>
-      <c r="Q35" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v>MIA</v>
-      </c>
-      <c r="R35" s="2" t="str">
-        <f t="shared" si="46"/>
+      <c r="S35" s="2" t="str">
+        <f t="shared" si="47"/>
         <v xml:space="preserve">KC </v>
       </c>
-      <c r="S35" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v xml:space="preserve">KC </v>
-      </c>
       <c r="T35" s="2">
-        <f t="shared" ref="T35:T68" si="48">(P35=$O35)*1</f>
+        <f t="shared" ref="T35:T68" si="49">(P35=$O35)*1</f>
         <v>1</v>
       </c>
       <c r="U35" s="2">
-        <f t="shared" ref="U35:U68" si="49">(Q35=$O35)*1</f>
+        <f t="shared" ref="U35:U68" si="50">(Q35=$O35)*1</f>
         <v>0</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" ref="V35:V68" si="50">(R35=$O35)*1</f>
+        <f t="shared" ref="V35:V68" si="51">(R35=$O35)*1</f>
         <v>1</v>
       </c>
       <c r="W35" s="2">
-        <f t="shared" ref="W35:W68" si="51">(S35=$O35)*1</f>
+        <f t="shared" ref="W35:W68" si="52">(S35=$O35)*1</f>
         <v>1</v>
       </c>
       <c r="X35" s="2">
@@ -9566,7 +9593,7 @@
         <v>2</v>
       </c>
       <c r="Y35" s="2" t="str">
-        <f t="shared" ref="Y35:Y68" si="52">IF(AND(O35&lt;&gt;"",SUM(T35:W35)=1),SUMPRODUCT(P$2:S$2,T35:W35),"")</f>
+        <f t="shared" ref="Y35:Y68" si="53">IF(AND(O35&lt;&gt;"",SUM(T35:W35)=1),SUMPRODUCT(P$2:S$2,T35:W35),"")</f>
         <v/>
       </c>
       <c r="Z35" s="2" cm="1">
@@ -9677,39 +9704,39 @@
         <v>0</v>
       </c>
       <c r="O36" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>MIN</v>
+      </c>
+      <c r="P36" s="2" t="str">
         <f t="shared" si="47"/>
-        <v>MIN</v>
-      </c>
-      <c r="P36" s="2" t="str">
-        <f t="shared" si="46"/>
         <v>ATL</v>
       </c>
       <c r="Q36" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>ATL</v>
       </c>
       <c r="R36" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>ATL</v>
       </c>
       <c r="S36" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>ATL</v>
       </c>
       <c r="T36" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U36" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X36" s="2">
@@ -9717,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z36" s="2" t="str" cm="1">
@@ -9828,39 +9855,39 @@
         <v>4</v>
       </c>
       <c r="O37" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">GB </v>
+      </c>
+      <c r="P37" s="2" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve">GB </v>
       </c>
-      <c r="P37" s="2" t="str">
-        <f t="shared" si="46"/>
+      <c r="Q37" s="2" t="str">
+        <f t="shared" si="47"/>
         <v xml:space="preserve">GB </v>
       </c>
-      <c r="Q37" s="2" t="str">
-        <f t="shared" si="46"/>
+      <c r="R37" s="2" t="str">
+        <f t="shared" si="47"/>
         <v xml:space="preserve">GB </v>
       </c>
-      <c r="R37" s="2" t="str">
-        <f t="shared" si="46"/>
+      <c r="S37" s="2" t="str">
+        <f t="shared" si="47"/>
         <v xml:space="preserve">GB </v>
       </c>
-      <c r="S37" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v xml:space="preserve">GB </v>
-      </c>
       <c r="T37" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U37" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W37" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X37" s="2">
@@ -9868,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z37" s="2" t="str" cm="1">
@@ -9979,39 +10006,39 @@
         <v>3</v>
       </c>
       <c r="O38" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>IND</v>
+      </c>
+      <c r="P38" s="2" t="str">
         <f t="shared" si="47"/>
         <v>IND</v>
       </c>
-      <c r="P38" s="2" t="str">
-        <f t="shared" si="46"/>
+      <c r="Q38" s="2" t="str">
+        <f t="shared" si="47"/>
         <v>IND</v>
       </c>
-      <c r="Q38" s="2" t="str">
-        <f t="shared" si="46"/>
+      <c r="R38" s="2" t="str">
+        <f t="shared" si="47"/>
         <v>IND</v>
       </c>
-      <c r="R38" s="2" t="str">
-        <f t="shared" si="46"/>
+      <c r="S38" s="2" t="str">
+        <f t="shared" si="47"/>
         <v>IND</v>
       </c>
-      <c r="S38" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v>IND</v>
-      </c>
       <c r="T38" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U38" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V38" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W38" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X38" s="2">
@@ -10019,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="Y38" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z38" s="2" t="str" cm="1">
@@ -10130,39 +10157,39 @@
         <v>0</v>
       </c>
       <c r="O39" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>MIN</v>
+      </c>
+      <c r="P39" s="2" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">NO </v>
+      </c>
+      <c r="Q39" s="2" t="str">
         <f t="shared" si="47"/>
         <v>MIN</v>
       </c>
-      <c r="P39" s="2" t="str">
-        <f t="shared" si="46"/>
+      <c r="R39" s="2" t="str">
+        <f t="shared" si="47"/>
         <v xml:space="preserve">NO </v>
       </c>
-      <c r="Q39" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v>MIN</v>
-      </c>
-      <c r="R39" s="2" t="str">
-        <f t="shared" si="46"/>
+      <c r="S39" s="2" t="str">
+        <f t="shared" si="47"/>
         <v xml:space="preserve">NO </v>
       </c>
-      <c r="S39" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v xml:space="preserve">NO </v>
-      </c>
       <c r="T39" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U39" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V39" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W39" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X39" s="2">
@@ -10170,7 +10197,7 @@
         <v>2</v>
       </c>
       <c r="Y39" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>2</v>
       </c>
       <c r="Z39" s="2" t="str" cm="1">
@@ -10281,39 +10308,39 @@
         <v>1</v>
       </c>
       <c r="O40" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>PHI</v>
+      </c>
+      <c r="P40" s="2" t="str">
         <f t="shared" si="47"/>
         <v>PHI</v>
       </c>
-      <c r="P40" s="2" t="str">
-        <f t="shared" si="46"/>
+      <c r="Q40" s="2" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">KC </v>
+      </c>
+      <c r="R40" s="2" t="str">
+        <f t="shared" si="47"/>
         <v>PHI</v>
       </c>
-      <c r="Q40" s="2" t="str">
-        <f t="shared" si="46"/>
+      <c r="S40" s="2" t="str">
+        <f t="shared" si="47"/>
         <v xml:space="preserve">KC </v>
       </c>
-      <c r="R40" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v>PHI</v>
-      </c>
-      <c r="S40" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v xml:space="preserve">KC </v>
-      </c>
       <c r="T40" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U40" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V40" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W40" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X40" s="2">
@@ -10321,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z40" s="2" t="str" cm="1">
@@ -10432,39 +10459,39 @@
         <v>0</v>
       </c>
       <c r="O41" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>DEN</v>
+      </c>
+      <c r="P41" s="2" t="str">
         <f t="shared" si="47"/>
-        <v>DEN</v>
-      </c>
-      <c r="P41" s="2" t="str">
-        <f t="shared" si="46"/>
         <v>MIN</v>
       </c>
       <c r="Q41" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>MIN</v>
       </c>
       <c r="R41" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>MIN</v>
       </c>
       <c r="S41" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>MIN</v>
       </c>
       <c r="T41" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U41" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V41" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W41" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X41" s="2">
@@ -10472,7 +10499,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z41" s="2" t="str" cm="1">
@@ -10583,39 +10610,39 @@
         <v>3</v>
       </c>
       <c r="O42" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>LAR</v>
       </c>
       <c r="P42" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>SEA</v>
       </c>
       <c r="Q42" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>SEA</v>
       </c>
       <c r="R42" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>SEA</v>
       </c>
       <c r="S42" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>LAR</v>
       </c>
       <c r="T42" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U42" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V42" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W42" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X42" s="2">
@@ -10623,7 +10650,7 @@
         <v>4</v>
       </c>
       <c r="Y42" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="Z42" s="2" t="str" cm="1">
@@ -10724,39 +10751,39 @@
         <v/>
       </c>
       <c r="O43" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="P43" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="Q43" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="R43" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="S43" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="T43" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U43" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V43" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W43" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X43" s="2">
@@ -10764,7 +10791,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z43" s="2" t="str" cm="1">
@@ -10865,39 +10892,39 @@
         <v/>
       </c>
       <c r="O44" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="P44" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="Q44" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="R44" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="S44" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="T44" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U44" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V44" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W44" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X44" s="2">
@@ -10905,7 +10932,7 @@
         <v>0</v>
       </c>
       <c r="Y44" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z44" s="2" t="str" cm="1">
@@ -11006,39 +11033,39 @@
         <v/>
       </c>
       <c r="O45" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="P45" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="Q45" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="R45" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="S45" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="T45" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U45" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V45" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W45" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X45" s="2">
@@ -11046,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="Y45" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z45" s="2" t="str" cm="1">
@@ -11147,39 +11174,39 @@
         <v/>
       </c>
       <c r="O46" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="P46" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="Q46" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="R46" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="S46" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="T46" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U46" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V46" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W46" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X46" s="2">
@@ -11187,7 +11214,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z46" s="2" t="str" cm="1">
@@ -11288,39 +11315,39 @@
         <v/>
       </c>
       <c r="O47" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="P47" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="Q47" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="R47" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="S47" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="T47" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U47" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V47" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W47" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X47" s="2">
@@ -11328,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z47" s="2" t="str" cm="1">
@@ -11429,39 +11456,39 @@
         <v/>
       </c>
       <c r="O48" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="P48" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="Q48" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="R48" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="S48" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="T48" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U48" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V48" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W48" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X48" s="2">
@@ -11469,7 +11496,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z48" s="2" t="str" cm="1">
@@ -11570,39 +11597,39 @@
         <v/>
       </c>
       <c r="O49" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="P49" s="2" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P49" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
       <c r="Q49" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="R49" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="S49" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="T49" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U49" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V49" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W49" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X49" s="2">
@@ -11610,7 +11637,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z49" s="2" t="str" cm="1">
@@ -11711,39 +11738,39 @@
         <v/>
       </c>
       <c r="O50" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="P50" s="2" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P50" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
       <c r="Q50" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="R50" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="S50" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="T50" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U50" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V50" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W50" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X50" s="2">
@@ -11751,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z50" s="2" t="str" cm="1">
@@ -11852,39 +11879,39 @@
         <v/>
       </c>
       <c r="O51" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="P51" s="2" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P51" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
       <c r="Q51" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="R51" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="S51" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="T51" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U51" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V51" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W51" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X51" s="2">
@@ -11892,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z51" s="2" t="str" cm="1">
@@ -11993,39 +12020,39 @@
         <v/>
       </c>
       <c r="O52" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="P52" s="2" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P52" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
       <c r="Q52" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="R52" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="S52" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="T52" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U52" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V52" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W52" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X52" s="2">
@@ -12033,7 +12060,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z52" s="2" t="str" cm="1">
@@ -12134,39 +12161,39 @@
         <v/>
       </c>
       <c r="O53" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="P53" s="2" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P53" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
       <c r="Q53" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="R53" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="S53" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="T53" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U53" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V53" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W53" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X53" s="2">
@@ -12174,7 +12201,7 @@
         <v>0</v>
       </c>
       <c r="Y53" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z53" s="2" t="str" cm="1">
@@ -12278,39 +12305,39 @@
         <v/>
       </c>
       <c r="O54" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="P54" s="2" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P54" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
       <c r="Q54" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="R54" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="S54" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="T54" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U54" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V54" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W54" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X54" s="2">
@@ -12318,7 +12345,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z54" s="2" t="str" cm="1">
@@ -12419,39 +12446,39 @@
         <v/>
       </c>
       <c r="O55" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="P55" s="2" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P55" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
       <c r="Q55" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="R55" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="S55" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="T55" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U55" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V55" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W55" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X55" s="2">
@@ -12459,7 +12486,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z55" s="2" t="str" cm="1">
@@ -12560,39 +12587,39 @@
         <v/>
       </c>
       <c r="O56" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="P56" s="2" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P56" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
       <c r="Q56" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="R56" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="S56" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="T56" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U56" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V56" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W56" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X56" s="2">
@@ -12600,7 +12627,7 @@
         <v>0</v>
       </c>
       <c r="Y56" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z56" s="2" t="str" cm="1">
@@ -12701,39 +12728,39 @@
         <v/>
       </c>
       <c r="O57" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="P57" s="2" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P57" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
       <c r="Q57" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="R57" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="S57" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="T57" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U57" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V57" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W57" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X57" s="2">
@@ -12741,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z57" s="2" t="str" cm="1">
@@ -12842,39 +12869,39 @@
         <v/>
       </c>
       <c r="O58" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="P58" s="2" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P58" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
       <c r="Q58" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="R58" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="S58" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="T58" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U58" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V58" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W58" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X58" s="2">
@@ -12882,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="Y58" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z58" s="2" t="str" cm="1">
@@ -12983,39 +13010,39 @@
         <v/>
       </c>
       <c r="O59" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="P59" s="2" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P59" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
       <c r="Q59" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="R59" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="S59" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="T59" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U59" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V59" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W59" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X59" s="2">
@@ -13023,7 +13050,7 @@
         <v>0</v>
       </c>
       <c r="Y59" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z59" s="2" t="str" cm="1">
@@ -13124,39 +13151,39 @@
         <v/>
       </c>
       <c r="O60" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="P60" s="2" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P60" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
       <c r="Q60" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="R60" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="S60" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="T60" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U60" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V60" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W60" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X60" s="2">
@@ -13164,7 +13191,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z60" s="2" t="str" cm="1">
@@ -13265,39 +13292,39 @@
         <v/>
       </c>
       <c r="O61" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="P61" s="2" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P61" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
       <c r="Q61" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="R61" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="S61" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="T61" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U61" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V61" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W61" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X61" s="2">
@@ -13305,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z61" s="2" t="str" cm="1">
@@ -13406,39 +13433,39 @@
         <v/>
       </c>
       <c r="O62" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="P62" s="2" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P62" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
       <c r="Q62" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="R62" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="S62" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="T62" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U62" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V62" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W62" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X62" s="2">
@@ -13446,7 +13473,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z62" s="2" t="str" cm="1">
@@ -13547,39 +13574,39 @@
         <v/>
       </c>
       <c r="O63" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="P63" s="2" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P63" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
       <c r="Q63" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="R63" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="S63" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="T63" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U63" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V63" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W63" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X63" s="2">
@@ -13587,7 +13614,7 @@
         <v>0</v>
       </c>
       <c r="Y63" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z63" s="2" t="str" cm="1">
@@ -13688,39 +13715,39 @@
         <v/>
       </c>
       <c r="O64" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="P64" s="2" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="P64" s="2" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
       <c r="Q64" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="R64" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="S64" s="2" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="T64" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U64" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V64" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W64" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X64" s="2">
@@ -13728,7 +13755,7 @@
         <v>0</v>
       </c>
       <c r="Y64" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z64" s="2" t="str" cm="1">
@@ -13829,39 +13856,39 @@
         <v/>
       </c>
       <c r="O65" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="P65" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="Q65" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="R65" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="S65" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="T65" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U65" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V65" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W65" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X65" s="2">
@@ -13869,7 +13896,7 @@
         <v>0</v>
       </c>
       <c r="Y65" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z65" s="2" t="str" cm="1">
@@ -13970,39 +13997,39 @@
         <v/>
       </c>
       <c r="O66" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="P66" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="Q66" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="R66" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="S66" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="T66" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U66" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V66" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W66" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X66" s="2">
@@ -14010,7 +14037,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z66" s="2" t="str" cm="1">
@@ -14111,39 +14138,39 @@
         <v/>
       </c>
       <c r="O67" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="P67" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="Q67" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="R67" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="S67" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="T67" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U67" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V67" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W67" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X67" s="2">
@@ -14151,7 +14178,7 @@
         <v>0</v>
       </c>
       <c r="Y67" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z67" s="2" t="str" cm="1">
@@ -14236,63 +14263,63 @@
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
       <c r="J68" s="14" t="str">
-        <f t="shared" ref="J68" si="53">IF($D68="","",IF(E68="",0,(T68*3+AB68+AG68)*IF($I68="x2",2,1)))</f>
+        <f t="shared" ref="J68" si="54">IF($D68="","",IF(E68="",0,(T68*3+AB68+AG68)*IF($I68="x2",2,1)))</f>
         <v/>
       </c>
       <c r="K68" s="14" t="str">
-        <f t="shared" ref="K68" si="54">IF($D68="","",IF(F68="",0,(U68*3+AC68+AH68)*IF($I68="x2",2,1)))</f>
+        <f t="shared" ref="K68" si="55">IF($D68="","",IF(F68="",0,(U68*3+AC68+AH68)*IF($I68="x2",2,1)))</f>
         <v/>
       </c>
       <c r="L68" s="14" t="str">
-        <f t="shared" ref="L68" si="55">IF($D68="","",IF(G68="",0,(V68*3+AD68+AI68)*IF($I68="x2",2,1)))</f>
+        <f t="shared" ref="L68" si="56">IF($D68="","",IF(G68="",0,(V68*3+AD68+AI68)*IF($I68="x2",2,1)))</f>
         <v/>
       </c>
       <c r="M68" s="14" t="str">
-        <f t="shared" ref="M68" si="56">IF($D68="","",IF(H68="",0,(W68*3+AE68+AJ68)*IF($I68="x2",2,1)))</f>
+        <f t="shared" ref="M68" si="57">IF($D68="","",IF(H68="",0,(W68*3+AE68+AJ68)*IF($I68="x2",2,1)))</f>
         <v/>
       </c>
       <c r="O68" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="P68" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="Q68" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="R68" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="S68" s="2" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="T68" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U68" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V68" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="W68" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="X68" s="2">
-        <f t="shared" ref="X68" si="57">IF(COUNTIF(P68:S68,P68)=1,1,0)*(P68&lt;&gt;"")+IF(COUNTIF(P68:S68,Q68)=1,2,0)*(Q68&lt;&gt;"")+IF(COUNTIF(P68:S68,R68)=1,3,0)*(R68&lt;&gt;"")+IF(COUNTIF(P68:S68,S68)=1,4,0)*(S68&lt;&gt;"")</f>
+        <f t="shared" ref="X68" si="58">IF(COUNTIF(P68:S68,P68)=1,1,0)*(P68&lt;&gt;"")+IF(COUNTIF(P68:S68,Q68)=1,2,0)*(Q68&lt;&gt;"")+IF(COUNTIF(P68:S68,R68)=1,3,0)*(R68&lt;&gt;"")+IF(COUNTIF(P68:S68,S68)=1,4,0)*(S68&lt;&gt;"")</f>
         <v>0</v>
       </c>
       <c r="Y68" s="2" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="Z68" s="2" t="str" cm="1">
@@ -14300,43 +14327,43 @@
         <v/>
       </c>
       <c r="AA68" s="2" t="str">
-        <f t="shared" ref="AA68" si="58">MID(D68,5,2)</f>
+        <f t="shared" ref="AA68" si="59">MID(D68,5,2)</f>
         <v/>
       </c>
       <c r="AB68" s="2">
-        <f t="shared" ref="AB68" si="59">(IF(T68=1,MID(INDEX($E68:$H68,AB$2),5,2),MID(INDEX($E68:$H68,AB$2),8,2))=$AA68)*1</f>
+        <f t="shared" ref="AB68" si="60">(IF(T68=1,MID(INDEX($E68:$H68,AB$2),5,2),MID(INDEX($E68:$H68,AB$2),8,2))=$AA68)*1</f>
         <v>1</v>
       </c>
       <c r="AC68" s="2">
-        <f t="shared" ref="AC68" si="60">(IF(U68=1,MID(INDEX($E68:$H68,AC$2),5,2),MID(INDEX($E68:$H68,AC$2),8,2))=$AA68)*1</f>
+        <f t="shared" ref="AC68" si="61">(IF(U68=1,MID(INDEX($E68:$H68,AC$2),5,2),MID(INDEX($E68:$H68,AC$2),8,2))=$AA68)*1</f>
         <v>1</v>
       </c>
       <c r="AD68" s="2">
-        <f t="shared" ref="AD68" si="61">(IF(V68=1,MID(INDEX($E68:$H68,AD$2),5,2),MID(INDEX($E68:$H68,AD$2),8,2))=$AA68)*1</f>
+        <f t="shared" ref="AD68" si="62">(IF(V68=1,MID(INDEX($E68:$H68,AD$2),5,2),MID(INDEX($E68:$H68,AD$2),8,2))=$AA68)*1</f>
         <v>1</v>
       </c>
       <c r="AE68" s="2">
-        <f t="shared" ref="AE68" si="62">(IF(W68=1,MID(INDEX($E68:$H68,AE$2),5,2),MID(INDEX($E68:$H68,AE$2),8,2))=$AA68)*1</f>
+        <f t="shared" ref="AE68" si="63">(IF(W68=1,MID(INDEX($E68:$H68,AE$2),5,2),MID(INDEX($E68:$H68,AE$2),8,2))=$AA68)*1</f>
         <v>1</v>
       </c>
       <c r="AF68" s="2" t="str">
-        <f t="shared" ref="AF68" si="63">MID(D68,8,2)</f>
+        <f t="shared" ref="AF68" si="64">MID(D68,8,2)</f>
         <v/>
       </c>
       <c r="AG68" s="2">
-        <f t="shared" ref="AG68" si="64">(IF(T68=1,MID(INDEX($E68:$H68,AG$2),8,2),MID(INDEX($E68:$H68,AB$2),5,2))=$AF68)*1</f>
+        <f t="shared" ref="AG68" si="65">(IF(T68=1,MID(INDEX($E68:$H68,AG$2),8,2),MID(INDEX($E68:$H68,AB$2),5,2))=$AF68)*1</f>
         <v>1</v>
       </c>
       <c r="AH68" s="2">
-        <f t="shared" ref="AH68" si="65">(IF(U68=1,MID(INDEX($E68:$H68,AH$2),8,2),MID(INDEX($E68:$H68,AC$2),5,2))=$AF68)*1</f>
+        <f t="shared" ref="AH68" si="66">(IF(U68=1,MID(INDEX($E68:$H68,AH$2),8,2),MID(INDEX($E68:$H68,AC$2),5,2))=$AF68)*1</f>
         <v>1</v>
       </c>
       <c r="AI68" s="2">
-        <f t="shared" ref="AI68" si="66">(IF(V68=1,MID(INDEX($E68:$H68,AI$2),8,2),MID(INDEX($E68:$H68,AD$2),5,2))=$AF68)*1</f>
+        <f t="shared" ref="AI68" si="67">(IF(V68=1,MID(INDEX($E68:$H68,AI$2),8,2),MID(INDEX($E68:$H68,AD$2),5,2))=$AF68)*1</f>
         <v>1</v>
       </c>
       <c r="AJ68" s="2">
-        <f t="shared" ref="AJ68" si="67">(IF(W68=1,MID(INDEX($E68:$H68,AJ$2),8,2),MID(INDEX($E68:$H68,AE$2),5,2))=$AF68)*1</f>
+        <f t="shared" ref="AJ68" si="68">(IF(W68=1,MID(INDEX($E68:$H68,AJ$2),8,2),MID(INDEX($E68:$H68,AE$2),5,2))=$AF68)*1</f>
         <v>1</v>
       </c>
       <c r="AL68" s="20" t="b">
@@ -14344,11 +14371,11 @@
         <v>1</v>
       </c>
       <c r="AM68" s="20">
-        <f t="shared" ref="AM68:AM69" si="68">IF(AL68,ROW()-2,"")</f>
+        <f t="shared" ref="AM68:AM69" si="69">IF(AL68,ROW()-2,"")</f>
         <v>66</v>
       </c>
       <c r="AN68" s="20">
-        <f t="shared" ref="AN68:AN69" si="69">IF(AL67,(D68&lt;&gt;"")*1,AN67+(D68&lt;&gt;"")*1)</f>
+        <f t="shared" ref="AN68:AN69" si="70">IF(AL67,(D68&lt;&gt;"")*1,AN67+(D68&lt;&gt;"")*1)</f>
         <v>0</v>
       </c>
       <c r="AO68" s="20"/>
@@ -14367,11 +14394,11 @@
       <c r="M69" s="15"/>
       <c r="AL69" s="20"/>
       <c r="AM69" s="20" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AN69" s="20">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
     </row>
@@ -14396,35 +14423,35 @@
         <v>98</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f t="shared" ref="J70:M73" si="70">IF($D70="","",P70*10)</f>
+        <f t="shared" ref="J70:M73" si="71">IF($D70="","",P70*10)</f>
         <v/>
       </c>
       <c r="K70" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="L70" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="M70" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="P70" s="2">
-        <f t="shared" ref="P70:S73" si="71">(E70=$D70)*1</f>
+        <f t="shared" ref="P70:S73" si="72">(E70=$D70)*1</f>
         <v>0</v>
       </c>
       <c r="Q70" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="R70" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="S70" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
     </row>
@@ -14449,35 +14476,35 @@
         <v>101</v>
       </c>
       <c r="J71" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="K71" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="L71" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="M71" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="P71" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="Q71" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="R71" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="S71" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
     </row>
@@ -14502,35 +14529,35 @@
         <v>96</v>
       </c>
       <c r="J72" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="K72" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="L72" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="M72" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="P72" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="Q72" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="R72" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="S72" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
     </row>
@@ -14555,35 +14582,35 @@
         <v>97</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="K73" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="L73" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="M73" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="P73" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="Q73" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="R73" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="S73" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
     </row>
@@ -14609,16 +14636,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:S1"/>
     <mergeCell ref="BE11:BF11"/>
     <mergeCell ref="BG11:BH11"/>
     <mergeCell ref="AA1:AE1"/>
@@ -14631,6 +14648,16 @@
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AZ1:BC1"/>
     <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B3:M68">
@@ -14658,7 +14685,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14788,418 +14815,375 @@
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
-      <c r="G7" s="40" t="s">
-        <v>205</v>
-      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="41" t="s">
-        <v>202</v>
+        <v>309</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="37"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <f>Tipps!AQ3</f>
-        <v>1</v>
-      </c>
-      <c r="B9" s="28">
-        <f ca="1">INDEX(Tipps!$AV3:$AY3,Tipps!BE$13)</f>
-        <v>3</v>
-      </c>
-      <c r="C9" s="28">
-        <f ca="1">INDEX(Tipps!$AV3:$AY3,Tipps!BF$13)</f>
-        <v>3</v>
-      </c>
-      <c r="D9" s="28">
-        <f ca="1">INDEX(Tipps!$AV3:$AY3,Tipps!BG$13)</f>
-        <v>5</v>
-      </c>
-      <c r="E9" s="28">
-        <f ca="1">INDEX(Tipps!$AV3:$AY3,Tipps!BH$13)</f>
-        <v>3</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="29">
-        <f ca="1">SUM(B9:E9)</f>
-        <v>14</v>
-      </c>
+      <c r="A9" s="22"/>
+      <c r="B9" s="43">
+        <f>INDEX(Tipps!$BE15:$BH15,Tipps!BE$13)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="43">
+        <f>INDEX(Tipps!$BE15:$BH15,Tipps!BF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="43">
+        <f>INDEX(Tipps!$BE15:$BH15,Tipps!BG$13)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="43">
+        <f>INDEX(Tipps!$BE15:$BH15,Tipps!BH$13)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <f>Tipps!AQ4</f>
-        <v>2</v>
-      </c>
-      <c r="B10" s="28">
-        <f ca="1">INDEX(Tipps!$AV4:$AY4,Tipps!BE$13)</f>
-        <v>9</v>
-      </c>
-      <c r="C10" s="28">
-        <f ca="1">INDEX(Tipps!$AV4:$AY4,Tipps!BF$13)</f>
-        <v>9</v>
-      </c>
-      <c r="D10" s="28">
-        <f ca="1">INDEX(Tipps!$AV4:$AY4,Tipps!BG$13)</f>
-        <v>9</v>
-      </c>
-      <c r="E10" s="28">
-        <f ca="1">INDEX(Tipps!$AV4:$AY4,Tipps!BH$13)</f>
-        <v>9</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="29">
-        <f t="shared" ref="G10:G26" ca="1" si="1">SUM(B10:E10)</f>
-        <v>36</v>
+    <row r="10" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22"/>
+      <c r="G10" s="40" t="s">
+        <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
-        <f>Tipps!AQ5</f>
-        <v>3</v>
-      </c>
-      <c r="B11" s="28">
-        <f ca="1">INDEX(Tipps!$AV5:$AY5,Tipps!BE$13)</f>
-        <v>4</v>
-      </c>
-      <c r="C11" s="28">
-        <f ca="1">INDEX(Tipps!$AV5:$AY5,Tipps!BF$13)</f>
-        <v>12</v>
-      </c>
-      <c r="D11" s="28">
-        <f ca="1">INDEX(Tipps!$AV5:$AY5,Tipps!BG$13)</f>
-        <v>9</v>
-      </c>
-      <c r="E11" s="28">
-        <f ca="1">INDEX(Tipps!$AV5:$AY5,Tipps!BH$13)</f>
-        <v>6</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="29">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
-      </c>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
-        <f>Tipps!AQ6</f>
-        <v>4</v>
+        <f>Tipps!AQ3</f>
+        <v>1</v>
       </c>
       <c r="B12" s="28">
-        <f ca="1">INDEX(Tipps!$AV6:$AY6,Tipps!BE$13)</f>
-        <v>7</v>
+        <f ca="1">INDEX(Tipps!$AV3:$AY3,Tipps!BE$13)</f>
+        <v>3</v>
       </c>
       <c r="C12" s="28">
-        <f ca="1">INDEX(Tipps!$AV6:$AY6,Tipps!BF$13)</f>
-        <v>10</v>
+        <f ca="1">INDEX(Tipps!$AV3:$AY3,Tipps!BF$13)</f>
+        <v>3</v>
       </c>
       <c r="D12" s="28">
-        <f ca="1">INDEX(Tipps!$AV6:$AY6,Tipps!BG$13)</f>
-        <v>6</v>
+        <f ca="1">INDEX(Tipps!$AV3:$AY3,Tipps!BG$13)</f>
+        <v>5</v>
       </c>
       <c r="E12" s="28">
-        <f ca="1">INDEX(Tipps!$AV6:$AY6,Tipps!BH$13)</f>
-        <v>6</v>
+        <f ca="1">INDEX(Tipps!$AV3:$AY3,Tipps!BH$13)</f>
+        <v>3</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="29">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <f ca="1">SUM(B12:E12)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
-        <f>Tipps!AQ7</f>
-        <v>5</v>
+        <f>Tipps!AQ4</f>
+        <v>2</v>
       </c>
       <c r="B13" s="28">
-        <f ca="1">INDEX(Tipps!$AV7:$AY7,Tipps!BE$13)</f>
-        <v>14</v>
+        <f ca="1">INDEX(Tipps!$AV4:$AY4,Tipps!BE$13)</f>
+        <v>9</v>
       </c>
       <c r="C13" s="28">
-        <f ca="1">INDEX(Tipps!$AV7:$AY7,Tipps!BF$13)</f>
-        <v>11</v>
+        <f ca="1">INDEX(Tipps!$AV4:$AY4,Tipps!BF$13)</f>
+        <v>9</v>
       </c>
       <c r="D13" s="28">
-        <f ca="1">INDEX(Tipps!$AV7:$AY7,Tipps!BG$13)</f>
-        <v>3</v>
+        <f ca="1">INDEX(Tipps!$AV4:$AY4,Tipps!BG$13)</f>
+        <v>9</v>
       </c>
       <c r="E13" s="28">
-        <f ca="1">INDEX(Tipps!$AV7:$AY7,Tipps!BH$13)</f>
-        <v>6</v>
+        <f ca="1">INDEX(Tipps!$AV4:$AY4,Tipps!BH$13)</f>
+        <v>9</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="29">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <f t="shared" ref="G13:G29" ca="1" si="1">SUM(B13:E13)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
-        <f>Tipps!AQ8</f>
+        <f>Tipps!AQ5</f>
+        <v>3</v>
+      </c>
+      <c r="B14" s="28">
+        <f ca="1">INDEX(Tipps!$AV5:$AY5,Tipps!BE$13)</f>
+        <v>4</v>
+      </c>
+      <c r="C14" s="28">
+        <f ca="1">INDEX(Tipps!$AV5:$AY5,Tipps!BF$13)</f>
+        <v>12</v>
+      </c>
+      <c r="D14" s="28">
+        <f ca="1">INDEX(Tipps!$AV5:$AY5,Tipps!BG$13)</f>
+        <v>9</v>
+      </c>
+      <c r="E14" s="28">
+        <f ca="1">INDEX(Tipps!$AV5:$AY5,Tipps!BH$13)</f>
         <v>6</v>
-      </c>
-      <c r="B14" s="28">
-        <f ca="1">INDEX(Tipps!$AV8:$AY8,Tipps!BE$13)</f>
-        <v>12</v>
-      </c>
-      <c r="C14" s="28">
-        <f ca="1">INDEX(Tipps!$AV8:$AY8,Tipps!BF$13)</f>
-        <v>9</v>
-      </c>
-      <c r="D14" s="28">
-        <f ca="1">INDEX(Tipps!$AV8:$AY8,Tipps!BG$13)</f>
-        <v>9</v>
-      </c>
-      <c r="E14" s="28">
-        <f ca="1">INDEX(Tipps!$AV8:$AY8,Tipps!BH$13)</f>
-        <v>9</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
-        <f>Tipps!AQ9</f>
+        <f>Tipps!AQ6</f>
+        <v>4</v>
+      </c>
+      <c r="B15" s="28">
+        <f ca="1">INDEX(Tipps!$AV6:$AY6,Tipps!BE$13)</f>
         <v>7</v>
       </c>
-      <c r="B15" s="28">
-        <f ca="1">INDEX(Tipps!$AV9:$AY9,Tipps!BE$13)</f>
-        <v>3</v>
-      </c>
       <c r="C15" s="28">
-        <f ca="1">INDEX(Tipps!$AV9:$AY9,Tipps!BF$13)</f>
-        <v>4</v>
+        <f ca="1">INDEX(Tipps!$AV6:$AY6,Tipps!BF$13)</f>
+        <v>10</v>
       </c>
       <c r="D15" s="28">
-        <f ca="1">INDEX(Tipps!$AV9:$AY9,Tipps!BG$13)</f>
-        <v>8</v>
+        <f ca="1">INDEX(Tipps!$AV6:$AY6,Tipps!BG$13)</f>
+        <v>6</v>
       </c>
       <c r="E15" s="28">
-        <f ca="1">INDEX(Tipps!$AV9:$AY9,Tipps!BH$13)</f>
-        <v>3</v>
+        <f ca="1">INDEX(Tipps!$AV6:$AY6,Tipps!BH$13)</f>
+        <v>6</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
-        <f>Tipps!AQ10</f>
-        <v>8</v>
+        <f>Tipps!AQ7</f>
+        <v>5</v>
       </c>
       <c r="B16" s="28">
-        <f ca="1">INDEX(Tipps!$AV10:$AY10,Tipps!BE$13)</f>
-        <v>10</v>
+        <f ca="1">INDEX(Tipps!$AV7:$AY7,Tipps!BE$13)</f>
+        <v>14</v>
       </c>
       <c r="C16" s="28">
-        <f ca="1">INDEX(Tipps!$AV10:$AY10,Tipps!BF$13)</f>
-        <v>10</v>
+        <f ca="1">INDEX(Tipps!$AV7:$AY7,Tipps!BF$13)</f>
+        <v>11</v>
       </c>
       <c r="D16" s="28">
-        <f ca="1">INDEX(Tipps!$AV10:$AY10,Tipps!BG$13)</f>
-        <v>5</v>
+        <f ca="1">INDEX(Tipps!$AV7:$AY7,Tipps!BG$13)</f>
+        <v>3</v>
       </c>
       <c r="E16" s="28">
-        <f ca="1">INDEX(Tipps!$AV10:$AY10,Tipps!BH$13)</f>
-        <v>10</v>
+        <f ca="1">INDEX(Tipps!$AV7:$AY7,Tipps!BH$13)</f>
+        <v>6</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
-        <f>Tipps!AQ11</f>
+        <f>Tipps!AQ8</f>
+        <v>6</v>
+      </c>
+      <c r="B17" s="28">
+        <f ca="1">INDEX(Tipps!$AV8:$AY8,Tipps!BE$13)</f>
+        <v>12</v>
+      </c>
+      <c r="C17" s="28">
+        <f ca="1">INDEX(Tipps!$AV8:$AY8,Tipps!BF$13)</f>
         <v>9</v>
       </c>
-      <c r="B17" s="28">
-        <f ca="1">INDEX(Tipps!$AV11:$AY11,Tipps!BE$13)</f>
-        <v>12</v>
-      </c>
-      <c r="C17" s="28">
-        <f ca="1">INDEX(Tipps!$AV11:$AY11,Tipps!BF$13)</f>
-        <v>4</v>
-      </c>
       <c r="D17" s="28">
-        <f ca="1">INDEX(Tipps!$AV11:$AY11,Tipps!BG$13)</f>
-        <v>6</v>
+        <f ca="1">INDEX(Tipps!$AV8:$AY8,Tipps!BG$13)</f>
+        <v>9</v>
       </c>
       <c r="E17" s="28">
-        <f ca="1">INDEX(Tipps!$AV11:$AY11,Tipps!BH$13)</f>
-        <v>8</v>
+        <f ca="1">INDEX(Tipps!$AV8:$AY8,Tipps!BH$13)</f>
+        <v>9</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
-        <f>Tipps!AQ12</f>
-        <v>10</v>
+        <f>Tipps!AQ9</f>
+        <v>7</v>
       </c>
       <c r="B18" s="28">
-        <f ca="1">INDEX(Tipps!$AV12:$AY12,Tipps!BE$13)</f>
+        <f ca="1">INDEX(Tipps!$AV9:$AY9,Tipps!BE$13)</f>
         <v>3</v>
       </c>
       <c r="C18" s="28">
-        <f ca="1">INDEX(Tipps!$AV12:$AY12,Tipps!BF$13)</f>
-        <v>6</v>
+        <f ca="1">INDEX(Tipps!$AV9:$AY9,Tipps!BF$13)</f>
+        <v>4</v>
       </c>
       <c r="D18" s="28">
-        <f ca="1">INDEX(Tipps!$AV12:$AY12,Tipps!BG$13)</f>
-        <v>3</v>
+        <f ca="1">INDEX(Tipps!$AV9:$AY9,Tipps!BG$13)</f>
+        <v>8</v>
       </c>
       <c r="E18" s="28">
-        <f ca="1">INDEX(Tipps!$AV12:$AY12,Tipps!BH$13)</f>
+        <f ca="1">INDEX(Tipps!$AV9:$AY9,Tipps!BH$13)</f>
         <v>3</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
-        <f>Tipps!AQ13</f>
-        <v>11</v>
+        <f>Tipps!AQ10</f>
+        <v>8</v>
       </c>
       <c r="B19" s="28">
-        <f ca="1">INDEX(Tipps!$AV13:$AY13,Tipps!BE$13)</f>
-        <v>3</v>
+        <f ca="1">INDEX(Tipps!$AV10:$AY10,Tipps!BE$13)</f>
+        <v>10</v>
       </c>
       <c r="C19" s="28">
-        <f ca="1">INDEX(Tipps!$AV13:$AY13,Tipps!BF$13)</f>
-        <v>1</v>
+        <f ca="1">INDEX(Tipps!$AV10:$AY10,Tipps!BF$13)</f>
+        <v>10</v>
       </c>
       <c r="D19" s="28">
-        <f ca="1">INDEX(Tipps!$AV13:$AY13,Tipps!BG$13)</f>
-        <v>4</v>
+        <f ca="1">INDEX(Tipps!$AV10:$AY10,Tipps!BG$13)</f>
+        <v>5</v>
       </c>
       <c r="E19" s="28">
-        <f ca="1">INDEX(Tipps!$AV13:$AY13,Tipps!BH$13)</f>
-        <v>4</v>
+        <f ca="1">INDEX(Tipps!$AV10:$AY10,Tipps!BH$13)</f>
+        <v>10</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
-        <f>Tipps!AQ14</f>
+        <f>Tipps!AQ11</f>
+        <v>9</v>
+      </c>
+      <c r="B20" s="28">
+        <f ca="1">INDEX(Tipps!$AV11:$AY11,Tipps!BE$13)</f>
         <v>12</v>
       </c>
-      <c r="B20" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV14:$AY14,Tipps!BE$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C20" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV14:$AY14,Tipps!BF$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D20" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV14:$AY14,Tipps!BG$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E20" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV14:$AY14,Tipps!BH$13)</f>
-        <v>#N/A</v>
+      <c r="C20" s="28">
+        <f ca="1">INDEX(Tipps!$AV11:$AY11,Tipps!BF$13)</f>
+        <v>4</v>
+      </c>
+      <c r="D20" s="28">
+        <f ca="1">INDEX(Tipps!$AV11:$AY11,Tipps!BG$13)</f>
+        <v>6</v>
+      </c>
+      <c r="E20" s="28">
+        <f ca="1">INDEX(Tipps!$AV11:$AY11,Tipps!BH$13)</f>
+        <v>8</v>
       </c>
       <c r="F20" s="18"/>
-      <c r="G20" s="29" t="e">
+      <c r="G20" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
-        <f>Tipps!AQ15</f>
-        <v>13</v>
-      </c>
-      <c r="B21" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV15:$AY15,Tipps!BE$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C21" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV15:$AY15,Tipps!BF$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D21" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV15:$AY15,Tipps!BG$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E21" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV15:$AY15,Tipps!BH$13)</f>
-        <v>#N/A</v>
+        <f>Tipps!AQ12</f>
+        <v>10</v>
+      </c>
+      <c r="B21" s="28">
+        <f ca="1">INDEX(Tipps!$AV12:$AY12,Tipps!BE$13)</f>
+        <v>3</v>
+      </c>
+      <c r="C21" s="28">
+        <f ca="1">INDEX(Tipps!$AV12:$AY12,Tipps!BF$13)</f>
+        <v>6</v>
+      </c>
+      <c r="D21" s="28">
+        <f ca="1">INDEX(Tipps!$AV12:$AY12,Tipps!BG$13)</f>
+        <v>3</v>
+      </c>
+      <c r="E21" s="28">
+        <f ca="1">INDEX(Tipps!$AV12:$AY12,Tipps!BH$13)</f>
+        <v>3</v>
       </c>
       <c r="F21" s="18"/>
-      <c r="G21" s="29" t="e">
+      <c r="G21" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
-        <f>Tipps!AQ16</f>
-        <v>14</v>
-      </c>
-      <c r="B22" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV16:$AY16,Tipps!BE$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C22" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV16:$AY16,Tipps!BF$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D22" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV16:$AY16,Tipps!BG$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E22" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV16:$AY16,Tipps!BH$13)</f>
-        <v>#N/A</v>
+        <f>Tipps!AQ13</f>
+        <v>11</v>
+      </c>
+      <c r="B22" s="28">
+        <f ca="1">INDEX(Tipps!$AV13:$AY13,Tipps!BE$13)</f>
+        <v>3</v>
+      </c>
+      <c r="C22" s="28">
+        <f ca="1">INDEX(Tipps!$AV13:$AY13,Tipps!BF$13)</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="28">
+        <f ca="1">INDEX(Tipps!$AV13:$AY13,Tipps!BG$13)</f>
+        <v>4</v>
+      </c>
+      <c r="E22" s="28">
+        <f ca="1">INDEX(Tipps!$AV13:$AY13,Tipps!BH$13)</f>
+        <v>4</v>
       </c>
       <c r="F22" s="18"/>
-      <c r="G22" s="29" t="e">
+      <c r="G22" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
-        <f>Tipps!AQ17</f>
-        <v>15</v>
+        <f>Tipps!AQ14</f>
+        <v>12</v>
       </c>
       <c r="B23" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV17:$AY17,Tipps!BE$13)</f>
+        <f ca="1">INDEX(Tipps!$AV14:$AY14,Tipps!BE$13)</f>
         <v>#N/A</v>
       </c>
       <c r="C23" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV17:$AY17,Tipps!BF$13)</f>
+        <f ca="1">INDEX(Tipps!$AV14:$AY14,Tipps!BF$13)</f>
         <v>#N/A</v>
       </c>
       <c r="D23" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV17:$AY17,Tipps!BG$13)</f>
+        <f ca="1">INDEX(Tipps!$AV14:$AY14,Tipps!BG$13)</f>
         <v>#N/A</v>
       </c>
       <c r="E23" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV17:$AY17,Tipps!BH$13)</f>
+        <f ca="1">INDEX(Tipps!$AV14:$AY14,Tipps!BH$13)</f>
         <v>#N/A</v>
       </c>
       <c r="F23" s="18"/>
@@ -15210,23 +15194,23 @@
     </row>
     <row r="24" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
-        <f>Tipps!AQ18</f>
-        <v>16</v>
+        <f>Tipps!AQ15</f>
+        <v>13</v>
       </c>
       <c r="B24" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV18:$AY18,Tipps!BE$13)</f>
+        <f ca="1">INDEX(Tipps!$AV15:$AY15,Tipps!BE$13)</f>
         <v>#N/A</v>
       </c>
       <c r="C24" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV18:$AY18,Tipps!BF$13)</f>
+        <f ca="1">INDEX(Tipps!$AV15:$AY15,Tipps!BF$13)</f>
         <v>#N/A</v>
       </c>
       <c r="D24" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV18:$AY18,Tipps!BG$13)</f>
+        <f ca="1">INDEX(Tipps!$AV15:$AY15,Tipps!BG$13)</f>
         <v>#N/A</v>
       </c>
       <c r="E24" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV18:$AY18,Tipps!BH$13)</f>
+        <f ca="1">INDEX(Tipps!$AV15:$AY15,Tipps!BH$13)</f>
         <v>#N/A</v>
       </c>
       <c r="F24" s="18"/>
@@ -15237,23 +15221,23 @@
     </row>
     <row r="25" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
-        <f>Tipps!AQ19</f>
-        <v>17</v>
+        <f>Tipps!AQ16</f>
+        <v>14</v>
       </c>
       <c r="B25" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV19:$AY19,Tipps!BE$13)</f>
+        <f ca="1">INDEX(Tipps!$AV16:$AY16,Tipps!BE$13)</f>
         <v>#N/A</v>
       </c>
       <c r="C25" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV19:$AY19,Tipps!BF$13)</f>
+        <f ca="1">INDEX(Tipps!$AV16:$AY16,Tipps!BF$13)</f>
         <v>#N/A</v>
       </c>
       <c r="D25" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV19:$AY19,Tipps!BG$13)</f>
+        <f ca="1">INDEX(Tipps!$AV16:$AY16,Tipps!BG$13)</f>
         <v>#N/A</v>
       </c>
       <c r="E25" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV19:$AY19,Tipps!BH$13)</f>
+        <f ca="1">INDEX(Tipps!$AV16:$AY16,Tipps!BH$13)</f>
         <v>#N/A</v>
       </c>
       <c r="F25" s="18"/>
@@ -15264,23 +15248,23 @@
     </row>
     <row r="26" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
-        <f>Tipps!AQ20</f>
-        <v>18</v>
+        <f>Tipps!AQ17</f>
+        <v>15</v>
       </c>
       <c r="B26" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV20:$AY20,Tipps!BE$13)</f>
+        <f ca="1">INDEX(Tipps!$AV17:$AY17,Tipps!BE$13)</f>
         <v>#N/A</v>
       </c>
       <c r="C26" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV20:$AY20,Tipps!BF$13)</f>
+        <f ca="1">INDEX(Tipps!$AV17:$AY17,Tipps!BF$13)</f>
         <v>#N/A</v>
       </c>
       <c r="D26" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV20:$AY20,Tipps!BG$13)</f>
+        <f ca="1">INDEX(Tipps!$AV17:$AY17,Tipps!BG$13)</f>
         <v>#N/A</v>
       </c>
       <c r="E26" s="28" t="e">
-        <f ca="1">INDEX(Tipps!$AV20:$AY20,Tipps!BH$13)</f>
+        <f ca="1">INDEX(Tipps!$AV17:$AY17,Tipps!BH$13)</f>
         <v>#N/A</v>
       </c>
       <c r="F26" s="18"/>
@@ -15289,130 +15273,212 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <f>Tipps!AQ18</f>
+        <v>16</v>
+      </c>
+      <c r="B27" s="28" t="e">
+        <f ca="1">INDEX(Tipps!$AV18:$AY18,Tipps!BE$13)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C27" s="28" t="e">
+        <f ca="1">INDEX(Tipps!$AV18:$AY18,Tipps!BF$13)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D27" s="28" t="e">
+        <f ca="1">INDEX(Tipps!$AV18:$AY18,Tipps!BG$13)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E27" s="28" t="e">
+        <f ca="1">INDEX(Tipps!$AV18:$AY18,Tipps!BH$13)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="29" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="B28" s="18">
-        <f ca="1">_xlfn.AGGREGATE(5,2,B9:B26)</f>
-        <v>3</v>
-      </c>
-      <c r="C28" s="18">
-        <f ca="1">_xlfn.AGGREGATE(5,2,C9:C26)</f>
-        <v>1</v>
-      </c>
-      <c r="D28" s="18">
-        <f ca="1">_xlfn.AGGREGATE(5,2,D9:D26)</f>
-        <v>3</v>
-      </c>
-      <c r="E28" s="18">
-        <f ca="1">_xlfn.AGGREGATE(5,2,E9:E26)</f>
-        <v>3</v>
-      </c>
-      <c r="G28" s="18">
-        <f ca="1">_xlfn.AGGREGATE(5,2,G9:G26)</f>
-        <v>12</v>
+    <row r="28" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <f>Tipps!AQ19</f>
+        <v>17</v>
+      </c>
+      <c r="B28" s="28" t="e">
+        <f ca="1">INDEX(Tipps!$AV19:$AY19,Tipps!BE$13)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C28" s="28" t="e">
+        <f ca="1">INDEX(Tipps!$AV19:$AY19,Tipps!BF$13)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D28" s="28" t="e">
+        <f ca="1">INDEX(Tipps!$AV19:$AY19,Tipps!BG$13)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E28" s="28" t="e">
+        <f ca="1">INDEX(Tipps!$AV19:$AY19,Tipps!BH$13)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="29" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="B29" s="18">
-        <f ca="1">_xlfn.AGGREGATE(4,2,B9:B26)</f>
-        <v>14</v>
-      </c>
-      <c r="C29" s="18">
-        <f ca="1">_xlfn.AGGREGATE(4,2,C9:C26)</f>
-        <v>12</v>
-      </c>
-      <c r="D29" s="18">
-        <f ca="1">_xlfn.AGGREGATE(4,2,D9:D26)</f>
-        <v>9</v>
-      </c>
-      <c r="E29" s="18">
-        <f ca="1">_xlfn.AGGREGATE(4,2,E9:E26)</f>
-        <v>10</v>
-      </c>
-      <c r="G29" s="18">
-        <f ca="1">_xlfn.AGGREGATE(4,2,G9:G26)</f>
-        <v>39</v>
+    <row r="29" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <f>Tipps!AQ20</f>
+        <v>18</v>
+      </c>
+      <c r="B29" s="28" t="e">
+        <f ca="1">INDEX(Tipps!$AV20:$AY20,Tipps!BE$13)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C29" s="28" t="e">
+        <f ca="1">INDEX(Tipps!$AV20:$AY20,Tipps!BF$13)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D29" s="28" t="e">
+        <f ca="1">INDEX(Tipps!$AV20:$AY20,Tipps!BG$13)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E29" s="28" t="e">
+        <f ca="1">INDEX(Tipps!$AV20:$AY20,Tipps!BH$13)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="29" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="B30" s="31">
-        <f ca="1">_xlfn.AGGREGATE(1,2,B9:B26)</f>
-        <v>7.2727272727272725</v>
-      </c>
-      <c r="C30" s="31">
-        <f ca="1">_xlfn.AGGREGATE(1,2,C9:C26)</f>
-        <v>7.1818181818181817</v>
-      </c>
-      <c r="D30" s="31">
-        <f ca="1">_xlfn.AGGREGATE(1,2,D9:D26)</f>
-        <v>6.0909090909090908</v>
-      </c>
-      <c r="E30" s="31">
-        <f ca="1">_xlfn.AGGREGATE(1,2,E9:E26)</f>
-        <v>6.0909090909090908</v>
-      </c>
-      <c r="G30" s="31">
-        <f ca="1">_xlfn.AGGREGATE(1,2,G9:G26)</f>
-        <v>26.636363636363637</v>
-      </c>
+    <row r="30" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="30"/>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" s="18">
+        <f ca="1">_xlfn.AGGREGATE(5,2,B12:B29)</f>
+        <v>3</v>
+      </c>
+      <c r="C31" s="18">
+        <f ca="1">_xlfn.AGGREGATE(5,2,C12:C29)</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="18">
+        <f ca="1">_xlfn.AGGREGATE(5,2,D12:D29)</f>
+        <v>3</v>
+      </c>
+      <c r="E31" s="18">
+        <f ca="1">_xlfn.AGGREGATE(5,2,E12:E29)</f>
+        <v>3</v>
+      </c>
+      <c r="G31" s="18">
+        <f ca="1">_xlfn.AGGREGATE(5,2,G12:G29)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" s="18">
+        <f ca="1">_xlfn.AGGREGATE(4,2,B12:B29)</f>
+        <v>14</v>
+      </c>
+      <c r="C32" s="18">
+        <f ca="1">_xlfn.AGGREGATE(4,2,C12:C29)</f>
+        <v>12</v>
+      </c>
+      <c r="D32" s="18">
+        <f ca="1">_xlfn.AGGREGATE(4,2,D12:D29)</f>
+        <v>9</v>
+      </c>
+      <c r="E32" s="18">
+        <f ca="1">_xlfn.AGGREGATE(4,2,E12:E29)</f>
+        <v>10</v>
+      </c>
+      <c r="G32" s="18">
+        <f ca="1">_xlfn.AGGREGATE(4,2,G12:G29)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" s="31">
+        <f ca="1">_xlfn.AGGREGATE(1,2,B12:B29)</f>
+        <v>7.2727272727272725</v>
+      </c>
+      <c r="C33" s="31">
+        <f ca="1">_xlfn.AGGREGATE(1,2,C12:C29)</f>
+        <v>7.1818181818181817</v>
+      </c>
+      <c r="D33" s="31">
+        <f ca="1">_xlfn.AGGREGATE(1,2,D12:D29)</f>
+        <v>6.0909090909090908</v>
+      </c>
+      <c r="E33" s="31">
+        <f ca="1">_xlfn.AGGREGATE(1,2,E12:E29)</f>
+        <v>6.0909090909090908</v>
+      </c>
+      <c r="G33" s="31">
+        <f ca="1">_xlfn.AGGREGATE(1,2,G12:G29)</f>
+        <v>26.636363636363637</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="B31" s="31">
-        <f ca="1">_xlfn.AGGREGATE(8,2,B9:B26)</f>
+      <c r="B34" s="31">
+        <f ca="1">_xlfn.AGGREGATE(8,2,B12:B29)</f>
         <v>4.0919190672461445</v>
       </c>
-      <c r="C31" s="31">
-        <f ca="1">_xlfn.AGGREGATE(8,2,C9:C26)</f>
+      <c r="C34" s="31">
+        <f ca="1">_xlfn.AGGREGATE(8,2,C12:C29)</f>
         <v>3.5372866287897673</v>
       </c>
-      <c r="D31" s="31">
-        <f ca="1">_xlfn.AGGREGATE(8,2,D9:D26)</f>
+      <c r="D34" s="31">
+        <f ca="1">_xlfn.AGGREGATE(8,2,D12:D29)</f>
         <v>2.2342192231717286</v>
       </c>
-      <c r="E31" s="31">
-        <f ca="1">_xlfn.AGGREGATE(8,2,E9:E26)</f>
+      <c r="E34" s="31">
+        <f ca="1">_xlfn.AGGREGATE(8,2,E12:E29)</f>
         <v>2.5028908905338554</v>
       </c>
-      <c r="G31" s="31">
-        <f ca="1">_xlfn.AGGREGATE(8,2,G9:G26)</f>
+      <c r="G34" s="31">
+        <f ca="1">_xlfn.AGGREGATE(8,2,G12:G29)</f>
         <v>9.4606623569074149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G7:G8"/>
+  <mergeCells count="3">
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B11:E11"/>
     <mergeCell ref="B8:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:E3">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>B$3="Thomas"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>B$3="Jasmin"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>B$3="Franz"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>B$3="David"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:F5">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15423,7 +15489,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:F26">
+  <conditionalFormatting sqref="B12:F29">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -15435,8 +15501,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G26">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="G12:G29">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:E9">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15824,10 +15902,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:E20">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>LEFT(B3,2)="at"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>LEFT(B3,2)="vs"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2023_tipp.xlsx
+++ b/2023_tipp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DT\nfl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\NFL Tipp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CAEDEF-B649-4BA5-8C34-0B94D8EA054B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipps" sheetId="3" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Verlauf" sheetId="7" r:id="rId3"/>
     <sheet name="Spiele" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="324">
   <si>
     <t>ID</t>
   </si>
@@ -994,12 +995,51 @@
   </si>
   <si>
     <t>Pkt Div Rk</t>
+  </si>
+  <si>
+    <t>NE  17-09</t>
+  </si>
+  <si>
+    <t>MIN 23-17</t>
+  </si>
+  <si>
+    <t>LAR 23-17</t>
+  </si>
+  <si>
+    <t>MIN 27-20</t>
+  </si>
+  <si>
+    <t>NE  14-09</t>
+  </si>
+  <si>
+    <t>KC  28-17</t>
+  </si>
+  <si>
+    <t>MIN 21-14</t>
+  </si>
+  <si>
+    <t>LAR 21-14</t>
+  </si>
+  <si>
+    <t>NE  19-14</t>
+  </si>
+  <si>
+    <t>LAR 23-21</t>
+  </si>
+  <si>
+    <t>LAR 22-20</t>
+  </si>
+  <si>
+    <t>NYG 10-07</t>
+  </si>
+  <si>
+    <t>LAR 37-14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0;\-0;\-"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1384,6 +1424,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1411,18 +1457,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1452,28 +1514,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1643,40 +1683,40 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.75585324232081907</c:v>
+                  <c:v>0.75266355140186914</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0561945392491467</c:v>
+                  <c:v>1.0517289719626166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1563083048919225</c:v>
+                  <c:v>1.1514174454828658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0937372013651876</c:v>
+                  <c:v>1.0891121495327101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96609215017064842</c:v>
+                  <c:v>0.96200934579439257</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0311660978384527</c:v>
+                  <c:v>1.0268068535825543</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0611945392491466</c:v>
+                  <c:v>1.0567289719626167</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0286518771331057</c:v>
+                  <c:v>1.0243457943925232</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0161376564277587</c:v>
+                  <c:v>1.0118847352024922</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96107508532423203</c:v>
+                  <c:v>0.95705607476635512</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.93467576791808871</c:v>
+                  <c:v>0.9307901444350043</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.92965732087227415</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>#N/A</c:v>
@@ -1749,40 +1789,40 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.45051194539249145</c:v>
+                  <c:v>0.44859813084112149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90102389078498291</c:v>
+                  <c:v>0.89719626168224298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2013651877133107</c:v>
+                  <c:v>1.1962616822429906</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2764505119453924</c:v>
+                  <c:v>1.2710280373831775</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3565358361774742</c:v>
+                  <c:v>1.3507943925233643</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3565358361774744</c:v>
+                  <c:v>1.3507943925233643</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2542710872745002</c:v>
+                  <c:v>1.2489853137516689</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2914505119453923</c:v>
+                  <c:v>1.2860280373831774</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2213651877133107</c:v>
+                  <c:v>1.2162616822429906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1913310580204779</c:v>
+                  <c:v>1.1863551401869159</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1034982935153583</c:v>
+                  <c:v>1.0989167374681392</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.0966510903426789</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>#N/A</c:v>
@@ -1855,40 +1895,40 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.45051194539249145</c:v>
+                  <c:v>0.44859813084112149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90102389078498291</c:v>
+                  <c:v>0.89719626168224298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80091012514220705</c:v>
+                  <c:v>0.79750778816199375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86848122866894195</c:v>
+                  <c:v>0.86481308411214952</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1212627986348123</c:v>
+                  <c:v>1.1165420560747663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2363936291240045</c:v>
+                  <c:v>1.2311838006230529</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1255533885909312</c:v>
+                  <c:v>1.1208144192256342</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1738225255972696</c:v>
+                  <c:v>1.1688785046728971</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2547364429275694</c:v>
+                  <c:v>1.2494911734164071</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1763139931740614</c:v>
+                  <c:v>1.1714018691588786</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1121501706484642</c:v>
+                  <c:v>1.1075106202209006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.1165732087227414</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>#N/A</c:v>
@@ -1961,40 +2001,40 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.45051194539249145</c:v>
+                  <c:v>0.44859813084112149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90102389078498291</c:v>
+                  <c:v>0.89719626168224298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90102389078498302</c:v>
+                  <c:v>0.89719626168224298</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90102389078498291</c:v>
+                  <c:v>0.89719626168224298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90102389078498291</c:v>
+                  <c:v>0.89719626168224298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97610921501706482</c:v>
+                  <c:v>0.9719626168224299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90102389078498291</c:v>
+                  <c:v>0.89719626168224298</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97610921501706482</c:v>
+                  <c:v>0.9719626168224299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0111376564277588</c:v>
+                  <c:v>1.0068847352024921</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95607508532423202</c:v>
+                  <c:v>0.95205607476635512</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9296757679180887</c:v>
+                  <c:v>0.92579014443500429</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.9371183800623053</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>#N/A</c:v>
@@ -2914,10 +2954,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3023,7 +3063,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9302238" cy="6014577"/>
+    <xdr:ext cx="9302750" cy="6016625"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -3314,14 +3354,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3344,113 +3384,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="35" t="str">
+      <c r="J1" s="37" t="str">
         <f>LEFT(E2,1)</f>
         <v>J</v>
       </c>
-      <c r="K1" s="35" t="str">
+      <c r="K1" s="37" t="str">
         <f>LEFT(F2,1)</f>
         <v>F</v>
       </c>
-      <c r="L1" s="35" t="str">
+      <c r="L1" s="37" t="str">
         <f>LEFT(G2,1)</f>
         <v>D</v>
       </c>
-      <c r="M1" s="35" t="str">
+      <c r="M1" s="37" t="str">
         <f>LEFT(H2,1)</f>
         <v>T</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36" t="s">
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36" t="s">
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36" t="s">
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AL1" s="36" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AL1" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="AM1" s="36"/>
+      <c r="AM1" s="38"/>
       <c r="AN1" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="AO1" s="36" t="s">
+      <c r="AO1" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36" t="s">
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36" t="s">
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36" t="s">
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
-      <c r="BE1" s="36" t="s">
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="38"/>
+      <c r="BE1" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
+      <c r="BF1" s="38"/>
+      <c r="BG1" s="38"/>
+      <c r="BH1" s="38"/>
     </row>
     <row r="2" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3463,11 +3503,11 @@
       <c r="H2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
       <c r="O2" s="2">
         <v>0</v>
       </c>
@@ -3751,35 +3791,35 @@
       </c>
       <c r="AZ3" s="21">
         <f ca="1">AR3/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO3))/200</f>
-        <v>0.75585324232081907</v>
+        <v>0.75266355140186914</v>
       </c>
       <c r="BA3" s="21">
         <f ca="1">AS3/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO3))/200</f>
-        <v>0.45051194539249145</v>
+        <v>0.44859813084112149</v>
       </c>
       <c r="BB3" s="21">
         <f ca="1">AT3/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO3))/200</f>
-        <v>0.45051194539249145</v>
+        <v>0.44859813084112149</v>
       </c>
       <c r="BC3" s="21">
         <f ca="1">AU3/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO3))/200</f>
-        <v>0.45051194539249145</v>
+        <v>0.44859813084112149</v>
       </c>
       <c r="BE3" s="2">
         <f>SUM(J:J)</f>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="BF3" s="2">
         <f>SUM(K:K)</f>
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="BG3" s="2">
         <f>SUM(L:L)</f>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="BH3" s="2">
         <f>SUM(M:M)</f>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="BI3" s="2" t="s">
         <v>10</v>
@@ -3974,19 +4014,19 @@
       </c>
       <c r="AZ4" s="21">
         <f ca="1">AR4/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO4))/200</f>
-        <v>1.0561945392491467</v>
+        <v>1.0517289719626166</v>
       </c>
       <c r="BA4" s="21">
         <f ca="1">AS4/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO4))/200</f>
-        <v>0.90102389078498291</v>
+        <v>0.89719626168224298</v>
       </c>
       <c r="BB4" s="21">
         <f ca="1">AT4/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO4))/200</f>
-        <v>0.90102389078498291</v>
+        <v>0.89719626168224298</v>
       </c>
       <c r="BC4" s="21">
         <f ca="1">AU4/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO4))/200</f>
-        <v>0.90102389078498291</v>
+        <v>0.89719626168224298</v>
       </c>
       <c r="BE4" s="2">
         <f>COUNTIF($Y:$Y,COLUMN()-COLUMN($BD$4))</f>
@@ -4197,19 +4237,19 @@
       </c>
       <c r="AZ5" s="21">
         <f ca="1">AR5/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO5))/200</f>
-        <v>1.1563083048919225</v>
+        <v>1.1514174454828658</v>
       </c>
       <c r="BA5" s="21">
         <f ca="1">AS5/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO5))/200</f>
-        <v>1.2013651877133107</v>
+        <v>1.1962616822429906</v>
       </c>
       <c r="BB5" s="21">
         <f ca="1">AT5/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO5))/200</f>
-        <v>0.80091012514220705</v>
+        <v>0.79750778816199375</v>
       </c>
       <c r="BC5" s="21">
         <f ca="1">AU5/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO5))/200</f>
-        <v>0.90102389078498302</v>
+        <v>0.89719626168224298</v>
       </c>
     </row>
     <row r="6" spans="1:61" ht="15" x14ac:dyDescent="0.2">
@@ -4401,35 +4441,35 @@
       </c>
       <c r="AZ6" s="21">
         <f ca="1">AR6/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO6))/200</f>
-        <v>1.0937372013651876</v>
+        <v>1.0891121495327101</v>
       </c>
       <c r="BA6" s="21">
         <f ca="1">AS6/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO6))/200</f>
-        <v>1.2764505119453924</v>
+        <v>1.2710280373831775</v>
       </c>
       <c r="BB6" s="21">
         <f ca="1">AT6/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO6))/200</f>
-        <v>0.86848122866894195</v>
+        <v>0.86481308411214952</v>
       </c>
       <c r="BC6" s="21">
         <f ca="1">AU6/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO6))/200</f>
-        <v>0.90102389078498291</v>
+        <v>0.89719626168224298</v>
       </c>
       <c r="BE6" s="2">
         <f>BE3+BE4/100</f>
-        <v>67.02</v>
+        <v>73.02</v>
       </c>
       <c r="BF6" s="2">
         <f t="shared" ref="BF6:BH6" si="39">BF3+BF4/100</f>
-        <v>79.03</v>
+        <v>86.03</v>
       </c>
       <c r="BG6" s="2">
         <f t="shared" si="39"/>
-        <v>80.03</v>
+        <v>88.03</v>
       </c>
       <c r="BH6" s="2">
         <f t="shared" si="39"/>
-        <v>67.010000000000005</v>
+        <v>74.010000000000005</v>
       </c>
       <c r="BI6" s="2" t="s">
         <v>234</v>
@@ -4624,23 +4664,23 @@
       </c>
       <c r="AZ7" s="21">
         <f ca="1">AR7/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO7))/200</f>
-        <v>0.96609215017064842</v>
+        <v>0.96200934579439257</v>
       </c>
       <c r="BA7" s="21">
         <f ca="1">AS7/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO7))/200</f>
-        <v>1.3565358361774742</v>
+        <v>1.3507943925233643</v>
       </c>
       <c r="BB7" s="21">
         <f ca="1">AT7/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO7))/200</f>
-        <v>1.1212627986348123</v>
+        <v>1.1165420560747663</v>
       </c>
       <c r="BC7" s="21">
         <f ca="1">AU7/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO7))/200</f>
-        <v>0.90102389078498291</v>
+        <v>0.89719626168224298</v>
       </c>
       <c r="BE7" s="2">
         <f>RANK(BE6,$BE$6:$BH$6)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF7" s="2">
         <f t="shared" ref="BF7:BH7" si="40">RANK(BF6,$BE$6:$BH$6)</f>
@@ -4652,7 +4692,7 @@
       </c>
       <c r="BH7" s="2">
         <f t="shared" si="40"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI7" s="2" t="s">
         <v>241</v>
@@ -4847,19 +4887,19 @@
       </c>
       <c r="AZ8" s="21">
         <f ca="1">AR8/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO8))/200</f>
-        <v>1.0311660978384527</v>
+        <v>1.0268068535825543</v>
       </c>
       <c r="BA8" s="21">
         <f ca="1">AS8/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO8))/200</f>
-        <v>1.3565358361774744</v>
+        <v>1.3507943925233643</v>
       </c>
       <c r="BB8" s="21">
         <f ca="1">AT8/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO8))/200</f>
-        <v>1.2363936291240045</v>
+        <v>1.2311838006230529</v>
       </c>
       <c r="BC8" s="21">
         <f ca="1">AU8/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO8))/200</f>
-        <v>0.97610921501706482</v>
+        <v>0.9719626168224299</v>
       </c>
     </row>
     <row r="9" spans="1:61" ht="15" x14ac:dyDescent="0.2">
@@ -5051,35 +5091,35 @@
       </c>
       <c r="AZ9" s="21">
         <f ca="1">AR9/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO9))/200</f>
-        <v>1.0611945392491466</v>
+        <v>1.0567289719626167</v>
       </c>
       <c r="BA9" s="21">
         <f ca="1">AS9/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO9))/200</f>
-        <v>1.2542710872745002</v>
+        <v>1.2489853137516689</v>
       </c>
       <c r="BB9" s="21">
         <f ca="1">AT9/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO9))/200</f>
-        <v>1.1255533885909312</v>
+        <v>1.1208144192256342</v>
       </c>
       <c r="BC9" s="21">
         <f ca="1">AU9/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO9))/200</f>
-        <v>0.90102389078498291</v>
+        <v>0.89719626168224298</v>
       </c>
       <c r="BE9" s="2">
         <f>LARGE($BE$6:$BH$6,COLUMN()-COLUMN($BD$9))</f>
-        <v>80.03</v>
+        <v>88.03</v>
       </c>
       <c r="BF9" s="2">
         <f t="shared" ref="BF9:BH9" si="41">LARGE($BE$6:$BH$6,COLUMN()-COLUMN($BD$9))</f>
-        <v>79.03</v>
+        <v>86.03</v>
       </c>
       <c r="BG9" s="2">
         <f t="shared" si="41"/>
-        <v>67.02</v>
+        <v>74.010000000000005</v>
       </c>
       <c r="BH9" s="2">
         <f t="shared" si="41"/>
-        <v>67.010000000000005</v>
+        <v>73.02</v>
       </c>
       <c r="BI9" s="2" t="s">
         <v>235</v>
@@ -5274,19 +5314,19 @@
       </c>
       <c r="AZ10" s="21">
         <f ca="1">AR10/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO10))/200</f>
-        <v>1.0286518771331057</v>
+        <v>1.0243457943925232</v>
       </c>
       <c r="BA10" s="21">
         <f ca="1">AS10/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO10))/200</f>
-        <v>1.2914505119453923</v>
+        <v>1.2860280373831774</v>
       </c>
       <c r="BB10" s="21">
         <f ca="1">AT10/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO10))/200</f>
-        <v>1.1738225255972696</v>
+        <v>1.1688785046728971</v>
       </c>
       <c r="BC10" s="21">
         <f ca="1">AU10/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO10))/200</f>
-        <v>0.97610921501706482</v>
+        <v>0.9719626168224299</v>
       </c>
       <c r="BE10" s="2">
         <f>MATCH(BE9,$BE$6:$BH$6,0)</f>
@@ -5298,11 +5338,11 @@
       </c>
       <c r="BG10" s="2">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BH10" s="2">
         <f t="shared" si="42"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BI10" s="2" t="s">
         <v>236</v>
@@ -5497,28 +5537,28 @@
       </c>
       <c r="AZ11" s="21">
         <f ca="1">AR11/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO11))/200</f>
-        <v>1.0161376564277587</v>
+        <v>1.0118847352024922</v>
       </c>
       <c r="BA11" s="21">
         <f ca="1">AS11/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO11))/200</f>
-        <v>1.2213651877133107</v>
+        <v>1.2162616822429906</v>
       </c>
       <c r="BB11" s="21">
         <f ca="1">AT11/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO11))/200</f>
-        <v>1.2547364429275694</v>
+        <v>1.2494911734164071</v>
       </c>
       <c r="BC11" s="21">
         <f ca="1">AU11/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO11))/200</f>
-        <v>1.0111376564277588</v>
-      </c>
-      <c r="BE11" s="36" t="s">
+        <v>1.0068847352024921</v>
+      </c>
+      <c r="BE11" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="BF11" s="37"/>
-      <c r="BG11" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH11" s="39"/>
+      <c r="BF11" s="39"/>
+      <c r="BG11" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="41"/>
     </row>
     <row r="12" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -5709,19 +5749,19 @@
       </c>
       <c r="AZ12" s="21">
         <f ca="1">AR12/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO12))/200</f>
-        <v>0.96107508532423203</v>
+        <v>0.95705607476635512</v>
       </c>
       <c r="BA12" s="21">
         <f ca="1">AS12/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO12))/200</f>
-        <v>1.1913310580204779</v>
+        <v>1.1863551401869159</v>
       </c>
       <c r="BB12" s="21">
         <f ca="1">AT12/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO12))/200</f>
-        <v>1.1763139931740614</v>
+        <v>1.1714018691588786</v>
       </c>
       <c r="BC12" s="21">
         <f ca="1">AU12/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO12))/200</f>
-        <v>0.95607508532423202</v>
+        <v>0.95205607476635512</v>
       </c>
     </row>
     <row r="13" spans="1:61" ht="15" x14ac:dyDescent="0.2">
@@ -5913,19 +5953,19 @@
       </c>
       <c r="AZ13" s="21">
         <f ca="1">AR13/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO13))/200</f>
-        <v>0.93467576791808871</v>
+        <v>0.9307901444350043</v>
       </c>
       <c r="BA13" s="21">
         <f ca="1">AS13/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO13))/200</f>
-        <v>1.1034982935153583</v>
+        <v>1.0989167374681392</v>
       </c>
       <c r="BB13" s="21">
         <f ca="1">AT13/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO13))/200</f>
-        <v>1.1121501706484642</v>
+        <v>1.1075106202209006</v>
       </c>
       <c r="BC13" s="21">
         <f ca="1">AU13/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO13))/200</f>
-        <v>0.9296757679180887</v>
+        <v>0.92579014443500429</v>
       </c>
       <c r="BE13" s="2">
         <f>IF($BG$11,BE10,BD12+1)</f>
@@ -5937,11 +5977,11 @@
       </c>
       <c r="BG13" s="2">
         <f>IF($BG$11,BG10,BF13+1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BH13" s="2">
         <f>IF($BG$11,BH10,BG13+1)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BI13" s="2" t="s">
         <v>236</v>
@@ -6096,59 +6136,59 @@
       </c>
       <c r="AP14" s="20" t="b">
         <f ca="1">OFFSET(Tipps!$AN$2,AO14,)&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14" s="20">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
-      <c r="AR14" s="20" t="e">
+      <c r="AR14" s="20">
         <f t="shared" ca="1" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS14" s="20" t="e">
+        <v>73</v>
+      </c>
+      <c r="AS14" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT14" s="20" t="e">
+        <v>86</v>
+      </c>
+      <c r="AT14" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU14" s="20" t="e">
+        <v>88</v>
+      </c>
+      <c r="AU14" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV14" s="2" t="e">
+        <v>74</v>
+      </c>
+      <c r="AV14" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW14" s="2" t="e">
+        <v>6</v>
+      </c>
+      <c r="AW14" s="2">
         <f t="shared" ca="1" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX14" s="2" t="e">
+        <v>7</v>
+      </c>
+      <c r="AX14" s="2">
         <f t="shared" ca="1" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY14" s="2" t="e">
+        <v>8</v>
+      </c>
+      <c r="AY14" s="2">
         <f t="shared" ca="1" si="38"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ14" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="AZ14" s="21">
         <f ca="1">AR14/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO14))/200</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BA14" s="21" t="e">
+        <v>0.92965732087227415</v>
+      </c>
+      <c r="BA14" s="21">
         <f ca="1">AS14/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO14))/200</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BB14" s="21" t="e">
+        <v>1.0966510903426789</v>
+      </c>
+      <c r="BB14" s="21">
         <f ca="1">AT14/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO14))/200</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BC14" s="21" t="e">
+        <v>1.1165732087227414</v>
+      </c>
+      <c r="BC14" s="21">
         <f ca="1">AU14/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO14))/200</f>
-        <v>#N/A</v>
+        <v>0.9371183800623053</v>
       </c>
     </row>
     <row r="15" spans="1:61" ht="15" x14ac:dyDescent="0.2">
@@ -6354,19 +6394,19 @@
         <f ca="1">AU15/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO15))/200</f>
         <v>#N/A</v>
       </c>
-      <c r="BE15" s="42">
+      <c r="BE15" s="33">
         <f>SUM(J70:J73)</f>
         <v>0</v>
       </c>
-      <c r="BF15" s="42">
+      <c r="BF15" s="33">
         <f t="shared" ref="BF15:BH15" si="43">SUM(K70:K73)</f>
         <v>0</v>
       </c>
-      <c r="BG15" s="42">
+      <c r="BG15" s="33">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="BH15" s="42">
+      <c r="BH15" s="33">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
@@ -10729,62 +10769,72 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B43/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B43,100),ROUNDDOWN(Tipps!B43/100,0))</f>
         <v>NE  at NYG</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="J43" s="14" t="str">
+      <c r="D43" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="J43" s="14">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K43" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="K43" s="14">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L43" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="L43" s="14">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M43" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="M43" s="14">
         <f t="shared" si="15"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O43" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>NYG</v>
       </c>
       <c r="P43" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v xml:space="preserve">NE </v>
       </c>
       <c r="Q43" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v xml:space="preserve">NE </v>
       </c>
       <c r="R43" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v xml:space="preserve">NE </v>
       </c>
       <c r="S43" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v xml:space="preserve">NE </v>
       </c>
       <c r="T43" s="2">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" s="2">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43" s="2">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43" s="2">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" s="2">
         <f t="shared" si="17"/>
@@ -10800,43 +10850,43 @@
       </c>
       <c r="AA43" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="AB43" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD43" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="2" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>07</v>
       </c>
       <c r="AG43" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH43" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI43" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ43" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="20" t="b">
         <f>Tipps!A43&lt;&gt;Tipps!A44</f>
@@ -10848,7 +10898,7 @@
       </c>
       <c r="AN43" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO43" s="20"/>
       <c r="AP43" s="20"/>
@@ -10870,46 +10920,56 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B44/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B44,100),ROUNDDOWN(Tipps!B44/100,0))</f>
         <v xml:space="preserve">KC  at LV </v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="J44" s="14" t="str">
+      <c r="D44" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J44" s="14">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K44" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="K44" s="14">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L44" s="14" t="str">
+        <v>4</v>
+      </c>
+      <c r="L44" s="14">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M44" s="14" t="str">
+        <v>4</v>
+      </c>
+      <c r="M44" s="14">
         <f t="shared" si="15"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="O44" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="P44" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="Q44" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="R44" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="S44" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="T44" s="2">
         <f t="shared" si="49"/>
@@ -10941,31 +11001,31 @@
       </c>
       <c r="AA44" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>31</v>
       </c>
       <c r="AB44" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="2" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>17</v>
       </c>
       <c r="AG44" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="2">
         <f t="shared" si="25"/>
@@ -10989,7 +11049,7 @@
       </c>
       <c r="AN44" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO44" s="20"/>
       <c r="AP44" s="20"/>
@@ -11012,10 +11072,18 @@
         <v>MIN vs CHI</v>
       </c>
       <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
+      <c r="E45" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>294</v>
+      </c>
       <c r="J45" s="14" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -11038,35 +11106,35 @@
       </c>
       <c r="P45" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="Q45" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="R45" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="S45" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="T45" s="2">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45" s="2">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V45" s="2">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45" s="2">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" s="2">
         <f t="shared" si="17"/>
@@ -11086,19 +11154,19 @@
       </c>
       <c r="AB45" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="2" t="str">
         <f t="shared" si="23"/>
@@ -11106,19 +11174,19 @@
       </c>
       <c r="AG45" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH45" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI45" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ45" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45" s="20" t="b">
         <f>Tipps!A45&lt;&gt;Tipps!A46</f>
@@ -11130,7 +11198,7 @@
       </c>
       <c r="AN45" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO45" s="20"/>
       <c r="AP45" s="20"/>
@@ -11152,46 +11220,56 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B46/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B46,100),ROUNDDOWN(Tipps!B46/100,0))</f>
         <v>LAR at ARI</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="J46" s="14" t="str">
+      <c r="D46" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="J46" s="14">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K46" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="K46" s="14">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L46" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="L46" s="14">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M46" s="14" t="str">
+        <v>4</v>
+      </c>
+      <c r="M46" s="14">
         <f t="shared" si="15"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="O46" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="P46" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="Q46" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="R46" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="S46" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="T46" s="2">
         <f t="shared" si="49"/>
@@ -11223,35 +11301,35 @@
       </c>
       <c r="AA46" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>37</v>
       </c>
       <c r="AB46" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="2" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>14</v>
       </c>
       <c r="AG46" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH46" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI46" s="2">
         <f t="shared" si="26"/>
@@ -11259,7 +11337,7 @@
       </c>
       <c r="AJ46" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="20" t="b">
         <f>Tipps!A46&lt;&gt;Tipps!A47</f>
@@ -11271,7 +11349,7 @@
       </c>
       <c r="AN46" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO46" s="20"/>
       <c r="AP46" s="20"/>
@@ -14684,7 +14762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14753,11 +14831,11 @@
       </c>
       <c r="D3" s="24" t="str">
         <f>INDEX(Tipps!$E$2:$H$2,Tipps!BG13)</f>
-        <v>Jasmin</v>
+        <v>Thomas</v>
       </c>
       <c r="E3" s="24" t="str">
         <f>INDEX(Tipps!$E$2:$H$2,Tipps!BH13)</f>
-        <v>Thomas</v>
+        <v>Jasmin</v>
       </c>
       <c r="F3" s="19"/>
     </row>
@@ -14775,19 +14853,19 @@
       </c>
       <c r="B5" s="23">
         <f>INDEX(Tipps!$BE$3:$BH$3,Tipps!BE13)</f>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C5" s="23">
         <f>INDEX(Tipps!$BE$3:$BH$3,Tipps!BF13)</f>
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D5" s="23">
         <f>INDEX(Tipps!$BE$3:$BH$3,Tipps!BG13)</f>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E5" s="23">
         <f>INDEX(Tipps!$BE$3:$BH$3,Tipps!BH13)</f>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F5" s="14"/>
     </row>
@@ -14805,11 +14883,11 @@
       </c>
       <c r="D6" s="17">
         <f>INDEX(Tipps!$BE$4:$BH$4,Tipps!BG13)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="17">
         <f>INDEX(Tipps!$BE$4:$BH$4,Tipps!BH13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="17"/>
     </row>
@@ -14823,29 +14901,29 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
-      <c r="B9" s="43">
+      <c r="B9" s="34">
         <f>INDEX(Tipps!$BE15:$BH15,Tipps!BE$13)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="34">
         <f>INDEX(Tipps!$BE15:$BH15,Tipps!BF$13)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="34">
         <f>INDEX(Tipps!$BE15:$BH15,Tipps!BG$13)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="34">
         <f>INDEX(Tipps!$BE15:$BH15,Tipps!BH$13)</f>
         <v>0</v>
       </c>
@@ -14853,20 +14931,20 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="42" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="35"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
@@ -14883,11 +14961,11 @@
       </c>
       <c r="D12" s="28">
         <f ca="1">INDEX(Tipps!$AV3:$AY3,Tipps!BG$13)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="28">
         <f ca="1">INDEX(Tipps!$AV3:$AY3,Tipps!BH$13)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="29">
@@ -14937,11 +15015,11 @@
       </c>
       <c r="D14" s="28">
         <f ca="1">INDEX(Tipps!$AV5:$AY5,Tipps!BG$13)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E14" s="28">
         <f ca="1">INDEX(Tipps!$AV5:$AY5,Tipps!BH$13)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="29">
@@ -14991,11 +15069,11 @@
       </c>
       <c r="D16" s="28">
         <f ca="1">INDEX(Tipps!$AV7:$AY7,Tipps!BG$13)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16" s="28">
         <f ca="1">INDEX(Tipps!$AV7:$AY7,Tipps!BH$13)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="29">
@@ -15045,11 +15123,11 @@
       </c>
       <c r="D18" s="28">
         <f ca="1">INDEX(Tipps!$AV9:$AY9,Tipps!BG$13)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E18" s="28">
         <f ca="1">INDEX(Tipps!$AV9:$AY9,Tipps!BH$13)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="29">
@@ -15072,11 +15150,11 @@
       </c>
       <c r="D19" s="28">
         <f ca="1">INDEX(Tipps!$AV10:$AY10,Tipps!BG$13)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E19" s="28">
         <f ca="1">INDEX(Tipps!$AV10:$AY10,Tipps!BH$13)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="29">
@@ -15099,11 +15177,11 @@
       </c>
       <c r="D20" s="28">
         <f ca="1">INDEX(Tipps!$AV11:$AY11,Tipps!BG$13)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20" s="28">
         <f ca="1">INDEX(Tipps!$AV11:$AY11,Tipps!BH$13)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="29">
@@ -15170,26 +15248,26 @@
         <f>Tipps!AQ14</f>
         <v>12</v>
       </c>
-      <c r="B23" s="28" t="e">
+      <c r="B23" s="28">
         <f ca="1">INDEX(Tipps!$AV14:$AY14,Tipps!BE$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C23" s="28" t="e">
+        <v>8</v>
+      </c>
+      <c r="C23" s="28">
         <f ca="1">INDEX(Tipps!$AV14:$AY14,Tipps!BF$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D23" s="28" t="e">
+        <v>7</v>
+      </c>
+      <c r="D23" s="28">
         <f ca="1">INDEX(Tipps!$AV14:$AY14,Tipps!BG$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E23" s="28" t="e">
+        <v>7</v>
+      </c>
+      <c r="E23" s="28">
         <f ca="1">INDEX(Tipps!$AV14:$AY14,Tipps!BH$13)</f>
-        <v>#N/A</v>
+        <v>6</v>
       </c>
       <c r="F23" s="18"/>
-      <c r="G23" s="29" t="e">
+      <c r="G23" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15396,11 +15474,11 @@
       </c>
       <c r="D32" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,D12:D29)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,E12:E29)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,G12:G29)</f>
@@ -15413,23 +15491,23 @@
       </c>
       <c r="B33" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,B12:B29)</f>
-        <v>7.2727272727272725</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="C33" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,C12:C29)</f>
-        <v>7.1818181818181817</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D33" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,D12:D29)</f>
-        <v>6.0909090909090908</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="E33" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,E12:E29)</f>
-        <v>6.0909090909090908</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="G33" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,G12:G29)</f>
-        <v>26.636363636363637</v>
+        <v>26.75</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -15438,23 +15516,23 @@
       </c>
       <c r="B34" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,B12:B29)</f>
-        <v>4.0919190672461445</v>
+        <v>3.9228674319799399</v>
       </c>
       <c r="C34" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,C12:C29)</f>
-        <v>3.5372866287897673</v>
+        <v>3.3870669054835956</v>
       </c>
       <c r="D34" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,D12:D29)</f>
-        <v>2.2342192231717286</v>
+        <v>2.4094720491334933</v>
       </c>
       <c r="E34" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,E12:E29)</f>
-        <v>2.5028908905338554</v>
+        <v>2.1392496088322392</v>
       </c>
       <c r="G34" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,G12:G29)</f>
-        <v>9.4606623569074149</v>
+        <v>9.0657321822343722</v>
       </c>
     </row>
   </sheetData>
@@ -15464,17 +15542,29 @@
     <mergeCell ref="B8:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:E3">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>B$3="Thomas"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>B$3="Jasmin"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>B$3="Franz"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>B$3="David"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:E9">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:F5">
@@ -15503,18 +15593,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G29">
     <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:E9">
-    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15560,7 +15638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15902,10 +15980,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:E20">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>LEFT(B3,2)="at"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>LEFT(B3,2)="vs"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2023_tipp.xlsx
+++ b/2023_tipp.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\NFL Tipp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DT\nfl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CAEDEF-B649-4BA5-8C34-0B94D8EA054B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Tipps" sheetId="3" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Verlauf" sheetId="7" r:id="rId3"/>
     <sheet name="Spiele" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,14 +38,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -61,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="325">
   <si>
     <t>ID</t>
   </si>
@@ -1034,12 +1033,15 @@
   </si>
   <si>
     <t>LAR 37-14</t>
+  </si>
+  <si>
+    <t>CHI 12-10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0;\-0;\-"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -2954,10 +2956,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3063,7 +3065,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9302750" cy="6016625"/>
+    <xdr:ext cx="9302238" cy="6014577"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -3354,14 +3356,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11071,7 +11073,9 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B45/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B45,100),ROUNDDOWN(Tipps!B45/100,0))</f>
         <v>MIN vs CHI</v>
       </c>
-      <c r="D45" s="10"/>
+      <c r="D45" s="10" t="s">
+        <v>324</v>
+      </c>
       <c r="E45" s="11" t="s">
         <v>312</v>
       </c>
@@ -11084,25 +11088,25 @@
       <c r="H45" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J45" s="14" t="str">
+      <c r="J45" s="14">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K45" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="K45" s="14">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L45" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="L45" s="14">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M45" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="M45" s="14">
         <f t="shared" si="15"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O45" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>CHI</v>
       </c>
       <c r="P45" s="2" t="str">
         <f t="shared" si="48"/>
@@ -11150,7 +11154,7 @@
       </c>
       <c r="AA45" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>12</v>
       </c>
       <c r="AB45" s="2">
         <f t="shared" si="19"/>
@@ -11170,7 +11174,7 @@
       </c>
       <c r="AF45" s="2" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="AG45" s="2">
         <f t="shared" si="24"/>
@@ -11198,7 +11202,7 @@
       </c>
       <c r="AN45" s="20">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO45" s="20"/>
       <c r="AP45" s="20"/>
@@ -11349,7 +11353,7 @@
       </c>
       <c r="AN46" s="20">
         <f t="shared" si="29"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO46" s="20"/>
       <c r="AP46" s="20"/>
@@ -14762,10 +14766,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15638,7 +15644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/2023_tipp.xlsx
+++ b/2023_tipp.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="369">
   <si>
     <t>ID</t>
   </si>
@@ -381,9 +381,6 @@
   </si>
   <si>
     <t>Wertung für richtigen Tipp: Sieger = 3, Punkte je 1, Reihung Division = 10</t>
-  </si>
-  <si>
-    <t>Tipps und Ergebnisse immer im Format 'XXX 00-00'</t>
   </si>
   <si>
     <t>Patriots</t>
@@ -1036,6 +1033,141 @@
   </si>
   <si>
     <t>CHI 12-10</t>
+  </si>
+  <si>
+    <t>LAC 23-17</t>
+  </si>
+  <si>
+    <t>KC  24-17</t>
+  </si>
+  <si>
+    <t>LAC 27-16</t>
+  </si>
+  <si>
+    <t>LAR 20-17</t>
+  </si>
+  <si>
+    <t>LAC 21-09</t>
+  </si>
+  <si>
+    <t>KC  24-14</t>
+  </si>
+  <si>
+    <t>CLE 17-14</t>
+  </si>
+  <si>
+    <t>LAC 27-10</t>
+  </si>
+  <si>
+    <t>KC  27-14</t>
+  </si>
+  <si>
+    <t>LAR 27-20</t>
+  </si>
+  <si>
+    <t>LAC 06-00</t>
+  </si>
+  <si>
+    <t>LAR 36-19</t>
+  </si>
+  <si>
+    <t>GB  27-19</t>
+  </si>
+  <si>
+    <t>PIT 17-13</t>
+  </si>
+  <si>
+    <t>BAL 24-17</t>
+  </si>
+  <si>
+    <t>PIT 14-06</t>
+  </si>
+  <si>
+    <t>BUF 27-23</t>
+  </si>
+  <si>
+    <t>MIN 21-17</t>
+  </si>
+  <si>
+    <t>BAL 21-14</t>
+  </si>
+  <si>
+    <t>PIT 21-10</t>
+  </si>
+  <si>
+    <t>BUF 24-21</t>
+  </si>
+  <si>
+    <t>PIT 20-13</t>
+  </si>
+  <si>
+    <t>KC  24-22</t>
+  </si>
+  <si>
+    <t>BAL 27-16</t>
+  </si>
+  <si>
+    <t>NE  21-18</t>
+  </si>
+  <si>
+    <t>BAL 37-31</t>
+  </si>
+  <si>
+    <t>BUF 20-17</t>
+  </si>
+  <si>
+    <t>MIN 03-00</t>
+  </si>
+  <si>
+    <t>CIN 24-17</t>
+  </si>
+  <si>
+    <t>CIN 27-23</t>
+  </si>
+  <si>
+    <t>KC  30-14</t>
+  </si>
+  <si>
+    <t>LAR 27-23</t>
+  </si>
+  <si>
+    <t>KC  24-13</t>
+  </si>
+  <si>
+    <t>LAR 21-17</t>
+  </si>
+  <si>
+    <t>CIN 20-17</t>
+  </si>
+  <si>
+    <t>KC  23-14</t>
+  </si>
+  <si>
+    <t>LAR 28-21</t>
+  </si>
+  <si>
+    <t>CIN 27-24</t>
+  </si>
+  <si>
+    <t>LAR 28-20</t>
+  </si>
+  <si>
+    <t>3 | 4</t>
+  </si>
+  <si>
+    <t>1 | 2 | 3 | 4</t>
+  </si>
+  <si>
+    <t>1 | 2 | 3</t>
+  </si>
+  <si>
+    <t>2 | 3</t>
+  </si>
+  <si>
+    <t>Tipps und Ergebnisse Spiele immer im Format 'XXX 00-00'</t>
+  </si>
+  <si>
+    <t>Tipps Reihung im Format '0xx', Ergebnisse auch '0[ | 0 …] möglich</t>
   </si>
 </sst>
 </file>
@@ -1432,15 +1564,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1454,6 +1577,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1464,7 +1596,7 @@
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
     <dxf>
       <font>
         <b/>
@@ -1516,6 +1648,17 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1607,6 +1750,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1685,49 +1829,49 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.75266355140186914</c:v>
+                  <c:v>0.71758907363420432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0517289719626166</c:v>
+                  <c:v>1.0026247030878859</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1514174454828658</c:v>
+                  <c:v>1.0976365795724463</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0891121495327101</c:v>
+                  <c:v>1.0382541567695962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96200934579439257</c:v>
+                  <c:v>0.91711401425178141</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0268068535825543</c:v>
+                  <c:v>0.97887173396674576</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0567289719626167</c:v>
+                  <c:v>1.007624703087886</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0243457943925232</c:v>
+                  <c:v>0.97699524940617577</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0118847352024922</c:v>
+                  <c:v>0.96511876484560577</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95705607476635512</c:v>
+                  <c:v>0.91286223277909739</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9307901444350043</c:v>
+                  <c:v>0.88806305333621249</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.92965732087227415</c:v>
+                  <c:v>0.88698337292161522</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.85318107071076188</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.88528673227010524</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.96561757719714969</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>#N/A</c:v>
@@ -1791,49 +1935,49 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.44859813084112149</c:v>
+                  <c:v>0.42755344418052255</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89719626168224298</c:v>
+                  <c:v>0.85510688836104509</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1962616822429906</c:v>
+                  <c:v>1.1401425178147269</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2710280373831775</c:v>
+                  <c:v>1.2114014251781473</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3507943925233643</c:v>
+                  <c:v>1.2876603325415674</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3507943925233643</c:v>
+                  <c:v>1.2876603325415676</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2489853137516689</c:v>
+                  <c:v>1.1908618934509672</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2860280373831774</c:v>
+                  <c:v>1.2264014251781472</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2162616822429906</c:v>
+                  <c:v>1.1601425178147269</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1863551401869159</c:v>
+                  <c:v>1.1316389548693586</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0989167374681392</c:v>
+                  <c:v>1.0485370330382207</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0966510903426789</c:v>
+                  <c:v>1.0463776722090261</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.0335876119130274</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.0226247030878859</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.0416270783847981</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>#N/A</c:v>
@@ -1897,49 +2041,49 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.44859813084112149</c:v>
+                  <c:v>0.42755344418052255</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89719626168224298</c:v>
+                  <c:v>0.85510688836104509</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79750778816199375</c:v>
+                  <c:v>0.76009501187648454</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86481308411214952</c:v>
+                  <c:v>0.82447743467933488</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1165420560747663</c:v>
+                  <c:v>1.0646318289786223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2311838006230529</c:v>
+                  <c:v>1.1738954869358669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1208144192256342</c:v>
+                  <c:v>1.0687037665422463</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1688785046728971</c:v>
+                  <c:v>1.1145130641330165</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2494911734164071</c:v>
+                  <c:v>1.1918131433095804</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1714018691588786</c:v>
+                  <c:v>1.1173871733966745</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1075106202209006</c:v>
+                  <c:v>1.056493198013388</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1165732087227414</c:v>
+                  <c:v>1.0651306413301662</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.0505134295633107</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.0685239226331864</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.1271377672209024</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>#N/A</c:v>
@@ -2003,49 +2147,49 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.44859813084112149</c:v>
+                  <c:v>0.42755344418052255</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89719626168224298</c:v>
+                  <c:v>0.85510688836104509</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89719626168224298</c:v>
+                  <c:v>0.85510688836104509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89719626168224298</c:v>
+                  <c:v>0.85510688836104509</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89719626168224298</c:v>
+                  <c:v>0.85510688836104509</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9719626168224299</c:v>
+                  <c:v>0.92636579572446553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89719626168224298</c:v>
+                  <c:v>0.85510688836104509</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9719626168224299</c:v>
+                  <c:v>0.92636579572446553</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0068847352024921</c:v>
+                  <c:v>0.96011876484560577</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95205607476635512</c:v>
+                  <c:v>0.90786223277909739</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92579014443500429</c:v>
+                  <c:v>0.88306305333621249</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9371183800623053</c:v>
+                  <c:v>0.89385985748218522</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.89203270601132834</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.89046657617916525</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.96061757719714969</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>#N/A</c:v>
@@ -2126,6 +2270,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2263,6 +2408,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2338,6 +2484,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2959,7 +3106,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3065,7 +3212,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9302238" cy="6014577"/>
+    <xdr:ext cx="9297051" cy="6008077"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -3357,13 +3504,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI78"/>
+  <dimension ref="A1:BI79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3386,113 +3533,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="B1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="B1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36" t="s">
+      <c r="E1" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="37" t="str">
+      <c r="J1" s="39" t="str">
         <f>LEFT(E2,1)</f>
         <v>J</v>
       </c>
-      <c r="K1" s="37" t="str">
+      <c r="K1" s="39" t="str">
         <f>LEFT(F2,1)</f>
         <v>F</v>
       </c>
-      <c r="L1" s="37" t="str">
+      <c r="L1" s="39" t="str">
         <f>LEFT(G2,1)</f>
         <v>D</v>
       </c>
-      <c r="M1" s="37" t="str">
+      <c r="M1" s="39" t="str">
         <f>LEFT(H2,1)</f>
         <v>T</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38" t="s">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38" t="s">
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38" t="s">
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38" t="s">
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AL1" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="AM1" s="38"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AL1" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM1" s="35"/>
       <c r="AN1" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="AO1" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="AO1" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38" t="s">
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BE1" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="38"/>
-      <c r="BE1" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="BF1" s="38"/>
-      <c r="BG1" s="38"/>
-      <c r="BH1" s="38"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
     </row>
     <row r="2" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3505,11 +3652,11 @@
       <c r="H2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
       <c r="O2" s="2">
         <v>0</v>
       </c>
@@ -3565,28 +3712,28 @@
         <v>4</v>
       </c>
       <c r="AR2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS2" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="AU2" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="AV2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW2" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="AZ2" s="2" t="str">
         <f>E2</f>
@@ -3610,26 +3757,26 @@
         <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B3/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B3,100),ROUNDDOWN(Tipps!B3/100,0))</f>
-        <v>NE  vs PHI</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B3/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B3,100),ROUNDDOWN(B3/100,0))</f>
+        <v>KC  vs DET</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J3" s="14">
         <f>IF($D3="","",IF(E3="",0,(T3*3+AB3+AG3)*IF($I3="x2",2,1)))</f>
@@ -3637,35 +3784,35 @@
       </c>
       <c r="K3" s="14">
         <f t="shared" ref="K3:M3" si="0">IF($D3="","",IF(F3="",0,(U3*3+AC3+AH3)*IF($I3="x2",2,1)))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L3" s="14">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3" s="14">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2" t="str">
         <f>LEFT(INDEX($D3:$H3,O$2+1),3)</f>
-        <v>PHI</v>
+        <v>DET</v>
       </c>
       <c r="P3" s="2" t="str">
         <f t="shared" ref="P3:S18" si="1">LEFT(INDEX($D3:$H3,P$2+1),3)</f>
-        <v xml:space="preserve">NE </v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="Q3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>PHI</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="R3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>PHI</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="S3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>PHI</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="T3" s="2">
         <f t="shared" ref="T3:T34" si="2">(P3=$O3)*1</f>
@@ -3673,31 +3820,31 @@
       </c>
       <c r="U3" s="2">
         <f t="shared" ref="U3:U34" si="3">(Q3=$O3)*1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" ref="V3:V34" si="4">(R3=$O3)*1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" ref="W3:W34" si="5">(S3=$O3)*1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="2">
         <f>IF(COUNTIF(P3:S3,P3)=1,1,0)*(P3&lt;&gt;"")+IF(COUNTIF(P3:S3,Q3)=1,2,0)*(Q3&lt;&gt;"")+IF(COUNTIF(P3:S3,R3)=1,3,0)*(R3&lt;&gt;"")+IF(COUNTIF(P3:S3,S3)=1,4,0)*(S3&lt;&gt;"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="2" t="str">
         <f t="shared" ref="Y3:Y34" si="6">IF(AND(O3&lt;&gt;"",SUM(T3:W3)=1),SUMPRODUCT(P$2:S$2,T3:W3),"")</f>
         <v/>
       </c>
-      <c r="Z3" s="2" cm="1">
+      <c r="Z3" s="2" t="str" cm="1">
         <f t="array" ref="Z3">IF(AND(O3&lt;&gt;"",SUM(T3:W3)=3),SUMPRODUCT(P$2:S$2,1-T3:W3),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AA3" s="2" t="str">
         <f>MID(D3,5,2)</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AB3" s="2">
         <f>(IF(T3=1,MID(INDEX($E3:$H3,AB$2),5,2),MID(INDEX($E3:$H3,AB$2),8,2))=$AA3)*1</f>
@@ -3793,35 +3940,35 @@
       </c>
       <c r="AZ3" s="21">
         <f ca="1">AR3/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO3))/200</f>
-        <v>0.75266355140186914</v>
+        <v>0.71758907363420432</v>
       </c>
       <c r="BA3" s="21">
         <f ca="1">AS3/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO3))/200</f>
-        <v>0.44859813084112149</v>
+        <v>0.42755344418052255</v>
       </c>
       <c r="BB3" s="21">
         <f ca="1">AT3/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO3))/200</f>
-        <v>0.44859813084112149</v>
+        <v>0.42755344418052255</v>
       </c>
       <c r="BC3" s="21">
         <f ca="1">AU3/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO3))/200</f>
-        <v>0.44859813084112149</v>
+        <v>0.42755344418052255</v>
       </c>
       <c r="BE3" s="2">
         <f>SUM(J:J)</f>
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="BF3" s="2">
         <f>SUM(K:K)</f>
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="BG3" s="2">
         <f>SUM(L:L)</f>
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="BH3" s="2">
         <f>SUM(M:M)</f>
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="BI3" s="2" t="s">
         <v>10</v>
@@ -3833,26 +3980,26 @@
         <v>0</v>
       </c>
       <c r="B4" s="5">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B4/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B4,100),ROUNDDOWN(Tipps!B4/100,0))</f>
-        <v>KC  vs DET</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B4/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B4,100),ROUNDDOWN(B4/100,0))</f>
+        <v>NE  vs PHI</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J4" s="14">
         <f t="shared" ref="J4:J67" si="12">IF($D4="","",IF(E4="",0,(T4*3+AB4+AG4)*IF($I4="x2",2,1)))</f>
@@ -3860,35 +4007,35 @@
       </c>
       <c r="K4" s="14">
         <f t="shared" ref="K4:K67" si="13">IF($D4="","",IF(F4="",0,(U4*3+AC4+AH4)*IF($I4="x2",2,1)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" s="14">
         <f t="shared" ref="L4:L67" si="14">IF($D4="","",IF(G4="",0,(V4*3+AD4+AI4)*IF($I4="x2",2,1)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4" s="14">
         <f t="shared" ref="M4:M67" si="15">IF($D4="","",IF(H4="",0,(W4*3+AE4+AJ4)*IF($I4="x2",2,1)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O4" s="2" t="str">
         <f t="shared" ref="O4:S27" si="16">LEFT(INDEX($D4:$H4,O$2+1),3)</f>
-        <v>DET</v>
+        <v>PHI</v>
       </c>
       <c r="P4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">KC </v>
+        <v xml:space="preserve">NE </v>
       </c>
       <c r="Q4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">KC </v>
+        <v>PHI</v>
       </c>
       <c r="R4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">KC </v>
+        <v>PHI</v>
       </c>
       <c r="S4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">KC </v>
+        <v>PHI</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="2"/>
@@ -3896,31 +4043,31 @@
       </c>
       <c r="U4" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" ref="X4:X67" si="17">IF(COUNTIF(P4:S4,P4)=1,1,0)*(P4&lt;&gt;"")+IF(COUNTIF(P4:S4,Q4)=1,2,0)*(Q4&lt;&gt;"")+IF(COUNTIF(P4:S4,R4)=1,3,0)*(R4&lt;&gt;"")+IF(COUNTIF(P4:S4,S4)=1,4,0)*(S4&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="2" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Z4" s="2" t="str" cm="1">
+      <c r="Z4" s="2" cm="1">
         <f t="array" ref="Z4">IF(AND(O4&lt;&gt;"",SUM(T4:W4)=3),SUMPRODUCT(P$2:S$2,1-T4:W4),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AA4" s="2" t="str">
         <f t="shared" ref="AA4:AA67" si="18">MID(D4,5,2)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" ref="AB4:AB67" si="19">(IF(T4=1,MID(INDEX($E4:$H4,AB$2),5,2),MID(INDEX($E4:$H4,AB$2),8,2))=$AA4)*1</f>
@@ -4016,19 +4163,19 @@
       </c>
       <c r="AZ4" s="21">
         <f ca="1">AR4/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO4))/200</f>
-        <v>1.0517289719626166</v>
+        <v>1.0026247030878859</v>
       </c>
       <c r="BA4" s="21">
         <f ca="1">AS4/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO4))/200</f>
-        <v>0.89719626168224298</v>
+        <v>0.85510688836104509</v>
       </c>
       <c r="BB4" s="21">
         <f ca="1">AT4/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO4))/200</f>
-        <v>0.89719626168224298</v>
+        <v>0.85510688836104509</v>
       </c>
       <c r="BC4" s="21">
         <f ca="1">AU4/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO4))/200</f>
-        <v>0.89719626168224298</v>
+        <v>0.85510688836104509</v>
       </c>
       <c r="BE4" s="2">
         <f>COUNTIF($Y:$Y,COLUMN()-COLUMN($BD$4))</f>
@@ -4036,18 +4183,18 @@
       </c>
       <c r="BF4" s="2">
         <f t="shared" ref="BF4:BH4" si="33">COUNTIF($Y:$Y,COLUMN()-COLUMN($BD$4))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG4" s="2">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH4" s="2">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI4" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:61" ht="15" x14ac:dyDescent="0.2">
@@ -4059,7 +4206,7 @@
         <v>301</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B5/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B5,100),ROUNDDOWN(Tipps!B5/100,0))</f>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B5/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B5,100),ROUNDDOWN(B5/100,0))</f>
         <v>MIN vs TB</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -4239,19 +4386,19 @@
       </c>
       <c r="AZ5" s="21">
         <f ca="1">AR5/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO5))/200</f>
-        <v>1.1514174454828658</v>
+        <v>1.0976365795724463</v>
       </c>
       <c r="BA5" s="21">
         <f ca="1">AS5/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO5))/200</f>
-        <v>1.1962616822429906</v>
+        <v>1.1401425178147269</v>
       </c>
       <c r="BB5" s="21">
         <f ca="1">AT5/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO5))/200</f>
-        <v>0.79750778816199375</v>
+        <v>0.76009501187648454</v>
       </c>
       <c r="BC5" s="21">
         <f ca="1">AU5/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO5))/200</f>
-        <v>0.89719626168224298</v>
+        <v>0.85510688836104509</v>
       </c>
     </row>
     <row r="6" spans="1:61" ht="15" x14ac:dyDescent="0.2">
@@ -4263,7 +4410,7 @@
         <v>401</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B6/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B6,100),ROUNDDOWN(Tipps!B6/100,0))</f>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B6/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B6,100),ROUNDDOWN(B6/100,0))</f>
         <v>LAR at SEA</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -4443,38 +4590,38 @@
       </c>
       <c r="AZ6" s="21">
         <f ca="1">AR6/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO6))/200</f>
-        <v>1.0891121495327101</v>
+        <v>1.0382541567695962</v>
       </c>
       <c r="BA6" s="21">
         <f ca="1">AS6/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO6))/200</f>
-        <v>1.2710280373831775</v>
+        <v>1.2114014251781473</v>
       </c>
       <c r="BB6" s="21">
         <f ca="1">AT6/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO6))/200</f>
-        <v>0.86481308411214952</v>
+        <v>0.82447743467933488</v>
       </c>
       <c r="BC6" s="21">
         <f ca="1">AU6/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO6))/200</f>
-        <v>0.89719626168224298</v>
+        <v>0.85510688836104509</v>
       </c>
       <c r="BE6" s="2">
         <f>BE3+BE4/100</f>
-        <v>73.02</v>
+        <v>99.02</v>
       </c>
       <c r="BF6" s="2">
         <f t="shared" ref="BF6:BH6" si="39">BF3+BF4/100</f>
-        <v>86.03</v>
+        <v>107.05</v>
       </c>
       <c r="BG6" s="2">
         <f t="shared" si="39"/>
-        <v>88.03</v>
+        <v>116.04</v>
       </c>
       <c r="BH6" s="2">
         <f t="shared" si="39"/>
-        <v>74.010000000000005</v>
+        <v>99.02</v>
       </c>
       <c r="BI6" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:61" ht="15" x14ac:dyDescent="0.2">
@@ -4483,30 +4630,30 @@
         <v>1</v>
       </c>
       <c r="B7" s="5">
-        <v>102</v>
+        <v>302</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B7/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B7,100),ROUNDDOWN(Tipps!B7/100,0))</f>
-        <v>NE  vs MIA</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B7/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B7,100),ROUNDDOWN(B7/100,0))</f>
+        <v>MIN at PHI</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J7" s="14">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" s="14">
         <f t="shared" si="13"/>
@@ -4514,7 +4661,7 @@
       </c>
       <c r="L7" s="14">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M7" s="14">
         <f t="shared" si="15"/>
@@ -4522,27 +4669,27 @@
       </c>
       <c r="O7" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>MIA</v>
+        <v>PHI</v>
       </c>
       <c r="P7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">NE </v>
+        <v>PHI</v>
       </c>
       <c r="Q7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MIA</v>
+        <v>PHI</v>
       </c>
       <c r="R7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MIA</v>
+        <v>MIN</v>
       </c>
       <c r="S7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MIA</v>
+        <v>PHI</v>
       </c>
       <c r="T7" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="2">
         <f t="shared" si="3"/>
@@ -4550,7 +4697,7 @@
       </c>
       <c r="V7" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="5"/>
@@ -4558,7 +4705,7 @@
       </c>
       <c r="X7" s="2">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y7" s="2" t="str">
         <f t="shared" si="6"/>
@@ -4566,11 +4713,11 @@
       </c>
       <c r="Z7" s="2" cm="1">
         <f t="array" ref="Z7">IF(AND(O7&lt;&gt;"",SUM(T7:W7)=3),SUMPRODUCT(P$2:S$2,1-T7:W7),"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA7" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" si="19"/>
@@ -4590,7 +4737,7 @@
       </c>
       <c r="AF7" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AG7" s="2">
         <f t="shared" si="24"/>
@@ -4666,23 +4813,23 @@
       </c>
       <c r="AZ7" s="21">
         <f ca="1">AR7/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO7))/200</f>
-        <v>0.96200934579439257</v>
+        <v>0.91711401425178141</v>
       </c>
       <c r="BA7" s="21">
         <f ca="1">AS7/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO7))/200</f>
-        <v>1.3507943925233643</v>
+        <v>1.2876603325415674</v>
       </c>
       <c r="BB7" s="21">
         <f ca="1">AT7/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO7))/200</f>
-        <v>1.1165420560747663</v>
+        <v>1.0646318289786223</v>
       </c>
       <c r="BC7" s="21">
         <f ca="1">AU7/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO7))/200</f>
-        <v>0.89719626168224298</v>
+        <v>0.85510688836104509</v>
       </c>
       <c r="BE7" s="2">
         <f>RANK(BE6,$BE$6:$BH$6)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF7" s="2">
         <f t="shared" ref="BF7:BH7" si="40">RANK(BF6,$BE$6:$BH$6)</f>
@@ -4697,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="BI7" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:61" ht="15" x14ac:dyDescent="0.2">
@@ -4709,7 +4856,7 @@
         <v>202</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B8/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B8,100),ROUNDDOWN(Tipps!B8/100,0))</f>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B8/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B8,100),ROUNDDOWN(B8/100,0))</f>
         <v>KC  at JAX</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -4889,19 +5036,19 @@
       </c>
       <c r="AZ8" s="21">
         <f ca="1">AR8/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO8))/200</f>
-        <v>1.0268068535825543</v>
+        <v>0.97887173396674576</v>
       </c>
       <c r="BA8" s="21">
         <f ca="1">AS8/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO8))/200</f>
-        <v>1.3507943925233643</v>
+        <v>1.2876603325415676</v>
       </c>
       <c r="BB8" s="21">
         <f ca="1">AT8/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO8))/200</f>
-        <v>1.2311838006230529</v>
+        <v>1.1738954869358669</v>
       </c>
       <c r="BC8" s="21">
         <f ca="1">AU8/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO8))/200</f>
-        <v>0.9719626168224299</v>
+        <v>0.92636579572446553</v>
       </c>
     </row>
     <row r="9" spans="1:61" ht="15" x14ac:dyDescent="0.2">
@@ -4910,26 +5057,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>302</v>
+        <v>402</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B9/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B9,100),ROUNDDOWN(Tipps!B9/100,0))</f>
-        <v>MIN at PHI</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B9/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B9,100),ROUNDDOWN(B9/100,0))</f>
+        <v xml:space="preserve">LAR vs SF </v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J9" s="14">
         <f t="shared" si="12"/>
@@ -4941,7 +5088,7 @@
       </c>
       <c r="L9" s="14">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M9" s="14">
         <f t="shared" si="15"/>
@@ -4949,23 +5096,23 @@
       </c>
       <c r="O9" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>PHI</v>
+        <v xml:space="preserve">SF </v>
       </c>
       <c r="P9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>PHI</v>
+        <v xml:space="preserve">SF </v>
       </c>
       <c r="Q9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>PHI</v>
+        <v xml:space="preserve">SF </v>
       </c>
       <c r="R9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MIN</v>
+        <v xml:space="preserve">SF </v>
       </c>
       <c r="S9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>PHI</v>
+        <v xml:space="preserve">SF </v>
       </c>
       <c r="T9" s="2">
         <f t="shared" si="2"/>
@@ -4977,7 +5124,7 @@
       </c>
       <c r="V9" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="2">
         <f t="shared" si="5"/>
@@ -4985,19 +5132,19 @@
       </c>
       <c r="X9" s="2">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="2" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Z9" s="2" cm="1">
+      <c r="Z9" s="2" t="str" cm="1">
         <f t="array" ref="Z9">IF(AND(O9&lt;&gt;"",SUM(T9:W9)=3),SUMPRODUCT(P$2:S$2,1-T9:W9),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="AA9" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AB9" s="2">
         <f t="shared" si="19"/>
@@ -5017,7 +5164,7 @@
       </c>
       <c r="AF9" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AG9" s="2">
         <f t="shared" si="24"/>
@@ -5093,38 +5240,38 @@
       </c>
       <c r="AZ9" s="21">
         <f ca="1">AR9/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO9))/200</f>
-        <v>1.0567289719626167</v>
+        <v>1.007624703087886</v>
       </c>
       <c r="BA9" s="21">
         <f ca="1">AS9/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO9))/200</f>
-        <v>1.2489853137516689</v>
+        <v>1.1908618934509672</v>
       </c>
       <c r="BB9" s="21">
         <f ca="1">AT9/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO9))/200</f>
-        <v>1.1208144192256342</v>
+        <v>1.0687037665422463</v>
       </c>
       <c r="BC9" s="21">
         <f ca="1">AU9/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO9))/200</f>
-        <v>0.89719626168224298</v>
+        <v>0.85510688836104509</v>
       </c>
       <c r="BE9" s="2">
         <f>LARGE($BE$6:$BH$6,COLUMN()-COLUMN($BD$9))</f>
-        <v>88.03</v>
+        <v>116.04</v>
       </c>
       <c r="BF9" s="2">
         <f t="shared" ref="BF9:BH9" si="41">LARGE($BE$6:$BH$6,COLUMN()-COLUMN($BD$9))</f>
-        <v>86.03</v>
+        <v>107.05</v>
       </c>
       <c r="BG9" s="2">
         <f t="shared" si="41"/>
-        <v>74.010000000000005</v>
+        <v>99.02</v>
       </c>
       <c r="BH9" s="2">
         <f t="shared" si="41"/>
-        <v>73.02</v>
+        <v>99.02</v>
       </c>
       <c r="BI9" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:61" ht="15" x14ac:dyDescent="0.2">
@@ -5133,30 +5280,30 @@
         <v>1</v>
       </c>
       <c r="B10" s="5">
-        <v>402</v>
+        <v>102</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B10/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B10,100),ROUNDDOWN(Tipps!B10/100,0))</f>
-        <v xml:space="preserve">LAR vs SF </v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B10/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B10,100),ROUNDDOWN(B10/100,0))</f>
+        <v>NE  vs MIA</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J10" s="14">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10" s="14">
         <f t="shared" si="13"/>
@@ -5172,27 +5319,27 @@
       </c>
       <c r="O10" s="2" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">SF </v>
+        <v>MIA</v>
       </c>
       <c r="P10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">SF </v>
+        <v xml:space="preserve">NE </v>
       </c>
       <c r="Q10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">SF </v>
+        <v>MIA</v>
       </c>
       <c r="R10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">SF </v>
+        <v>MIA</v>
       </c>
       <c r="S10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">SF </v>
+        <v>MIA</v>
       </c>
       <c r="T10" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="2">
         <f t="shared" si="3"/>
@@ -5208,19 +5355,19 @@
       </c>
       <c r="X10" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="2" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Z10" s="2" t="str" cm="1">
+      <c r="Z10" s="2" cm="1">
         <f t="array" ref="Z10">IF(AND(O10&lt;&gt;"",SUM(T10:W10)=3),SUMPRODUCT(P$2:S$2,1-T10:W10),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AA10" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AB10" s="2">
         <f t="shared" si="19"/>
@@ -5240,7 +5387,7 @@
       </c>
       <c r="AF10" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AG10" s="2">
         <f t="shared" si="24"/>
@@ -5316,19 +5463,19 @@
       </c>
       <c r="AZ10" s="21">
         <f ca="1">AR10/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO10))/200</f>
-        <v>1.0243457943925232</v>
+        <v>0.97699524940617577</v>
       </c>
       <c r="BA10" s="21">
         <f ca="1">AS10/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO10))/200</f>
-        <v>1.2860280373831774</v>
+        <v>1.2264014251781472</v>
       </c>
       <c r="BB10" s="21">
         <f ca="1">AT10/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO10))/200</f>
-        <v>1.1688785046728971</v>
+        <v>1.1145130641330165</v>
       </c>
       <c r="BC10" s="21">
         <f ca="1">AU10/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO10))/200</f>
-        <v>0.9719626168224299</v>
+        <v>0.92636579572446553</v>
       </c>
       <c r="BE10" s="2">
         <f>MATCH(BE9,$BE$6:$BH$6,0)</f>
@@ -5340,14 +5487,14 @@
       </c>
       <c r="BG10" s="2">
         <f t="shared" si="42"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BH10" s="2">
         <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="BI10" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:61" ht="15" x14ac:dyDescent="0.2">
@@ -5356,26 +5503,26 @@
         <v>0</v>
       </c>
       <c r="B11" s="5">
-        <v>103</v>
+        <v>303</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B11/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B11,100),ROUNDDOWN(Tipps!B11/100,0))</f>
-        <v>NE  at NYJ</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B11/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B11,100),ROUNDDOWN(B11/100,0))</f>
+        <v>MIN vs LAC</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="J11" s="14">
         <f t="shared" si="12"/>
@@ -5391,27 +5538,27 @@
       </c>
       <c r="M11" s="14">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">NE </v>
+        <v>LAC</v>
       </c>
       <c r="P11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">NE </v>
+        <v>LAC</v>
       </c>
       <c r="Q11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">NE </v>
+        <v>LAC</v>
       </c>
       <c r="R11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>NYJ</v>
+        <v>MIN</v>
       </c>
       <c r="S11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">NE </v>
+        <v>MIN</v>
       </c>
       <c r="T11" s="2">
         <f t="shared" si="2"/>
@@ -5427,23 +5574,23 @@
       </c>
       <c r="W11" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="2" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Z11" s="2" cm="1">
+      <c r="Z11" s="2" t="str" cm="1">
         <f t="array" ref="Z11">IF(AND(O11&lt;&gt;"",SUM(T11:W11)=3),SUMPRODUCT(P$2:S$2,1-T11:W11),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="AA11" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" si="19"/>
@@ -5463,7 +5610,7 @@
       </c>
       <c r="AF11" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AG11" s="2">
         <f t="shared" si="24"/>
@@ -5539,28 +5686,28 @@
       </c>
       <c r="AZ11" s="21">
         <f ca="1">AR11/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO11))/200</f>
-        <v>1.0118847352024922</v>
+        <v>0.96511876484560577</v>
       </c>
       <c r="BA11" s="21">
         <f ca="1">AS11/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO11))/200</f>
-        <v>1.2162616822429906</v>
+        <v>1.1601425178147269</v>
       </c>
       <c r="BB11" s="21">
         <f ca="1">AT11/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO11))/200</f>
-        <v>1.2494911734164071</v>
+        <v>1.1918131433095804</v>
       </c>
       <c r="BC11" s="21">
         <f ca="1">AU11/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO11))/200</f>
-        <v>1.0068847352024921</v>
-      </c>
-      <c r="BE11" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="BF11" s="39"/>
-      <c r="BG11" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH11" s="41"/>
+        <v>0.96011876484560577</v>
+      </c>
+      <c r="BE11" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="BF11" s="36"/>
+      <c r="BG11" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="38"/>
     </row>
     <row r="12" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -5568,26 +5715,26 @@
         <v>0</v>
       </c>
       <c r="B12" s="5">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B12/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B12,100),ROUNDDOWN(Tipps!B12/100,0))</f>
-        <v>KC  vs CHI</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B12/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B12,100),ROUNDDOWN(B12/100,0))</f>
+        <v>NE  at NYJ</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J12" s="14">
         <f t="shared" si="12"/>
@@ -5599,7 +5746,7 @@
       </c>
       <c r="L12" s="14">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M12" s="14">
         <f t="shared" si="15"/>
@@ -5607,23 +5754,23 @@
       </c>
       <c r="O12" s="2" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">KC </v>
+        <v xml:space="preserve">NE </v>
       </c>
       <c r="P12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">KC </v>
+        <v xml:space="preserve">NE </v>
       </c>
       <c r="Q12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">KC </v>
+        <v xml:space="preserve">NE </v>
       </c>
       <c r="R12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">KC </v>
+        <v>NYJ</v>
       </c>
       <c r="S12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">KC </v>
+        <v xml:space="preserve">NE </v>
       </c>
       <c r="T12" s="2">
         <f t="shared" si="2"/>
@@ -5635,7 +5782,7 @@
       </c>
       <c r="V12" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2">
         <f t="shared" si="5"/>
@@ -5643,19 +5790,19 @@
       </c>
       <c r="X12" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y12" s="2" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Z12" s="2" t="str" cm="1">
+      <c r="Z12" s="2" cm="1">
         <f t="array" ref="Z12">IF(AND(O12&lt;&gt;"",SUM(T12:W12)=3),SUMPRODUCT(P$2:S$2,1-T12:W12),"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AA12" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AB12" s="2">
         <f t="shared" si="19"/>
@@ -5687,7 +5834,7 @@
       </c>
       <c r="AI12" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="2">
         <f t="shared" si="27"/>
@@ -5751,19 +5898,19 @@
       </c>
       <c r="AZ12" s="21">
         <f ca="1">AR12/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO12))/200</f>
-        <v>0.95705607476635512</v>
+        <v>0.91286223277909739</v>
       </c>
       <c r="BA12" s="21">
         <f ca="1">AS12/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO12))/200</f>
-        <v>1.1863551401869159</v>
+        <v>1.1316389548693586</v>
       </c>
       <c r="BB12" s="21">
         <f ca="1">AT12/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO12))/200</f>
-        <v>1.1714018691588786</v>
+        <v>1.1173871733966745</v>
       </c>
       <c r="BC12" s="21">
         <f ca="1">AU12/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO12))/200</f>
-        <v>0.95205607476635512</v>
+        <v>0.90786223277909739</v>
       </c>
     </row>
     <row r="13" spans="1:61" ht="15" x14ac:dyDescent="0.2">
@@ -5772,26 +5919,26 @@
         <v>0</v>
       </c>
       <c r="B13" s="5">
-        <v>303</v>
+        <v>203</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B13/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B13,100),ROUNDDOWN(Tipps!B13/100,0))</f>
-        <v>MIN vs LAC</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B13/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B13,100),ROUNDDOWN(B13/100,0))</f>
+        <v>KC  vs CHI</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J13" s="14">
         <f t="shared" si="12"/>
@@ -5803,31 +5950,31 @@
       </c>
       <c r="L13" s="14">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M13" s="14">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O13" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>LAC</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="P13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LAC</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="Q13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LAC</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="R13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MIN</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="S13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MIN</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="T13" s="2">
         <f t="shared" si="2"/>
@@ -5839,11 +5986,11 @@
       </c>
       <c r="V13" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="2">
         <f t="shared" si="17"/>
@@ -5859,7 +6006,7 @@
       </c>
       <c r="AA13" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AB13" s="2">
         <f t="shared" si="19"/>
@@ -5879,7 +6026,7 @@
       </c>
       <c r="AF13" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AG13" s="2">
         <f t="shared" si="24"/>
@@ -5891,7 +6038,7 @@
       </c>
       <c r="AI13" s="2">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" s="2">
         <f t="shared" si="27"/>
@@ -5955,19 +6102,19 @@
       </c>
       <c r="AZ13" s="21">
         <f ca="1">AR13/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO13))/200</f>
-        <v>0.9307901444350043</v>
+        <v>0.88806305333621249</v>
       </c>
       <c r="BA13" s="21">
         <f ca="1">AS13/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO13))/200</f>
-        <v>1.0989167374681392</v>
+        <v>1.0485370330382207</v>
       </c>
       <c r="BB13" s="21">
         <f ca="1">AT13/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO13))/200</f>
-        <v>1.1075106202209006</v>
+        <v>1.056493198013388</v>
       </c>
       <c r="BC13" s="21">
         <f ca="1">AU13/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO13))/200</f>
-        <v>0.92579014443500429</v>
+        <v>0.88306305333621249</v>
       </c>
       <c r="BE13" s="2">
         <f>IF($BG$11,BE10,BD12+1)</f>
@@ -5979,14 +6126,14 @@
       </c>
       <c r="BG13" s="2">
         <f>IF($BG$11,BG10,BF13+1)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BH13" s="2">
         <f>IF($BG$11,BH10,BG13+1)</f>
         <v>1</v>
       </c>
       <c r="BI13" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:61" ht="15" x14ac:dyDescent="0.2">
@@ -5998,7 +6145,7 @@
         <v>403</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B14/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B14,100),ROUNDDOWN(Tipps!B14/100,0))</f>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B14/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B14,100),ROUNDDOWN(B14/100,0))</f>
         <v>LAR at CIN</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -6178,19 +6325,19 @@
       </c>
       <c r="AZ14" s="21">
         <f ca="1">AR14/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO14))/200</f>
-        <v>0.92965732087227415</v>
+        <v>0.88698337292161522</v>
       </c>
       <c r="BA14" s="21">
         <f ca="1">AS14/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO14))/200</f>
-        <v>1.0966510903426789</v>
+        <v>1.0463776722090261</v>
       </c>
       <c r="BB14" s="21">
         <f ca="1">AT14/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO14))/200</f>
-        <v>1.1165732087227414</v>
+        <v>1.0651306413301662</v>
       </c>
       <c r="BC14" s="21">
         <f ca="1">AU14/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO14))/200</f>
-        <v>0.9371183800623053</v>
+        <v>0.89385985748218522</v>
       </c>
     </row>
     <row r="15" spans="1:61" ht="15" x14ac:dyDescent="0.2">
@@ -6199,30 +6346,30 @@
         <v>1</v>
       </c>
       <c r="B15" s="5">
-        <v>104</v>
+        <v>304</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B15/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B15,100),ROUNDDOWN(Tipps!B15/100,0))</f>
-        <v>NE  at DAL</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B15/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B15,100),ROUNDDOWN(B15/100,0))</f>
+        <v>MIN at CAR</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" s="14">
         <f t="shared" si="13"/>
@@ -6230,35 +6377,35 @@
       </c>
       <c r="L15" s="14">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="14">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O15" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>DAL</v>
+        <v>MIN</v>
       </c>
       <c r="P15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">NE </v>
+        <v>MIN</v>
       </c>
       <c r="Q15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DAL</v>
+        <v>MIN</v>
       </c>
       <c r="R15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">NE </v>
+        <v>CAR</v>
       </c>
       <c r="S15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">NE </v>
+        <v>MIN</v>
       </c>
       <c r="T15" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="2">
         <f t="shared" si="3"/>
@@ -6270,23 +6417,23 @@
       </c>
       <c r="W15" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="2">
         <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="Y15" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="Z15" s="2" t="str" cm="1">
+        <v/>
+      </c>
+      <c r="Z15" s="2" cm="1">
         <f t="array" ref="Z15">IF(AND(O15&lt;&gt;"",SUM(T15:W15)=3),SUMPRODUCT(P$2:S$2,1-T15:W15),"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AA15" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>03</v>
+        <v>21</v>
       </c>
       <c r="AB15" s="2">
         <f t="shared" si="19"/>
@@ -6298,7 +6445,7 @@
       </c>
       <c r="AD15" s="2">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="2">
         <f t="shared" si="22"/>
@@ -6306,7 +6453,7 @@
       </c>
       <c r="AF15" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="AG15" s="2">
         <f t="shared" si="24"/>
@@ -6342,59 +6489,59 @@
       </c>
       <c r="AP15" s="20" t="b">
         <f ca="1">OFFSET(Tipps!$AN$2,AO15,)&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15" s="20">
         <f t="shared" si="30"/>
         <v>13</v>
       </c>
-      <c r="AR15" s="20" t="e">
+      <c r="AR15" s="20">
         <f t="shared" ca="1" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS15" s="20" t="e">
+        <v>76</v>
+      </c>
+      <c r="AS15" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT15" s="20" t="e">
+        <v>92</v>
+      </c>
+      <c r="AT15" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU15" s="20" t="e">
+        <v>94</v>
+      </c>
+      <c r="AU15" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV15" s="2" t="e">
+        <v>80</v>
+      </c>
+      <c r="AV15" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW15" s="2" t="e">
+        <v>3</v>
+      </c>
+      <c r="AW15" s="2">
         <f t="shared" ca="1" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX15" s="2" t="e">
+        <v>6</v>
+      </c>
+      <c r="AX15" s="2">
         <f t="shared" ca="1" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY15" s="2" t="e">
+        <v>6</v>
+      </c>
+      <c r="AY15" s="2">
         <f t="shared" ca="1" si="38"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ15" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AZ15" s="21">
         <f ca="1">AR15/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO15))/200</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BA15" s="21" t="e">
+        <v>0.85318107071076188</v>
+      </c>
+      <c r="BA15" s="21">
         <f ca="1">AS15/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO15))/200</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BB15" s="21" t="e">
+        <v>1.0335876119130274</v>
+      </c>
+      <c r="BB15" s="21">
         <f ca="1">AT15/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO15))/200</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BC15" s="21" t="e">
+        <v>1.0505134295633107</v>
+      </c>
+      <c r="BC15" s="21">
         <f ca="1">AU15/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO15))/200</f>
-        <v>#N/A</v>
+        <v>0.89203270601132834</v>
       </c>
       <c r="BE15" s="33">
         <f>SUM(J70:J73)</f>
@@ -6413,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="BI15" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:61" ht="15" x14ac:dyDescent="0.2">
@@ -6422,34 +6569,34 @@
         <v>1</v>
       </c>
       <c r="B16" s="5">
-        <v>204</v>
+        <v>404</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B16/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B16,100),ROUNDDOWN(Tipps!B16/100,0))</f>
-        <v>KC  at NYJ</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B16/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B16,100),ROUNDDOWN(B16/100,0))</f>
+        <v>LAR at IND</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K16" s="14">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16" s="14">
         <f t="shared" si="14"/>
@@ -6457,35 +6604,35 @@
       </c>
       <c r="M16" s="14">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">KC </v>
+        <v>LAR</v>
       </c>
       <c r="P16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">KC </v>
+        <v>IND</v>
       </c>
       <c r="Q16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">KC </v>
+        <v>IND</v>
       </c>
       <c r="R16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">KC </v>
+        <v>LAR</v>
       </c>
       <c r="S16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">KC </v>
+        <v>IND</v>
       </c>
       <c r="T16" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="2">
         <f t="shared" si="4"/>
@@ -6493,15 +6640,15 @@
       </c>
       <c r="W16" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="2">
         <f t="shared" si="6"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="Z16" s="2" t="str" cm="1">
         <f t="array" ref="Z16">IF(AND(O16&lt;&gt;"",SUM(T16:W16)=3),SUMPRODUCT(P$2:S$2,1-T16:W16),"")</f>
@@ -6509,7 +6656,7 @@
       </c>
       <c r="AA16" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB16" s="2">
         <f t="shared" si="19"/>
@@ -6529,7 +6676,7 @@
       </c>
       <c r="AF16" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AG16" s="2">
         <f t="shared" si="24"/>
@@ -6537,7 +6684,7 @@
       </c>
       <c r="AH16" s="2">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16" s="2">
         <f t="shared" si="26"/>
@@ -6565,59 +6712,59 @@
       </c>
       <c r="AP16" s="20" t="b">
         <f ca="1">OFFSET(Tipps!$AN$2,AO16,)&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" s="20">
         <f t="shared" si="30"/>
         <v>14</v>
       </c>
-      <c r="AR16" s="20" t="e">
+      <c r="AR16" s="20">
         <f t="shared" ca="1" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS16" s="20" t="e">
+        <v>85</v>
+      </c>
+      <c r="AS16" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT16" s="20" t="e">
+        <v>98</v>
+      </c>
+      <c r="AT16" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU16" s="20" t="e">
+        <v>103</v>
+      </c>
+      <c r="AU16" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV16" s="2" t="e">
+        <v>86</v>
+      </c>
+      <c r="AV16" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW16" s="2" t="e">
+        <v>9</v>
+      </c>
+      <c r="AW16" s="2">
         <f t="shared" ca="1" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX16" s="2" t="e">
+        <v>6</v>
+      </c>
+      <c r="AX16" s="2">
         <f t="shared" ca="1" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY16" s="2" t="e">
+        <v>9</v>
+      </c>
+      <c r="AY16" s="2">
         <f t="shared" ca="1" si="38"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ16" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AZ16" s="21">
         <f ca="1">AR16/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO16))/200</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BA16" s="21" t="e">
+        <v>0.88528673227010524</v>
+      </c>
+      <c r="BA16" s="21">
         <f ca="1">AS16/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO16))/200</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BB16" s="21" t="e">
+        <v>1.0226247030878859</v>
+      </c>
+      <c r="BB16" s="21">
         <f ca="1">AT16/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO16))/200</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BC16" s="21" t="e">
+        <v>1.0685239226331864</v>
+      </c>
+      <c r="BC16" s="21">
         <f ca="1">AU16/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO16))/200</f>
-        <v>#N/A</v>
+        <v>0.89046657617916525</v>
       </c>
     </row>
     <row r="17" spans="1:55" ht="15" x14ac:dyDescent="0.2">
@@ -6626,30 +6773,30 @@
         <v>1</v>
       </c>
       <c r="B17" s="5">
-        <v>304</v>
+        <v>104</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B17/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B17,100),ROUNDDOWN(Tipps!B17/100,0))</f>
-        <v>MIN at CAR</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B17/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B17,100),ROUNDDOWN(B17/100,0))</f>
+        <v>NE  at DAL</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K17" s="14">
         <f t="shared" si="13"/>
@@ -6657,35 +6804,35 @@
       </c>
       <c r="L17" s="14">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="14">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>MIN</v>
+        <v>DAL</v>
       </c>
       <c r="P17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MIN</v>
+        <v xml:space="preserve">NE </v>
       </c>
       <c r="Q17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MIN</v>
+        <v>DAL</v>
       </c>
       <c r="R17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>CAR</v>
+        <v xml:space="preserve">NE </v>
       </c>
       <c r="S17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MIN</v>
+        <v xml:space="preserve">NE </v>
       </c>
       <c r="T17" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="2">
         <f t="shared" si="3"/>
@@ -6697,23 +6844,23 @@
       </c>
       <c r="W17" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2">
         <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="Y17" s="2" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="2">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Z17" s="2" cm="1">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="2" t="str" cm="1">
         <f t="array" ref="Z17">IF(AND(O17&lt;&gt;"",SUM(T17:W17)=3),SUMPRODUCT(P$2:S$2,1-T17:W17),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="AA17" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>21</v>
+        <v>03</v>
       </c>
       <c r="AB17" s="2">
         <f t="shared" si="19"/>
@@ -6725,7 +6872,7 @@
       </c>
       <c r="AD17" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="2">
         <f t="shared" si="22"/>
@@ -6733,7 +6880,7 @@
       </c>
       <c r="AF17" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="AG17" s="2">
         <f t="shared" si="24"/>
@@ -6769,59 +6916,59 @@
       </c>
       <c r="AP17" s="20" t="b">
         <f ca="1">OFFSET(Tipps!$AN$2,AO17,)&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ17" s="20">
         <f t="shared" si="30"/>
         <v>15</v>
       </c>
-      <c r="AR17" s="20" t="e">
+      <c r="AR17" s="20">
         <f t="shared" ca="1" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS17" s="20" t="e">
+        <v>99</v>
+      </c>
+      <c r="AS17" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT17" s="20" t="e">
+        <v>107</v>
+      </c>
+      <c r="AT17" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU17" s="20" t="e">
+        <v>116</v>
+      </c>
+      <c r="AU17" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV17" s="2" t="e">
+        <v>99</v>
+      </c>
+      <c r="AV17" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW17" s="2" t="e">
+        <v>14</v>
+      </c>
+      <c r="AW17" s="2">
         <f t="shared" ca="1" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX17" s="2" t="e">
+        <v>9</v>
+      </c>
+      <c r="AX17" s="2">
         <f t="shared" ca="1" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY17" s="2" t="e">
+        <v>13</v>
+      </c>
+      <c r="AY17" s="2">
         <f t="shared" ca="1" si="38"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ17" s="21" t="e">
+        <v>13</v>
+      </c>
+      <c r="AZ17" s="21">
         <f ca="1">AR17/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO17))/200</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BA17" s="21" t="e">
+        <v>0.96561757719714969</v>
+      </c>
+      <c r="BA17" s="21">
         <f ca="1">AS17/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO17))/200</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BB17" s="21" t="e">
+        <v>1.0416270783847981</v>
+      </c>
+      <c r="BB17" s="21">
         <f ca="1">AT17/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO17))/200</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BC17" s="21" t="e">
+        <v>1.1271377672209024</v>
+      </c>
+      <c r="BC17" s="21">
         <f ca="1">AU17/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO17))/200</f>
-        <v>#N/A</v>
+        <v>0.96061757719714969</v>
       </c>
     </row>
     <row r="18" spans="1:55" ht="15" x14ac:dyDescent="0.2">
@@ -6830,34 +6977,34 @@
         <v>1</v>
       </c>
       <c r="B18" s="5">
-        <v>404</v>
+        <v>204</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B18/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B18,100),ROUNDDOWN(Tipps!B18/100,0))</f>
-        <v>LAR at IND</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B18/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B18,100),ROUNDDOWN(B18/100,0))</f>
+        <v>KC  at NYJ</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>182</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" s="14">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18" s="14">
         <f t="shared" si="14"/>
@@ -6865,35 +7012,35 @@
       </c>
       <c r="M18" s="14">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O18" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>LAR</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="P18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>IND</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="Q18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>IND</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="R18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LAR</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="S18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>IND</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="T18" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="2">
         <f t="shared" si="4"/>
@@ -6901,15 +7048,15 @@
       </c>
       <c r="W18" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="2">
         <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="Z18" s="2" t="str" cm="1">
         <f t="array" ref="Z18">IF(AND(O18&lt;&gt;"",SUM(T18:W18)=3),SUMPRODUCT(P$2:S$2,1-T18:W18),"")</f>
@@ -6917,7 +7064,7 @@
       </c>
       <c r="AA18" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AB18" s="2">
         <f t="shared" si="19"/>
@@ -6937,7 +7084,7 @@
       </c>
       <c r="AF18" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AG18" s="2">
         <f t="shared" si="24"/>
@@ -6945,7 +7092,7 @@
       </c>
       <c r="AH18" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="2">
         <f t="shared" si="26"/>
@@ -7037,23 +7184,23 @@
         <v>105</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B19/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B19,100),ROUNDDOWN(Tipps!B19/100,0))</f>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B19/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B19,100),ROUNDDOWN(B19/100,0))</f>
         <v xml:space="preserve">NE  vs NO </v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="12"/>
@@ -7238,14 +7385,14 @@
         <v>0</v>
       </c>
       <c r="B20" s="5">
-        <v>205</v>
+        <v>405</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B20/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B20,100),ROUNDDOWN(Tipps!B20/100,0))</f>
-        <v>KC  at MIN</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B20/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B20,100),ROUNDDOWN(B20/100,0))</f>
+        <v>LAR vs PHI</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>192</v>
@@ -7254,53 +7401,50 @@
         <v>186</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="J20" s="14">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K20" s="14">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L20" s="14">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M20" s="14">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">KC </v>
+        <v>PHI</v>
       </c>
       <c r="P20" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>MIN</v>
+        <v>PHI</v>
       </c>
       <c r="Q20" s="2" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">KC </v>
+        <v>PHI</v>
       </c>
       <c r="R20" s="2" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">KC </v>
+        <v>PHI</v>
       </c>
       <c r="S20" s="2" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">KC </v>
+        <v>LAR</v>
       </c>
       <c r="T20" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="2">
         <f t="shared" si="3"/>
@@ -7312,11 +7456,11 @@
       </c>
       <c r="W20" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y20" s="2" t="str">
         <f t="shared" si="6"/>
@@ -7324,11 +7468,11 @@
       </c>
       <c r="Z20" s="2" cm="1">
         <f t="array" ref="Z20">IF(AND(O20&lt;&gt;"",SUM(T20:W20)=3),SUMPRODUCT(P$2:S$2,1-T20:W20),"")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA20" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AB20" s="2">
         <f t="shared" si="19"/>
@@ -7336,11 +7480,11 @@
       </c>
       <c r="AC20" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="2">
         <f t="shared" si="22"/>
@@ -7348,7 +7492,7 @@
       </c>
       <c r="AF20" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AG20" s="2">
         <f t="shared" si="24"/>
@@ -7445,66 +7589,69 @@
         <v>0</v>
       </c>
       <c r="B21" s="5">
-        <v>405</v>
+        <v>205</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B21/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B21,100),ROUNDDOWN(Tipps!B21/100,0))</f>
-        <v>LAR vs PHI</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B21/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B21,100),ROUNDDOWN(B21/100,0))</f>
+        <v>KC  at MIN</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>196</v>
+        <v>65</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="J21" s="14">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K21" s="14">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L21" s="14">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M21" s="14">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O21" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>PHI</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="P21" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>PHI</v>
+        <v>MIN</v>
       </c>
       <c r="Q21" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>PHI</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="R21" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>PHI</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="S21" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>LAR</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="T21" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="2">
         <f t="shared" si="3"/>
@@ -7516,11 +7663,11 @@
       </c>
       <c r="W21" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="2">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="2" t="str">
         <f t="shared" si="6"/>
@@ -7528,11 +7675,11 @@
       </c>
       <c r="Z21" s="2" cm="1">
         <f t="array" ref="Z21">IF(AND(O21&lt;&gt;"",SUM(T21:W21)=3),SUMPRODUCT(P$2:S$2,1-T21:W21),"")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA21" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB21" s="2">
         <f t="shared" si="19"/>
@@ -7540,11 +7687,11 @@
       </c>
       <c r="AC21" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" s="2">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="2">
         <f t="shared" si="22"/>
@@ -7552,7 +7699,7 @@
       </c>
       <c r="AF21" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AG21" s="2">
         <f t="shared" si="24"/>
@@ -7596,17 +7743,17 @@
         <v>1</v>
       </c>
       <c r="B22" s="5">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B22/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B22,100),ROUNDDOWN(Tipps!B22/100,0))</f>
-        <v xml:space="preserve">NE  at LV </v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B22/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B22,100),ROUNDDOWN(B22/100,0))</f>
+        <v>KC  vs DEN</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>216</v>
@@ -7619,7 +7766,7 @@
       </c>
       <c r="J22" s="14">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22" s="14">
         <f t="shared" si="13"/>
@@ -7635,27 +7782,27 @@
       </c>
       <c r="O22" s="2" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">LV </v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="P22" s="2" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">NE </v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="Q22" s="2" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">LV </v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="R22" s="2" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">LV </v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="S22" s="2" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">LV </v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="T22" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="2">
         <f t="shared" si="3"/>
@@ -7671,19 +7818,19 @@
       </c>
       <c r="X22" s="2">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="2" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Z22" s="2" cm="1">
+      <c r="Z22" s="2" t="str" cm="1">
         <f t="array" ref="Z22">IF(AND(O22&lt;&gt;"",SUM(T22:W22)=3),SUMPRODUCT(P$2:S$2,1-T22:W22),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AA22" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB22" s="2">
         <f t="shared" si="19"/>
@@ -7703,7 +7850,7 @@
       </c>
       <c r="AF22" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>17</v>
+        <v>08</v>
       </c>
       <c r="AG22" s="2">
         <f t="shared" si="24"/>
@@ -7747,14 +7894,14 @@
         <v>1</v>
       </c>
       <c r="B23" s="5">
-        <v>206</v>
+        <v>306</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B23/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B23,100),ROUNDDOWN(Tipps!B23/100,0))</f>
-        <v>KC  vs DEN</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B23/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B23,100),ROUNDDOWN(B23/100,0))</f>
+        <v>MIN at CHI</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>214</v>
@@ -7774,7 +7921,7 @@
       </c>
       <c r="K23" s="14">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L23" s="14">
         <f t="shared" si="14"/>
@@ -7782,27 +7929,27 @@
       </c>
       <c r="M23" s="14">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">KC </v>
+        <v>MIN</v>
       </c>
       <c r="P23" s="2" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">KC </v>
+        <v>MIN</v>
       </c>
       <c r="Q23" s="2" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">KC </v>
+        <v>CHI</v>
       </c>
       <c r="R23" s="2" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">KC </v>
+        <v>MIN</v>
       </c>
       <c r="S23" s="2" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">KC </v>
+        <v>CHI</v>
       </c>
       <c r="T23" s="2">
         <f t="shared" si="2"/>
@@ -7810,7 +7957,7 @@
       </c>
       <c r="U23" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="2">
         <f t="shared" si="4"/>
@@ -7818,7 +7965,7 @@
       </c>
       <c r="W23" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2">
         <f t="shared" si="17"/>
@@ -7854,7 +8001,7 @@
       </c>
       <c r="AF23" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>08</v>
+        <v>13</v>
       </c>
       <c r="AG23" s="2">
         <f t="shared" si="24"/>
@@ -7898,34 +8045,34 @@
         <v>1</v>
       </c>
       <c r="B24" s="5">
-        <v>306</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B24/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B24,100),ROUNDDOWN(Tipps!B24/100,0))</f>
-        <v>MIN at CHI</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B24/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B24,100),ROUNDDOWN(B24/100,0))</f>
+        <v xml:space="preserve">NE  at LV </v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E24" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>218</v>
-      </c>
       <c r="G24" s="11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J24" s="14">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K24" s="14">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L24" s="14">
         <f t="shared" si="14"/>
@@ -7933,35 +8080,35 @@
       </c>
       <c r="M24" s="14">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O24" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>MIN</v>
+        <v xml:space="preserve">LV </v>
       </c>
       <c r="P24" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>MIN</v>
+        <v xml:space="preserve">NE </v>
       </c>
       <c r="Q24" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>CHI</v>
+        <v xml:space="preserve">LV </v>
       </c>
       <c r="R24" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>MIN</v>
+        <v xml:space="preserve">LV </v>
       </c>
       <c r="S24" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>CHI</v>
+        <v xml:space="preserve">LV </v>
       </c>
       <c r="T24" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="2">
         <f t="shared" si="4"/>
@@ -7969,23 +8116,23 @@
       </c>
       <c r="W24" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="2" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Z24" s="2" t="str" cm="1">
+      <c r="Z24" s="2" cm="1">
         <f t="array" ref="Z24">IF(AND(O24&lt;&gt;"",SUM(T24:W24)=3),SUMPRODUCT(P$2:S$2,1-T24:W24),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AA24" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB24" s="2">
         <f t="shared" si="19"/>
@@ -8005,7 +8152,7 @@
       </c>
       <c r="AF24" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AG24" s="2">
         <f t="shared" si="24"/>
@@ -8052,23 +8199,23 @@
         <v>406</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B25/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B25,100),ROUNDDOWN(Tipps!B25/100,0))</f>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B25/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B25,100),ROUNDDOWN(B25/100,0))</f>
         <v>LAR vs ARI</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>74</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J25" s="14">
         <f t="shared" si="12"/>
@@ -8203,23 +8350,23 @@
         <v>107</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B26/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B26,100),ROUNDDOWN(Tipps!B26/100,0))</f>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B26/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B26,100),ROUNDDOWN(B26/100,0))</f>
         <v>NE  vs BUF</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J26" s="14">
         <f t="shared" si="12"/>
@@ -8351,26 +8498,26 @@
         <v>0</v>
       </c>
       <c r="B27" s="5">
-        <v>207</v>
+        <v>407</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B27/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B27,100),ROUNDDOWN(Tipps!B27/100,0))</f>
-        <v>KC  vs LAC</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B27/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B27,100),ROUNDDOWN(B27/100,0))</f>
+        <v>LAR vs PIT</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>28</v>
+        <v>257</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="J27" s="14">
         <f t="shared" si="12"/>
@@ -8378,35 +8525,35 @@
       </c>
       <c r="K27" s="14">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L27" s="14">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M27" s="14">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">KC </v>
+        <v>PIT</v>
       </c>
       <c r="P27" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">KC </v>
+        <v>PIT</v>
       </c>
       <c r="Q27" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">KC </v>
+        <v>LAR</v>
       </c>
       <c r="R27" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">KC </v>
+        <v>LAR</v>
       </c>
       <c r="S27" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">KC </v>
+        <v>LAR</v>
       </c>
       <c r="T27" s="2">
         <f t="shared" si="2"/>
@@ -8414,23 +8561,23 @@
       </c>
       <c r="U27" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="2">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Z27" s="2" t="str" cm="1">
         <f t="array" ref="Z27">IF(AND(O27&lt;&gt;"",SUM(T27:W27)=3),SUMPRODUCT(P$2:S$2,1-T27:W27),"")</f>
@@ -8438,11 +8585,11 @@
       </c>
       <c r="AA27" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="AB27" s="2">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27" s="2">
         <f t="shared" si="20"/>
@@ -8462,7 +8609,7 @@
       </c>
       <c r="AG27" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH27" s="2">
         <f t="shared" si="25"/>
@@ -8502,78 +8649,78 @@
         <v>0</v>
       </c>
       <c r="B28" s="5">
-        <v>307</v>
+        <v>207</v>
       </c>
       <c r="C28" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B28/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B28,100),ROUNDDOWN(Tipps!B28/100,0))</f>
-        <v xml:space="preserve">MIN vs SF </v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B28/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B28,100),ROUNDDOWN(B28/100,0))</f>
+        <v>KC  vs LAC</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>259</v>
+        <v>28</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J28" s="14">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K28" s="14">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28" s="14">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" s="14">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O28" s="2" t="str">
         <f t="shared" ref="O28:S68" si="48">LEFT(INDEX($D28:$H28,O$2+1),3)</f>
-        <v>MIN</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="P28" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">SF </v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="Q28" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">SF </v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="R28" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">SF </v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="S28" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">SF </v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="T28" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="2">
         <f t="shared" si="17"/>
@@ -8589,7 +8736,7 @@
       </c>
       <c r="AA28" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AB28" s="2">
         <f t="shared" si="19"/>
@@ -8597,7 +8744,7 @@
       </c>
       <c r="AC28" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="2">
         <f t="shared" si="21"/>
@@ -8613,7 +8760,7 @@
       </c>
       <c r="AG28" s="2">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH28" s="2">
         <f t="shared" si="25"/>
@@ -8653,34 +8800,34 @@
         <v>0</v>
       </c>
       <c r="B29" s="5">
-        <v>407</v>
+        <v>307</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B29/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B29,100),ROUNDDOWN(Tipps!B29/100,0))</f>
-        <v>LAR vs PIT</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B29/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B29,100),ROUNDDOWN(B29/100,0))</f>
+        <v xml:space="preserve">MIN vs SF </v>
       </c>
       <c r="D29" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="J29" s="14">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K29" s="14">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="14">
         <f t="shared" si="14"/>
@@ -8692,27 +8839,27 @@
       </c>
       <c r="O29" s="2" t="str">
         <f t="shared" si="48"/>
-        <v>PIT</v>
+        <v>MIN</v>
       </c>
       <c r="P29" s="2" t="str">
         <f t="shared" si="47"/>
-        <v>PIT</v>
+        <v xml:space="preserve">SF </v>
       </c>
       <c r="Q29" s="2" t="str">
         <f t="shared" si="47"/>
-        <v>LAR</v>
+        <v xml:space="preserve">SF </v>
       </c>
       <c r="R29" s="2" t="str">
         <f t="shared" si="47"/>
-        <v>LAR</v>
+        <v xml:space="preserve">SF </v>
       </c>
       <c r="S29" s="2" t="str">
         <f t="shared" si="47"/>
-        <v>LAR</v>
+        <v xml:space="preserve">SF </v>
       </c>
       <c r="T29" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="2">
         <f t="shared" si="3"/>
@@ -8728,11 +8875,11 @@
       </c>
       <c r="X29" s="2">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="Y29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="Z29" s="2" t="str" cm="1">
         <f t="array" ref="Z29">IF(AND(O29&lt;&gt;"",SUM(T29:W29)=3),SUMPRODUCT(P$2:S$2,1-T29:W29),"")</f>
@@ -8740,15 +8887,15 @@
       </c>
       <c r="AA29" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AB29" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" s="2">
         <f t="shared" si="21"/>
@@ -8804,28 +8951,30 @@
         <v>1</v>
       </c>
       <c r="B30" s="5">
-        <v>108</v>
+        <v>408</v>
       </c>
       <c r="C30" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B30/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B30,100),ROUNDDOWN(Tipps!B30/100,0))</f>
-        <v>NE  at MIA</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B30/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B30,100),ROUNDDOWN(B30/100,0))</f>
+        <v>LAR at DAL</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="E30" s="11"/>
+        <v>269</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>267</v>
+      </c>
       <c r="F30" s="11" t="s">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J30" s="14">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K30" s="14">
         <f t="shared" si="13"/>
@@ -8833,35 +8982,35 @@
       </c>
       <c r="L30" s="14">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M30" s="14">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O30" s="2" t="str">
         <f t="shared" si="48"/>
-        <v>MIA</v>
+        <v>DAL</v>
       </c>
       <c r="P30" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>DAL</v>
       </c>
       <c r="Q30" s="2" t="str">
         <f t="shared" si="47"/>
-        <v>MIA</v>
+        <v>DAL</v>
       </c>
       <c r="R30" s="2" t="str">
         <f t="shared" si="47"/>
-        <v>MIA</v>
+        <v>DAL</v>
       </c>
       <c r="S30" s="2" t="str">
         <f t="shared" si="47"/>
-        <v>MIA</v>
+        <v>DAL</v>
       </c>
       <c r="T30" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="2">
         <f t="shared" si="3"/>
@@ -8883,13 +9032,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Z30" s="2" cm="1">
+      <c r="Z30" s="2" t="str" cm="1">
         <f t="array" ref="Z30">IF(AND(O30&lt;&gt;"",SUM(T30:W30)=3),SUMPRODUCT(P$2:S$2,1-T30:W30),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AA30" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AB30" s="2">
         <f t="shared" si="19"/>
@@ -8909,11 +9058,11 @@
       </c>
       <c r="AF30" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AG30" s="2">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH30" s="2">
         <f t="shared" si="25"/>
@@ -8921,11 +9070,11 @@
       </c>
       <c r="AI30" s="2">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30" s="2">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30" s="20" t="b">
         <f>Tipps!A30&lt;&gt;Tipps!A31</f>
@@ -8953,62 +9102,62 @@
         <v>1</v>
       </c>
       <c r="B31" s="5">
-        <v>208</v>
+        <v>308</v>
       </c>
       <c r="C31" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B31/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B31,100),ROUNDDOWN(Tipps!B31/100,0))</f>
-        <v>KC  at DEN</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B31/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B31,100),ROUNDDOWN(B31/100,0))</f>
+        <v xml:space="preserve">MIN at GB </v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>26</v>
+        <v>268</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>265</v>
+        <v>214</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>65</v>
+        <v>266</v>
       </c>
       <c r="J31" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="14">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L31" s="14">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M31" s="14">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O31" s="2" t="str">
         <f t="shared" si="48"/>
-        <v>DEN</v>
+        <v>MIN</v>
       </c>
       <c r="P31" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">KC </v>
+        <v xml:space="preserve">GB </v>
       </c>
       <c r="Q31" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">KC </v>
+        <v>MIN</v>
       </c>
       <c r="R31" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">KC </v>
+        <v>MIN</v>
       </c>
       <c r="S31" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">KC </v>
+        <v>MIN</v>
       </c>
       <c r="T31" s="2">
         <f t="shared" si="2"/>
@@ -9016,27 +9165,27 @@
       </c>
       <c r="U31" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="2" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Z31" s="2" t="str" cm="1">
+      <c r="Z31" s="2" cm="1">
         <f t="array" ref="Z31">IF(AND(O31&lt;&gt;"",SUM(T31:W31)=3),SUMPRODUCT(P$2:S$2,1-T31:W31),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AA31" s="2" t="str">
         <f t="shared" si="18"/>
@@ -9044,11 +9193,11 @@
       </c>
       <c r="AB31" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" s="2">
         <f t="shared" si="21"/>
@@ -9060,7 +9209,7 @@
       </c>
       <c r="AF31" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>09</v>
+        <v>10</v>
       </c>
       <c r="AG31" s="2">
         <f t="shared" si="24"/>
@@ -9104,26 +9253,24 @@
         <v>1</v>
       </c>
       <c r="B32" s="5">
-        <v>308</v>
+        <v>108</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B32/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B32,100),ROUNDDOWN(Tipps!B32/100,0))</f>
-        <v xml:space="preserve">MIN at GB </v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B32/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B32,100),ROUNDDOWN(B32/100,0))</f>
+        <v>NE  at MIA</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>269</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J32" s="14">
         <f t="shared" si="12"/>
@@ -9131,7 +9278,7 @@
       </c>
       <c r="K32" s="14">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L32" s="14">
         <f t="shared" si="14"/>
@@ -9143,23 +9290,23 @@
       </c>
       <c r="O32" s="2" t="str">
         <f t="shared" si="48"/>
-        <v>MIN</v>
+        <v>MIA</v>
       </c>
       <c r="P32" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">GB </v>
+        <v/>
       </c>
       <c r="Q32" s="2" t="str">
         <f t="shared" si="47"/>
-        <v>MIN</v>
+        <v>MIA</v>
       </c>
       <c r="R32" s="2" t="str">
         <f t="shared" si="47"/>
-        <v>MIN</v>
+        <v>MIA</v>
       </c>
       <c r="S32" s="2" t="str">
         <f t="shared" si="47"/>
-        <v>MIN</v>
+        <v>MIA</v>
       </c>
       <c r="T32" s="2">
         <f t="shared" si="2"/>
@@ -9179,7 +9326,7 @@
       </c>
       <c r="X32" s="2">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="2" t="str">
         <f t="shared" si="6"/>
@@ -9191,7 +9338,7 @@
       </c>
       <c r="AA32" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AB32" s="2">
         <f t="shared" si="19"/>
@@ -9199,7 +9346,7 @@
       </c>
       <c r="AC32" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="2">
         <f t="shared" si="21"/>
@@ -9211,7 +9358,7 @@
       </c>
       <c r="AF32" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AG32" s="2">
         <f t="shared" si="24"/>
@@ -9255,78 +9402,78 @@
         <v>1</v>
       </c>
       <c r="B33" s="5">
-        <v>408</v>
+        <v>208</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B33/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B33,100),ROUNDDOWN(Tipps!B33/100,0))</f>
-        <v>LAR at DAL</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B33/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B33,100),ROUNDDOWN(B33/100,0))</f>
+        <v>KC  at DEN</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>268</v>
+        <v>26</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>263</v>
+        <v>65</v>
       </c>
       <c r="J33" s="14">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K33" s="14">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L33" s="14">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M33" s="14">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2" t="str">
         <f t="shared" si="48"/>
-        <v>DAL</v>
+        <v>DEN</v>
       </c>
       <c r="P33" s="2" t="str">
         <f t="shared" si="47"/>
-        <v>DAL</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="Q33" s="2" t="str">
         <f t="shared" si="47"/>
-        <v>DAL</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="R33" s="2" t="str">
         <f t="shared" si="47"/>
-        <v>DAL</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="S33" s="2" t="str">
         <f t="shared" si="47"/>
-        <v>DAL</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="T33" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" s="2">
         <f t="shared" si="17"/>
@@ -9342,11 +9489,11 @@
       </c>
       <c r="AA33" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="AB33" s="2">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33" s="2">
         <f t="shared" si="20"/>
@@ -9362,11 +9509,11 @@
       </c>
       <c r="AF33" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>20</v>
+        <v>09</v>
       </c>
       <c r="AG33" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="2">
         <f t="shared" si="25"/>
@@ -9374,11 +9521,11 @@
       </c>
       <c r="AI33" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="20" t="b">
         <f>Tipps!A33&lt;&gt;Tipps!A34</f>
@@ -9406,20 +9553,20 @@
         <v>0</v>
       </c>
       <c r="B34" s="5">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B34/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B34,100),ROUNDDOWN(Tipps!B34/100,0))</f>
-        <v>NE  vs WAS</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B34/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B34,100),ROUNDDOWN(B34/100,0))</f>
+        <v>KC  vs MIA</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>59</v>
+        <v>185</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>274</v>
+        <v>42</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>277</v>
@@ -9429,7 +9576,7 @@
       </c>
       <c r="J34" s="14">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K34" s="14">
         <f t="shared" si="13"/>
@@ -9437,35 +9584,35 @@
       </c>
       <c r="L34" s="14">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M34" s="14">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O34" s="2" t="str">
         <f t="shared" si="48"/>
-        <v>WAS</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="P34" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">NE </v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="Q34" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">NE </v>
+        <v>MIA</v>
       </c>
       <c r="R34" s="2" t="str">
         <f t="shared" si="47"/>
-        <v>WAS</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="S34" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">NE </v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="T34" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="2">
         <f t="shared" si="3"/>
@@ -9477,23 +9624,23 @@
       </c>
       <c r="W34" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" s="2">
         <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="Y34" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y34" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Z34" s="2" t="str" cm="1">
+        <v/>
+      </c>
+      <c r="Z34" s="2" cm="1">
         <f t="array" ref="Z34">IF(AND(O34&lt;&gt;"",SUM(T34:W34)=3),SUMPRODUCT(P$2:S$2,1-T34:W34),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AA34" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB34" s="2">
         <f t="shared" si="19"/>
@@ -9505,15 +9652,15 @@
       </c>
       <c r="AD34" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF34" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG34" s="2">
         <f t="shared" si="24"/>
@@ -9525,7 +9672,7 @@
       </c>
       <c r="AI34" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="2">
         <f t="shared" si="27"/>
@@ -9557,26 +9704,26 @@
         <v>0</v>
       </c>
       <c r="B35" s="5">
-        <v>209</v>
+        <v>409</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B35/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B35,100),ROUNDDOWN(Tipps!B35/100,0))</f>
-        <v>KC  vs MIA</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B35/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B35,100),ROUNDDOWN(B35/100,0))</f>
+        <v xml:space="preserve">LAR at GB </v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>186</v>
+        <v>281</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J35" s="14">
         <f t="shared" si="12"/>
@@ -9584,35 +9731,35 @@
       </c>
       <c r="K35" s="14">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L35" s="14">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M35" s="14">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O35" s="2" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">KC </v>
+        <v xml:space="preserve">GB </v>
       </c>
       <c r="P35" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">KC </v>
+        <v xml:space="preserve">GB </v>
       </c>
       <c r="Q35" s="2" t="str">
         <f t="shared" si="47"/>
-        <v>MIA</v>
+        <v xml:space="preserve">GB </v>
       </c>
       <c r="R35" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">KC </v>
+        <v xml:space="preserve">GB </v>
       </c>
       <c r="S35" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">KC </v>
+        <v xml:space="preserve">GB </v>
       </c>
       <c r="T35" s="2">
         <f t="shared" ref="T35:T68" si="49">(P35=$O35)*1</f>
@@ -9620,7 +9767,7 @@
       </c>
       <c r="U35" s="2">
         <f t="shared" ref="U35:U68" si="50">(Q35=$O35)*1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" s="2">
         <f t="shared" ref="V35:V68" si="51">(R35=$O35)*1</f>
@@ -9632,19 +9779,19 @@
       </c>
       <c r="X35" s="2">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="2" t="str">
         <f t="shared" ref="Y35:Y68" si="53">IF(AND(O35&lt;&gt;"",SUM(T35:W35)=1),SUMPRODUCT(P$2:S$2,T35:W35),"")</f>
         <v/>
       </c>
-      <c r="Z35" s="2" cm="1">
+      <c r="Z35" s="2" t="str" cm="1">
         <f t="array" ref="Z35">IF(AND(O35&lt;&gt;"",SUM(T35:W35)=3),SUMPRODUCT(P$2:S$2,1-T35:W35),"")</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="AA35" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB35" s="2">
         <f t="shared" si="19"/>
@@ -9652,19 +9799,19 @@
       </c>
       <c r="AC35" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" s="2">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE35" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>14</v>
+        <v>03</v>
       </c>
       <c r="AG35" s="2">
         <f t="shared" si="24"/>
@@ -9711,23 +9858,23 @@
         <v>309</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B36/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B36,100),ROUNDDOWN(Tipps!B36/100,0))</f>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B36/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B36,100),ROUNDDOWN(B36/100,0))</f>
         <v>MIN at ATL</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J36" s="14">
         <f t="shared" si="12"/>
@@ -9859,70 +10006,70 @@
         <v>0</v>
       </c>
       <c r="B37" s="5">
-        <v>409</v>
+        <v>109</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B37/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B37,100),ROUNDDOWN(Tipps!B37/100,0))</f>
-        <v xml:space="preserve">LAR at GB </v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B37/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B37,100),ROUNDDOWN(B37/100,0))</f>
+        <v>NE  vs WAS</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="E37" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>282</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>286</v>
       </c>
       <c r="J37" s="14">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K37" s="14">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L37" s="14">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M37" s="14">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O37" s="2" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">GB </v>
+        <v>WAS</v>
       </c>
       <c r="P37" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">GB </v>
+        <v xml:space="preserve">NE </v>
       </c>
       <c r="Q37" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">GB </v>
+        <v xml:space="preserve">NE </v>
       </c>
       <c r="R37" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">GB </v>
+        <v>WAS</v>
       </c>
       <c r="S37" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">GB </v>
+        <v xml:space="preserve">NE </v>
       </c>
       <c r="T37" s="2">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="2">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37" s="2">
         <f t="shared" si="51"/>
@@ -9930,15 +10077,15 @@
       </c>
       <c r="W37" s="2">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="2" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y37" s="2">
         <f t="shared" si="53"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="Z37" s="2" t="str" cm="1">
         <f t="array" ref="Z37">IF(AND(O37&lt;&gt;"",SUM(T37:W37)=3),SUMPRODUCT(P$2:S$2,1-T37:W37),"")</f>
@@ -9954,7 +10101,7 @@
       </c>
       <c r="AC37" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="2">
         <f t="shared" si="21"/>
@@ -9966,7 +10113,7 @@
       </c>
       <c r="AF37" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>03</v>
+        <v>17</v>
       </c>
       <c r="AG37" s="2">
         <f t="shared" si="24"/>
@@ -9978,7 +10125,7 @@
       </c>
       <c r="AI37" s="2">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ37" s="2">
         <f t="shared" si="27"/>
@@ -10013,23 +10160,23 @@
         <v>110</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B38/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B38,100),ROUNDDOWN(Tipps!B38/100,0))</f>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B38/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B38,100),ROUNDDOWN(B38/100,0))</f>
         <v>NE  vs IND</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E38" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>292</v>
-      </c>
       <c r="H38" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J38" s="14">
         <f t="shared" si="12"/>
@@ -10164,23 +10311,23 @@
         <v>310</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B39/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B39,100),ROUNDDOWN(Tipps!B39/100,0))</f>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B39/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B39,100),ROUNDDOWN(B39/100,0))</f>
         <v xml:space="preserve">MIN vs NO </v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F39" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="G39" s="11" t="s">
-        <v>295</v>
-      </c>
       <c r="H39" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J39" s="14">
         <f t="shared" si="12"/>
@@ -10312,66 +10459,66 @@
         <v>0</v>
       </c>
       <c r="B40" s="5">
-        <v>211</v>
+        <v>411</v>
       </c>
       <c r="C40" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B40/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B40,100),ROUNDDOWN(Tipps!B40/100,0))</f>
-        <v>KC  vs PHI</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B40/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B40,100),ROUNDDOWN(B40/100,0))</f>
+        <v>LAR vs SEA</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>301</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>193</v>
+        <v>304</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="J40" s="14">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K40" s="14">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="14">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M40" s="14">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O40" s="2" t="str">
         <f t="shared" si="48"/>
-        <v>PHI</v>
+        <v>LAR</v>
       </c>
       <c r="P40" s="2" t="str">
         <f t="shared" si="47"/>
-        <v>PHI</v>
+        <v>SEA</v>
       </c>
       <c r="Q40" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">KC </v>
+        <v>SEA</v>
       </c>
       <c r="R40" s="2" t="str">
         <f t="shared" si="47"/>
-        <v>PHI</v>
+        <v>SEA</v>
       </c>
       <c r="S40" s="2" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">KC </v>
+        <v>LAR</v>
       </c>
       <c r="T40" s="2">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="2">
         <f t="shared" si="50"/>
@@ -10379,19 +10526,19 @@
       </c>
       <c r="V40" s="2">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="2">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X40" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="2" t="str">
+        <v>4</v>
+      </c>
+      <c r="Y40" s="2">
         <f t="shared" si="53"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="Z40" s="2" t="str" cm="1">
         <f t="array" ref="Z40">IF(AND(O40&lt;&gt;"",SUM(T40:W40)=3),SUMPRODUCT(P$2:S$2,1-T40:W40),"")</f>
@@ -10399,15 +10546,15 @@
       </c>
       <c r="AA40" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB40" s="2">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="2">
         <f t="shared" si="21"/>
@@ -10415,11 +10562,11 @@
       </c>
       <c r="AE40" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG40" s="2">
         <f t="shared" si="24"/>
@@ -10466,23 +10613,23 @@
         <v>311</v>
       </c>
       <c r="C41" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B41/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B41,100),ROUNDDOWN(Tipps!B41/100,0))</f>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B41/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B41,100),ROUNDDOWN(B41/100,0))</f>
         <v>MIN at DEN</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>85</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J41" s="14">
         <f t="shared" si="12"/>
@@ -10614,66 +10761,66 @@
         <v>0</v>
       </c>
       <c r="B42" s="5">
-        <v>411</v>
+        <v>211</v>
       </c>
       <c r="C42" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B42/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B42,100),ROUNDDOWN(Tipps!B42/100,0))</f>
-        <v>LAR vs SEA</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B42/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B42,100),ROUNDDOWN(B42/100,0))</f>
+        <v>KC  vs PHI</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>303</v>
+        <v>44</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>305</v>
+        <v>192</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="J42" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K42" s="14">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="14">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M42" s="14">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O42" s="2" t="str">
         <f t="shared" si="48"/>
-        <v>LAR</v>
+        <v>PHI</v>
       </c>
       <c r="P42" s="2" t="str">
         <f t="shared" si="48"/>
-        <v>SEA</v>
+        <v>PHI</v>
       </c>
       <c r="Q42" s="2" t="str">
         <f t="shared" si="48"/>
-        <v>SEA</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="R42" s="2" t="str">
         <f t="shared" si="48"/>
-        <v>SEA</v>
+        <v>PHI</v>
       </c>
       <c r="S42" s="2" t="str">
         <f t="shared" si="48"/>
-        <v>LAR</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="T42" s="2">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" s="2">
         <f t="shared" si="50"/>
@@ -10681,19 +10828,19 @@
       </c>
       <c r="V42" s="2">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42" s="2">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" s="2">
         <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="Y42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2" t="str">
         <f t="shared" si="53"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="Z42" s="2" t="str" cm="1">
         <f t="array" ref="Z42">IF(AND(O42&lt;&gt;"",SUM(T42:W42)=3),SUMPRODUCT(P$2:S$2,1-T42:W42),"")</f>
@@ -10701,15 +10848,15 @@
       </c>
       <c r="AA42" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB42" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" s="2">
         <f t="shared" si="21"/>
@@ -10717,11 +10864,11 @@
       </c>
       <c r="AE42" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF42" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG42" s="2">
         <f t="shared" si="24"/>
@@ -10768,23 +10915,23 @@
         <v>112</v>
       </c>
       <c r="C43" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B43/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B43,100),ROUNDDOWN(Tipps!B43/100,0))</f>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B43/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B43,100),ROUNDDOWN(B43/100,0))</f>
         <v>NE  at NYG</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J43" s="14">
         <f t="shared" si="12"/>
@@ -10916,26 +11063,26 @@
         <v>1</v>
       </c>
       <c r="B44" s="5">
-        <v>212</v>
+        <v>412</v>
       </c>
       <c r="C44" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B44/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B44,100),ROUNDDOWN(Tipps!B44/100,0))</f>
-        <v xml:space="preserve">KC  at LV </v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B44/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B44,100),ROUNDDOWN(B44/100,0))</f>
+        <v>LAR at ARI</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>28</v>
+        <v>322</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>217</v>
+        <v>320</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>246</v>
+        <v>319</v>
       </c>
       <c r="J44" s="14">
         <f t="shared" si="12"/>
@@ -10943,7 +11090,7 @@
       </c>
       <c r="K44" s="14">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L44" s="14">
         <f t="shared" si="14"/>
@@ -10951,27 +11098,27 @@
       </c>
       <c r="M44" s="14">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O44" s="2" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">KC </v>
+        <v>LAR</v>
       </c>
       <c r="P44" s="2" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">KC </v>
+        <v>LAR</v>
       </c>
       <c r="Q44" s="2" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">KC </v>
+        <v>LAR</v>
       </c>
       <c r="R44" s="2" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">KC </v>
+        <v>LAR</v>
       </c>
       <c r="S44" s="2" t="str">
         <f t="shared" si="48"/>
-        <v xml:space="preserve">KC </v>
+        <v>LAR</v>
       </c>
       <c r="T44" s="2">
         <f t="shared" si="49"/>
@@ -11003,7 +11150,7 @@
       </c>
       <c r="AA44" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AB44" s="2">
         <f t="shared" si="19"/>
@@ -11023,7 +11170,7 @@
       </c>
       <c r="AF44" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG44" s="2">
         <f t="shared" si="24"/>
@@ -11031,7 +11178,7 @@
       </c>
       <c r="AH44" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI44" s="2">
         <f t="shared" si="26"/>
@@ -11039,7 +11186,7 @@
       </c>
       <c r="AJ44" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="20" t="b">
         <f>Tipps!A44&lt;&gt;Tipps!A45</f>
@@ -11067,78 +11214,78 @@
         <v>1</v>
       </c>
       <c r="B45" s="5">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="C45" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B45/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B45,100),ROUNDDOWN(Tipps!B45/100,0))</f>
-        <v>MIN vs CHI</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B45/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B45,100),ROUNDDOWN(B45/100,0))</f>
+        <v xml:space="preserve">KC  at LV </v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>324</v>
+        <v>28</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>312</v>
+        <v>44</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>314</v>
+        <v>216</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="J45" s="14">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K45" s="14">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L45" s="14">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M45" s="14">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O45" s="2" t="str">
         <f t="shared" si="48"/>
-        <v>CHI</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="P45" s="2" t="str">
         <f t="shared" si="48"/>
-        <v>MIN</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="Q45" s="2" t="str">
         <f t="shared" si="48"/>
-        <v>MIN</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="R45" s="2" t="str">
         <f t="shared" si="48"/>
-        <v>MIN</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="S45" s="2" t="str">
         <f t="shared" si="48"/>
-        <v>MIN</v>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="T45" s="2">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" s="2">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" s="2">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45" s="2">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" s="2">
         <f t="shared" si="17"/>
@@ -11154,7 +11301,7 @@
       </c>
       <c r="AA45" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="AB45" s="2">
         <f t="shared" si="19"/>
@@ -11174,7 +11321,7 @@
       </c>
       <c r="AF45" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AG45" s="2">
         <f t="shared" si="24"/>
@@ -11182,15 +11329,15 @@
       </c>
       <c r="AH45" s="2">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI45" s="2">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ45" s="2">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL45" s="20" t="b">
         <f>Tipps!A45&lt;&gt;Tipps!A46</f>
@@ -11218,78 +11365,78 @@
         <v>1</v>
       </c>
       <c r="B46" s="5">
-        <v>412</v>
+        <v>312</v>
       </c>
       <c r="C46" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B46/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B46,100),ROUNDDOWN(Tipps!B46/100,0))</f>
-        <v>LAR at ARI</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B46/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B46,100),ROUNDDOWN(B46/100,0))</f>
+        <v>MIN vs CHI</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>323</v>
       </c>
       <c r="E46" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>321</v>
-      </c>
       <c r="G46" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="J46" s="14">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K46" s="14">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L46" s="14">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M46" s="14">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O46" s="2" t="str">
         <f t="shared" si="48"/>
-        <v>LAR</v>
+        <v>CHI</v>
       </c>
       <c r="P46" s="2" t="str">
         <f t="shared" si="48"/>
-        <v>LAR</v>
+        <v>MIN</v>
       </c>
       <c r="Q46" s="2" t="str">
         <f t="shared" si="48"/>
-        <v>LAR</v>
+        <v>MIN</v>
       </c>
       <c r="R46" s="2" t="str">
         <f t="shared" si="48"/>
-        <v>LAR</v>
+        <v>MIN</v>
       </c>
       <c r="S46" s="2" t="str">
         <f t="shared" si="48"/>
-        <v>LAR</v>
+        <v>MIN</v>
       </c>
       <c r="T46" s="2">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="2">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46" s="2">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W46" s="2">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X46" s="2">
         <f t="shared" si="17"/>
@@ -11305,7 +11452,7 @@
       </c>
       <c r="AA46" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="AB46" s="2">
         <f t="shared" si="19"/>
@@ -11325,7 +11472,7 @@
       </c>
       <c r="AF46" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AG46" s="2">
         <f t="shared" si="24"/>
@@ -11337,7 +11484,7 @@
       </c>
       <c r="AI46" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ46" s="2">
         <f t="shared" si="27"/>
@@ -11372,49 +11519,59 @@
         <v>113</v>
       </c>
       <c r="C47" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B47/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B47,100),ROUNDDOWN(Tipps!B47/100,0))</f>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B47/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B47,100),ROUNDDOWN(B47/100,0))</f>
         <v>NE  vs LAC</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="J47" s="14" t="str">
+      <c r="D47" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="J47" s="14">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K47" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="K47" s="14">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L47" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="L47" s="14">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M47" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="M47" s="14">
         <f t="shared" si="15"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="O47" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>LAC</v>
       </c>
       <c r="P47" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>LAC</v>
       </c>
       <c r="Q47" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>LAC</v>
       </c>
       <c r="R47" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>LAC</v>
       </c>
       <c r="S47" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>LAC</v>
       </c>
       <c r="T47" s="2">
         <f t="shared" si="49"/>
@@ -11446,43 +11603,43 @@
       </c>
       <c r="AA47" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>06</v>
       </c>
       <c r="AB47" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD47" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF47" s="2" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>00</v>
       </c>
       <c r="AG47" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH47" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI47" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ47" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47" s="20" t="b">
         <f>Tipps!A47&lt;&gt;Tipps!A48</f>
@@ -11494,7 +11651,7 @@
       </c>
       <c r="AN47" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO47" s="20"/>
       <c r="AP47" s="20"/>
@@ -11510,56 +11667,66 @@
         <v>0</v>
       </c>
       <c r="B48" s="5">
-        <v>213</v>
+        <v>413</v>
       </c>
       <c r="C48" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B48/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B48,100),ROUNDDOWN(Tipps!B48/100,0))</f>
-        <v>KC  at GB</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="J48" s="14" t="str">
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B48/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B48,100),ROUNDDOWN(B48/100,0))</f>
+        <v>LAR vs CLE</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="J48" s="14">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K48" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="K48" s="14">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L48" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="L48" s="14">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M48" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="M48" s="14">
         <f t="shared" si="15"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="O48" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="P48" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>CLE</v>
       </c>
       <c r="Q48" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="R48" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="S48" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="T48" s="2">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" s="2">
         <f t="shared" si="50"/>
@@ -11575,55 +11742,55 @@
       </c>
       <c r="X48" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y48" s="2" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="Z48" s="2" t="str" cm="1">
+      <c r="Z48" s="2" cm="1">
         <f t="array" ref="Z48">IF(AND(O48&lt;&gt;"",SUM(T48:W48)=3),SUMPRODUCT(P$2:S$2,1-T48:W48),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AA48" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>36</v>
       </c>
       <c r="AB48" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD48" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="2" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>19</v>
       </c>
       <c r="AG48" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH48" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI48" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ48" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="20" t="b">
         <f>Tipps!A48&lt;&gt;Tipps!A49</f>
@@ -11635,7 +11802,7 @@
       </c>
       <c r="AN48" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO48" s="20"/>
       <c r="AP48" s="20"/>
@@ -11651,68 +11818,78 @@
         <v>0</v>
       </c>
       <c r="B49" s="5">
-        <v>413</v>
+        <v>213</v>
       </c>
       <c r="C49" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B49/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B49,100),ROUNDDOWN(Tipps!B49/100,0))</f>
-        <v>LAR vs CLE</v>
-      </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="J49" s="14" t="str">
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B49/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B49,100),ROUNDDOWN(B49/100,0))</f>
+        <v>KC  at GB</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="J49" s="14">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K49" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="K49" s="14">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L49" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="L49" s="14">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M49" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="M49" s="14">
         <f t="shared" si="15"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O49" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v xml:space="preserve">GB </v>
       </c>
       <c r="P49" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="Q49" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="R49" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="S49" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="T49" s="2">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49" s="2">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49" s="2">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49" s="2">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49" s="2">
         <f t="shared" si="17"/>
@@ -11728,43 +11905,43 @@
       </c>
       <c r="AA49" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>27</v>
       </c>
       <c r="AB49" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD49" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="2" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>19</v>
       </c>
       <c r="AG49" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH49" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI49" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ49" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49" s="20" t="b">
         <f>Tipps!A49&lt;&gt;Tipps!A50</f>
@@ -11776,7 +11953,7 @@
       </c>
       <c r="AN49" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO49" s="20"/>
       <c r="AP49" s="20"/>
@@ -11795,65 +11972,75 @@
         <v>114</v>
       </c>
       <c r="C50" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B50/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B50,100),ROUNDDOWN(Tipps!B50/100,0))</f>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B50/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B50,100),ROUNDDOWN(B50/100,0))</f>
         <v>NE  at PIT</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="J50" s="14" t="str">
+      <c r="D50" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="J50" s="14">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K50" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="K50" s="14">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L50" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="L50" s="14">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M50" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="M50" s="14">
         <f t="shared" si="15"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O50" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v xml:space="preserve">NE </v>
       </c>
       <c r="P50" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>PIT</v>
       </c>
       <c r="Q50" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>PIT</v>
       </c>
       <c r="R50" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>PIT</v>
       </c>
       <c r="S50" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>PIT</v>
       </c>
       <c r="T50" s="2">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50" s="2">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="2">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" s="2">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X50" s="2">
         <f t="shared" si="17"/>
@@ -11869,43 +12056,43 @@
       </c>
       <c r="AA50" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>21</v>
       </c>
       <c r="AB50" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC50" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD50" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE50" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="2" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>18</v>
       </c>
       <c r="AG50" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH50" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI50" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ50" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="20" t="b">
         <f>Tipps!A50&lt;&gt;Tipps!A51</f>
@@ -11917,7 +12104,7 @@
       </c>
       <c r="AN50" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO50" s="20"/>
       <c r="AP50" s="20"/>
@@ -11933,52 +12120,62 @@
         <v>1</v>
       </c>
       <c r="B51" s="5">
-        <v>214</v>
+        <v>414</v>
       </c>
       <c r="C51" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B51/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B51,100),ROUNDDOWN(Tipps!B51/100,0))</f>
-        <v>KC  vs BUF</v>
-      </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="J51" s="14" t="str">
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B51/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B51,100),ROUNDDOWN(B51/100,0))</f>
+        <v>LAR at BAL</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="J51" s="14">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K51" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="K51" s="14">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L51" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="L51" s="14">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M51" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="M51" s="14">
         <f t="shared" si="15"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="O51" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>BAL</v>
       </c>
       <c r="P51" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>BAL</v>
       </c>
       <c r="Q51" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>BAL</v>
       </c>
       <c r="R51" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>BAL</v>
       </c>
       <c r="S51" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>BAL</v>
       </c>
       <c r="T51" s="2">
         <f t="shared" si="49"/>
@@ -12010,43 +12207,43 @@
       </c>
       <c r="AA51" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>37</v>
       </c>
       <c r="AB51" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC51" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD51" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="2" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>31</v>
       </c>
       <c r="AG51" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH51" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI51" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ51" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51" s="20" t="b">
         <f>Tipps!A51&lt;&gt;Tipps!A52</f>
@@ -12058,7 +12255,7 @@
       </c>
       <c r="AN51" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO51" s="20"/>
       <c r="AP51" s="20"/>
@@ -12074,52 +12271,62 @@
         <v>1</v>
       </c>
       <c r="B52" s="5">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="C52" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B52/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B52,100),ROUNDDOWN(Tipps!B52/100,0))</f>
-        <v xml:space="preserve">MIN at LV </v>
-      </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="J52" s="14" t="str">
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B52/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B52,100),ROUNDDOWN(B52/100,0))</f>
+        <v>KC  vs BUF</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J52" s="14">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K52" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="K52" s="14">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L52" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="L52" s="14">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M52" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="M52" s="14">
         <f t="shared" si="15"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O52" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>BUF</v>
       </c>
       <c r="P52" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>BUF</v>
       </c>
       <c r="Q52" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="R52" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>BUF</v>
       </c>
       <c r="S52" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="T52" s="2">
         <f t="shared" si="49"/>
@@ -12127,7 +12334,7 @@
       </c>
       <c r="U52" s="2">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52" s="2">
         <f t="shared" si="51"/>
@@ -12135,7 +12342,7 @@
       </c>
       <c r="W52" s="2">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X52" s="2">
         <f t="shared" si="17"/>
@@ -12151,43 +12358,43 @@
       </c>
       <c r="AA52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="AB52" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD52" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF52" s="2" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>17</v>
       </c>
       <c r="AG52" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH52" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI52" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ52" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="20" t="b">
         <f>Tipps!A52&lt;&gt;Tipps!A53</f>
@@ -12199,7 +12406,7 @@
       </c>
       <c r="AN52" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO52" s="20"/>
       <c r="AP52" s="20"/>
@@ -12215,52 +12422,62 @@
         <v>1</v>
       </c>
       <c r="B53" s="5">
-        <v>414</v>
+        <v>314</v>
       </c>
       <c r="C53" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B53/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B53,100),ROUNDDOWN(Tipps!B53/100,0))</f>
-        <v>LAR at BAL</v>
-      </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="J53" s="14" t="str">
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B53/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B53,100),ROUNDDOWN(B53/100,0))</f>
+        <v xml:space="preserve">MIN at LV </v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="J53" s="14">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K53" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="K53" s="14">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L53" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="L53" s="14">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M53" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="M53" s="14">
         <f t="shared" si="15"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="O53" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="P53" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="Q53" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="R53" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="S53" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="T53" s="2">
         <f t="shared" si="49"/>
@@ -12292,43 +12509,43 @@
       </c>
       <c r="AA53" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>03</v>
       </c>
       <c r="AB53" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD53" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="2" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>00</v>
       </c>
       <c r="AG53" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH53" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI53" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ53" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="20" t="b">
         <f>Tipps!A53&lt;&gt;Tipps!A54</f>
@@ -12340,7 +12557,7 @@
       </c>
       <c r="AN53" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO53" s="20"/>
       <c r="AP53" s="20"/>
@@ -12356,55 +12573,62 @@
         <v>0</v>
       </c>
       <c r="B54" s="5">
-        <v>115</v>
+        <v>315</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B54/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B54,100),ROUNDDOWN(Tipps!B54/100,0))</f>
-        <v>NE  vs KC</v>
-      </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J54" s="14" t="str">
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B54/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B54,100),ROUNDDOWN(B54/100,0))</f>
+        <v>MIN at CIN</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="J54" s="14">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K54" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="K54" s="14">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L54" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="L54" s="14">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M54" s="14" t="str">
+        <v>4</v>
+      </c>
+      <c r="M54" s="14">
         <f t="shared" si="15"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="O54" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>CIN</v>
       </c>
       <c r="P54" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>CIN</v>
       </c>
       <c r="Q54" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="R54" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>CIN</v>
       </c>
       <c r="S54" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>CIN</v>
       </c>
       <c r="T54" s="2">
         <f t="shared" si="49"/>
@@ -12412,7 +12636,7 @@
       </c>
       <c r="U54" s="2">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54" s="2">
         <f t="shared" si="51"/>
@@ -12424,27 +12648,27 @@
       </c>
       <c r="X54" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y54" s="2" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="Z54" s="2" t="str" cm="1">
+      <c r="Z54" s="2" cm="1">
         <f t="array" ref="Z54">IF(AND(O54&lt;&gt;"",SUM(T54:W54)=3),SUMPRODUCT(P$2:S$2,1-T54:W54),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AA54" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>27</v>
       </c>
       <c r="AB54" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD54" s="2">
         <f t="shared" si="21"/>
@@ -12452,27 +12676,27 @@
       </c>
       <c r="AE54" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="2" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>24</v>
       </c>
       <c r="AG54" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH54" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ54" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="20" t="b">
         <f>Tipps!A54&lt;&gt;Tipps!A55</f>
@@ -12484,7 +12708,7 @@
       </c>
       <c r="AN54" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO54" s="20"/>
       <c r="AP54" s="20"/>
@@ -12500,52 +12724,65 @@
         <v>0</v>
       </c>
       <c r="B55" s="5">
-        <v>315</v>
+        <v>115</v>
       </c>
       <c r="C55" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B55/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B55,100),ROUNDDOWN(Tipps!B55/100,0))</f>
-        <v>MIN at CIN</v>
-      </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="J55" s="14" t="str">
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B55/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B55,100),ROUNDDOWN(B55/100,0))</f>
+        <v>NE  vs KC</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J55" s="14">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K55" s="14" t="str">
+        <v>8</v>
+      </c>
+      <c r="K55" s="14">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L55" s="14" t="str">
+        <v>6</v>
+      </c>
+      <c r="L55" s="14">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M55" s="14" t="str">
+        <v>6</v>
+      </c>
+      <c r="M55" s="14">
         <f t="shared" si="15"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="O55" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="P55" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="Q55" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="R55" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="S55" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="T55" s="2">
         <f t="shared" si="49"/>
@@ -12577,7 +12814,7 @@
       </c>
       <c r="AA55" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>27</v>
       </c>
       <c r="AB55" s="2">
         <f t="shared" si="19"/>
@@ -12585,35 +12822,35 @@
       </c>
       <c r="AC55" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD55" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE55" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF55" s="2" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>17</v>
       </c>
       <c r="AG55" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH55" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI55" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ55" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55" s="20" t="b">
         <f>Tipps!A55&lt;&gt;Tipps!A56</f>
@@ -12625,7 +12862,7 @@
       </c>
       <c r="AN55" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO55" s="20"/>
       <c r="AP55" s="20"/>
@@ -12644,49 +12881,59 @@
         <v>415</v>
       </c>
       <c r="C56" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B56/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B56,100),ROUNDDOWN(Tipps!B56/100,0))</f>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B56/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B56,100),ROUNDDOWN(B56/100,0))</f>
         <v>LAR vs WAS</v>
       </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="J56" s="14" t="str">
+      <c r="D56" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="J56" s="14">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K56" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="K56" s="14">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L56" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="L56" s="14">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M56" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="M56" s="14">
         <f t="shared" si="15"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="O56" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="P56" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="Q56" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="R56" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="S56" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="T56" s="2">
         <f t="shared" si="49"/>
@@ -12718,19 +12965,19 @@
       </c>
       <c r="AA56" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>28</v>
       </c>
       <c r="AB56" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC56" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD56" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="2">
         <f t="shared" si="22"/>
@@ -12738,23 +12985,23 @@
       </c>
       <c r="AF56" s="2" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="AG56" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH56" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI56" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ56" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" s="20" t="b">
         <f>Tipps!A56&lt;&gt;Tipps!A57</f>
@@ -12766,7 +13013,7 @@
       </c>
       <c r="AN56" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO56" s="20"/>
       <c r="AP56" s="20"/>
@@ -12782,11 +13029,11 @@
         <v>1</v>
       </c>
       <c r="B57" s="5">
-        <v>116</v>
+        <v>416</v>
       </c>
       <c r="C57" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B57/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B57,100),ROUNDDOWN(Tipps!B57/100,0))</f>
-        <v>NE  at DEN</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B57/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B57,100),ROUNDDOWN(B57/100,0))</f>
+        <v xml:space="preserve">LAR vs NO </v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="11"/>
@@ -12923,11 +13170,11 @@
         <v>1</v>
       </c>
       <c r="B58" s="5">
-        <v>216</v>
+        <v>316</v>
       </c>
       <c r="C58" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B58/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B58,100),ROUNDDOWN(Tipps!B58/100,0))</f>
-        <v xml:space="preserve">KC  vs LV </v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B58/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B58,100),ROUNDDOWN(B58/100,0))</f>
+        <v>MIN vs DET</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="11"/>
@@ -13064,11 +13311,11 @@
         <v>1</v>
       </c>
       <c r="B59" s="5">
-        <v>316</v>
+        <v>116</v>
       </c>
       <c r="C59" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B59/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B59,100),ROUNDDOWN(Tipps!B59/100,0))</f>
-        <v>MIN vs DET</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B59/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B59,100),ROUNDDOWN(B59/100,0))</f>
+        <v>NE  at DEN</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="11"/>
@@ -13205,11 +13452,11 @@
         <v>1</v>
       </c>
       <c r="B60" s="5">
-        <v>416</v>
+        <v>216</v>
       </c>
       <c r="C60" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B60/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B60,100),ROUNDDOWN(Tipps!B60/100,0))</f>
-        <v xml:space="preserve">LAR vs NO </v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B60/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B60,100),ROUNDDOWN(B60/100,0))</f>
+        <v xml:space="preserve">KC  vs LV </v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="11"/>
@@ -13346,11 +13593,11 @@
         <v>0</v>
       </c>
       <c r="B61" s="5">
-        <v>117</v>
+        <v>417</v>
       </c>
       <c r="C61" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B61/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B61,100),ROUNDDOWN(Tipps!B61/100,0))</f>
-        <v>NE  at BUF</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B61/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B61,100),ROUNDDOWN(B61/100,0))</f>
+        <v>LAR at NYG</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="11"/>
@@ -13487,11 +13734,11 @@
         <v>0</v>
       </c>
       <c r="B62" s="5">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="C62" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B62/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B62,100),ROUNDDOWN(Tipps!B62/100,0))</f>
-        <v>KC  vs CIN</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B62/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B62,100),ROUNDDOWN(B62/100,0))</f>
+        <v>NE  at BUF</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="11"/>
@@ -13628,11 +13875,11 @@
         <v>0</v>
       </c>
       <c r="B63" s="5">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="C63" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B63/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B63,100),ROUNDDOWN(Tipps!B63/100,0))</f>
-        <v xml:space="preserve">MIN vs GB </v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B63/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B63,100),ROUNDDOWN(B63/100,0))</f>
+        <v>KC  vs CIN</v>
       </c>
       <c r="D63" s="10"/>
       <c r="E63" s="11"/>
@@ -13769,11 +14016,11 @@
         <v>0</v>
       </c>
       <c r="B64" s="5">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="C64" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B64/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B64,100),ROUNDDOWN(Tipps!B64/100,0))</f>
-        <v>LAR at NYG</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B64/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B64,100),ROUNDDOWN(B64/100,0))</f>
+        <v xml:space="preserve">MIN vs GB </v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="11"/>
@@ -13913,7 +14160,7 @@
         <v>118</v>
       </c>
       <c r="C65" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B65/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B65,100),ROUNDDOWN(Tipps!B65/100,0))</f>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B65/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B65,100),ROUNDDOWN(B65/100,0))</f>
         <v>NE  vs NYJ</v>
       </c>
       <c r="D65" s="10"/>
@@ -14051,11 +14298,11 @@
         <v>1</v>
       </c>
       <c r="B66" s="5">
-        <v>218</v>
+        <v>318</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B66/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B66,100),ROUNDDOWN(Tipps!B66/100,0))</f>
-        <v>KC  at LAC</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B66/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B66,100),ROUNDDOWN(B66/100,0))</f>
+        <v>MIN at DET</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="11"/>
@@ -14192,11 +14439,11 @@
         <v>1</v>
       </c>
       <c r="B67" s="5">
-        <v>318</v>
+        <v>418</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B67/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B67,100),ROUNDDOWN(Tipps!B67/100,0))</f>
-        <v>MIN at DET</v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B67/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B67,100),ROUNDDOWN(B67/100,0))</f>
+        <v xml:space="preserve">LAR at SF </v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="11"/>
@@ -14333,11 +14580,11 @@
         <v>1</v>
       </c>
       <c r="B68" s="5">
-        <v>418</v>
+        <v>218</v>
       </c>
       <c r="C68" s="1" t="str">
-        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(Tipps!B68/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B68,100),ROUNDDOWN(Tipps!B68/100,0))</f>
-        <v xml:space="preserve">LAR at SF </v>
+        <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B68/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B68,100),ROUNDDOWN(B68/100,0))</f>
+        <v>KC  at LAC</v>
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="11"/>
@@ -14491,7 +14738,9 @@
       <c r="C70" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D70" s="12"/>
+      <c r="D70" s="12" t="s">
+        <v>363</v>
+      </c>
       <c r="E70" s="11" t="s">
         <v>96</v>
       </c>
@@ -14504,21 +14753,21 @@
       <c r="H70" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="J70" s="16" t="str">
+      <c r="J70" s="16">
         <f t="shared" ref="J70:M73" si="71">IF($D70="","",P70*10)</f>
-        <v/>
-      </c>
-      <c r="K70" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="K70" s="16">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="L70" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="L70" s="16">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="M70" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="M70" s="16">
         <f t="shared" si="71"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" ref="P70:S73" si="72">(E70=$D70)*1</f>
@@ -14535,6 +14784,30 @@
       <c r="S70" s="2">
         <f t="shared" si="72"/>
         <v>0</v>
+      </c>
+      <c r="U70" s="2">
+        <f>LEN(D70)</f>
+        <v>5</v>
+      </c>
+      <c r="V70" s="2">
+        <f>IF(U70=5,2,IF(U70=9,3,IF(U70=13,4,0)))</f>
+        <v>2</v>
+      </c>
+      <c r="X70" s="2" t="str">
+        <f>IF(V70&gt;0,LEFT(D70,1),"")</f>
+        <v>3</v>
+      </c>
+      <c r="Y70" s="2" t="str">
+        <f>IF(V70&gt;1,MID(D70,5,1),"")</f>
+        <v>4</v>
+      </c>
+      <c r="Z70" s="2" t="str">
+        <f>IF(V70&gt;2,MID(D70,9,1),"")</f>
+        <v/>
+      </c>
+      <c r="AA70" s="2" t="str">
+        <f>IF(V70&gt;3,MID(D70,13,1),"")</f>
+        <v/>
       </c>
     </row>
     <row r="71" spans="1:47" ht="15" x14ac:dyDescent="0.2">
@@ -14544,7 +14817,9 @@
       <c r="C71" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D71" s="12"/>
+      <c r="D71" s="12" t="s">
+        <v>365</v>
+      </c>
       <c r="E71" s="11" t="s">
         <v>101</v>
       </c>
@@ -14557,21 +14832,21 @@
       <c r="H71" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J71" s="16" t="str">
+      <c r="J71" s="16">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="K71" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="K71" s="16">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="L71" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="L71" s="16">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="M71" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="M71" s="16">
         <f t="shared" si="71"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="72"/>
@@ -14588,6 +14863,30 @@
       <c r="S71" s="2">
         <f t="shared" si="72"/>
         <v>0</v>
+      </c>
+      <c r="U71" s="2">
+        <f t="shared" ref="U71:U73" si="73">LEN(D71)</f>
+        <v>9</v>
+      </c>
+      <c r="V71" s="2">
+        <f t="shared" ref="V71:V73" si="74">IF(U71=5,2,IF(U71=9,3,IF(U71=13,4,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="X71" s="2" t="str">
+        <f>IF(V71&gt;0,LEFT(D71,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y71" s="2" t="str">
+        <f>IF(V71&gt;1,MID(D71,5,1),"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z71" s="2" t="str">
+        <f>IF(V71&gt;2,MID(D71,9,1),"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA71" s="2" t="str">
+        <f>IF(V71&gt;3,MID(D71,13,1),"")</f>
+        <v/>
       </c>
     </row>
     <row r="72" spans="1:47" ht="15" x14ac:dyDescent="0.2">
@@ -14597,7 +14896,9 @@
       <c r="C72" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D72" s="12"/>
+      <c r="D72" s="12" t="s">
+        <v>364</v>
+      </c>
       <c r="E72" s="11" t="s">
         <v>97</v>
       </c>
@@ -14610,21 +14911,21 @@
       <c r="H72" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="J72" s="16" t="str">
+      <c r="J72" s="16">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="K72" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="K72" s="16">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="L72" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="L72" s="16">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="M72" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="M72" s="16">
         <f t="shared" si="71"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P72" s="2">
         <f t="shared" si="72"/>
@@ -14641,6 +14942,30 @@
       <c r="S72" s="2">
         <f t="shared" si="72"/>
         <v>0</v>
+      </c>
+      <c r="U72" s="2">
+        <f t="shared" si="73"/>
+        <v>13</v>
+      </c>
+      <c r="V72" s="2">
+        <f t="shared" si="74"/>
+        <v>4</v>
+      </c>
+      <c r="X72" s="2" t="str">
+        <f>IF(V72&gt;0,LEFT(D72,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y72" s="2" t="str">
+        <f>IF(V72&gt;1,MID(D72,5,1),"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z72" s="2" t="str">
+        <f>IF(V72&gt;2,MID(D72,9,1),"")</f>
+        <v>3</v>
+      </c>
+      <c r="AA72" s="2" t="str">
+        <f>IF(V72&gt;3,MID(D72,13,1),"")</f>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:47" ht="15" x14ac:dyDescent="0.2">
@@ -14650,7 +14975,9 @@
       <c r="C73" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D73" s="12"/>
+      <c r="D73" s="12" t="s">
+        <v>366</v>
+      </c>
       <c r="E73" s="11" t="s">
         <v>98</v>
       </c>
@@ -14663,21 +14990,21 @@
       <c r="H73" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="J73" s="16" t="str">
+      <c r="J73" s="16">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="K73" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="K73" s="16">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="L73" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="L73" s="16">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="M73" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="M73" s="16">
         <f t="shared" si="71"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="72"/>
@@ -14694,6 +15021,30 @@
       <c r="S73" s="2">
         <f t="shared" si="72"/>
         <v>0</v>
+      </c>
+      <c r="U73" s="2">
+        <f t="shared" si="73"/>
+        <v>5</v>
+      </c>
+      <c r="V73" s="2">
+        <f t="shared" si="74"/>
+        <v>2</v>
+      </c>
+      <c r="X73" s="2" t="str">
+        <f>IF(V73&gt;0,LEFT(D73,1))</f>
+        <v>2</v>
+      </c>
+      <c r="Y73" s="2" t="str">
+        <f>IF(V73&gt;1,MID(D73,5,1),"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z73" s="2" t="str">
+        <f>IF(V73&gt;2,MID(D73,9,1),"")</f>
+        <v/>
+      </c>
+      <c r="AA73" s="2" t="str">
+        <f>IF(V73&gt;3,MID(D73,13,1),"")</f>
+        <v/>
       </c>
     </row>
     <row r="75" spans="1:47" x14ac:dyDescent="0.2">
@@ -14703,21 +15054,36 @@
     </row>
     <row r="76" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>107</v>
+        <v>367</v>
       </c>
     </row>
     <row r="78" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>230</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:S1"/>
     <mergeCell ref="BE11:BF11"/>
     <mergeCell ref="BG11:BH11"/>
     <mergeCell ref="AA1:AE1"/>
@@ -14730,34 +15096,29 @@
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AZ1:BC1"/>
     <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B3:M68">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>$A3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:H68">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(LEN(D3)=9,$A3=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>AND(LEN(D3)=9,$A3=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:H68">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>COLUMN(E3)-4=$X3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:H73">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>COUNTIF($X70:$AA70,LEFT(E70,1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -14769,9 +15130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14783,7 +15142,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B1" s="26">
         <f>INDEX(Tipps!$BE$7:$BH$7,Tipps!BE13)</f>
@@ -14799,12 +15158,12 @@
       </c>
       <c r="E1" s="26">
         <f>INDEX(Tipps!$BE$7:$BH$7,Tipps!BH13)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B2" s="27" t="str">
         <f>IF(B1=1,"essen","zahlen")</f>
@@ -14825,7 +15184,7 @@
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3" s="24" t="str">
         <f>INDEX(Tipps!$E$2:$H$2,Tipps!BE13)</f>
@@ -14837,7 +15196,7 @@
       </c>
       <c r="D3" s="24" t="str">
         <f>INDEX(Tipps!$E$2:$H$2,Tipps!BG13)</f>
-        <v>Thomas</v>
+        <v>Jasmin</v>
       </c>
       <c r="E3" s="24" t="str">
         <f>INDEX(Tipps!$E$2:$H$2,Tipps!BH13)</f>
@@ -14859,19 +15218,19 @@
       </c>
       <c r="B5" s="23">
         <f>INDEX(Tipps!$BE$3:$BH$3,Tipps!BE13)</f>
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C5" s="23">
         <f>INDEX(Tipps!$BE$3:$BH$3,Tipps!BF13)</f>
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D5" s="23">
         <f>INDEX(Tipps!$BE$3:$BH$3,Tipps!BG13)</f>
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="E5" s="23">
         <f>INDEX(Tipps!$BE$3:$BH$3,Tipps!BH13)</f>
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="F5" s="14"/>
     </row>
@@ -14881,15 +15240,15 @@
       </c>
       <c r="B6" s="17">
         <f>INDEX(Tipps!$BE$4:$BH$4,Tipps!BE13)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="17">
         <f>INDEX(Tipps!$BE$4:$BH$4,Tipps!BF13)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="17">
         <f>INDEX(Tipps!$BE$4:$BH$4,Tipps!BG13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="17">
         <f>INDEX(Tipps!$BE$4:$BH$4,Tipps!BH13)</f>
@@ -14908,7 +15267,7 @@
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
@@ -14938,19 +15297,19 @@
     <row r="10" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="G10" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="39"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
@@ -14967,7 +15326,7 @@
       </c>
       <c r="D12" s="28">
         <f ca="1">INDEX(Tipps!$AV3:$AY3,Tipps!BG$13)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" s="28">
         <f ca="1">INDEX(Tipps!$AV3:$AY3,Tipps!BH$13)</f>
@@ -14976,7 +15335,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="29">
         <f ca="1">SUM(B12:E12)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15021,7 +15380,7 @@
       </c>
       <c r="D14" s="28">
         <f ca="1">INDEX(Tipps!$AV5:$AY5,Tipps!BG$13)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E14" s="28">
         <f ca="1">INDEX(Tipps!$AV5:$AY5,Tipps!BH$13)</f>
@@ -15030,7 +15389,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15075,7 +15434,7 @@
       </c>
       <c r="D16" s="28">
         <f ca="1">INDEX(Tipps!$AV7:$AY7,Tipps!BG$13)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16" s="28">
         <f ca="1">INDEX(Tipps!$AV7:$AY7,Tipps!BH$13)</f>
@@ -15084,7 +15443,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15129,7 +15488,7 @@
       </c>
       <c r="D18" s="28">
         <f ca="1">INDEX(Tipps!$AV9:$AY9,Tipps!BG$13)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E18" s="28">
         <f ca="1">INDEX(Tipps!$AV9:$AY9,Tipps!BH$13)</f>
@@ -15138,7 +15497,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15156,7 +15515,7 @@
       </c>
       <c r="D19" s="28">
         <f ca="1">INDEX(Tipps!$AV10:$AY10,Tipps!BG$13)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E19" s="28">
         <f ca="1">INDEX(Tipps!$AV10:$AY10,Tipps!BH$13)</f>
@@ -15165,7 +15524,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15183,7 +15542,7 @@
       </c>
       <c r="D20" s="28">
         <f ca="1">INDEX(Tipps!$AV11:$AY11,Tipps!BG$13)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E20" s="28">
         <f ca="1">INDEX(Tipps!$AV11:$AY11,Tipps!BH$13)</f>
@@ -15192,7 +15551,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15264,7 +15623,7 @@
       </c>
       <c r="D23" s="28">
         <f ca="1">INDEX(Tipps!$AV14:$AY14,Tipps!BG$13)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="28">
         <f ca="1">INDEX(Tipps!$AV14:$AY14,Tipps!BH$13)</f>
@@ -15273,7 +15632,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15281,26 +15640,26 @@
         <f>Tipps!AQ15</f>
         <v>13</v>
       </c>
-      <c r="B24" s="28" t="e">
+      <c r="B24" s="28">
         <f ca="1">INDEX(Tipps!$AV15:$AY15,Tipps!BE$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C24" s="28" t="e">
+        <v>6</v>
+      </c>
+      <c r="C24" s="28">
         <f ca="1">INDEX(Tipps!$AV15:$AY15,Tipps!BF$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D24" s="28" t="e">
+        <v>6</v>
+      </c>
+      <c r="D24" s="28">
         <f ca="1">INDEX(Tipps!$AV15:$AY15,Tipps!BG$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E24" s="28" t="e">
+        <v>3</v>
+      </c>
+      <c r="E24" s="28">
         <f ca="1">INDEX(Tipps!$AV15:$AY15,Tipps!BH$13)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="F24" s="18"/>
-      <c r="G24" s="29" t="e">
+      <c r="G24" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15308,26 +15667,26 @@
         <f>Tipps!AQ16</f>
         <v>14</v>
       </c>
-      <c r="B25" s="28" t="e">
+      <c r="B25" s="28">
         <f ca="1">INDEX(Tipps!$AV16:$AY16,Tipps!BE$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C25" s="28" t="e">
+        <v>9</v>
+      </c>
+      <c r="C25" s="28">
         <f ca="1">INDEX(Tipps!$AV16:$AY16,Tipps!BF$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D25" s="28" t="e">
+        <v>6</v>
+      </c>
+      <c r="D25" s="28">
         <f ca="1">INDEX(Tipps!$AV16:$AY16,Tipps!BG$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E25" s="28" t="e">
+        <v>9</v>
+      </c>
+      <c r="E25" s="28">
         <f ca="1">INDEX(Tipps!$AV16:$AY16,Tipps!BH$13)</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
       <c r="F25" s="18"/>
-      <c r="G25" s="29" t="e">
+      <c r="G25" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15335,26 +15694,26 @@
         <f>Tipps!AQ17</f>
         <v>15</v>
       </c>
-      <c r="B26" s="28" t="e">
+      <c r="B26" s="28">
         <f ca="1">INDEX(Tipps!$AV17:$AY17,Tipps!BE$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C26" s="28" t="e">
+        <v>13</v>
+      </c>
+      <c r="C26" s="28">
         <f ca="1">INDEX(Tipps!$AV17:$AY17,Tipps!BF$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D26" s="28" t="e">
+        <v>9</v>
+      </c>
+      <c r="D26" s="28">
         <f ca="1">INDEX(Tipps!$AV17:$AY17,Tipps!BG$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E26" s="28" t="e">
+        <v>14</v>
+      </c>
+      <c r="E26" s="28">
         <f ca="1">INDEX(Tipps!$AV17:$AY17,Tipps!BH$13)</f>
-        <v>#N/A</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18"/>
-      <c r="G26" s="29" t="e">
+      <c r="G26" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15443,7 +15802,7 @@
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B31" s="18">
         <f ca="1">_xlfn.AGGREGATE(5,2,B12:B29)</f>
@@ -15468,7 +15827,7 @@
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B32" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,B12:B29)</f>
@@ -15480,65 +15839,65 @@
       </c>
       <c r="D32" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,D12:D29)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E32" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,E12:E29)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G32" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,G12:G29)</f>
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B33" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,B12:B29)</f>
-        <v>7.333333333333333</v>
+        <v>7.7333333333333334</v>
       </c>
       <c r="C33" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,C12:C29)</f>
-        <v>7.166666666666667</v>
+        <v>7.1333333333333337</v>
       </c>
       <c r="D33" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,D12:D29)</f>
-        <v>6.166666666666667</v>
+        <v>6.6</v>
       </c>
       <c r="E33" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,E12:E29)</f>
-        <v>6.083333333333333</v>
+        <v>6.6</v>
       </c>
       <c r="G33" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,G12:G29)</f>
-        <v>26.75</v>
+        <v>28.066666666666666</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B34" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,B12:B29)</f>
-        <v>3.9228674319799399</v>
+        <v>3.8204130085051742</v>
       </c>
       <c r="C34" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,C12:C29)</f>
-        <v>3.3870669054835956</v>
+        <v>3.0955164709983731</v>
       </c>
       <c r="D34" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,D12:D29)</f>
-        <v>2.4094720491334933</v>
+        <v>2.9619813188697415</v>
       </c>
       <c r="E34" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,E12:E29)</f>
-        <v>2.1392496088322392</v>
+        <v>2.9619813188697415</v>
       </c>
       <c r="G34" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,G12:G29)</f>
-        <v>9.0657321822343722</v>
+        <v>9.794329425177045</v>
       </c>
     </row>
   </sheetData>
@@ -15659,329 +16018,329 @@
     <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>119</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="C5" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>129</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>133</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>138</v>
-      </c>
       <c r="E7" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>142</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>150</v>
-      </c>
       <c r="E10" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>153</v>
-      </c>
       <c r="E11" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>154</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>155</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>161</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>162</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="C16" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>165</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="C17" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>169</v>
-      </c>
       <c r="D17" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>171</v>
-      </c>
       <c r="D18" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="C19" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="D19" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>175</v>
-      </c>
       <c r="E19" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="C20" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="D20" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="E20" s="18" t="s">
         <v>179</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/2023_tipp.xlsx
+++ b/2023_tipp.xlsx
@@ -1564,6 +1564,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1574,15 +1583,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1597,6 +1597,52 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor auto="1"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1648,52 +1694,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor auto="1"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1750,7 +1750,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2270,7 +2269,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2408,7 +2406,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2484,7 +2481,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3533,113 +3529,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="B1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="B1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41" t="s">
+      <c r="E1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="39" t="str">
+      <c r="J1" s="37" t="str">
         <f>LEFT(E2,1)</f>
         <v>J</v>
       </c>
-      <c r="K1" s="39" t="str">
+      <c r="K1" s="37" t="str">
         <f>LEFT(F2,1)</f>
         <v>F</v>
       </c>
-      <c r="L1" s="39" t="str">
+      <c r="L1" s="37" t="str">
         <f>LEFT(G2,1)</f>
         <v>D</v>
       </c>
-      <c r="M1" s="39" t="str">
+      <c r="M1" s="37" t="str">
         <f>LEFT(H2,1)</f>
         <v>T</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35" t="s">
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35" t="s">
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35" t="s">
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AL1" s="35" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AL1" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="AM1" s="35"/>
+      <c r="AM1" s="38"/>
       <c r="AN1" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="AO1" s="35" t="s">
+      <c r="AO1" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35" t="s">
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35" t="s">
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35" t="s">
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BE1" s="35" t="s">
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="38"/>
+      <c r="BE1" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
+      <c r="BF1" s="38"/>
+      <c r="BG1" s="38"/>
+      <c r="BH1" s="38"/>
     </row>
     <row r="2" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3652,11 +3648,11 @@
       <c r="H2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
       <c r="O2" s="2">
         <v>0</v>
       </c>
@@ -5700,14 +5696,14 @@
         <f ca="1">AU11/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO11))/200</f>
         <v>0.96011876484560577</v>
       </c>
-      <c r="BE11" s="35" t="s">
+      <c r="BE11" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="BF11" s="36"/>
-      <c r="BG11" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH11" s="38"/>
+      <c r="BF11" s="39"/>
+      <c r="BG11" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="41"/>
     </row>
     <row r="12" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -14790,23 +14786,23 @@
         <v>5</v>
       </c>
       <c r="V70" s="2">
-        <f>IF(U70=5,2,IF(U70=9,3,IF(U70=13,4,0)))</f>
+        <f>(U70+3)/4</f>
         <v>2</v>
       </c>
       <c r="X70" s="2" t="str">
-        <f>IF(V70&gt;0,LEFT(D70,1),"")</f>
+        <f>IF(V70&gt;=1,LEFT(D70,1),"")</f>
         <v>3</v>
       </c>
       <c r="Y70" s="2" t="str">
-        <f>IF(V70&gt;1,MID(D70,5,1),"")</f>
+        <f>IF(V70&gt;=2,MID(D70,5,1),"")</f>
         <v>4</v>
       </c>
       <c r="Z70" s="2" t="str">
-        <f>IF(V70&gt;2,MID(D70,9,1),"")</f>
+        <f>IF(V70&gt;=3,MID(D70,9,1),"")</f>
         <v/>
       </c>
       <c r="AA70" s="2" t="str">
-        <f>IF(V70&gt;3,MID(D70,13,1),"")</f>
+        <f>IF(V70&gt;=4,MID(D70,13,1),"")</f>
         <v/>
       </c>
     </row>
@@ -14865,27 +14861,27 @@
         <v>0</v>
       </c>
       <c r="U71" s="2">
-        <f t="shared" ref="U71:U73" si="73">LEN(D71)</f>
+        <f t="shared" ref="U71:U74" si="73">LEN(D71)</f>
         <v>9</v>
       </c>
       <c r="V71" s="2">
-        <f t="shared" ref="V71:V73" si="74">IF(U71=5,2,IF(U71=9,3,IF(U71=13,4,0)))</f>
+        <f t="shared" ref="V71:V74" si="74">(U71+3)/4</f>
         <v>3</v>
       </c>
       <c r="X71" s="2" t="str">
-        <f>IF(V71&gt;0,LEFT(D71,1))</f>
+        <f t="shared" ref="X71:X74" si="75">IF(V71&gt;=1,LEFT(D71,1),"")</f>
         <v>1</v>
       </c>
       <c r="Y71" s="2" t="str">
-        <f>IF(V71&gt;1,MID(D71,5,1),"")</f>
+        <f t="shared" ref="Y71:Y74" si="76">IF(V71&gt;=2,MID(D71,5,1),"")</f>
         <v>2</v>
       </c>
       <c r="Z71" s="2" t="str">
-        <f>IF(V71&gt;2,MID(D71,9,1),"")</f>
+        <f t="shared" ref="Z71:Z74" si="77">IF(V71&gt;=3,MID(D71,9,1),"")</f>
         <v>3</v>
       </c>
       <c r="AA71" s="2" t="str">
-        <f>IF(V71&gt;3,MID(D71,13,1),"")</f>
+        <f t="shared" ref="AA71:AA74" si="78">IF(V71&gt;=4,MID(D71,13,1),"")</f>
         <v/>
       </c>
     </row>
@@ -14952,19 +14948,19 @@
         <v>4</v>
       </c>
       <c r="X72" s="2" t="str">
-        <f>IF(V72&gt;0,LEFT(D72,1))</f>
+        <f t="shared" si="75"/>
         <v>1</v>
       </c>
       <c r="Y72" s="2" t="str">
-        <f>IF(V72&gt;1,MID(D72,5,1),"")</f>
+        <f t="shared" si="76"/>
         <v>2</v>
       </c>
       <c r="Z72" s="2" t="str">
-        <f>IF(V72&gt;2,MID(D72,9,1),"")</f>
+        <f t="shared" si="77"/>
         <v>3</v>
       </c>
       <c r="AA72" s="2" t="str">
-        <f>IF(V72&gt;3,MID(D72,13,1),"")</f>
+        <f t="shared" si="78"/>
         <v>4</v>
       </c>
     </row>
@@ -15031,19 +15027,45 @@
         <v>2</v>
       </c>
       <c r="X73" s="2" t="str">
-        <f>IF(V73&gt;0,LEFT(D73,1))</f>
+        <f t="shared" si="75"/>
         <v>2</v>
       </c>
       <c r="Y73" s="2" t="str">
-        <f>IF(V73&gt;1,MID(D73,5,1),"")</f>
+        <f t="shared" si="76"/>
         <v>3</v>
       </c>
       <c r="Z73" s="2" t="str">
-        <f>IF(V73&gt;2,MID(D73,9,1),"")</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="AA73" s="2" t="str">
-        <f>IF(V73&gt;3,MID(D73,13,1),"")</f>
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="U74" s="2">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="2">
+        <f t="shared" si="74"/>
+        <v>0.75</v>
+      </c>
+      <c r="X74" s="2" t="str">
+        <f t="shared" si="75"/>
+        <v/>
+      </c>
+      <c r="Y74" s="2" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="Z74" s="2" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="AA74" s="2" t="str">
+        <f t="shared" si="78"/>
         <v/>
       </c>
     </row>
@@ -15074,16 +15096,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:S1"/>
     <mergeCell ref="BE11:BF11"/>
     <mergeCell ref="BG11:BH11"/>
     <mergeCell ref="AA1:AE1"/>
@@ -15096,29 +15108,39 @@
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AZ1:BC1"/>
     <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B3:M68">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$A3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:H68">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(LEN(D3)=9,$A3=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(LEN(D3)=9,$A3=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:H68">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="1" priority="9">
       <formula>COLUMN(E3)-4=$X3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:H73">
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>COUNTIF($X70:$AA70,LEFT(E70,1))=0</formula>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($D70&lt;&gt;"",COUNTIF($X70:$AA70,LEFT(E70,1))=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -15309,7 +15331,7 @@
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="39"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
@@ -15907,16 +15929,16 @@
     <mergeCell ref="B8:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:E3">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>B$3="Thomas"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>B$3="Jasmin"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>B$3="Franz"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>B$3="David"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16345,10 +16367,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:E20">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>LEFT(B3,2)="at"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>LEFT(B3,2)="vs"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2023_tipp.xlsx
+++ b/2023_tipp.xlsx
@@ -1119,9 +1119,6 @@
     <t>MIN 03-00</t>
   </si>
   <si>
-    <t>CIN 24-17</t>
-  </si>
-  <si>
     <t>CIN 27-23</t>
   </si>
   <si>
@@ -1168,6 +1165,9 @@
   </si>
   <si>
     <t>Tipps Reihung im Format '0xx', Ergebnisse auch '0[ | 0 …] möglich</t>
+  </si>
+  <si>
+    <t>CIN 24-21</t>
   </si>
 </sst>
 </file>
@@ -1564,15 +1564,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1583,6 +1574,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1605,41 +1605,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor auto="1"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1697,6 +1662,41 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor auto="1"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1750,6 +1750,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2269,6 +2270,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2406,6 +2408,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2481,6 +2484,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3503,7 +3507,7 @@
   <dimension ref="A1:BI79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
@@ -3529,113 +3533,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="B1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="B1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36" t="s">
+      <c r="E1" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="37" t="str">
+      <c r="J1" s="39" t="str">
         <f>LEFT(E2,1)</f>
         <v>J</v>
       </c>
-      <c r="K1" s="37" t="str">
+      <c r="K1" s="39" t="str">
         <f>LEFT(F2,1)</f>
         <v>F</v>
       </c>
-      <c r="L1" s="37" t="str">
+      <c r="L1" s="39" t="str">
         <f>LEFT(G2,1)</f>
         <v>D</v>
       </c>
-      <c r="M1" s="37" t="str">
+      <c r="M1" s="39" t="str">
         <f>LEFT(H2,1)</f>
         <v>T</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38" t="s">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38" t="s">
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38" t="s">
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38" t="s">
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AL1" s="38" t="s">
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AL1" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="AM1" s="38"/>
+      <c r="AM1" s="35"/>
       <c r="AN1" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="AO1" s="38" t="s">
+      <c r="AO1" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38" t="s">
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38" t="s">
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38" t="s">
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="38"/>
-      <c r="BE1" s="38" t="s">
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BE1" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="BF1" s="38"/>
-      <c r="BG1" s="38"/>
-      <c r="BH1" s="38"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
     </row>
     <row r="2" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3648,11 +3652,11 @@
       <c r="H2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
       <c r="O2" s="2">
         <v>0</v>
       </c>
@@ -4179,15 +4183,15 @@
       </c>
       <c r="BF4" s="2">
         <f t="shared" ref="BF4:BH4" si="33">COUNTIF($Y:$Y,COLUMN()-COLUMN($BD$4))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG4" s="2">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH4" s="2">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI4" s="2" t="s">
         <v>232</v>
@@ -4606,15 +4610,15 @@
       </c>
       <c r="BF6" s="2">
         <f t="shared" ref="BF6:BH6" si="39">BF3+BF4/100</f>
-        <v>107.05</v>
+        <v>107.03</v>
       </c>
       <c r="BG6" s="2">
         <f t="shared" si="39"/>
-        <v>116.04</v>
+        <v>116.03</v>
       </c>
       <c r="BH6" s="2">
         <f t="shared" si="39"/>
-        <v>99.02</v>
+        <v>99.01</v>
       </c>
       <c r="BI6" s="2" t="s">
         <v>233</v>
@@ -4837,7 +4841,7 @@
       </c>
       <c r="BH7" s="2">
         <f t="shared" si="40"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI7" s="2" t="s">
         <v>240</v>
@@ -5252,11 +5256,11 @@
       </c>
       <c r="BE9" s="2">
         <f>LARGE($BE$6:$BH$6,COLUMN()-COLUMN($BD$9))</f>
-        <v>116.04</v>
+        <v>116.03</v>
       </c>
       <c r="BF9" s="2">
         <f t="shared" ref="BF9:BH9" si="41">LARGE($BE$6:$BH$6,COLUMN()-COLUMN($BD$9))</f>
-        <v>107.05</v>
+        <v>107.03</v>
       </c>
       <c r="BG9" s="2">
         <f t="shared" si="41"/>
@@ -5264,7 +5268,7 @@
       </c>
       <c r="BH9" s="2">
         <f t="shared" si="41"/>
-        <v>99.02</v>
+        <v>99.01</v>
       </c>
       <c r="BI9" s="2" t="s">
         <v>234</v>
@@ -5487,7 +5491,7 @@
       </c>
       <c r="BH10" s="2">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BI10" s="2" t="s">
         <v>235</v>
@@ -5696,14 +5700,14 @@
         <f ca="1">AU11/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO11))/200</f>
         <v>0.96011876484560577</v>
       </c>
-      <c r="BE11" s="38" t="s">
+      <c r="BE11" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="BF11" s="39"/>
-      <c r="BG11" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH11" s="41"/>
+      <c r="BF11" s="36"/>
+      <c r="BG11" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="38"/>
     </row>
     <row r="12" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -6126,7 +6130,7 @@
       </c>
       <c r="BH13" s="2">
         <f>IF($BG$11,BH10,BG13+1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BI13" s="2" t="s">
         <v>235</v>
@@ -12576,19 +12580,19 @@
         <v>MIN at CIN</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>293</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J54" s="14">
         <f t="shared" si="12"/>
@@ -12733,13 +12737,13 @@
         <v>332</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>93</v>
@@ -12881,19 +12885,19 @@
         <v>LAR vs WAS</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>74</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J56" s="14">
         <f t="shared" si="12"/>
@@ -14147,7 +14151,7 @@
       <c r="AT64" s="20"/>
       <c r="AU64" s="20"/>
     </row>
-    <row r="65" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:49" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -14288,7 +14292,7 @@
       <c r="AT65" s="20"/>
       <c r="AU65" s="20"/>
     </row>
-    <row r="66" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:49" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -14429,7 +14433,7 @@
       <c r="AT66" s="20"/>
       <c r="AU66" s="20"/>
     </row>
-    <row r="67" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:49" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -14570,7 +14574,7 @@
       <c r="AT67" s="20"/>
       <c r="AU67" s="20"/>
     </row>
-    <row r="68" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:49" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -14711,7 +14715,7 @@
       <c r="AT68" s="20"/>
       <c r="AU68" s="20"/>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B69" s="5"/>
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
@@ -14727,7 +14731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:49" ht="15" x14ac:dyDescent="0.2">
       <c r="B70" s="5" t="s">
         <v>94</v>
       </c>
@@ -14735,7 +14739,7 @@
         <v>95</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>96</v>
@@ -14781,32 +14785,32 @@
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="U70" s="2">
+      <c r="AQ70" s="2">
         <f>LEN(D70)</f>
         <v>5</v>
       </c>
-      <c r="V70" s="2">
-        <f>(U70+3)/4</f>
+      <c r="AR70" s="2">
+        <f>(AQ70+3)/4</f>
         <v>2</v>
       </c>
-      <c r="X70" s="2" t="str">
-        <f>IF(V70&gt;=1,LEFT(D70,1),"")</f>
-        <v>3</v>
-      </c>
-      <c r="Y70" s="2" t="str">
-        <f>IF(V70&gt;=2,MID(D70,5,1),"")</f>
+      <c r="AT70" s="2" t="str">
+        <f>IF(AR70&gt;=1,LEFT(D70,1),"")</f>
+        <v>3</v>
+      </c>
+      <c r="AU70" s="2" t="str">
+        <f>IF(AR70&gt;=2,MID(D70,5,1),"")</f>
         <v>4</v>
       </c>
-      <c r="Z70" s="2" t="str">
-        <f>IF(V70&gt;=3,MID(D70,9,1),"")</f>
-        <v/>
-      </c>
-      <c r="AA70" s="2" t="str">
-        <f>IF(V70&gt;=4,MID(D70,13,1),"")</f>
+      <c r="AV70" s="2" t="str">
+        <f>IF(AR70&gt;=3,MID(D70,9,1),"")</f>
+        <v/>
+      </c>
+      <c r="AW70" s="2" t="str">
+        <f>IF(AR70&gt;=4,MID(D70,13,1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:49" ht="15" x14ac:dyDescent="0.2">
       <c r="B71" s="5" t="s">
         <v>99</v>
       </c>
@@ -14814,7 +14818,7 @@
         <v>100</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>101</v>
@@ -14860,32 +14864,32 @@
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="U71" s="2">
-        <f t="shared" ref="U71:U74" si="73">LEN(D71)</f>
+      <c r="AQ71" s="2">
+        <f>LEN(D71)</f>
         <v>9</v>
       </c>
-      <c r="V71" s="2">
-        <f t="shared" ref="V71:V74" si="74">(U71+3)/4</f>
-        <v>3</v>
-      </c>
-      <c r="X71" s="2" t="str">
-        <f t="shared" ref="X71:X74" si="75">IF(V71&gt;=1,LEFT(D71,1),"")</f>
-        <v>1</v>
-      </c>
-      <c r="Y71" s="2" t="str">
-        <f t="shared" ref="Y71:Y74" si="76">IF(V71&gt;=2,MID(D71,5,1),"")</f>
+      <c r="AR71" s="2">
+        <f t="shared" ref="AR71:AR74" si="73">(AQ71+3)/4</f>
+        <v>3</v>
+      </c>
+      <c r="AT71" s="2" t="str">
+        <f>IF(AR71&gt;=1,LEFT(D71,1),"")</f>
+        <v>1</v>
+      </c>
+      <c r="AU71" s="2" t="str">
+        <f>IF(AR71&gt;=2,MID(D71,5,1),"")</f>
         <v>2</v>
       </c>
-      <c r="Z71" s="2" t="str">
-        <f t="shared" ref="Z71:Z74" si="77">IF(V71&gt;=3,MID(D71,9,1),"")</f>
-        <v>3</v>
-      </c>
-      <c r="AA71" s="2" t="str">
-        <f t="shared" ref="AA71:AA74" si="78">IF(V71&gt;=4,MID(D71,13,1),"")</f>
+      <c r="AV71" s="2" t="str">
+        <f>IF(AR71&gt;=3,MID(D71,9,1),"")</f>
+        <v>3</v>
+      </c>
+      <c r="AW71" s="2" t="str">
+        <f>IF(AR71&gt;=4,MID(D71,13,1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:49" ht="15" x14ac:dyDescent="0.2">
       <c r="B72" s="5" t="s">
         <v>102</v>
       </c>
@@ -14893,7 +14897,7 @@
         <v>103</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>97</v>
@@ -14939,32 +14943,32 @@
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="U72" s="2">
+      <c r="AQ72" s="2">
+        <f>LEN(D72)</f>
+        <v>13</v>
+      </c>
+      <c r="AR72" s="2">
         <f t="shared" si="73"/>
-        <v>13</v>
-      </c>
-      <c r="V72" s="2">
-        <f t="shared" si="74"/>
         <v>4</v>
       </c>
-      <c r="X72" s="2" t="str">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="Y72" s="2" t="str">
-        <f t="shared" si="76"/>
+      <c r="AT72" s="2" t="str">
+        <f>IF(AR72&gt;=1,LEFT(D72,1),"")</f>
+        <v>1</v>
+      </c>
+      <c r="AU72" s="2" t="str">
+        <f>IF(AR72&gt;=2,MID(D72,5,1),"")</f>
         <v>2</v>
       </c>
-      <c r="Z72" s="2" t="str">
-        <f t="shared" si="77"/>
-        <v>3</v>
-      </c>
-      <c r="AA72" s="2" t="str">
-        <f t="shared" si="78"/>
+      <c r="AV72" s="2" t="str">
+        <f>IF(AR72&gt;=3,MID(D72,9,1),"")</f>
+        <v>3</v>
+      </c>
+      <c r="AW72" s="2" t="str">
+        <f>IF(AR72&gt;=4,MID(D72,13,1),"")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:49" ht="15" x14ac:dyDescent="0.2">
       <c r="B73" s="5" t="s">
         <v>104</v>
       </c>
@@ -14972,7 +14976,7 @@
         <v>105</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>98</v>
@@ -15018,84 +15022,94 @@
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="U73" s="2">
+      <c r="AQ73" s="2">
+        <f>LEN(D73)</f>
+        <v>5</v>
+      </c>
+      <c r="AR73" s="2">
         <f t="shared" si="73"/>
-        <v>5</v>
-      </c>
-      <c r="V73" s="2">
-        <f t="shared" si="74"/>
         <v>2</v>
       </c>
-      <c r="X73" s="2" t="str">
-        <f t="shared" si="75"/>
+      <c r="AT73" s="2" t="str">
+        <f>IF(AR73&gt;=1,LEFT(D73,1),"")</f>
         <v>2</v>
       </c>
-      <c r="Y73" s="2" t="str">
-        <f t="shared" si="76"/>
-        <v>3</v>
-      </c>
-      <c r="Z73" s="2" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="AA73" s="2" t="str">
-        <f t="shared" si="78"/>
+      <c r="AU73" s="2" t="str">
+        <f>IF(AR73&gt;=2,MID(D73,5,1),"")</f>
+        <v>3</v>
+      </c>
+      <c r="AV73" s="2" t="str">
+        <f>IF(AR73&gt;=3,MID(D73,9,1),"")</f>
+        <v/>
+      </c>
+      <c r="AW73" s="2" t="str">
+        <f>IF(AR73&gt;=4,MID(D73,13,1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="U74" s="2">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AQ74" s="2">
+        <f>LEN(D74)</f>
+        <v>0</v>
+      </c>
+      <c r="AR74" s="2">
         <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="V74" s="2">
-        <f t="shared" si="74"/>
         <v>0.75</v>
       </c>
-      <c r="X74" s="2" t="str">
-        <f t="shared" si="75"/>
-        <v/>
-      </c>
-      <c r="Y74" s="2" t="str">
-        <f t="shared" si="76"/>
-        <v/>
-      </c>
-      <c r="Z74" s="2" t="str">
-        <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="AA74" s="2" t="str">
-        <f t="shared" si="78"/>
+      <c r="AT74" s="2" t="str">
+        <f>IF(AR74&gt;=1,LEFT(D74,1),"")</f>
+        <v/>
+      </c>
+      <c r="AU74" s="2" t="str">
+        <f>IF(AR74&gt;=2,MID(D74,5,1),"")</f>
+        <v/>
+      </c>
+      <c r="AV74" s="2" t="str">
+        <f>IF(AR74&gt;=3,MID(D74,9,1),"")</f>
+        <v/>
+      </c>
+      <c r="AW74" s="2" t="str">
+        <f>IF(AR74&gt;=4,MID(D74,13,1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="78" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>229</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:S1"/>
     <mergeCell ref="BE11:BF11"/>
     <mergeCell ref="BG11:BH11"/>
     <mergeCell ref="AA1:AE1"/>
@@ -15108,39 +15122,29 @@
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AZ1:BC1"/>
     <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B3:M68">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>$A3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:H68">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(LEN(D3)=9,$A3=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>AND(LEN(D3)=9,$A3=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:H68">
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>COLUMN(E3)-4=$X3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:H73">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($D70&lt;&gt;"",COUNTIF($X70:$AA70,LEFT(E70,1))=0)</formula>
+    <cfRule type="expression" dxfId="0" priority="12">
+      <formula>AND($D70&lt;&gt;"",COUNTIF($AT70:$AW70,LEFT(E70,1))=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -15180,7 +15184,7 @@
       </c>
       <c r="E1" s="26">
         <f>INDEX(Tipps!$BE$7:$BH$7,Tipps!BH13)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -15222,7 +15226,7 @@
       </c>
       <c r="E3" s="24" t="str">
         <f>INDEX(Tipps!$E$2:$H$2,Tipps!BH13)</f>
-        <v>Jasmin</v>
+        <v>Thomas</v>
       </c>
       <c r="F3" s="19"/>
     </row>
@@ -15262,11 +15266,11 @@
       </c>
       <c r="B6" s="17">
         <f>INDEX(Tipps!$BE$4:$BH$4,Tipps!BE13)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="17">
         <f>INDEX(Tipps!$BE$4:$BH$4,Tipps!BF13)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="17">
         <f>INDEX(Tipps!$BE$4:$BH$4,Tipps!BG13)</f>
@@ -15274,7 +15278,7 @@
       </c>
       <c r="E6" s="17">
         <f>INDEX(Tipps!$BE$4:$BH$4,Tipps!BH13)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="17"/>
     </row>
@@ -15331,7 +15335,7 @@
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="39"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
@@ -15352,12 +15356,12 @@
       </c>
       <c r="E12" s="28">
         <f ca="1">INDEX(Tipps!$AV3:$AY3,Tipps!BH$13)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="29">
         <f ca="1">SUM(B12:E12)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15406,12 +15410,12 @@
       </c>
       <c r="E14" s="28">
         <f ca="1">INDEX(Tipps!$AV5:$AY5,Tipps!BH$13)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15460,12 +15464,12 @@
       </c>
       <c r="E16" s="28">
         <f ca="1">INDEX(Tipps!$AV7:$AY7,Tipps!BH$13)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15514,12 +15518,12 @@
       </c>
       <c r="E18" s="28">
         <f ca="1">INDEX(Tipps!$AV9:$AY9,Tipps!BH$13)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15541,12 +15545,12 @@
       </c>
       <c r="E19" s="28">
         <f ca="1">INDEX(Tipps!$AV10:$AY10,Tipps!BH$13)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15568,12 +15572,12 @@
       </c>
       <c r="E20" s="28">
         <f ca="1">INDEX(Tipps!$AV11:$AY11,Tipps!BH$13)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15649,12 +15653,12 @@
       </c>
       <c r="E23" s="28">
         <f ca="1">INDEX(Tipps!$AV14:$AY14,Tipps!BH$13)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15676,12 +15680,12 @@
       </c>
       <c r="E24" s="28">
         <f ca="1">INDEX(Tipps!$AV15:$AY15,Tipps!BH$13)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15703,12 +15707,12 @@
       </c>
       <c r="E25" s="28">
         <f ca="1">INDEX(Tipps!$AV16:$AY16,Tipps!BH$13)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15730,12 +15734,12 @@
       </c>
       <c r="E26" s="28">
         <f ca="1">INDEX(Tipps!$AV17:$AY17,Tipps!BH$13)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="29">
-        <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <f ca="1">SUM(B26:E26)</f>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15865,11 +15869,11 @@
       </c>
       <c r="E32" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,E12:E29)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,G12:G29)</f>
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -15915,11 +15919,11 @@
       </c>
       <c r="E34" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,E12:E29)</f>
-        <v>2.9619813188697415</v>
+        <v>2.7519689920733725</v>
       </c>
       <c r="G34" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,G12:G29)</f>
-        <v>9.794329425177045</v>
+        <v>9.9964438121208339</v>
       </c>
     </row>
   </sheetData>
@@ -15929,16 +15933,16 @@
     <mergeCell ref="B8:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:E3">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>B$3="Thomas"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>B$3="Jasmin"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>B$3="Franz"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>B$3="David"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16367,10 +16371,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:E20">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>LEFT(B3,2)="at"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>LEFT(B3,2)="vs"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2023_tipp.xlsx
+++ b/2023_tipp.xlsx
@@ -1564,6 +1564,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1577,15 +1586,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1596,7 +1596,14 @@
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1605,6 +1612,41 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor auto="1"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1659,41 +1701,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor auto="1"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3533,113 +3540,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="B1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="B1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41" t="s">
+      <c r="E1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="39" t="str">
+      <c r="J1" s="37" t="str">
         <f>LEFT(E2,1)</f>
         <v>J</v>
       </c>
-      <c r="K1" s="39" t="str">
+      <c r="K1" s="37" t="str">
         <f>LEFT(F2,1)</f>
         <v>F</v>
       </c>
-      <c r="L1" s="39" t="str">
+      <c r="L1" s="37" t="str">
         <f>LEFT(G2,1)</f>
         <v>D</v>
       </c>
-      <c r="M1" s="39" t="str">
+      <c r="M1" s="37" t="str">
         <f>LEFT(H2,1)</f>
         <v>T</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35" t="s">
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35" t="s">
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35" t="s">
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AL1" s="35" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AL1" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="AM1" s="35"/>
+      <c r="AM1" s="38"/>
       <c r="AN1" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="AO1" s="35" t="s">
+      <c r="AO1" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35" t="s">
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35" t="s">
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35" t="s">
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BE1" s="35" t="s">
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="38"/>
+      <c r="BE1" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
+      <c r="BF1" s="38"/>
+      <c r="BG1" s="38"/>
+      <c r="BH1" s="38"/>
     </row>
     <row r="2" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3652,11 +3659,11 @@
       <c r="H2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
       <c r="O2" s="2">
         <v>0</v>
       </c>
@@ -5700,14 +5707,14 @@
         <f ca="1">AU11/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO11))/200</f>
         <v>0.96011876484560577</v>
       </c>
-      <c r="BE11" s="35" t="s">
+      <c r="BE11" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="BF11" s="36"/>
-      <c r="BG11" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH11" s="38"/>
+      <c r="BF11" s="39"/>
+      <c r="BG11" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="41"/>
     </row>
     <row r="12" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -15079,7 +15086,7 @@
       </c>
     </row>
     <row r="76" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="13" t="s">
         <v>228</v>
       </c>
     </row>
@@ -15089,27 +15096,17 @@
       </c>
     </row>
     <row r="78" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="13" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="79" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="13" t="s">
         <v>229</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:S1"/>
     <mergeCell ref="BE11:BF11"/>
     <mergeCell ref="BG11:BH11"/>
     <mergeCell ref="AA1:AE1"/>
@@ -15122,29 +15119,42 @@
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AZ1:BC1"/>
     <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B3:M68">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$A3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:H68">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>AND(LEN(D3)=9,$A3=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>AND(LEN(D3)=9,$A3=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:H68">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>COLUMN(E3)-4=$X3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:H73">
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>AND($D70&lt;&gt;"",COUNTIF($AT70:$AW70,LEFT(E70,1))=0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>E70=$D70</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -15335,7 +15345,7 @@
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="39"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
@@ -15933,16 +15943,16 @@
     <mergeCell ref="B8:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:E3">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>B$3="Thomas"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>B$3="Jasmin"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>B$3="Franz"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>B$3="David"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16371,10 +16381,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:E20">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>LEFT(B3,2)="at"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>LEFT(B3,2)="vs"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2023_tipp.xlsx
+++ b/2023_tipp.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="379">
   <si>
     <t>ID</t>
   </si>
@@ -1168,6 +1168,36 @@
   </si>
   <si>
     <t>CIN 24-21</t>
+  </si>
+  <si>
+    <t>DET 24-21</t>
+  </si>
+  <si>
+    <t>DEN 20-14</t>
+  </si>
+  <si>
+    <t>KC  27-16</t>
+  </si>
+  <si>
+    <t>DEN 24-14</t>
+  </si>
+  <si>
+    <t>LAR 24-23</t>
+  </si>
+  <si>
+    <t>DET 27-24</t>
+  </si>
+  <si>
+    <t>DEN 21-13</t>
+  </si>
+  <si>
+    <t>DET 27-20</t>
+  </si>
+  <si>
+    <t>DEN 20-13</t>
+  </si>
+  <si>
+    <t>KC  17-10</t>
   </si>
 </sst>
 </file>
@@ -1564,15 +1594,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1583,6 +1604,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1597,59 +1627,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor auto="1"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1701,6 +1678,59 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor auto="1"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3517,7 +3547,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomRight" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3540,113 +3570,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="B1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="B1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36" t="s">
+      <c r="E1" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="37" t="str">
+      <c r="J1" s="39" t="str">
         <f>LEFT(E2,1)</f>
         <v>J</v>
       </c>
-      <c r="K1" s="37" t="str">
+      <c r="K1" s="39" t="str">
         <f>LEFT(F2,1)</f>
         <v>F</v>
       </c>
-      <c r="L1" s="37" t="str">
+      <c r="L1" s="39" t="str">
         <f>LEFT(G2,1)</f>
         <v>D</v>
       </c>
-      <c r="M1" s="37" t="str">
+      <c r="M1" s="39" t="str">
         <f>LEFT(H2,1)</f>
         <v>T</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38" t="s">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38" t="s">
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38" t="s">
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38" t="s">
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AL1" s="38" t="s">
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AL1" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="AM1" s="38"/>
+      <c r="AM1" s="35"/>
       <c r="AN1" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="AO1" s="38" t="s">
+      <c r="AO1" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38" t="s">
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38" t="s">
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38" t="s">
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="38"/>
-      <c r="BE1" s="38" t="s">
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BE1" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="BF1" s="38"/>
-      <c r="BG1" s="38"/>
-      <c r="BH1" s="38"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
     </row>
     <row r="2" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3659,11 +3689,11 @@
       <c r="H2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
       <c r="O2" s="2">
         <v>0</v>
       </c>
@@ -5707,14 +5737,14 @@
         <f ca="1">AU11/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO11))/200</f>
         <v>0.96011876484560577</v>
       </c>
-      <c r="BE11" s="38" t="s">
+      <c r="BE11" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="BF11" s="39"/>
-      <c r="BG11" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH11" s="41"/>
+      <c r="BF11" s="36"/>
+      <c r="BG11" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="38"/>
     </row>
     <row r="12" spans="1:61" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -13043,10 +13073,18 @@
         <v xml:space="preserve">LAR vs NO </v>
       </c>
       <c r="D57" s="10"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
+      <c r="E57" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>189</v>
+      </c>
       <c r="J57" s="14" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13069,35 +13107,35 @@
       </c>
       <c r="P57" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="Q57" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="R57" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="S57" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="T57" s="2">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U57" s="2">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57" s="2">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W57" s="2">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X57" s="2">
         <f t="shared" si="17"/>
@@ -13117,19 +13155,19 @@
       </c>
       <c r="AB57" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC57" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD57" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE57" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF57" s="2" t="str">
         <f t="shared" si="23"/>
@@ -13137,19 +13175,19 @@
       </c>
       <c r="AG57" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH57" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI57" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ57" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="20" t="b">
         <f>Tipps!A57&lt;&gt;Tipps!A58</f>
@@ -13184,10 +13222,18 @@
         <v>MIN vs DET</v>
       </c>
       <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
+      <c r="E58" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>369</v>
+      </c>
       <c r="J58" s="14" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13210,35 +13256,35 @@
       </c>
       <c r="P58" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>DET</v>
       </c>
       <c r="Q58" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>DET</v>
       </c>
       <c r="R58" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>DET</v>
       </c>
       <c r="S58" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>DET</v>
       </c>
       <c r="T58" s="2">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58" s="2">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58" s="2">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W58" s="2">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58" s="2">
         <f t="shared" si="17"/>
@@ -13258,19 +13304,19 @@
       </c>
       <c r="AB58" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD58" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF58" s="2" t="str">
         <f t="shared" si="23"/>
@@ -13278,19 +13324,19 @@
       </c>
       <c r="AG58" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH58" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI58" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ58" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="20" t="b">
         <f>Tipps!A58&lt;&gt;Tipps!A59</f>
@@ -13325,10 +13371,18 @@
         <v>NE  at DEN</v>
       </c>
       <c r="D59" s="10"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
+      <c r="E59" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>370</v>
+      </c>
       <c r="J59" s="14" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13351,35 +13405,35 @@
       </c>
       <c r="P59" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>DEN</v>
       </c>
       <c r="Q59" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>DEN</v>
       </c>
       <c r="R59" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>DEN</v>
       </c>
       <c r="S59" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>DEN</v>
       </c>
       <c r="T59" s="2">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U59" s="2">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V59" s="2">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59" s="2">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X59" s="2">
         <f t="shared" si="17"/>
@@ -13399,19 +13453,19 @@
       </c>
       <c r="AB59" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC59" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD59" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF59" s="2" t="str">
         <f t="shared" si="23"/>
@@ -13419,19 +13473,19 @@
       </c>
       <c r="AG59" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH59" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI59" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ59" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59" s="20" t="b">
         <f>Tipps!A59&lt;&gt;Tipps!A60</f>
@@ -13466,10 +13520,18 @@
         <v xml:space="preserve">KC  vs LV </v>
       </c>
       <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
+      <c r="E60" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>371</v>
+      </c>
       <c r="J60" s="14" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -13492,35 +13554,35 @@
       </c>
       <c r="P60" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="Q60" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="R60" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="S60" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="T60" s="2">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60" s="2">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60" s="2">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60" s="2">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60" s="2">
         <f t="shared" si="17"/>
@@ -13540,19 +13602,19 @@
       </c>
       <c r="AB60" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC60" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD60" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE60" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF60" s="2" t="str">
         <f t="shared" si="23"/>
@@ -13560,19 +13622,19 @@
       </c>
       <c r="AG60" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH60" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI60" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ60" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="20" t="b">
         <f>Tipps!A60&lt;&gt;Tipps!A61</f>
@@ -15107,6 +15169,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:S1"/>
     <mergeCell ref="BE11:BF11"/>
     <mergeCell ref="BG11:BH11"/>
     <mergeCell ref="AA1:AE1"/>
@@ -15119,41 +15191,31 @@
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AZ1:BC1"/>
     <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B3:M68">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>$A3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:H68">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>AND(LEN(D3)=9,$A3=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>AND(LEN(D3)=9,$A3=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:H68">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>COLUMN(E3)-4=$X3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:H73">
-    <cfRule type="expression" dxfId="1" priority="14">
+    <cfRule type="expression" dxfId="7" priority="14">
       <formula>AND($D70&lt;&gt;"",COUNTIF($AT70:$AW70,LEFT(E70,1))=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>E70=$D70</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15345,7 +15407,7 @@
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="39"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
@@ -15943,16 +16005,16 @@
     <mergeCell ref="B8:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:E3">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>B$3="Thomas"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>B$3="Jasmin"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>B$3="Franz"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>B$3="David"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16381,10 +16443,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:E20">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>LEFT(B3,2)="at"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>LEFT(B3,2)="vs"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2023_tipp.xlsx
+++ b/2023_tipp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DT\nfl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\NFL Tipp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{1F3901DF-3918-2745-9DBE-5443A52E8F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipps" sheetId="3" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Verlauf" sheetId="7" r:id="rId3"/>
     <sheet name="Spiele" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="395">
   <si>
     <t>ID</t>
   </si>
@@ -1149,67 +1150,112 @@
     <t>LAR 28-20</t>
   </si>
   <si>
+    <t>Tipps und Ergebnisse Spiele immer im Format 'XXX 00-00'</t>
+  </si>
+  <si>
+    <t>Tipps Reihung im Format '0xx', Ergebnisse auch '0[ | 0 …] möglich</t>
+  </si>
+  <si>
+    <t>CIN 24-21</t>
+  </si>
+  <si>
+    <t>DET 24-21</t>
+  </si>
+  <si>
+    <t>DEN 20-14</t>
+  </si>
+  <si>
+    <t>KC  27-16</t>
+  </si>
+  <si>
+    <t>DEN 24-14</t>
+  </si>
+  <si>
+    <t>LAR 24-23</t>
+  </si>
+  <si>
+    <t>DET 27-24</t>
+  </si>
+  <si>
+    <t>DEN 21-13</t>
+  </si>
+  <si>
+    <t>DET 27-20</t>
+  </si>
+  <si>
+    <t>DEN 20-13</t>
+  </si>
+  <si>
+    <t>KC  17-10</t>
+  </si>
+  <si>
+    <t>LAR 30-22</t>
+  </si>
+  <si>
+    <t>DET 30-24</t>
+  </si>
+  <si>
+    <t>NE  26-23</t>
+  </si>
+  <si>
+    <t>LV  20-14</t>
+  </si>
+  <si>
+    <t>BUF 27-10</t>
+  </si>
+  <si>
+    <t>KC  17-13</t>
+  </si>
+  <si>
+    <t>MIN 13-10</t>
+  </si>
+  <si>
+    <t>LAR 20-13</t>
+  </si>
+  <si>
+    <t>MIN 24-21</t>
+  </si>
+  <si>
+    <t>LAR 20-14</t>
+  </si>
+  <si>
+    <t>BUF 23-10</t>
+  </si>
+  <si>
+    <t>KC  24-20</t>
+  </si>
+  <si>
+    <t>MIN 20-10</t>
+  </si>
+  <si>
+    <t>BUF 21-14</t>
+  </si>
+  <si>
+    <t>BUF 27-21</t>
+  </si>
+  <si>
+    <t>LAR 26-25</t>
+  </si>
+  <si>
+    <t>KC  25-17</t>
+  </si>
+  <si>
+    <t>GB  33-10</t>
+  </si>
+  <si>
     <t>3 | 4</t>
-  </si>
-  <si>
-    <t>1 | 2 | 3 | 4</t>
-  </si>
-  <si>
-    <t>1 | 2 | 3</t>
-  </si>
-  <si>
-    <t>2 | 3</t>
-  </si>
-  <si>
-    <t>Tipps und Ergebnisse Spiele immer im Format 'XXX 00-00'</t>
-  </si>
-  <si>
-    <t>Tipps Reihung im Format '0xx', Ergebnisse auch '0[ | 0 …] möglich</t>
-  </si>
-  <si>
-    <t>CIN 24-21</t>
-  </si>
-  <si>
-    <t>DET 24-21</t>
-  </si>
-  <si>
-    <t>DEN 20-14</t>
-  </si>
-  <si>
-    <t>KC  27-16</t>
-  </si>
-  <si>
-    <t>DEN 24-14</t>
-  </si>
-  <si>
-    <t>LAR 24-23</t>
-  </si>
-  <si>
-    <t>DET 27-24</t>
-  </si>
-  <si>
-    <t>DEN 21-13</t>
-  </si>
-  <si>
-    <t>DET 27-20</t>
-  </si>
-  <si>
-    <t>DEN 20-13</t>
-  </si>
-  <si>
-    <t>KC  17-10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0;\-0;\-"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1282,12 +1328,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1594,6 +1634,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1604,15 +1653,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1682,13 +1722,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1696,6 +1729,13 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1787,7 +1827,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1866,55 +1905,55 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.71758907363420432</c:v>
+                  <c:v>0.7074793388429752</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0026247030878859</c:v>
+                  <c:v>0.98847107438016535</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0976365795724463</c:v>
+                  <c:v>1.0821349862258953</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0382541567695962</c:v>
+                  <c:v>1.023595041322314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91711401425178141</c:v>
+                  <c:v>0.90417355371900832</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97887173396674576</c:v>
+                  <c:v>0.96505509641873288</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.007624703087886</c:v>
+                  <c:v>0.99347107438016535</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97699524940617577</c:v>
+                  <c:v>0.96334710743801655</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.96511876484560577</c:v>
+                  <c:v>0.9516391184573002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91286223277909739</c:v>
+                  <c:v>0.9001239669421488</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.88806305333621249</c:v>
+                  <c:v>0.8757475582268972</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.88698337292161522</c:v>
+                  <c:v>0.87468319559228658</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.85318107071076188</c:v>
+                  <c:v>0.84136045772409407</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.88528673227010524</c:v>
+                  <c:v>0.87301062573789856</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.96561757719714969</c:v>
+                  <c:v>0.95227272727272738</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.947004132231405</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.96714876033057851</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>#N/A</c:v>
@@ -1972,55 +2011,55 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.42755344418052255</c:v>
+                  <c:v>0.42148760330578516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85510688836104509</c:v>
+                  <c:v>0.84297520661157033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1401425178147269</c:v>
+                  <c:v>1.1239669421487604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2114014251781473</c:v>
+                  <c:v>1.194214876033058</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2876603325415674</c:v>
+                  <c:v>1.2694628099173553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2876603325415676</c:v>
+                  <c:v>1.2694628099173553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1908618934509672</c:v>
+                  <c:v>1.1741086186540732</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2264014251781472</c:v>
+                  <c:v>1.2092148760330579</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1601425178147269</c:v>
+                  <c:v>1.1439669421487604</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1316389548693586</c:v>
+                  <c:v>1.1158677685950413</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0485370330382207</c:v>
+                  <c:v>1.034015777610819</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0463776722090261</c:v>
+                  <c:v>1.0318870523415977</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0335876119130274</c:v>
+                  <c:v>1.0192784488239033</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0226247030878859</c:v>
+                  <c:v>1.0084710743801653</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0416270783847981</c:v>
+                  <c:v>1.0272038567493114</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.0172520661157025</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.0465289256198347</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>#N/A</c:v>
@@ -2078,55 +2117,55 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.42755344418052255</c:v>
+                  <c:v>0.42148760330578516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85510688836104509</c:v>
+                  <c:v>0.84297520661157033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76009501187648454</c:v>
+                  <c:v>0.74931129476584024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82447743467933488</c:v>
+                  <c:v>0.81285123966942152</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0646318289786223</c:v>
+                  <c:v>1.0496694214876034</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1738954869358669</c:v>
+                  <c:v>1.1573829201101928</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0687037665422463</c:v>
+                  <c:v>1.0536835891381346</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1145130641330165</c:v>
+                  <c:v>1.0988429752066116</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1918131433095804</c:v>
+                  <c:v>1.1751882460973371</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1173871733966745</c:v>
+                  <c:v>1.1018181818181818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.056493198013388</c:v>
+                  <c:v>1.0417881292261459</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0651306413301662</c:v>
+                  <c:v>1.0503030303030303</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0505134295633107</c:v>
+                  <c:v>1.0358931977113794</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0685239226331864</c:v>
+                  <c:v>1.0536481700118066</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1271377672209024</c:v>
+                  <c:v>1.1115013774104683</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.1050619834710744</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.1159090909090907</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>#N/A</c:v>
@@ -2184,55 +2223,55 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.42755344418052255</c:v>
+                  <c:v>0.42148760330578516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85510688836104509</c:v>
+                  <c:v>0.84297520661157033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85510688836104509</c:v>
+                  <c:v>0.84297520661157033</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85510688836104509</c:v>
+                  <c:v>0.84297520661157033</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85510688836104509</c:v>
+                  <c:v>0.84297520661157033</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92636579572446553</c:v>
+                  <c:v>0.91322314049586784</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.85510688836104509</c:v>
+                  <c:v>0.84297520661157033</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92636579572446553</c:v>
+                  <c:v>0.91322314049586784</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.96011876484560577</c:v>
+                  <c:v>0.9466391184573002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.90786223277909739</c:v>
+                  <c:v>0.8951239669421488</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.88306305333621249</c:v>
+                  <c:v>0.8707475582268972</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.89385985748218522</c:v>
+                  <c:v>0.88139118457300281</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.89203270601132834</c:v>
+                  <c:v>0.87958995549904639</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.89046657617916525</c:v>
+                  <c:v>0.87804604486422677</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.96061757719714969</c:v>
+                  <c:v>0.94727272727272738</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.942004132231405</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.97541322314049594</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>#N/A</c:v>
@@ -2307,7 +2346,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2445,7 +2483,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2521,7 +2558,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3140,7 +3176,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
@@ -3540,143 +3576,143 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D57" sqref="D57"/>
+      <selection pane="bottomRight" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.03125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
-    <col min="3" max="8" width="11.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.125" style="4" customWidth="1"/>
-    <col min="10" max="14" width="4.125" style="1" customWidth="1"/>
-    <col min="15" max="36" width="4.125" style="2" customWidth="1"/>
-    <col min="37" max="37" width="4.125" style="1" customWidth="1"/>
-    <col min="38" max="38" width="11" style="2"/>
-    <col min="39" max="41" width="4.125" style="2" customWidth="1"/>
-    <col min="42" max="42" width="11" style="2"/>
-    <col min="43" max="51" width="4.125" style="2" customWidth="1"/>
-    <col min="52" max="55" width="11" style="2"/>
-    <col min="56" max="60" width="4.125" style="2" customWidth="1"/>
-    <col min="61" max="61" width="11" style="2"/>
-    <col min="62" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="1.8359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.63671875" style="1" customWidth="1"/>
+    <col min="3" max="8" width="11.64453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.16796875" style="4" customWidth="1"/>
+    <col min="10" max="14" width="4.16796875" style="1" customWidth="1"/>
+    <col min="15" max="36" width="4.16796875" style="2" customWidth="1"/>
+    <col min="37" max="37" width="4.16796875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="11.03125" style="2"/>
+    <col min="39" max="41" width="4.16796875" style="2" customWidth="1"/>
+    <col min="42" max="42" width="11.03125" style="2"/>
+    <col min="43" max="51" width="4.16796875" style="2" customWidth="1"/>
+    <col min="52" max="55" width="11.03125" style="2"/>
+    <col min="56" max="60" width="4.16796875" style="2" customWidth="1"/>
+    <col min="61" max="61" width="11.03125" style="2"/>
+    <col min="62" max="16384" width="11.03125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="B1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="40" t="s">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.15">
+      <c r="B1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41" t="s">
+      <c r="E1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="39" t="str">
+      <c r="J1" s="37" t="str">
         <f>LEFT(E2,1)</f>
         <v>J</v>
       </c>
-      <c r="K1" s="39" t="str">
+      <c r="K1" s="37" t="str">
         <f>LEFT(F2,1)</f>
         <v>F</v>
       </c>
-      <c r="L1" s="39" t="str">
+      <c r="L1" s="37" t="str">
         <f>LEFT(G2,1)</f>
         <v>D</v>
       </c>
-      <c r="M1" s="39" t="str">
+      <c r="M1" s="37" t="str">
         <f>LEFT(H2,1)</f>
         <v>T</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35" t="s">
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35" t="s">
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35" t="s">
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AL1" s="35" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AL1" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="AM1" s="35"/>
+      <c r="AM1" s="38"/>
       <c r="AN1" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="AO1" s="35" t="s">
+      <c r="AO1" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35" t="s">
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35" t="s">
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35" t="s">
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BE1" s="35" t="s">
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="38"/>
+      <c r="BE1" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
+      <c r="BF1" s="38"/>
+      <c r="BG1" s="38"/>
+      <c r="BH1" s="38"/>
     </row>
-    <row r="2" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+    <row r="2" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3689,11 +3725,11 @@
       <c r="H2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
       <c r="O2" s="2">
         <v>0</v>
       </c>
@@ -3789,7 +3825,7 @@
         <v>Thomas</v>
       </c>
     </row>
-    <row r="3" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -3977,41 +4013,41 @@
       </c>
       <c r="AZ3" s="21">
         <f ca="1">AR3/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO3))/200</f>
-        <v>0.71758907363420432</v>
+        <v>0.7074793388429752</v>
       </c>
       <c r="BA3" s="21">
         <f ca="1">AS3/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO3))/200</f>
-        <v>0.42755344418052255</v>
+        <v>0.42148760330578516</v>
       </c>
       <c r="BB3" s="21">
         <f ca="1">AT3/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO3))/200</f>
-        <v>0.42755344418052255</v>
+        <v>0.42148760330578516</v>
       </c>
       <c r="BC3" s="21">
         <f ca="1">AU3/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO3))/200</f>
-        <v>0.42755344418052255</v>
+        <v>0.42148760330578516</v>
       </c>
       <c r="BE3" s="2">
         <f>SUM(J:J)</f>
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="BF3" s="2">
         <f>SUM(K:K)</f>
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="BG3" s="2">
         <f>SUM(L:L)</f>
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="BH3" s="2">
         <f>SUM(M:M)</f>
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="BI3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <f>IF(MOD(B4,10)=MOD(B3,10),A3,MOD(A3+1,2))</f>
         <v>0</v>
@@ -4200,19 +4236,19 @@
       </c>
       <c r="AZ4" s="21">
         <f ca="1">AR4/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO4))/200</f>
-        <v>1.0026247030878859</v>
+        <v>0.98847107438016535</v>
       </c>
       <c r="BA4" s="21">
         <f ca="1">AS4/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO4))/200</f>
-        <v>0.85510688836104509</v>
+        <v>0.84297520661157033</v>
       </c>
       <c r="BB4" s="21">
         <f ca="1">AT4/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO4))/200</f>
-        <v>0.85510688836104509</v>
+        <v>0.84297520661157033</v>
       </c>
       <c r="BC4" s="21">
         <f ca="1">AU4/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO4))/200</f>
-        <v>0.85510688836104509</v>
+        <v>0.84297520661157033</v>
       </c>
       <c r="BE4" s="2">
         <f>COUNTIF($Y:$Y,COLUMN()-COLUMN($BD$4))</f>
@@ -4234,7 +4270,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A68" si="34">IF(MOD(B5,10)=MOD(B4,10),A4,MOD(A4+1,2))</f>
         <v>0</v>
@@ -4423,22 +4459,22 @@
       </c>
       <c r="AZ5" s="21">
         <f ca="1">AR5/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO5))/200</f>
-        <v>1.0976365795724463</v>
+        <v>1.0821349862258953</v>
       </c>
       <c r="BA5" s="21">
         <f ca="1">AS5/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO5))/200</f>
-        <v>1.1401425178147269</v>
+        <v>1.1239669421487604</v>
       </c>
       <c r="BB5" s="21">
         <f ca="1">AT5/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO5))/200</f>
-        <v>0.76009501187648454</v>
+        <v>0.74931129476584024</v>
       </c>
       <c r="BC5" s="21">
         <f ca="1">AU5/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO5))/200</f>
-        <v>0.85510688836104509</v>
+        <v>0.84297520661157033</v>
       </c>
     </row>
-    <row r="6" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -4627,41 +4663,41 @@
       </c>
       <c r="AZ6" s="21">
         <f ca="1">AR6/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO6))/200</f>
-        <v>1.0382541567695962</v>
+        <v>1.023595041322314</v>
       </c>
       <c r="BA6" s="21">
         <f ca="1">AS6/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO6))/200</f>
-        <v>1.2114014251781473</v>
+        <v>1.194214876033058</v>
       </c>
       <c r="BB6" s="21">
         <f ca="1">AT6/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO6))/200</f>
-        <v>0.82447743467933488</v>
+        <v>0.81285123966942152</v>
       </c>
       <c r="BC6" s="21">
         <f ca="1">AU6/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO6))/200</f>
-        <v>0.85510688836104509</v>
+        <v>0.84297520661157033</v>
       </c>
       <c r="BE6" s="2">
         <f>BE3+BE4/100</f>
-        <v>99.02</v>
+        <v>124.02</v>
       </c>
       <c r="BF6" s="2">
         <f t="shared" ref="BF6:BH6" si="39">BF3+BF4/100</f>
-        <v>107.03</v>
+        <v>133.03</v>
       </c>
       <c r="BG6" s="2">
         <f t="shared" si="39"/>
-        <v>116.03</v>
+        <v>142.03</v>
       </c>
       <c r="BH6" s="2">
         <f t="shared" si="39"/>
-        <v>99.01</v>
+        <v>135.01</v>
       </c>
       <c r="BI6" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -4850,27 +4886,27 @@
       </c>
       <c r="AZ7" s="21">
         <f ca="1">AR7/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO7))/200</f>
-        <v>0.91711401425178141</v>
+        <v>0.90417355371900832</v>
       </c>
       <c r="BA7" s="21">
         <f ca="1">AS7/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO7))/200</f>
-        <v>1.2876603325415674</v>
+        <v>1.2694628099173553</v>
       </c>
       <c r="BB7" s="21">
         <f ca="1">AT7/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO7))/200</f>
-        <v>1.0646318289786223</v>
+        <v>1.0496694214876034</v>
       </c>
       <c r="BC7" s="21">
         <f ca="1">AU7/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO7))/200</f>
-        <v>0.85510688836104509</v>
+        <v>0.84297520661157033</v>
       </c>
       <c r="BE7" s="2">
         <f>RANK(BE6,$BE$6:$BH$6)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF7" s="2">
         <f t="shared" ref="BF7:BH7" si="40">RANK(BF6,$BE$6:$BH$6)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG7" s="2">
         <f t="shared" si="40"/>
@@ -4878,13 +4914,13 @@
       </c>
       <c r="BH7" s="2">
         <f t="shared" si="40"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BI7" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -5073,22 +5109,22 @@
       </c>
       <c r="AZ8" s="21">
         <f ca="1">AR8/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO8))/200</f>
-        <v>0.97887173396674576</v>
+        <v>0.96505509641873288</v>
       </c>
       <c r="BA8" s="21">
         <f ca="1">AS8/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO8))/200</f>
-        <v>1.2876603325415676</v>
+        <v>1.2694628099173553</v>
       </c>
       <c r="BB8" s="21">
         <f ca="1">AT8/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO8))/200</f>
-        <v>1.1738954869358669</v>
+        <v>1.1573829201101928</v>
       </c>
       <c r="BC8" s="21">
         <f ca="1">AU8/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO8))/200</f>
-        <v>0.92636579572446553</v>
+        <v>0.91322314049586784</v>
       </c>
     </row>
-    <row r="9" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -5277,41 +5313,41 @@
       </c>
       <c r="AZ9" s="21">
         <f ca="1">AR9/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO9))/200</f>
-        <v>1.007624703087886</v>
+        <v>0.99347107438016535</v>
       </c>
       <c r="BA9" s="21">
         <f ca="1">AS9/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO9))/200</f>
-        <v>1.1908618934509672</v>
+        <v>1.1741086186540732</v>
       </c>
       <c r="BB9" s="21">
         <f ca="1">AT9/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO9))/200</f>
-        <v>1.0687037665422463</v>
+        <v>1.0536835891381346</v>
       </c>
       <c r="BC9" s="21">
         <f ca="1">AU9/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO9))/200</f>
-        <v>0.85510688836104509</v>
+        <v>0.84297520661157033</v>
       </c>
       <c r="BE9" s="2">
         <f>LARGE($BE$6:$BH$6,COLUMN()-COLUMN($BD$9))</f>
-        <v>116.03</v>
+        <v>142.03</v>
       </c>
       <c r="BF9" s="2">
         <f t="shared" ref="BF9:BH9" si="41">LARGE($BE$6:$BH$6,COLUMN()-COLUMN($BD$9))</f>
-        <v>107.03</v>
+        <v>135.01</v>
       </c>
       <c r="BG9" s="2">
         <f t="shared" si="41"/>
-        <v>99.02</v>
+        <v>133.03</v>
       </c>
       <c r="BH9" s="2">
         <f t="shared" si="41"/>
-        <v>99.01</v>
+        <v>124.02</v>
       </c>
       <c r="BI9" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -5500,19 +5536,19 @@
       </c>
       <c r="AZ10" s="21">
         <f ca="1">AR10/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO10))/200</f>
-        <v>0.97699524940617577</v>
+        <v>0.96334710743801655</v>
       </c>
       <c r="BA10" s="21">
         <f ca="1">AS10/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO10))/200</f>
-        <v>1.2264014251781472</v>
+        <v>1.2092148760330579</v>
       </c>
       <c r="BB10" s="21">
         <f ca="1">AT10/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO10))/200</f>
-        <v>1.1145130641330165</v>
+        <v>1.0988429752066116</v>
       </c>
       <c r="BC10" s="21">
         <f ca="1">AU10/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO10))/200</f>
-        <v>0.92636579572446553</v>
+        <v>0.91322314049586784</v>
       </c>
       <c r="BE10" s="2">
         <f>MATCH(BE9,$BE$6:$BH$6,0)</f>
@@ -5520,21 +5556,21 @@
       </c>
       <c r="BF10" s="2">
         <f t="shared" ref="BF10:BH10" si="42">MATCH(BF9,$BE$6:$BH$6,0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG10" s="2">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH10" s="2">
         <f t="shared" si="42"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BI10" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -5723,30 +5759,30 @@
       </c>
       <c r="AZ11" s="21">
         <f ca="1">AR11/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO11))/200</f>
-        <v>0.96511876484560577</v>
+        <v>0.9516391184573002</v>
       </c>
       <c r="BA11" s="21">
         <f ca="1">AS11/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO11))/200</f>
-        <v>1.1601425178147269</v>
+        <v>1.1439669421487604</v>
       </c>
       <c r="BB11" s="21">
         <f ca="1">AT11/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO11))/200</f>
-        <v>1.1918131433095804</v>
+        <v>1.1751882460973371</v>
       </c>
       <c r="BC11" s="21">
         <f ca="1">AU11/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO11))/200</f>
-        <v>0.96011876484560577</v>
-      </c>
-      <c r="BE11" s="35" t="s">
+        <v>0.9466391184573002</v>
+      </c>
+      <c r="BE11" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="BF11" s="36"/>
-      <c r="BG11" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH11" s="38"/>
+      <c r="BF11" s="39"/>
+      <c r="BG11" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="41"/>
     </row>
-    <row r="12" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -5935,22 +5971,22 @@
       </c>
       <c r="AZ12" s="21">
         <f ca="1">AR12/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO12))/200</f>
-        <v>0.91286223277909739</v>
+        <v>0.9001239669421488</v>
       </c>
       <c r="BA12" s="21">
         <f ca="1">AS12/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO12))/200</f>
-        <v>1.1316389548693586</v>
+        <v>1.1158677685950413</v>
       </c>
       <c r="BB12" s="21">
         <f ca="1">AT12/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO12))/200</f>
-        <v>1.1173871733966745</v>
+        <v>1.1018181818181818</v>
       </c>
       <c r="BC12" s="21">
         <f ca="1">AU12/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO12))/200</f>
-        <v>0.90786223277909739</v>
+        <v>0.8951239669421488</v>
       </c>
     </row>
-    <row r="13" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -6139,19 +6175,19 @@
       </c>
       <c r="AZ13" s="21">
         <f ca="1">AR13/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO13))/200</f>
-        <v>0.88806305333621249</v>
+        <v>0.8757475582268972</v>
       </c>
       <c r="BA13" s="21">
         <f ca="1">AS13/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO13))/200</f>
-        <v>1.0485370330382207</v>
+        <v>1.034015777610819</v>
       </c>
       <c r="BB13" s="21">
         <f ca="1">AT13/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO13))/200</f>
-        <v>1.056493198013388</v>
+        <v>1.0417881292261459</v>
       </c>
       <c r="BC13" s="21">
         <f ca="1">AU13/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO13))/200</f>
-        <v>0.88306305333621249</v>
+        <v>0.8707475582268972</v>
       </c>
       <c r="BE13" s="2">
         <f>IF($BG$11,BE10,BD12+1)</f>
@@ -6159,21 +6195,21 @@
       </c>
       <c r="BF13" s="2">
         <f>IF($BG$11,BF10,BE13+1)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG13" s="2">
         <f>IF($BG$11,BG10,BF13+1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH13" s="2">
         <f>IF($BG$11,BH10,BG13+1)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BI13" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -6362,22 +6398,22 @@
       </c>
       <c r="AZ14" s="21">
         <f ca="1">AR14/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO14))/200</f>
-        <v>0.88698337292161522</v>
+        <v>0.87468319559228658</v>
       </c>
       <c r="BA14" s="21">
         <f ca="1">AS14/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO14))/200</f>
-        <v>1.0463776722090261</v>
+        <v>1.0318870523415977</v>
       </c>
       <c r="BB14" s="21">
         <f ca="1">AT14/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO14))/200</f>
-        <v>1.0651306413301662</v>
+        <v>1.0503030303030303</v>
       </c>
       <c r="BC14" s="21">
         <f ca="1">AU14/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO14))/200</f>
-        <v>0.89385985748218522</v>
+        <v>0.88139118457300281</v>
       </c>
     </row>
-    <row r="15" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -6566,41 +6602,41 @@
       </c>
       <c r="AZ15" s="21">
         <f ca="1">AR15/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO15))/200</f>
-        <v>0.85318107071076188</v>
+        <v>0.84136045772409407</v>
       </c>
       <c r="BA15" s="21">
         <f ca="1">AS15/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO15))/200</f>
-        <v>1.0335876119130274</v>
+        <v>1.0192784488239033</v>
       </c>
       <c r="BB15" s="21">
         <f ca="1">AT15/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO15))/200</f>
-        <v>1.0505134295633107</v>
+        <v>1.0358931977113794</v>
       </c>
       <c r="BC15" s="21">
         <f ca="1">AU15/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO15))/200</f>
-        <v>0.89203270601132834</v>
+        <v>0.87958995549904639</v>
       </c>
       <c r="BE15" s="33">
         <f>SUM(J70:J73)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BF15" s="33">
         <f t="shared" ref="BF15:BH15" si="43">SUM(K70:K73)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BG15" s="33">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH15" s="33">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BI15" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:61" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -6789,22 +6825,22 @@
       </c>
       <c r="AZ16" s="21">
         <f ca="1">AR16/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO16))/200</f>
-        <v>0.88528673227010524</v>
+        <v>0.87301062573789856</v>
       </c>
       <c r="BA16" s="21">
         <f ca="1">AS16/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO16))/200</f>
-        <v>1.0226247030878859</v>
+        <v>1.0084710743801653</v>
       </c>
       <c r="BB16" s="21">
         <f ca="1">AT16/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO16))/200</f>
-        <v>1.0685239226331864</v>
+        <v>1.0536481700118066</v>
       </c>
       <c r="BC16" s="21">
         <f ca="1">AU16/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO16))/200</f>
-        <v>0.89046657617916525</v>
+        <v>0.87804604486422677</v>
       </c>
     </row>
-    <row r="17" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -6993,22 +7029,22 @@
       </c>
       <c r="AZ17" s="21">
         <f ca="1">AR17/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO17))/200</f>
-        <v>0.96561757719714969</v>
+        <v>0.95227272727272738</v>
       </c>
       <c r="BA17" s="21">
         <f ca="1">AS17/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO17))/200</f>
-        <v>1.0416270783847981</v>
+        <v>1.0272038567493114</v>
       </c>
       <c r="BB17" s="21">
         <f ca="1">AT17/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO17))/200</f>
-        <v>1.1271377672209024</v>
+        <v>1.1115013774104683</v>
       </c>
       <c r="BC17" s="21">
         <f ca="1">AU17/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO17))/200</f>
-        <v>0.96061757719714969</v>
+        <v>0.94727272727272738</v>
       </c>
     </row>
-    <row r="18" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -7157,62 +7193,62 @@
       </c>
       <c r="AP18" s="20" t="b">
         <f ca="1">OFFSET(Tipps!$AN$2,AO18,)&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" s="20">
         <f t="shared" si="30"/>
         <v>16</v>
       </c>
-      <c r="AR18" s="20" t="e">
+      <c r="AR18" s="20">
         <f t="shared" ca="1" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS18" s="20" t="e">
+        <v>105</v>
+      </c>
+      <c r="AS18" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT18" s="20" t="e">
+        <v>113</v>
+      </c>
+      <c r="AT18" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU18" s="20" t="e">
+        <v>123</v>
+      </c>
+      <c r="AU18" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV18" s="2" t="e">
+        <v>105</v>
+      </c>
+      <c r="AV18" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW18" s="2" t="e">
+        <v>6</v>
+      </c>
+      <c r="AW18" s="2">
         <f t="shared" ca="1" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX18" s="2" t="e">
+        <v>6</v>
+      </c>
+      <c r="AX18" s="2">
         <f t="shared" ca="1" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY18" s="2" t="e">
+        <v>7</v>
+      </c>
+      <c r="AY18" s="2">
         <f t="shared" ca="1" si="38"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ18" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="AZ18" s="21">
         <f ca="1">AR18/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO18))/200</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BA18" s="21" t="e">
+        <v>0.947004132231405</v>
+      </c>
+      <c r="BA18" s="21">
         <f ca="1">AS18/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO18))/200</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BB18" s="21" t="e">
+        <v>1.0172520661157025</v>
+      </c>
+      <c r="BB18" s="21">
         <f ca="1">AT18/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO18))/200</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BC18" s="21" t="e">
+        <v>1.1050619834710744</v>
+      </c>
+      <c r="BC18" s="21">
         <f ca="1">AU18/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO18))/200</f>
-        <v>#N/A</v>
+        <v>0.942004132231405</v>
       </c>
     </row>
-    <row r="19" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -7361,62 +7397,62 @@
       </c>
       <c r="AP19" s="20" t="b">
         <f ca="1">OFFSET(Tipps!$AN$2,AO19,)&gt;0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="20">
         <f t="shared" si="30"/>
         <v>17</v>
       </c>
-      <c r="AR19" s="20" t="e">
+      <c r="AR19" s="20">
         <f t="shared" ca="1" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS19" s="20" t="e">
+        <v>114</v>
+      </c>
+      <c r="AS19" s="20">
         <f t="shared" ref="AS19:AS20" ca="1" si="44">IF($AP19,SUM(OFFSET(K$3,,,$AO19)),#N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AT19" s="20" t="e">
+        <v>123</v>
+      </c>
+      <c r="AT19" s="20">
         <f t="shared" ref="AT19:AT20" ca="1" si="45">IF($AP19,SUM(OFFSET(L$3,,,$AO19)),#N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AU19" s="20" t="e">
+        <v>132</v>
+      </c>
+      <c r="AU19" s="20">
         <f t="shared" ref="AU19:AU20" ca="1" si="46">IF($AP19,SUM(OFFSET(M$3,,,$AO19)),#N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AV19" s="2" t="e">
+        <v>115</v>
+      </c>
+      <c r="AV19" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW19" s="2" t="e">
+        <v>9</v>
+      </c>
+      <c r="AW19" s="2">
         <f t="shared" ca="1" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX19" s="2" t="e">
+        <v>10</v>
+      </c>
+      <c r="AX19" s="2">
         <f t="shared" ca="1" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY19" s="2" t="e">
+        <v>9</v>
+      </c>
+      <c r="AY19" s="2">
         <f t="shared" ca="1" si="38"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ19" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="AZ19" s="21">
         <f ca="1">AR19/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AB$3,,,$AO19))/200</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BA19" s="21" t="e">
+        <v>0.96714876033057851</v>
+      </c>
+      <c r="BA19" s="21">
         <f ca="1">AS19/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AC$3,,,$AO19))/200</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BB19" s="21" t="e">
+        <v>1.0465289256198347</v>
+      </c>
+      <c r="BB19" s="21">
         <f ca="1">AT19/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AD$3,,,$AO19))/200</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BC19" s="21" t="e">
+        <v>1.1159090909090907</v>
+      </c>
+      <c r="BC19" s="21">
         <f ca="1">AU19/(Ergebnisse!$G$33/4*(ROW()-2))+SUM(OFFSET(AE$3,,,$AO19))/200</f>
-        <v>#N/A</v>
+        <v>0.97541322314049594</v>
       </c>
     </row>
-    <row r="20" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -7620,7 +7656,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -7774,7 +7810,7 @@
       <c r="AT21" s="20"/>
       <c r="AU21" s="20"/>
     </row>
-    <row r="22" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -7925,7 +7961,7 @@
       <c r="AT22" s="20"/>
       <c r="AU22" s="20"/>
     </row>
-    <row r="23" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -8076,7 +8112,7 @@
       <c r="AT23" s="20"/>
       <c r="AU23" s="20"/>
     </row>
-    <row r="24" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -8227,7 +8263,7 @@
       <c r="AT24" s="20"/>
       <c r="AU24" s="20"/>
     </row>
-    <row r="25" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -8378,7 +8414,7 @@
       <c r="AT25" s="20"/>
       <c r="AU25" s="20"/>
     </row>
-    <row r="26" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -8529,7 +8565,7 @@
       <c r="AT26" s="20"/>
       <c r="AU26" s="20"/>
     </row>
-    <row r="27" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -8680,7 +8716,7 @@
       <c r="AT27" s="20"/>
       <c r="AU27" s="20"/>
     </row>
-    <row r="28" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -8831,7 +8867,7 @@
       <c r="AT28" s="20"/>
       <c r="AU28" s="20"/>
     </row>
-    <row r="29" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -8982,7 +9018,7 @@
       <c r="AT29" s="20"/>
       <c r="AU29" s="20"/>
     </row>
-    <row r="30" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -9133,7 +9169,7 @@
       <c r="AT30" s="20"/>
       <c r="AU30" s="20"/>
     </row>
-    <row r="31" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -9284,7 +9320,7 @@
       <c r="AT31" s="20"/>
       <c r="AU31" s="20"/>
     </row>
-    <row r="32" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -9433,7 +9469,7 @@
       <c r="AT32" s="20"/>
       <c r="AU32" s="20"/>
     </row>
-    <row r="33" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -9584,7 +9620,7 @@
       <c r="AT33" s="20"/>
       <c r="AU33" s="20"/>
     </row>
-    <row r="34" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -9735,7 +9771,7 @@
       <c r="AT34" s="20"/>
       <c r="AU34" s="20"/>
     </row>
-    <row r="35" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -9886,7 +9922,7 @@
       <c r="AT35" s="20"/>
       <c r="AU35" s="20"/>
     </row>
-    <row r="36" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -10037,7 +10073,7 @@
       <c r="AT36" s="20"/>
       <c r="AU36" s="20"/>
     </row>
-    <row r="37" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -10188,7 +10224,7 @@
       <c r="AT37" s="20"/>
       <c r="AU37" s="20"/>
     </row>
-    <row r="38" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -10339,7 +10375,7 @@
       <c r="AT38" s="20"/>
       <c r="AU38" s="20"/>
     </row>
-    <row r="39" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -10490,7 +10526,7 @@
       <c r="AT39" s="20"/>
       <c r="AU39" s="20"/>
     </row>
-    <row r="40" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -10641,7 +10677,7 @@
       <c r="AT40" s="20"/>
       <c r="AU40" s="20"/>
     </row>
-    <row r="41" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -10792,7 +10828,7 @@
       <c r="AT41" s="20"/>
       <c r="AU41" s="20"/>
     </row>
-    <row r="42" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -10943,7 +10979,7 @@
       <c r="AT42" s="20"/>
       <c r="AU42" s="20"/>
     </row>
-    <row r="43" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -11094,7 +11130,7 @@
       <c r="AT43" s="20"/>
       <c r="AU43" s="20"/>
     </row>
-    <row r="44" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -11245,7 +11281,7 @@
       <c r="AT44" s="20"/>
       <c r="AU44" s="20"/>
     </row>
-    <row r="45" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -11396,7 +11432,7 @@
       <c r="AT45" s="20"/>
       <c r="AU45" s="20"/>
     </row>
-    <row r="46" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -11547,7 +11583,7 @@
       <c r="AT46" s="20"/>
       <c r="AU46" s="20"/>
     </row>
-    <row r="47" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -11698,7 +11734,7 @@
       <c r="AT47" s="20"/>
       <c r="AU47" s="20"/>
     </row>
-    <row r="48" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -11849,7 +11885,7 @@
       <c r="AT48" s="20"/>
       <c r="AU48" s="20"/>
     </row>
-    <row r="49" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -12000,7 +12036,7 @@
       <c r="AT49" s="20"/>
       <c r="AU49" s="20"/>
     </row>
-    <row r="50" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -12151,7 +12187,7 @@
       <c r="AT50" s="20"/>
       <c r="AU50" s="20"/>
     </row>
-    <row r="51" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -12302,7 +12338,7 @@
       <c r="AT51" s="20"/>
       <c r="AU51" s="20"/>
     </row>
-    <row r="52" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -12453,7 +12489,7 @@
       <c r="AT52" s="20"/>
       <c r="AU52" s="20"/>
     </row>
-    <row r="53" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -12604,7 +12640,7 @@
       <c r="AT53" s="20"/>
       <c r="AU53" s="20"/>
     </row>
-    <row r="54" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -12620,7 +12656,7 @@
         <v>360</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>293</v>
@@ -12755,7 +12791,7 @@
       <c r="AT54" s="20"/>
       <c r="AU54" s="20"/>
     </row>
-    <row r="55" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -12909,7 +12945,7 @@
       <c r="AT55" s="20"/>
       <c r="AU55" s="20"/>
     </row>
-    <row r="56" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -13060,7 +13096,7 @@
       <c r="AT56" s="20"/>
       <c r="AU56" s="20"/>
     </row>
-    <row r="57" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -13072,7 +13108,9 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B57/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B57,100),ROUNDDOWN(B57/100,0))</f>
         <v xml:space="preserve">LAR vs NO </v>
       </c>
-      <c r="D57" s="10"/>
+      <c r="D57" s="10" t="s">
+        <v>375</v>
+      </c>
       <c r="E57" s="11" t="s">
         <v>77</v>
       </c>
@@ -13080,30 +13118,30 @@
         <v>244</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H57" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="J57" s="14" t="str">
+      <c r="J57" s="14">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K57" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="K57" s="14">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L57" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="L57" s="14">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M57" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="M57" s="14">
         <f t="shared" si="15"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="O57" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="P57" s="2" t="str">
         <f t="shared" si="47"/>
@@ -13123,19 +13161,19 @@
       </c>
       <c r="T57" s="2">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" s="2">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V57" s="2">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W57" s="2">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X57" s="2">
         <f t="shared" si="17"/>
@@ -13151,7 +13189,7 @@
       </c>
       <c r="AA57" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>30</v>
       </c>
       <c r="AB57" s="2">
         <f t="shared" si="19"/>
@@ -13171,7 +13209,7 @@
       </c>
       <c r="AF57" s="2" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AG57" s="2">
         <f t="shared" si="24"/>
@@ -13199,7 +13237,7 @@
       </c>
       <c r="AN57" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO57" s="20"/>
       <c r="AP57" s="20"/>
@@ -13209,7 +13247,7 @@
       <c r="AT57" s="20"/>
       <c r="AU57" s="20"/>
     </row>
-    <row r="58" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -13221,38 +13259,40 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B58/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B58,100),ROUNDDOWN(B58/100,0))</f>
         <v>MIN vs DET</v>
       </c>
-      <c r="D58" s="10"/>
+      <c r="D58" s="10" t="s">
+        <v>376</v>
+      </c>
       <c r="E58" s="11" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="J58" s="14" t="str">
+        <v>365</v>
+      </c>
+      <c r="J58" s="14">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K58" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="K58" s="14">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L58" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="L58" s="14">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M58" s="14" t="str">
+        <v>4</v>
+      </c>
+      <c r="M58" s="14">
         <f t="shared" si="15"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="O58" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>DET</v>
       </c>
       <c r="P58" s="2" t="str">
         <f t="shared" si="47"/>
@@ -13272,19 +13312,19 @@
       </c>
       <c r="T58" s="2">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58" s="2">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V58" s="2">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W58" s="2">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58" s="2">
         <f t="shared" si="17"/>
@@ -13300,7 +13340,7 @@
       </c>
       <c r="AA58" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>30</v>
       </c>
       <c r="AB58" s="2">
         <f t="shared" si="19"/>
@@ -13320,7 +13360,7 @@
       </c>
       <c r="AF58" s="2" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>24</v>
       </c>
       <c r="AG58" s="2">
         <f t="shared" si="24"/>
@@ -13332,7 +13372,7 @@
       </c>
       <c r="AI58" s="2">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ58" s="2">
         <f t="shared" si="27"/>
@@ -13348,7 +13388,7 @@
       </c>
       <c r="AN58" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO58" s="20"/>
       <c r="AP58" s="20"/>
@@ -13358,7 +13398,7 @@
       <c r="AT58" s="20"/>
       <c r="AU58" s="20"/>
     </row>
-    <row r="59" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -13370,38 +13410,40 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B59/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B59,100),ROUNDDOWN(B59/100,0))</f>
         <v>NE  at DEN</v>
       </c>
-      <c r="D59" s="10"/>
+      <c r="D59" s="10" t="s">
+        <v>377</v>
+      </c>
       <c r="E59" s="11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="J59" s="14" t="str">
+        <v>366</v>
+      </c>
+      <c r="J59" s="14">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K59" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="K59" s="14">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L59" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="L59" s="14">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M59" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="M59" s="14">
         <f t="shared" si="15"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O59" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v xml:space="preserve">NE </v>
       </c>
       <c r="P59" s="2" t="str">
         <f t="shared" si="47"/>
@@ -13449,7 +13491,7 @@
       </c>
       <c r="AA59" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>26</v>
       </c>
       <c r="AB59" s="2">
         <f t="shared" si="19"/>
@@ -13469,7 +13511,7 @@
       </c>
       <c r="AF59" s="2" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>23</v>
       </c>
       <c r="AG59" s="2">
         <f t="shared" si="24"/>
@@ -13497,7 +13539,7 @@
       </c>
       <c r="AN59" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO59" s="20"/>
       <c r="AP59" s="20"/>
@@ -13507,7 +13549,7 @@
       <c r="AT59" s="20"/>
       <c r="AU59" s="20"/>
     </row>
-    <row r="60" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -13519,38 +13561,40 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B60/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B60,100),ROUNDDOWN(B60/100,0))</f>
         <v xml:space="preserve">KC  vs LV </v>
       </c>
-      <c r="D60" s="10"/>
+      <c r="D60" s="10" t="s">
+        <v>378</v>
+      </c>
       <c r="E60" s="11" t="s">
         <v>250</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>245</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="J60" s="14" t="str">
+        <v>367</v>
+      </c>
+      <c r="J60" s="14">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K60" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="K60" s="14">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L60" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="L60" s="14">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M60" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="M60" s="14">
         <f t="shared" si="15"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O60" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v xml:space="preserve">LV </v>
       </c>
       <c r="P60" s="2" t="str">
         <f t="shared" si="47"/>
@@ -13598,7 +13642,7 @@
       </c>
       <c r="AA60" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="AB60" s="2">
         <f t="shared" si="19"/>
@@ -13618,7 +13662,7 @@
       </c>
       <c r="AF60" s="2" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>14</v>
       </c>
       <c r="AG60" s="2">
         <f t="shared" si="24"/>
@@ -13646,7 +13690,7 @@
       </c>
       <c r="AN60" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO60" s="20"/>
       <c r="AP60" s="20"/>
@@ -13656,7 +13700,7 @@
       <c r="AT60" s="20"/>
       <c r="AU60" s="20"/>
     </row>
-    <row r="61" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -13668,46 +13712,56 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B61/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B61,100),ROUNDDOWN(B61/100,0))</f>
         <v>LAR at NYG</v>
       </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="J61" s="14" t="str">
+      <c r="D61" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="J61" s="14">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K61" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="K61" s="14">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L61" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="L61" s="14">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M61" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="M61" s="14">
         <f t="shared" si="15"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="O61" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="P61" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="Q61" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="R61" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="S61" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>LAR</v>
       </c>
       <c r="T61" s="2">
         <f t="shared" si="49"/>
@@ -13739,43 +13793,43 @@
       </c>
       <c r="AA61" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>26</v>
       </c>
       <c r="AB61" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD61" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE61" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF61" s="2" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>25</v>
       </c>
       <c r="AG61" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH61" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI61" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ61" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="20" t="b">
         <f>Tipps!A61&lt;&gt;Tipps!A62</f>
@@ -13787,7 +13841,7 @@
       </c>
       <c r="AN61" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO61" s="20"/>
       <c r="AP61" s="20"/>
@@ -13797,7 +13851,7 @@
       <c r="AT61" s="20"/>
       <c r="AU61" s="20"/>
     </row>
-    <row r="62" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -13809,46 +13863,56 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B62/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B62,100),ROUNDDOWN(B62/100,0))</f>
         <v>NE  at BUF</v>
       </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="J62" s="14" t="str">
+      <c r="D62" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="J62" s="14">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K62" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="K62" s="14">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L62" s="14" t="str">
+        <v>4</v>
+      </c>
+      <c r="L62" s="14">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M62" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="M62" s="14">
         <f t="shared" si="15"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="O62" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>BUF</v>
       </c>
       <c r="P62" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>BUF</v>
       </c>
       <c r="Q62" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>BUF</v>
       </c>
       <c r="R62" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>BUF</v>
       </c>
       <c r="S62" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>BUF</v>
       </c>
       <c r="T62" s="2">
         <f t="shared" si="49"/>
@@ -13880,11 +13944,11 @@
       </c>
       <c r="AA62" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>27</v>
       </c>
       <c r="AB62" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC62" s="2">
         <f t="shared" si="20"/>
@@ -13892,7 +13956,7 @@
       </c>
       <c r="AD62" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE62" s="2">
         <f t="shared" si="22"/>
@@ -13900,23 +13964,23 @@
       </c>
       <c r="AF62" s="2" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>21</v>
       </c>
       <c r="AG62" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH62" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI62" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ62" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="20" t="b">
         <f>Tipps!A62&lt;&gt;Tipps!A63</f>
@@ -13928,7 +13992,7 @@
       </c>
       <c r="AN62" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO62" s="20"/>
       <c r="AP62" s="20"/>
@@ -13938,7 +14002,7 @@
       <c r="AT62" s="20"/>
       <c r="AU62" s="20"/>
     </row>
-    <row r="63" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -13950,46 +14014,56 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B63/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B63,100),ROUNDDOWN(B63/100,0))</f>
         <v>KC  vs CIN</v>
       </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="J63" s="14" t="str">
+      <c r="D63" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J63" s="14">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K63" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="K63" s="14">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L63" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="L63" s="14">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M63" s="14" t="str">
+        <v>3</v>
+      </c>
+      <c r="M63" s="14">
         <f t="shared" si="15"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="O63" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="P63" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="Q63" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="R63" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="S63" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v xml:space="preserve">KC </v>
       </c>
       <c r="T63" s="2">
         <f t="shared" si="49"/>
@@ -14021,43 +14095,43 @@
       </c>
       <c r="AA63" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>25</v>
       </c>
       <c r="AB63" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC63" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD63" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE63" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF63" s="2" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>17</v>
       </c>
       <c r="AG63" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH63" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI63" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ63" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="20" t="b">
         <f>Tipps!A63&lt;&gt;Tipps!A64</f>
@@ -14069,7 +14143,7 @@
       </c>
       <c r="AN63" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO63" s="20"/>
       <c r="AP63" s="20"/>
@@ -14079,7 +14153,7 @@
       <c r="AT63" s="20"/>
       <c r="AU63" s="20"/>
     </row>
-    <row r="64" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -14091,62 +14165,72 @@
         <f ca="1">OFFSET(Spiele!$A$2,,ROUNDDOWN(B64/100,0))&amp;" "&amp;OFFSET(Spiele!$A$2,MOD(B64,100),ROUNDDOWN(B64/100,0))</f>
         <v xml:space="preserve">MIN vs GB </v>
       </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="J64" s="14" t="str">
+      <c r="D64" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="J64" s="14">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K64" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="K64" s="14">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L64" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="L64" s="14">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M64" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="M64" s="14">
         <f t="shared" si="15"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O64" s="2" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v xml:space="preserve">GB </v>
       </c>
       <c r="P64" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="Q64" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="R64" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="S64" s="2" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="T64" s="2">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U64" s="2">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V64" s="2">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W64" s="2">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X64" s="2">
         <f t="shared" si="17"/>
@@ -14162,43 +14246,43 @@
       </c>
       <c r="AA64" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>33</v>
       </c>
       <c r="AB64" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC64" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD64" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE64" s="2">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="2" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="AG64" s="2">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH64" s="2">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI64" s="2">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ64" s="2">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64" s="20" t="b">
         <f>Tipps!A64&lt;&gt;Tipps!A65</f>
@@ -14210,7 +14294,7 @@
       </c>
       <c r="AN64" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO64" s="20"/>
       <c r="AP64" s="20"/>
@@ -14220,7 +14304,7 @@
       <c r="AT64" s="20"/>
       <c r="AU64" s="20"/>
     </row>
-    <row r="65" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -14361,7 +14445,7 @@
       <c r="AT65" s="20"/>
       <c r="AU65" s="20"/>
     </row>
-    <row r="66" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -14502,7 +14586,7 @@
       <c r="AT66" s="20"/>
       <c r="AU66" s="20"/>
     </row>
-    <row r="67" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -14643,7 +14727,7 @@
       <c r="AT67" s="20"/>
       <c r="AU67" s="20"/>
     </row>
-    <row r="68" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -14784,7 +14868,7 @@
       <c r="AT68" s="20"/>
       <c r="AU68" s="20"/>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.15">
       <c r="B69" s="5"/>
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
@@ -14800,7 +14884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:49" x14ac:dyDescent="0.15">
       <c r="B70" s="5" t="s">
         <v>94</v>
       </c>
@@ -14808,7 +14892,7 @@
         <v>95</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>362</v>
+        <v>98</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>96</v>
@@ -14836,7 +14920,7 @@
       </c>
       <c r="M70" s="16">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" ref="P70:S73" si="72">(E70=$D70)*1</f>
@@ -14852,23 +14936,23 @@
       </c>
       <c r="S70" s="2">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ70" s="2">
         <f>LEN(D70)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR70" s="2">
         <f>(AQ70+3)/4</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT70" s="2" t="str">
         <f>IF(AR70&gt;=1,LEFT(D70,1),"")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU70" s="2" t="str">
         <f>IF(AR70&gt;=2,MID(D70,5,1),"")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="AV70" s="2" t="str">
         <f>IF(AR70&gt;=3,MID(D70,9,1),"")</f>
@@ -14879,7 +14963,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.15">
       <c r="B71" s="5" t="s">
         <v>99</v>
       </c>
@@ -14887,7 +14971,7 @@
         <v>100</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>364</v>
+        <v>101</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>101</v>
@@ -14903,43 +14987,43 @@
       </c>
       <c r="J71" s="16">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K71" s="16">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L71" s="16">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M71" s="16">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71" s="2">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ71" s="2">
         <f>LEN(D71)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AR71" s="2">
         <f t="shared" ref="AR71:AR74" si="73">(AQ71+3)/4</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT71" s="2" t="str">
         <f>IF(AR71&gt;=1,LEFT(D71,1),"")</f>
@@ -14947,18 +15031,18 @@
       </c>
       <c r="AU71" s="2" t="str">
         <f>IF(AR71&gt;=2,MID(D71,5,1),"")</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="AV71" s="2" t="str">
         <f>IF(AR71&gt;=3,MID(D71,9,1),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="AW71" s="2" t="str">
         <f>IF(AR71&gt;=4,MID(D71,13,1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.15">
       <c r="B72" s="5" t="s">
         <v>102</v>
       </c>
@@ -14966,7 +15050,7 @@
         <v>103</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>97</v>
@@ -15014,30 +15098,30 @@
       </c>
       <c r="AQ72" s="2">
         <f>LEN(D72)</f>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AR72" s="2">
         <f t="shared" si="73"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT72" s="2" t="str">
         <f>IF(AR72&gt;=1,LEFT(D72,1),"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU72" s="2" t="str">
         <f>IF(AR72&gt;=2,MID(D72,5,1),"")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV72" s="2" t="str">
         <f>IF(AR72&gt;=3,MID(D72,9,1),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="AW72" s="2" t="str">
         <f>IF(AR72&gt;=4,MID(D72,13,1),"")</f>
-        <v>4</v>
+        <v/>
       </c>
     </row>
-    <row r="73" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:49" x14ac:dyDescent="0.15">
       <c r="B73" s="5" t="s">
         <v>104</v>
       </c>
@@ -15045,7 +15129,7 @@
         <v>105</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>365</v>
+        <v>96</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>98</v>
@@ -15093,11 +15177,11 @@
       </c>
       <c r="AQ73" s="2">
         <f>LEN(D73)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR73" s="2">
         <f t="shared" si="73"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT73" s="2" t="str">
         <f>IF(AR73&gt;=1,LEFT(D73,1),"")</f>
@@ -15105,7 +15189,7 @@
       </c>
       <c r="AU73" s="2" t="str">
         <f>IF(AR73&gt;=2,MID(D73,5,1),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="AV73" s="2" t="str">
         <f>IF(AR73&gt;=3,MID(D73,9,1),"")</f>
@@ -15116,7 +15200,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.15">
       <c r="AQ74" s="2">
         <f>LEN(D74)</f>
         <v>0</v>
@@ -15142,43 +15226,33 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A75" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A76" s="13" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A77" s="13" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A78" s="13" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A79" s="13" t="s">
         <v>229</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:S1"/>
     <mergeCell ref="BE11:BF11"/>
     <mergeCell ref="BG11:BH11"/>
     <mergeCell ref="AA1:AE1"/>
@@ -15191,6 +15265,16 @@
     <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AZ1:BC1"/>
     <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B3:M68">
@@ -15212,11 +15296,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:H73">
-    <cfRule type="expression" dxfId="7" priority="14">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>E70=$D70</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="14">
       <formula>AND($D70&lt;&gt;"",COUNTIF($AT70:$AW70,LEFT(E70,1))=0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>E70=$D70</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -15225,20 +15309,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.03125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" style="1"/>
+    <col min="1" max="1" width="11.03125" style="1"/>
     <col min="2" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="1"/>
+    <col min="6" max="6" width="4.16796875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.03125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>224</v>
       </c>
@@ -15259,7 +15343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
         <v>225</v>
       </c>
@@ -15280,7 +15364,7 @@
         <v>zahlen</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>226</v>
       </c>
@@ -15290,19 +15374,19 @@
       </c>
       <c r="C3" s="24" t="str">
         <f>INDEX(Tipps!$E$2:$H$2,Tipps!BF13)</f>
-        <v>Franz</v>
+        <v>Thomas</v>
       </c>
       <c r="D3" s="24" t="str">
         <f>INDEX(Tipps!$E$2:$H$2,Tipps!BG13)</f>
-        <v>Jasmin</v>
+        <v>Franz</v>
       </c>
       <c r="E3" s="24" t="str">
         <f>INDEX(Tipps!$E$2:$H$2,Tipps!BH13)</f>
-        <v>Thomas</v>
+        <v>Jasmin</v>
       </c>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -15310,29 +15394,29 @@
       <c r="E4" s="25"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="23">
         <f>INDEX(Tipps!$BE$3:$BH$3,Tipps!BE13)</f>
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C5" s="23">
         <f>INDEX(Tipps!$BE$3:$BH$3,Tipps!BF13)</f>
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D5" s="23">
         <f>INDEX(Tipps!$BE$3:$BH$3,Tipps!BG13)</f>
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="E5" s="23">
         <f>INDEX(Tipps!$BE$3:$BH$3,Tipps!BH13)</f>
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
@@ -15342,19 +15426,19 @@
       </c>
       <c r="C6" s="17">
         <f>INDEX(Tipps!$BE$4:$BH$4,Tipps!BF13)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="17">
         <f>INDEX(Tipps!$BE$4:$BH$4,Tipps!BG13)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="17">
         <f>INDEX(Tipps!$BE$4:$BH$4,Tipps!BH13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="22"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -15362,7 +15446,7 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="43" t="s">
         <v>308</v>
@@ -15372,33 +15456,33 @@
       <c r="E8" s="43"/>
       <c r="F8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22"/>
       <c r="B9" s="34">
         <f>INDEX(Tipps!$BE15:$BH15,Tipps!BE$13)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C9" s="34">
         <f>INDEX(Tipps!$BE15:$BH15,Tipps!BF$13)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D9" s="34">
         <f>INDEX(Tipps!$BE15:$BH15,Tipps!BG$13)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E9" s="34">
         <f>INDEX(Tipps!$BE15:$BH15,Tipps!BH$13)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
       <c r="G10" s="42" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="43" t="s">
         <v>201</v>
@@ -15407,9 +15491,9 @@
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="39"/>
+      <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <f>Tipps!AQ3</f>
         <v>1</v>
@@ -15424,11 +15508,11 @@
       </c>
       <c r="D12" s="28">
         <f ca="1">INDEX(Tipps!$AV3:$AY3,Tipps!BG$13)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="28">
         <f ca="1">INDEX(Tipps!$AV3:$AY3,Tipps!BH$13)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="29">
@@ -15436,7 +15520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <f>Tipps!AQ4</f>
         <v>2</v>
@@ -15463,7 +15547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <f>Tipps!AQ5</f>
         <v>3</v>
@@ -15474,15 +15558,15 @@
       </c>
       <c r="C14" s="28">
         <f ca="1">INDEX(Tipps!$AV5:$AY5,Tipps!BF$13)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D14" s="28">
         <f ca="1">INDEX(Tipps!$AV5:$AY5,Tipps!BG$13)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E14" s="28">
         <f ca="1">INDEX(Tipps!$AV5:$AY5,Tipps!BH$13)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="29">
@@ -15490,7 +15574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <f>Tipps!AQ6</f>
         <v>4</v>
@@ -15501,11 +15585,11 @@
       </c>
       <c r="C15" s="28">
         <f ca="1">INDEX(Tipps!$AV6:$AY6,Tipps!BF$13)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D15" s="28">
         <f ca="1">INDEX(Tipps!$AV6:$AY6,Tipps!BG$13)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E15" s="28">
         <f ca="1">INDEX(Tipps!$AV6:$AY6,Tipps!BH$13)</f>
@@ -15517,7 +15601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <f>Tipps!AQ7</f>
         <v>5</v>
@@ -15528,15 +15612,15 @@
       </c>
       <c r="C16" s="28">
         <f ca="1">INDEX(Tipps!$AV7:$AY7,Tipps!BF$13)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D16" s="28">
         <f ca="1">INDEX(Tipps!$AV7:$AY7,Tipps!BG$13)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E16" s="28">
         <f ca="1">INDEX(Tipps!$AV7:$AY7,Tipps!BH$13)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="29">
@@ -15544,7 +15628,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <f>Tipps!AQ8</f>
         <v>6</v>
@@ -15571,7 +15655,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <f>Tipps!AQ9</f>
         <v>7</v>
@@ -15582,15 +15666,15 @@
       </c>
       <c r="C18" s="28">
         <f ca="1">INDEX(Tipps!$AV9:$AY9,Tipps!BF$13)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="28">
         <f ca="1">INDEX(Tipps!$AV9:$AY9,Tipps!BG$13)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E18" s="28">
         <f ca="1">INDEX(Tipps!$AV9:$AY9,Tipps!BH$13)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="29">
@@ -15598,7 +15682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <f>Tipps!AQ10</f>
         <v>8</v>
@@ -15613,11 +15697,11 @@
       </c>
       <c r="D19" s="28">
         <f ca="1">INDEX(Tipps!$AV10:$AY10,Tipps!BG$13)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E19" s="28">
         <f ca="1">INDEX(Tipps!$AV10:$AY10,Tipps!BH$13)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="29">
@@ -15625,7 +15709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <f>Tipps!AQ11</f>
         <v>9</v>
@@ -15636,15 +15720,15 @@
       </c>
       <c r="C20" s="28">
         <f ca="1">INDEX(Tipps!$AV11:$AY11,Tipps!BF$13)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D20" s="28">
         <f ca="1">INDEX(Tipps!$AV11:$AY11,Tipps!BG$13)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" s="28">
         <f ca="1">INDEX(Tipps!$AV11:$AY11,Tipps!BH$13)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="29">
@@ -15652,7 +15736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <f>Tipps!AQ12</f>
         <v>10</v>
@@ -15663,11 +15747,11 @@
       </c>
       <c r="C21" s="28">
         <f ca="1">INDEX(Tipps!$AV12:$AY12,Tipps!BF$13)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" s="28">
         <f ca="1">INDEX(Tipps!$AV12:$AY12,Tipps!BG$13)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E21" s="28">
         <f ca="1">INDEX(Tipps!$AV12:$AY12,Tipps!BH$13)</f>
@@ -15679,7 +15763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <f>Tipps!AQ13</f>
         <v>11</v>
@@ -15690,11 +15774,11 @@
       </c>
       <c r="C22" s="28">
         <f ca="1">INDEX(Tipps!$AV13:$AY13,Tipps!BF$13)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" s="28">
         <f ca="1">INDEX(Tipps!$AV13:$AY13,Tipps!BG$13)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22" s="28">
         <f ca="1">INDEX(Tipps!$AV13:$AY13,Tipps!BH$13)</f>
@@ -15706,7 +15790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <f>Tipps!AQ14</f>
         <v>12</v>
@@ -15721,11 +15805,11 @@
       </c>
       <c r="D23" s="28">
         <f ca="1">INDEX(Tipps!$AV14:$AY14,Tipps!BG$13)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E23" s="28">
         <f ca="1">INDEX(Tipps!$AV14:$AY14,Tipps!BH$13)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="29">
@@ -15733,7 +15817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <f>Tipps!AQ15</f>
         <v>13</v>
@@ -15748,11 +15832,11 @@
       </c>
       <c r="D24" s="28">
         <f ca="1">INDEX(Tipps!$AV15:$AY15,Tipps!BG$13)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E24" s="28">
         <f ca="1">INDEX(Tipps!$AV15:$AY15,Tipps!BH$13)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="29">
@@ -15760,7 +15844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <f>Tipps!AQ16</f>
         <v>14</v>
@@ -15775,11 +15859,11 @@
       </c>
       <c r="D25" s="28">
         <f ca="1">INDEX(Tipps!$AV16:$AY16,Tipps!BG$13)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E25" s="28">
         <f ca="1">INDEX(Tipps!$AV16:$AY16,Tipps!BH$13)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="29">
@@ -15787,7 +15871,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <f>Tipps!AQ17</f>
         <v>15</v>
@@ -15798,15 +15882,15 @@
       </c>
       <c r="C26" s="28">
         <f ca="1">INDEX(Tipps!$AV17:$AY17,Tipps!BF$13)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" s="28">
         <f ca="1">INDEX(Tipps!$AV17:$AY17,Tipps!BG$13)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E26" s="28">
         <f ca="1">INDEX(Tipps!$AV17:$AY17,Tipps!BH$13)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="29">
@@ -15814,61 +15898,61 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <f>Tipps!AQ18</f>
         <v>16</v>
       </c>
-      <c r="B27" s="28" t="e">
+      <c r="B27" s="28">
         <f ca="1">INDEX(Tipps!$AV18:$AY18,Tipps!BE$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C27" s="28" t="e">
+        <v>7</v>
+      </c>
+      <c r="C27" s="28">
         <f ca="1">INDEX(Tipps!$AV18:$AY18,Tipps!BF$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D27" s="28" t="e">
+        <v>6</v>
+      </c>
+      <c r="D27" s="28">
         <f ca="1">INDEX(Tipps!$AV18:$AY18,Tipps!BG$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E27" s="28" t="e">
+        <v>6</v>
+      </c>
+      <c r="E27" s="28">
         <f ca="1">INDEX(Tipps!$AV18:$AY18,Tipps!BH$13)</f>
-        <v>#N/A</v>
+        <v>6</v>
       </c>
       <c r="F27" s="18"/>
-      <c r="G27" s="29" t="e">
+      <c r="G27" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <f>Tipps!AQ19</f>
         <v>17</v>
       </c>
-      <c r="B28" s="28" t="e">
+      <c r="B28" s="28">
         <f ca="1">INDEX(Tipps!$AV19:$AY19,Tipps!BE$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C28" s="28" t="e">
+        <v>9</v>
+      </c>
+      <c r="C28" s="28">
         <f ca="1">INDEX(Tipps!$AV19:$AY19,Tipps!BF$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D28" s="28" t="e">
+        <v>10</v>
+      </c>
+      <c r="D28" s="28">
         <f ca="1">INDEX(Tipps!$AV19:$AY19,Tipps!BG$13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E28" s="28" t="e">
+        <v>10</v>
+      </c>
+      <c r="E28" s="28">
         <f ca="1">INDEX(Tipps!$AV19:$AY19,Tipps!BH$13)</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
       <c r="F28" s="18"/>
-      <c r="G28" s="29" t="e">
+      <c r="G28" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <f>Tipps!AQ20</f>
         <v>18</v>
@@ -15895,10 +15979,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="22" t="s">
         <v>207</v>
       </c>
@@ -15908,11 +15992,11 @@
       </c>
       <c r="C31" s="18">
         <f ca="1">_xlfn.AGGREGATE(5,2,C12:C29)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" s="18">
         <f ca="1">_xlfn.AGGREGATE(5,2,D12:D29)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" s="18">
         <f ca="1">_xlfn.AGGREGATE(5,2,E12:E29)</f>
@@ -15923,7 +16007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="22" t="s">
         <v>208</v>
       </c>
@@ -15933,69 +16017,69 @@
       </c>
       <c r="C32" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,C12:C29)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,D12:D29)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E32" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,E12:E29)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G32" s="18">
         <f ca="1">_xlfn.AGGREGATE(4,2,G12:G29)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="22" t="s">
         <v>205</v>
       </c>
       <c r="B33" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,B12:B29)</f>
-        <v>7.7333333333333334</v>
+        <v>7.7647058823529411</v>
       </c>
       <c r="C33" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,C12:C29)</f>
-        <v>7.1333333333333337</v>
+        <v>6.7647058823529411</v>
       </c>
       <c r="D33" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,D12:D29)</f>
-        <v>6.6</v>
+        <v>7.2352941176470589</v>
       </c>
       <c r="E33" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,E12:E29)</f>
-        <v>6.6</v>
+        <v>6.7058823529411766</v>
       </c>
       <c r="G33" s="31">
         <f ca="1">_xlfn.AGGREGATE(1,2,G12:G29)</f>
-        <v>28.066666666666666</v>
+        <v>28.470588235294116</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="22" t="s">
         <v>206</v>
       </c>
       <c r="B34" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,B12:B29)</f>
-        <v>3.8204130085051742</v>
+        <v>3.6060310879986126</v>
       </c>
       <c r="C34" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,C12:C29)</f>
-        <v>3.0955164709983731</v>
+        <v>2.7122686784467067</v>
       </c>
       <c r="D34" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,D12:D29)</f>
-        <v>2.9619813188697415</v>
+        <v>3.0005766458486702</v>
       </c>
       <c r="E34" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,E12:E29)</f>
-        <v>2.7519689920733725</v>
+        <v>2.8442864479380194</v>
       </c>
       <c r="G34" s="31">
         <f ca="1">_xlfn.AGGREGATE(8,2,G12:G29)</f>
-        <v>9.9964438121208339</v>
+        <v>9.7142566368673009</v>
       </c>
     </row>
   </sheetData>
@@ -16101,19 +16185,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.03125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.59765625" style="1" customWidth="1"/>
     <col min="2" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="1"/>
+    <col min="6" max="16384" width="11.03125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
       <c r="B1" s="19" t="s">
         <v>107</v>
@@ -16128,7 +16212,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>111</v>
@@ -16143,7 +16227,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>115</v>
       </c>
@@ -16160,7 +16244,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>120</v>
       </c>
@@ -16177,7 +16261,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>125</v>
       </c>
@@ -16194,7 +16278,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>130</v>
       </c>
@@ -16211,7 +16295,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>134</v>
       </c>
@@ -16228,7 +16312,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>138</v>
       </c>
@@ -16245,7 +16329,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>143</v>
       </c>
@@ -16262,7 +16346,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>146</v>
       </c>
@@ -16279,7 +16363,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>150</v>
       </c>
@@ -16296,7 +16380,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>153</v>
       </c>
@@ -16309,7 +16393,7 @@
       </c>
       <c r="E12" s="18"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>155</v>
       </c>
@@ -16324,7 +16408,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>157</v>
       </c>
@@ -16341,7 +16425,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>160</v>
       </c>
@@ -16356,7 +16440,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>163</v>
       </c>
@@ -16373,7 +16457,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>166</v>
       </c>
@@ -16390,7 +16474,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>169</v>
       </c>
@@ -16407,7 +16491,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>171</v>
       </c>
@@ -16424,7 +16508,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>175</v>
       </c>
